--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -184,7 +184,7 @@
     <t>Ariel Hukporti</t>
   </si>
   <si>
-    <t>Armel Traore</t>
+    <t>Armel Traoré</t>
   </si>
   <si>
     <t>Ausar Thompson</t>
@@ -1207,7 +1207,7 @@
     <t>Mouhamed Gueye</t>
   </si>
   <si>
-    <t>Moussa Diabate</t>
+    <t>Moussa Diabaté</t>
   </si>
   <si>
     <t>Myles Turner</t>
@@ -1291,7 +1291,7 @@
     <t>PJ Hall</t>
   </si>
   <si>
-    <t>Pacome Dadiet</t>
+    <t>Pacôme Dadiet</t>
   </si>
   <si>
     <t>Paolo Banchero</t>
@@ -1480,7 +1480,7 @@
     <t>Taylor Hendricks</t>
   </si>
   <si>
-    <t>Taze Moore</t>
+    <t>Tazé Moore</t>
   </si>
   <si>
     <t>Terance Mann</t>

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -184,7 +184,7 @@
     <t>Ariel Hukporti</t>
   </si>
   <si>
-    <t>Armel Traoré</t>
+    <t>Armel Traore</t>
   </si>
   <si>
     <t>Ausar Thompson</t>
@@ -1207,7 +1207,7 @@
     <t>Mouhamed Gueye</t>
   </si>
   <si>
-    <t>Moussa Diabaté</t>
+    <t>Moussa Diabate</t>
   </si>
   <si>
     <t>Myles Turner</t>
@@ -1291,7 +1291,7 @@
     <t>PJ Hall</t>
   </si>
   <si>
-    <t>Pacôme Dadiet</t>
+    <t>Pacome Dadiet</t>
   </si>
   <si>
     <t>Paolo Banchero</t>
@@ -1480,7 +1480,7 @@
     <t>Taylor Hendricks</t>
   </si>
   <si>
-    <t>Tazé Moore</t>
+    <t>Taze Moore</t>
   </si>
   <si>
     <t>Terance Mann</t>
@@ -3365,34 +3365,34 @@
         <v>851</v>
       </c>
       <c r="O3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q3">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="T3">
         <v>0.01</v>
       </c>
       <c r="U3">
-        <v>0.083</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V3">
-        <v>0.134</v>
+        <v>0.132</v>
       </c>
       <c r="W3">
-        <v>0.664</v>
+        <v>0.662</v>
       </c>
       <c r="X3">
-        <v>0.083</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -3513,31 +3513,31 @@
         <v>877</v>
       </c>
       <c r="O5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P5">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="Q5">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="R5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T5">
         <v>0.067</v>
       </c>
       <c r="U5">
-        <v>0.127</v>
+        <v>0.13</v>
       </c>
       <c r="V5">
         <v>0.171</v>
       </c>
       <c r="W5">
-        <v>0.635</v>
+        <v>0.645</v>
       </c>
       <c r="X5">
         <v>0.135</v>
@@ -3735,34 +3735,34 @@
         <v>879</v>
       </c>
       <c r="O8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P8">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="Q8">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="R8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="U8">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="V8">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
       <c r="W8">
-        <v>0.595</v>
+        <v>0.604</v>
       </c>
       <c r="X8">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -3957,7 +3957,7 @@
         <v>880</v>
       </c>
       <c r="O11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11">
         <v>38</v>
@@ -3969,22 +3969,22 @@
         <v>5</v>
       </c>
       <c r="S11">
-        <v>-6.3</v>
+        <v>-4.7</v>
       </c>
       <c r="T11">
-        <v>0.079</v>
+        <v>0.073</v>
       </c>
       <c r="U11">
-        <v>0.175</v>
+        <v>0.159</v>
       </c>
       <c r="V11">
-        <v>0.101</v>
+        <v>0.095</v>
       </c>
       <c r="W11">
         <v>0.67</v>
       </c>
       <c r="X11">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -4105,34 +4105,34 @@
         <v>882</v>
       </c>
       <c r="O13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P13">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="Q13">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="R13">
         <v>65</v>
       </c>
       <c r="S13">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="T13">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="U13">
-        <v>0.153</v>
+        <v>0.155</v>
       </c>
       <c r="V13">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="W13">
-        <v>0.5610000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="X13">
-        <v>0.102</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -4327,19 +4327,19 @@
         <v>851</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>-21.3</v>
+        <v>-3.1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -4348,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0.167</v>
+        <v>0.114</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -4549,34 +4549,34 @@
         <v>874</v>
       </c>
       <c r="O19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P19">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="Q19">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="R19">
         <v>72</v>
       </c>
       <c r="S19">
-        <v>-15.3</v>
+        <v>-15.9</v>
       </c>
       <c r="T19">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="U19">
         <v>0.161</v>
       </c>
       <c r="V19">
-        <v>0.205</v>
+        <v>0.202</v>
       </c>
       <c r="W19">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="X19">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -4993,31 +4993,31 @@
         <v>887</v>
       </c>
       <c r="O25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P25">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q25">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R25">
         <v>52</v>
       </c>
       <c r="S25">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>0.061</v>
+        <v>0.064</v>
       </c>
       <c r="U25">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="V25">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="W25">
-        <v>0.501</v>
+        <v>0.517</v>
       </c>
       <c r="X25">
         <v>0.107</v>
@@ -5067,34 +5067,34 @@
         <v>888</v>
       </c>
       <c r="O26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P26">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="Q26">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R26">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S26">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="T26">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="U26">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="V26">
-        <v>0.174</v>
+        <v>0.177</v>
       </c>
       <c r="W26">
-        <v>0.553</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X26">
-        <v>0.234</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -5289,34 +5289,34 @@
         <v>890</v>
       </c>
       <c r="O29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P29">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q29">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="R29">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="S29">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="T29">
         <v>0.023</v>
       </c>
       <c r="U29">
-        <v>0.08799999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="V29">
-        <v>0.188</v>
+        <v>0.19</v>
       </c>
       <c r="W29">
-        <v>0.51</v>
+        <v>0.504</v>
       </c>
       <c r="X29">
-        <v>0.235</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -5511,10 +5511,10 @@
         <v>851</v>
       </c>
       <c r="O32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P32">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q32">
         <v>27</v>
@@ -5523,22 +5523,22 @@
         <v>7</v>
       </c>
       <c r="S32">
-        <v>-6.5</v>
+        <v>-6.8</v>
       </c>
       <c r="T32">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="U32">
-        <v>0.119</v>
+        <v>0.116</v>
       </c>
       <c r="V32">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="W32">
-        <v>0.577</v>
+        <v>0.585</v>
       </c>
       <c r="X32">
-        <v>0.055</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -5659,34 +5659,34 @@
         <v>892</v>
       </c>
       <c r="O34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P34">
         <v>24</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R34">
         <v>6</v>
       </c>
       <c r="S34">
-        <v>-19.3</v>
+        <v>-16.9</v>
       </c>
       <c r="T34">
-        <v>0.039</v>
+        <v>0.047</v>
       </c>
       <c r="U34">
-        <v>0.16</v>
+        <v>0.172</v>
       </c>
       <c r="V34">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="W34">
         <v>0.615</v>
       </c>
       <c r="X34">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -6177,22 +6177,22 @@
         <v>894</v>
       </c>
       <c r="O41">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P41">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q41">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R41">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="S41">
-        <v>-7.1</v>
+        <v>-5.9</v>
       </c>
       <c r="T41">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="U41">
         <v>0.094</v>
@@ -6201,10 +6201,10 @@
         <v>0.11</v>
       </c>
       <c r="W41">
-        <v>0.549</v>
+        <v>0.552</v>
       </c>
       <c r="X41">
-        <v>0.061</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -6251,34 +6251,34 @@
         <v>873</v>
       </c>
       <c r="O42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P42">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Q42">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R42">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="S42">
-        <v>-5.6</v>
+        <v>-4.5</v>
       </c>
       <c r="T42">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="U42">
-        <v>0.193</v>
+        <v>0.19</v>
       </c>
       <c r="V42">
-        <v>0.143</v>
+        <v>0.145</v>
       </c>
       <c r="W42">
-        <v>0.569</v>
+        <v>0.574</v>
       </c>
       <c r="X42">
-        <v>0.404</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -6325,34 +6325,34 @@
         <v>890</v>
       </c>
       <c r="O43">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P43">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="Q43">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="R43">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S43">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T43">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="U43">
-        <v>0.143</v>
+        <v>0.141</v>
       </c>
       <c r="V43">
         <v>0.214</v>
       </c>
       <c r="W43">
-        <v>0.577</v>
+        <v>0.571</v>
       </c>
       <c r="X43">
-        <v>0.08400000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -6399,19 +6399,19 @@
         <v>895</v>
       </c>
       <c r="O44">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P44">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Q44">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="R44">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S44">
-        <v>-15.9</v>
+        <v>-16.3</v>
       </c>
       <c r="T44">
         <v>0.039</v>
@@ -6420,13 +6420,13 @@
         <v>0.109</v>
       </c>
       <c r="V44">
-        <v>0.172</v>
+        <v>0.174</v>
       </c>
       <c r="W44">
-        <v>0.519</v>
+        <v>0.513</v>
       </c>
       <c r="X44">
-        <v>0.154</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -6547,34 +6547,34 @@
         <v>897</v>
       </c>
       <c r="O46">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P46">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q46">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="R46">
         <v>74</v>
       </c>
       <c r="S46">
-        <v>-0.5</v>
+        <v>-1.4</v>
       </c>
       <c r="T46">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
       <c r="U46">
+        <v>0.233</v>
+      </c>
+      <c r="V46">
         <v>0.234</v>
-      </c>
-      <c r="V46">
-        <v>0.236</v>
       </c>
       <c r="W46">
         <v>0.542</v>
       </c>
       <c r="X46">
-        <v>0.131</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -6917,34 +6917,34 @@
         <v>882</v>
       </c>
       <c r="O51">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P51">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="Q51">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R51">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="S51">
-        <v>-8.699999999999999</v>
+        <v>-7.5</v>
       </c>
       <c r="T51">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U51">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V51">
-        <v>0.229</v>
+        <v>0.227</v>
       </c>
       <c r="W51">
-        <v>0.583</v>
+        <v>0.582</v>
       </c>
       <c r="X51">
-        <v>0.156</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -6991,34 +6991,34 @@
         <v>851</v>
       </c>
       <c r="O52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P52">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R52">
         <v>3</v>
       </c>
       <c r="S52">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="T52">
-        <v>0.094</v>
+        <v>0.105</v>
       </c>
       <c r="U52">
-        <v>0.231</v>
+        <v>0.222</v>
       </c>
       <c r="V52">
-        <v>0.157</v>
+        <v>0.167</v>
       </c>
       <c r="W52">
-        <v>0.354</v>
+        <v>0.432</v>
       </c>
       <c r="X52">
-        <v>0.136</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -7139,19 +7139,19 @@
         <v>902</v>
       </c>
       <c r="O54">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P54">
         <v>399</v>
       </c>
       <c r="Q54">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R54">
         <v>89</v>
       </c>
       <c r="S54">
-        <v>-4.5</v>
+        <v>-4.9</v>
       </c>
       <c r="T54">
         <v>0.028</v>
@@ -7160,13 +7160,13 @@
         <v>0.106</v>
       </c>
       <c r="V54">
-        <v>0.196</v>
+        <v>0.195</v>
       </c>
       <c r="W54">
         <v>0.536</v>
       </c>
       <c r="X54">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -7361,34 +7361,34 @@
         <v>874</v>
       </c>
       <c r="O57">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P57">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="Q57">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="R57">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="S57">
-        <v>-8.1</v>
+        <v>-7.7</v>
       </c>
       <c r="T57">
         <v>0.023</v>
       </c>
       <c r="U57">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="V57">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
       <c r="W57">
         <v>0.542</v>
       </c>
       <c r="X57">
-        <v>0.182</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -7509,34 +7509,34 @@
         <v>904</v>
       </c>
       <c r="O59">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P59">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="Q59">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R59">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S59">
-        <v>-14.2</v>
+        <v>-13.2</v>
       </c>
       <c r="T59">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="U59">
-        <v>0.118</v>
+        <v>0.112</v>
       </c>
       <c r="V59">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="W59">
-        <v>0.633</v>
+        <v>0.628</v>
       </c>
       <c r="X59">
-        <v>0.119</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -7657,34 +7657,34 @@
         <v>905</v>
       </c>
       <c r="O61">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P61">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q61">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R61">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S61">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="T61">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U61">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="V61">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="W61">
-        <v>0.604</v>
+        <v>0.599</v>
       </c>
       <c r="X61">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -8027,31 +8027,31 @@
         <v>905</v>
       </c>
       <c r="O66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P66">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="Q66">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R66">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="S66">
-        <v>-9.199999999999999</v>
+        <v>-8.4</v>
       </c>
       <c r="T66">
         <v>0.021</v>
       </c>
       <c r="U66">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V66">
-        <v>0.272</v>
+        <v>0.268</v>
       </c>
       <c r="W66">
-        <v>0.5610000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="X66">
         <v>0.184</v>
@@ -8175,13 +8175,13 @@
         <v>909</v>
       </c>
       <c r="O68">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P68">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q68">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R68">
         <v>10</v>
@@ -8190,19 +8190,19 @@
         <v>-2.6</v>
       </c>
       <c r="T68">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="U68">
         <v>0.05</v>
       </c>
       <c r="V68">
-        <v>0.113</v>
+        <v>0.115</v>
       </c>
       <c r="W68">
-        <v>0.514</v>
+        <v>0.499</v>
       </c>
       <c r="X68">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -8767,31 +8767,31 @@
         <v>878</v>
       </c>
       <c r="O76">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P76">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="Q76">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R76">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S76">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="T76">
         <v>0.019</v>
       </c>
       <c r="U76">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="V76">
-        <v>0.182</v>
+        <v>0.186</v>
       </c>
       <c r="W76">
-        <v>0.5570000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X76">
         <v>0.221</v>
@@ -8841,34 +8841,34 @@
         <v>912</v>
       </c>
       <c r="O77">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P77">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q77">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="R77">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S77">
-        <v>16.9</v>
+        <v>15.2</v>
       </c>
       <c r="T77">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="U77">
-        <v>0.08699999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="V77">
-        <v>0.183</v>
+        <v>0.181</v>
       </c>
       <c r="W77">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="X77">
-        <v>0.198</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -8915,34 +8915,34 @@
         <v>878</v>
       </c>
       <c r="O78">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P78">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q78">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="R78">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="S78">
-        <v>-17.2</v>
+        <v>-18.4</v>
       </c>
       <c r="T78">
         <v>0.01</v>
       </c>
       <c r="U78">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
       <c r="V78">
         <v>0.139</v>
       </c>
       <c r="W78">
-        <v>0.524</v>
+        <v>0.515</v>
       </c>
       <c r="X78">
-        <v>0.189</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -8989,34 +8989,34 @@
         <v>905</v>
       </c>
       <c r="O79">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P79">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="Q79">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R79">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="S79">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="T79">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U79">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
       <c r="V79">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="W79">
-        <v>0.513</v>
+        <v>0.525</v>
       </c>
       <c r="X79">
-        <v>0.107</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -9507,34 +9507,34 @@
         <v>903</v>
       </c>
       <c r="O86">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P86">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="Q86">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="R86">
         <v>76</v>
       </c>
       <c r="S86">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="T86">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="U86">
         <v>0.1</v>
       </c>
       <c r="V86">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
       <c r="W86">
-        <v>0.644</v>
+        <v>0.639</v>
       </c>
       <c r="X86">
-        <v>0.08</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -9803,34 +9803,34 @@
         <v>887</v>
       </c>
       <c r="O90">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P90">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q90">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R90">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S90">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="T90">
         <v>0.037</v>
       </c>
       <c r="U90">
+        <v>0.131</v>
+      </c>
+      <c r="V90">
+        <v>0.139</v>
+      </c>
+      <c r="W90">
+        <v>0.533</v>
+      </c>
+      <c r="X90">
         <v>0.132</v>
-      </c>
-      <c r="V90">
-        <v>0.141</v>
-      </c>
-      <c r="W90">
-        <v>0.531</v>
-      </c>
-      <c r="X90">
-        <v>0.134</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -9877,34 +9877,34 @@
         <v>905</v>
       </c>
       <c r="O91">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P91">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q91">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R91">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S91">
-        <v>-17.2</v>
+        <v>-17.7</v>
       </c>
       <c r="T91">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="U91">
-        <v>0.077</v>
+        <v>0.074</v>
       </c>
       <c r="V91">
-        <v>0.114</v>
+        <v>0.117</v>
       </c>
       <c r="W91">
-        <v>0.423</v>
+        <v>0.408</v>
       </c>
       <c r="X91">
-        <v>0.08699999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -10025,34 +10025,34 @@
         <v>916</v>
       </c>
       <c r="O93">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P93">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Q93">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R93">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="S93">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>0.031</v>
       </c>
       <c r="U93">
-        <v>0.144</v>
+        <v>0.141</v>
       </c>
       <c r="V93">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="W93">
-        <v>0.483</v>
+        <v>0.497</v>
       </c>
       <c r="X93">
-        <v>0.281</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -10321,34 +10321,34 @@
         <v>917</v>
       </c>
       <c r="O97">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P97">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="Q97">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R97">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S97">
-        <v>-2.4</v>
+        <v>-2.8</v>
       </c>
       <c r="T97">
         <v>0.032</v>
       </c>
       <c r="U97">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="V97">
-        <v>0.252</v>
+        <v>0.253</v>
       </c>
       <c r="W97">
-        <v>0.599</v>
+        <v>0.595</v>
       </c>
       <c r="X97">
-        <v>0.219</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -10395,10 +10395,10 @@
         <v>916</v>
       </c>
       <c r="O98">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P98">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="Q98">
         <v>96</v>
@@ -10407,22 +10407,22 @@
         <v>53</v>
       </c>
       <c r="S98">
-        <v>-11</v>
+        <v>-11.8</v>
       </c>
       <c r="T98">
         <v>0.017</v>
       </c>
       <c r="U98">
-        <v>0.089</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="V98">
         <v>0.168</v>
       </c>
       <c r="W98">
-        <v>0.571</v>
+        <v>0.58</v>
       </c>
       <c r="X98">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -10469,34 +10469,34 @@
         <v>918</v>
       </c>
       <c r="O99">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P99">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q99">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R99">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S99">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T99">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="U99">
-        <v>0.091</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V99">
-        <v>0.144</v>
+        <v>0.143</v>
       </c>
       <c r="W99">
-        <v>0.501</v>
+        <v>0.482</v>
       </c>
       <c r="X99">
-        <v>0.206</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -10543,10 +10543,10 @@
         <v>851</v>
       </c>
       <c r="O100">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P100">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q100">
         <v>17</v>
@@ -10555,7 +10555,7 @@
         <v>24</v>
       </c>
       <c r="S100">
-        <v>-3</v>
+        <v>-2.4</v>
       </c>
       <c r="T100">
         <v>0.013</v>
@@ -10564,13 +10564,13 @@
         <v>0.076</v>
       </c>
       <c r="V100">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="W100">
-        <v>0.624</v>
+        <v>0.633</v>
       </c>
       <c r="X100">
-        <v>0.183</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -11061,34 +11061,34 @@
         <v>919</v>
       </c>
       <c r="O107">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P107">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q107">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R107">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S107">
-        <v>-12.8</v>
+        <v>-11.9</v>
       </c>
       <c r="T107">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="U107">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="V107">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="W107">
-        <v>0.5590000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="X107">
-        <v>0.114</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11209,19 +11209,19 @@
         <v>890</v>
       </c>
       <c r="O109">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P109">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="Q109">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R109">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="S109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T109">
         <v>0.017</v>
@@ -11233,10 +11233,10 @@
         <v>0.274</v>
       </c>
       <c r="W109">
-        <v>0.614</v>
+        <v>0.612</v>
       </c>
       <c r="X109">
-        <v>0.318</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -11357,31 +11357,31 @@
         <v>881</v>
       </c>
       <c r="O111">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P111">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q111">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R111">
         <v>42</v>
       </c>
       <c r="S111">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="T111">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="U111">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="V111">
-        <v>0.185</v>
+        <v>0.186</v>
       </c>
       <c r="W111">
-        <v>0.718</v>
+        <v>0.708</v>
       </c>
       <c r="X111">
         <v>0.08799999999999999</v>
@@ -11431,34 +11431,34 @@
         <v>851</v>
       </c>
       <c r="O112">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P112">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q112">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="R112">
         <v>40</v>
       </c>
       <c r="S112">
-        <v>-6.5</v>
+        <v>-7.2</v>
       </c>
       <c r="T112">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="U112">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="V112">
-        <v>0.117</v>
+        <v>0.115</v>
       </c>
       <c r="W112">
-        <v>0.572</v>
+        <v>0.58</v>
       </c>
       <c r="X112">
-        <v>0.127</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -11727,34 +11727,34 @@
         <v>884</v>
       </c>
       <c r="O116">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P116">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="Q116">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R116">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="S116">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="T116">
         <v>0.015</v>
       </c>
       <c r="U116">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
       <c r="V116">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="W116">
-        <v>0.636</v>
+        <v>0.634</v>
       </c>
       <c r="X116">
-        <v>0.298</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -12023,34 +12023,34 @@
         <v>918</v>
       </c>
       <c r="O120">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P120">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Q120">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R120">
         <v>25</v>
       </c>
       <c r="S120">
-        <v>0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="T120">
-        <v>0.144</v>
+        <v>0.141</v>
       </c>
       <c r="U120">
         <v>0.208</v>
       </c>
       <c r="V120">
-        <v>0.193</v>
+        <v>0.196</v>
       </c>
       <c r="W120">
-        <v>0.511</v>
+        <v>0.525</v>
       </c>
       <c r="X120">
-        <v>0.138</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -12097,34 +12097,34 @@
         <v>884</v>
       </c>
       <c r="O121">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P121">
-        <v>933</v>
+        <v>959</v>
       </c>
       <c r="Q121">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="R121">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S121">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="T121">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="U121">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="V121">
-        <v>0.294</v>
+        <v>0.293</v>
       </c>
       <c r="W121">
-        <v>0.58</v>
+        <v>0.583</v>
       </c>
       <c r="X121">
-        <v>0.264</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -12319,34 +12319,34 @@
         <v>921</v>
       </c>
       <c r="O124">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P124">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q124">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="R124">
         <v>22</v>
       </c>
       <c r="S124">
-        <v>-7.9</v>
+        <v>-5.5</v>
       </c>
       <c r="T124">
-        <v>0.097</v>
+        <v>0.101</v>
       </c>
       <c r="U124">
-        <v>0.262</v>
+        <v>0.264</v>
       </c>
       <c r="V124">
         <v>0.127</v>
       </c>
       <c r="W124">
-        <v>0.588</v>
+        <v>0.602</v>
       </c>
       <c r="X124">
-        <v>0.113</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -12393,34 +12393,34 @@
         <v>886</v>
       </c>
       <c r="O125">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P125">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="Q125">
         <v>124</v>
       </c>
       <c r="R125">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S125">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T125">
         <v>0.015</v>
       </c>
       <c r="U125">
-        <v>0.091</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V125">
         <v>0.237</v>
       </c>
       <c r="W125">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X125">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -12467,31 +12467,31 @@
         <v>851</v>
       </c>
       <c r="O126">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P126">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q126">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="R126">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S126">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="T126">
         <v>0.04</v>
       </c>
       <c r="U126">
-        <v>0.172</v>
+        <v>0.177</v>
       </c>
       <c r="V126">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="W126">
-        <v>0.584</v>
+        <v>0.575</v>
       </c>
       <c r="X126">
         <v>0.077</v>
@@ -12615,31 +12615,31 @@
         <v>918</v>
       </c>
       <c r="O128">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P128">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="Q128">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="R128">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="S128">
-        <v>-14.2</v>
+        <v>-13.2</v>
       </c>
       <c r="T128">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="U128">
-        <v>0.188</v>
+        <v>0.186</v>
       </c>
       <c r="V128">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
       <c r="W128">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="X128">
         <v>0.36</v>
@@ -12689,34 +12689,34 @@
         <v>912</v>
       </c>
       <c r="O129">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P129">
         <v>64</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R129">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="T129">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="U129">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="V129">
-        <v>0.106</v>
+        <v>0.109</v>
       </c>
       <c r="W129">
-        <v>0.409</v>
+        <v>0.389</v>
       </c>
       <c r="X129">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -12911,34 +12911,34 @@
         <v>883</v>
       </c>
       <c r="O132">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P132">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="Q132">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="R132">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="S132">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="T132">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="U132">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
       <c r="V132">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="W132">
-        <v>0.701</v>
+        <v>0.705</v>
       </c>
       <c r="X132">
-        <v>0.144</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -13059,34 +13059,34 @@
         <v>918</v>
       </c>
       <c r="O134">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P134">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Q134">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="R134">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S134">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="T134">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="U134">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="V134">
-        <v>0.195</v>
+        <v>0.193</v>
       </c>
       <c r="W134">
-        <v>0.604</v>
+        <v>0.6</v>
       </c>
       <c r="X134">
-        <v>0.183</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -13207,34 +13207,34 @@
         <v>914</v>
       </c>
       <c r="O136">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P136">
-        <v>791</v>
+        <v>821</v>
       </c>
       <c r="Q136">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R136">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="S136">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="T136">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="U136">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
       <c r="V136">
         <v>0.279</v>
       </c>
       <c r="W136">
-        <v>0.576</v>
+        <v>0.579</v>
       </c>
       <c r="X136">
-        <v>0.295</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -13281,34 +13281,34 @@
         <v>914</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P137">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q137">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S137">
-        <v>3.9</v>
+        <v>8.5</v>
       </c>
       <c r="T137">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="U137">
-        <v>0.27</v>
+        <v>0.241</v>
       </c>
       <c r="V137">
-        <v>0.209</v>
+        <v>0.187</v>
       </c>
       <c r="W137">
-        <v>0.506</v>
+        <v>0.508</v>
       </c>
       <c r="X137">
-        <v>0.2</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -13577,34 +13577,34 @@
         <v>913</v>
       </c>
       <c r="O141">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P141">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="Q141">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="R141">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="S141">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="T141">
         <v>0.107</v>
       </c>
       <c r="U141">
-        <v>0.283</v>
+        <v>0.285</v>
       </c>
       <c r="V141">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="W141">
-        <v>0.664</v>
+        <v>0.669</v>
       </c>
       <c r="X141">
-        <v>0.254</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -13799,34 +13799,34 @@
         <v>914</v>
       </c>
       <c r="O144">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P144">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="Q144">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R144">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S144">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="T144">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="U144">
-        <v>0.118</v>
+        <v>0.115</v>
       </c>
       <c r="V144">
         <v>0.288</v>
       </c>
       <c r="W144">
-        <v>0.585</v>
+        <v>0.584</v>
       </c>
       <c r="X144">
-        <v>0.223</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -14169,34 +14169,34 @@
         <v>851</v>
       </c>
       <c r="O149">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P149">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q149">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="R149">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S149">
-        <v>-5.6</v>
+        <v>-5.1</v>
       </c>
       <c r="T149">
-        <v>0.076</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="U149">
-        <v>0.206</v>
+        <v>0.208</v>
       </c>
       <c r="V149">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="W149">
-        <v>0.628</v>
+        <v>0.631</v>
       </c>
       <c r="X149">
-        <v>0.124</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -14835,34 +14835,34 @@
         <v>851</v>
       </c>
       <c r="O158">
+        <v>2</v>
+      </c>
+      <c r="P158">
+        <v>3</v>
+      </c>
+      <c r="Q158">
+        <v>7</v>
+      </c>
+      <c r="R158">
         <v>1</v>
       </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-      <c r="Q158">
-        <v>4</v>
-      </c>
-      <c r="R158">
-        <v>0</v>
-      </c>
       <c r="S158">
-        <v>-15.8</v>
+        <v>23.7</v>
       </c>
       <c r="T158">
-        <v>0.091</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="U158">
-        <v>0.375</v>
+        <v>0.208</v>
       </c>
       <c r="V158">
-        <v>0.042</v>
+        <v>0.127</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>0.218</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -14983,34 +14983,34 @@
         <v>895</v>
       </c>
       <c r="O160">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P160">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q160">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R160">
         <v>29</v>
       </c>
       <c r="S160">
-        <v>-8.4</v>
+        <v>-8.5</v>
       </c>
       <c r="T160">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="U160">
-        <v>0.051</v>
+        <v>0.056</v>
       </c>
       <c r="V160">
         <v>0.144</v>
       </c>
       <c r="W160">
-        <v>0.53</v>
+        <v>0.554</v>
       </c>
       <c r="X160">
-        <v>0.104</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -15057,34 +15057,34 @@
         <v>882</v>
       </c>
       <c r="O161">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P161">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="Q161">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="R161">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S161">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="T161">
-        <v>0.07199999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U161">
-        <v>0.205</v>
+        <v>0.209</v>
       </c>
       <c r="V161">
-        <v>0.231</v>
+        <v>0.229</v>
       </c>
       <c r="W161">
-        <v>0.653</v>
+        <v>0.654</v>
       </c>
       <c r="X161">
-        <v>0.142</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -15723,10 +15723,10 @@
         <v>923</v>
       </c>
       <c r="O170">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P170">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q170">
         <v>137</v>
@@ -15735,22 +15735,22 @@
         <v>58</v>
       </c>
       <c r="S170">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="T170">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="U170">
-        <v>0.14</v>
+        <v>0.136</v>
       </c>
       <c r="V170">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="W170">
         <v>0.603</v>
       </c>
       <c r="X170">
-        <v>0.101</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -15797,22 +15797,22 @@
         <v>916</v>
       </c>
       <c r="O171">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P171">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="Q171">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="R171">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S171">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="T171">
-        <v>0.061</v>
+        <v>0.065</v>
       </c>
       <c r="U171">
         <v>0.263</v>
@@ -15821,10 +15821,10 @@
         <v>0.359</v>
       </c>
       <c r="W171">
-        <v>0.617</v>
+        <v>0.612</v>
       </c>
       <c r="X171">
-        <v>0.338</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -15871,25 +15871,25 @@
         <v>919</v>
       </c>
       <c r="O172">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P172">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q172">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R172">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S172">
         <v>4.4</v>
       </c>
       <c r="T172">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="U172">
-        <v>0.246</v>
+        <v>0.245</v>
       </c>
       <c r="V172">
         <v>0.159</v>
@@ -15898,7 +15898,7 @@
         <v>0.641</v>
       </c>
       <c r="X172">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -16093,19 +16093,19 @@
         <v>903</v>
       </c>
       <c r="O175">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P175">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="Q175">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R175">
         <v>53</v>
       </c>
       <c r="S175">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="T175">
         <v>0.026</v>
@@ -16114,13 +16114,13 @@
         <v>0.102</v>
       </c>
       <c r="V175">
-        <v>0.174</v>
+        <v>0.175</v>
       </c>
       <c r="W175">
-        <v>0.618</v>
+        <v>0.625</v>
       </c>
       <c r="X175">
-        <v>0.111</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="176" spans="1:24">
@@ -16167,34 +16167,34 @@
         <v>885</v>
       </c>
       <c r="O176">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P176">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q176">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="R176">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S176">
-        <v>-0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="T176">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="U176">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="V176">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="W176">
-        <v>0.627</v>
+        <v>0.626</v>
       </c>
       <c r="X176">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -16827,34 +16827,34 @@
         <v>884</v>
       </c>
       <c r="O185">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P185">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q185">
         <v>54</v>
       </c>
       <c r="R185">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S185">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="T185">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="U185">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="V185">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="W185">
-        <v>0.613</v>
+        <v>0.596</v>
       </c>
       <c r="X185">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -16901,34 +16901,34 @@
         <v>918</v>
       </c>
       <c r="O186">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P186">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="Q186">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="R186">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S186">
-        <v>-7.2</v>
+        <v>-6.9</v>
       </c>
       <c r="T186">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="U186">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="V186">
-        <v>0.152</v>
+        <v>0.157</v>
       </c>
       <c r="W186">
-        <v>0.373</v>
+        <v>0.407</v>
       </c>
       <c r="X186">
-        <v>0.285</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -17049,34 +17049,34 @@
         <v>925</v>
       </c>
       <c r="O188">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P188">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q188">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="R188">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S188">
-        <v>13.7</v>
+        <v>14.7</v>
       </c>
       <c r="T188">
-        <v>0.089</v>
+        <v>0.095</v>
       </c>
       <c r="U188">
-        <v>0.277</v>
+        <v>0.275</v>
       </c>
       <c r="V188">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="W188">
-        <v>0.583</v>
+        <v>0.585</v>
       </c>
       <c r="X188">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -17197,34 +17197,34 @@
         <v>926</v>
       </c>
       <c r="O190">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P190">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q190">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R190">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S190">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="T190">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U190">
         <v>0.095</v>
       </c>
       <c r="V190">
-        <v>0.164</v>
+        <v>0.166</v>
       </c>
       <c r="W190">
-        <v>0.5649999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X190">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -18011,34 +18011,34 @@
         <v>851</v>
       </c>
       <c r="O201">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q201">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R201">
         <v>4</v>
       </c>
       <c r="S201">
-        <v>-36.5</v>
+        <v>-27.1</v>
       </c>
       <c r="T201">
-        <v>0.059</v>
+        <v>0.051</v>
       </c>
       <c r="U201">
-        <v>0.167</v>
+        <v>0.156</v>
       </c>
       <c r="V201">
-        <v>0.096</v>
+        <v>0.115</v>
       </c>
       <c r="W201">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="X201">
-        <v>0.25</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="202" spans="1:24">
@@ -18085,34 +18085,34 @@
         <v>898</v>
       </c>
       <c r="O202">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P202">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q202">
         <v>46</v>
       </c>
       <c r="R202">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S202">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="T202">
         <v>0.012</v>
       </c>
       <c r="U202">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
       <c r="V202">
-        <v>0.225</v>
+        <v>0.224</v>
       </c>
       <c r="W202">
-        <v>0.5570000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="X202">
-        <v>0.126</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -18825,34 +18825,34 @@
         <v>915</v>
       </c>
       <c r="O212">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P212">
-        <v>952</v>
+        <v>996</v>
       </c>
       <c r="Q212">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="R212">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="S212">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="T212">
         <v>0.014</v>
       </c>
       <c r="U212">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="V212">
-        <v>0.286</v>
+        <v>0.289</v>
       </c>
       <c r="W212">
-        <v>0.599</v>
+        <v>0.604</v>
       </c>
       <c r="X212">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -19269,31 +19269,31 @@
         <v>905</v>
       </c>
       <c r="O218">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P218">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q218">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="R218">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S218">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="T218">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="U218">
-        <v>0.235</v>
+        <v>0.234</v>
       </c>
       <c r="V218">
-        <v>0.192</v>
+        <v>0.194</v>
       </c>
       <c r="W218">
-        <v>0.604</v>
+        <v>0.6</v>
       </c>
       <c r="X218">
         <v>0.08699999999999999</v>
@@ -19417,34 +19417,34 @@
         <v>883</v>
       </c>
       <c r="O220">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P220">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="Q220">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R220">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S220">
-        <v>10.1</v>
+        <v>10.8</v>
       </c>
       <c r="T220">
         <v>0.025</v>
       </c>
       <c r="U220">
-        <v>0.139</v>
+        <v>0.141</v>
       </c>
       <c r="V220">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
       <c r="W220">
-        <v>0.5590000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="X220">
-        <v>0.247</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="221" spans="1:24">
@@ -19491,34 +19491,34 @@
         <v>902</v>
       </c>
       <c r="O221">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P221">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q221">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R221">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S221">
-        <v>-6.7</v>
+        <v>-7</v>
       </c>
       <c r="T221">
         <v>0.037</v>
       </c>
       <c r="U221">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="V221">
         <v>0.157</v>
       </c>
       <c r="W221">
-        <v>0.514</v>
+        <v>0.512</v>
       </c>
       <c r="X221">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -19639,34 +19639,34 @@
         <v>895</v>
       </c>
       <c r="O223">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P223">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="Q223">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R223">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="S223">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="T223">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U223">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="V223">
         <v>0.226</v>
       </c>
       <c r="W223">
-        <v>0.548</v>
+        <v>0.544</v>
       </c>
       <c r="X223">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -20083,31 +20083,31 @@
         <v>917</v>
       </c>
       <c r="O229">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P229">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q229">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="R229">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S229">
-        <v>-10.2</v>
+        <v>-8.4</v>
       </c>
       <c r="T229">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="U229">
-        <v>0.175</v>
+        <v>0.184</v>
       </c>
       <c r="V229">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="W229">
-        <v>0.581</v>
+        <v>0.586</v>
       </c>
       <c r="X229">
         <v>0.116</v>
@@ -20157,34 +20157,34 @@
         <v>908</v>
       </c>
       <c r="O230">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P230">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q230">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R230">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S230">
-        <v>-6.7</v>
+        <v>-7.1</v>
       </c>
       <c r="T230">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="U230">
-        <v>0.065</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V230">
-        <v>0.247</v>
+        <v>0.245</v>
       </c>
       <c r="W230">
-        <v>0.5580000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="X230">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -20453,34 +20453,34 @@
         <v>897</v>
       </c>
       <c r="O234">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P234">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="Q234">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="R234">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S234">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T234">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="U234">
-        <v>0.253</v>
+        <v>0.251</v>
       </c>
       <c r="V234">
         <v>0.155</v>
       </c>
       <c r="W234">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
       <c r="X234">
-        <v>0.08500000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -20527,34 +20527,34 @@
         <v>851</v>
       </c>
       <c r="O235">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P235">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q235">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="R235">
         <v>29</v>
       </c>
       <c r="S235">
-        <v>-16.6</v>
+        <v>-15.7</v>
       </c>
       <c r="T235">
         <v>0.043</v>
       </c>
       <c r="U235">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="V235">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="W235">
-        <v>0.57</v>
+        <v>0.579</v>
       </c>
       <c r="X235">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -20749,34 +20749,34 @@
         <v>882</v>
       </c>
       <c r="O238">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P238">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="Q238">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="R238">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="S238">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="T238">
         <v>0.038</v>
       </c>
       <c r="U238">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
       <c r="V238">
-        <v>0.291</v>
+        <v>0.288</v>
       </c>
       <c r="W238">
-        <v>0.555</v>
+        <v>0.554</v>
       </c>
       <c r="X238">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="239" spans="1:24">
@@ -21116,34 +21116,34 @@
         <v>907</v>
       </c>
       <c r="O243">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P243">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q243">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R243">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S243">
-        <v>7.5</v>
+        <v>12.6</v>
       </c>
       <c r="T243">
-        <v>0.063</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U243">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="V243">
-        <v>0.147</v>
+        <v>0.14</v>
       </c>
       <c r="W243">
-        <v>0.556</v>
+        <v>0.57</v>
       </c>
       <c r="X243">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="244" spans="1:24">
@@ -21190,7 +21190,7 @@
         <v>912</v>
       </c>
       <c r="O244">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P244">
         <v>42</v>
@@ -21199,25 +21199,25 @@
         <v>35</v>
       </c>
       <c r="R244">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S244">
-        <v>-8.800000000000001</v>
+        <v>-8</v>
       </c>
       <c r="T244">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="U244">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
       <c r="V244">
+        <v>0.139</v>
+      </c>
+      <c r="W244">
+        <v>0.472</v>
+      </c>
+      <c r="X244">
         <v>0.138</v>
-      </c>
-      <c r="W244">
-        <v>0.483</v>
-      </c>
-      <c r="X244">
-        <v>0.132</v>
       </c>
     </row>
     <row r="245" spans="1:24">
@@ -21264,34 +21264,34 @@
         <v>882</v>
       </c>
       <c r="O245">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P245">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="Q245">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="R245">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S245">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="T245">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="U245">
         <v>0.223</v>
       </c>
       <c r="V245">
-        <v>0.297</v>
+        <v>0.3</v>
       </c>
       <c r="W245">
-        <v>0.603</v>
+        <v>0.601</v>
       </c>
       <c r="X245">
-        <v>0.243</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="246" spans="1:24">
@@ -21412,34 +21412,34 @@
         <v>851</v>
       </c>
       <c r="O247">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P247">
         <v>39</v>
       </c>
       <c r="Q247">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R247">
         <v>13</v>
       </c>
       <c r="S247">
-        <v>-11.4</v>
+        <v>-12.1</v>
       </c>
       <c r="T247">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U247">
-        <v>0.08799999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="V247">
-        <v>0.135</v>
+        <v>0.134</v>
       </c>
       <c r="W247">
-        <v>0.489</v>
+        <v>0.477</v>
       </c>
       <c r="X247">
-        <v>0.153</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="248" spans="1:24">
@@ -22448,7 +22448,7 @@
         <v>905</v>
       </c>
       <c r="O261">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P261">
         <v>72</v>
@@ -22460,22 +22460,22 @@
         <v>9</v>
       </c>
       <c r="S261">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="T261">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="U261">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="V261">
-        <v>0.145</v>
+        <v>0.146</v>
       </c>
       <c r="W261">
-        <v>0.515</v>
+        <v>0.494</v>
       </c>
       <c r="X261">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="262" spans="1:24">
@@ -22522,34 +22522,34 @@
         <v>921</v>
       </c>
       <c r="O262">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P262">
         <v>60</v>
       </c>
       <c r="Q262">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R262">
         <v>9</v>
       </c>
       <c r="S262">
-        <v>-8.5</v>
+        <v>-8.9</v>
       </c>
       <c r="T262">
         <v>0.064</v>
       </c>
       <c r="U262">
-        <v>0.075</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V262">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="W262">
         <v>0.517</v>
       </c>
       <c r="X262">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="263" spans="1:24">
@@ -22670,34 +22670,34 @@
         <v>884</v>
       </c>
       <c r="O264">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P264">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="Q264">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="R264">
         <v>81</v>
       </c>
       <c r="S264">
-        <v>-14.7</v>
+        <v>-15.5</v>
       </c>
       <c r="T264">
         <v>0.121</v>
       </c>
       <c r="U264">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
       <c r="V264">
-        <v>0.241</v>
+        <v>0.24</v>
       </c>
       <c r="W264">
-        <v>0.6</v>
+        <v>0.606</v>
       </c>
       <c r="X264">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="265" spans="1:24">
@@ -22744,34 +22744,34 @@
         <v>890</v>
       </c>
       <c r="O265">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P265">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q265">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="R265">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S265">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="T265">
-        <v>0.092</v>
+        <v>0.095</v>
       </c>
       <c r="U265">
-        <v>0.189</v>
+        <v>0.19</v>
       </c>
       <c r="V265">
-        <v>0.158</v>
+        <v>0.161</v>
       </c>
       <c r="W265">
-        <v>0.501</v>
+        <v>0.513</v>
       </c>
       <c r="X265">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -23040,34 +23040,34 @@
         <v>878</v>
       </c>
       <c r="O269">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P269">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q269">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R269">
         <v>24</v>
       </c>
       <c r="S269">
-        <v>-11.8</v>
+        <v>-12.4</v>
       </c>
       <c r="T269">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U269">
         <v>0.094</v>
       </c>
       <c r="V269">
-        <v>0.213</v>
+        <v>0.21</v>
       </c>
       <c r="W269">
         <v>0.482</v>
       </c>
       <c r="X269">
-        <v>0.07099999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:24">
@@ -23262,34 +23262,34 @@
         <v>904</v>
       </c>
       <c r="O272">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P272">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="Q272">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R272">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="S272">
-        <v>-12.6</v>
+        <v>-12.9</v>
       </c>
       <c r="T272">
         <v>0.011</v>
       </c>
       <c r="U272">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="V272">
-        <v>0.281</v>
+        <v>0.282</v>
       </c>
       <c r="W272">
-        <v>0.6</v>
+        <v>0.598</v>
       </c>
       <c r="X272">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="273" spans="1:24">
@@ -23410,10 +23410,10 @@
         <v>851</v>
       </c>
       <c r="O274">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P274">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q274">
         <v>32</v>
@@ -23422,22 +23422,22 @@
         <v>68</v>
       </c>
       <c r="S274">
-        <v>-6.9</v>
+        <v>-7.5</v>
       </c>
       <c r="T274">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U274">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="V274">
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="W274">
-        <v>0.542</v>
+        <v>0.554</v>
       </c>
       <c r="X274">
-        <v>0.27</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="275" spans="1:24">
@@ -23558,16 +23558,16 @@
         <v>890</v>
       </c>
       <c r="O276">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P276">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="Q276">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="R276">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="S276">
         <v>-1.9</v>
@@ -23576,16 +23576,16 @@
         <v>0.051</v>
       </c>
       <c r="U276">
-        <v>0.189</v>
+        <v>0.191</v>
       </c>
       <c r="V276">
-        <v>0.207</v>
+        <v>0.205</v>
       </c>
       <c r="W276">
-        <v>0.532</v>
+        <v>0.533</v>
       </c>
       <c r="X276">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="277" spans="1:24">
@@ -23632,34 +23632,34 @@
         <v>919</v>
       </c>
       <c r="O277">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P277">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q277">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="R277">
         <v>49</v>
       </c>
       <c r="S277">
-        <v>-7.9</v>
+        <v>-7.3</v>
       </c>
       <c r="T277">
         <v>0.036</v>
       </c>
       <c r="U277">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="V277">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="W277">
-        <v>0.539</v>
+        <v>0.534</v>
       </c>
       <c r="X277">
-        <v>0.075</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:24">
@@ -23706,34 +23706,34 @@
         <v>893</v>
       </c>
       <c r="O278">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P278">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="Q278">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="R278">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="S278">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="T278">
         <v>0.058</v>
       </c>
       <c r="U278">
-        <v>0.189</v>
+        <v>0.19</v>
       </c>
       <c r="V278">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
       <c r="W278">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
       <c r="X278">
-        <v>0.196</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="279" spans="1:24">
@@ -24002,34 +24002,34 @@
         <v>920</v>
       </c>
       <c r="O282">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P282">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="Q282">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="R282">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="S282">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="T282">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="U282">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="V282">
-        <v>0.164</v>
+        <v>0.162</v>
       </c>
       <c r="W282">
-        <v>0.581</v>
+        <v>0.578</v>
       </c>
       <c r="X282">
-        <v>0.183</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="283" spans="1:24">
@@ -24150,34 +24150,34 @@
         <v>921</v>
       </c>
       <c r="O284">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P284">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q284">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R284">
         <v>16</v>
       </c>
       <c r="S284">
-        <v>-3.5</v>
+        <v>-4.1</v>
       </c>
       <c r="T284">
         <v>0.057</v>
       </c>
       <c r="U284">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="V284">
         <v>0.135</v>
       </c>
       <c r="W284">
-        <v>0.549</v>
+        <v>0.551</v>
       </c>
       <c r="X284">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="285" spans="1:24">
@@ -24224,34 +24224,34 @@
         <v>918</v>
       </c>
       <c r="O285">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P285">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q285">
         <v>83</v>
       </c>
       <c r="R285">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S285">
-        <v>-4.6</v>
+        <v>-3.6</v>
       </c>
       <c r="T285">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="U285">
-        <v>0.08400000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="V285">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="W285">
-        <v>0.588</v>
+        <v>0.579</v>
       </c>
       <c r="X285">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="286" spans="1:24">
@@ -24372,34 +24372,34 @@
         <v>851</v>
       </c>
       <c r="O287">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P287">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q287">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R287">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S287">
-        <v>-9.300000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="T287">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="U287">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="V287">
         <v>0.141</v>
       </c>
       <c r="W287">
-        <v>0.654</v>
+        <v>0.638</v>
       </c>
       <c r="X287">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -24446,34 +24446,34 @@
         <v>851</v>
       </c>
       <c r="O288">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P288">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q288">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R288">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S288">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
       <c r="T288">
-        <v>0.048</v>
+        <v>0.037</v>
       </c>
       <c r="U288">
-        <v>0.125</v>
+        <v>0.11</v>
       </c>
       <c r="V288">
-        <v>0.134</v>
+        <v>0.129</v>
       </c>
       <c r="W288">
-        <v>0.535</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X288">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="289" spans="1:24">
@@ -24890,22 +24890,22 @@
         <v>873</v>
       </c>
       <c r="O294">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P294">
-        <v>909</v>
+        <v>939</v>
       </c>
       <c r="Q294">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="R294">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="S294">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="T294">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="U294">
         <v>0.314</v>
@@ -24914,10 +24914,10 @@
         <v>0.265</v>
       </c>
       <c r="W294">
-        <v>0.663</v>
+        <v>0.665</v>
       </c>
       <c r="X294">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="295" spans="1:24">
@@ -25186,22 +25186,22 @@
         <v>877</v>
       </c>
       <c r="O298">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P298">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="Q298">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="R298">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S298">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T298">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="U298">
         <v>0.137</v>
@@ -25210,7 +25210,7 @@
         <v>0.146</v>
       </c>
       <c r="W298">
-        <v>0.521</v>
+        <v>0.522</v>
       </c>
       <c r="X298">
         <v>0.052</v>
@@ -25482,31 +25482,31 @@
         <v>916</v>
       </c>
       <c r="O302">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P302">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="Q302">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="R302">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S302">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="T302">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="U302">
-        <v>0.134</v>
+        <v>0.133</v>
       </c>
       <c r="V302">
         <v>0.178</v>
       </c>
       <c r="W302">
-        <v>0.54</v>
+        <v>0.539</v>
       </c>
       <c r="X302">
         <v>0.073</v>
@@ -25556,34 +25556,34 @@
         <v>851</v>
       </c>
       <c r="O303">
+        <v>28</v>
+      </c>
+      <c r="P303">
+        <v>174</v>
+      </c>
+      <c r="Q303">
+        <v>86</v>
+      </c>
+      <c r="R303">
         <v>27</v>
       </c>
-      <c r="P303">
-        <v>164</v>
-      </c>
-      <c r="Q303">
-        <v>82</v>
-      </c>
-      <c r="R303">
-        <v>26</v>
-      </c>
       <c r="S303">
-        <v>15</v>
+        <v>17.2</v>
       </c>
       <c r="T303">
-        <v>0.062</v>
+        <v>0.058</v>
       </c>
       <c r="U303">
         <v>0.156</v>
       </c>
       <c r="V303">
-        <v>0.159</v>
+        <v>0.162</v>
       </c>
       <c r="W303">
-        <v>0.658</v>
+        <v>0.651</v>
       </c>
       <c r="X303">
-        <v>0.096</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="304" spans="1:24">
@@ -25704,34 +25704,34 @@
         <v>851</v>
       </c>
       <c r="O305">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P305">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q305">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R305">
         <v>44</v>
       </c>
       <c r="S305">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="T305">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U305">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="V305">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="W305">
-        <v>0.639</v>
+        <v>0.643</v>
       </c>
       <c r="X305">
-        <v>0.073</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:24">
@@ -25778,34 +25778,34 @@
         <v>903</v>
       </c>
       <c r="O306">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P306">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q306">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="R306">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S306">
-        <v>-10.5</v>
+        <v>-10.2</v>
       </c>
       <c r="T306">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="U306">
         <v>0.133</v>
       </c>
       <c r="V306">
-        <v>0.204</v>
+        <v>0.203</v>
       </c>
       <c r="W306">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="X306">
-        <v>0.119</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="307" spans="1:24">
@@ -26000,31 +26000,31 @@
         <v>874</v>
       </c>
       <c r="O309">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P309">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="Q309">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="R309">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="S309">
-        <v>-1.8</v>
+        <v>-1.4</v>
       </c>
       <c r="T309">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="U309">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="V309">
         <v>0.303</v>
       </c>
       <c r="W309">
-        <v>0.633</v>
+        <v>0.629</v>
       </c>
       <c r="X309">
         <v>0.198</v>
@@ -26074,34 +26074,34 @@
         <v>901</v>
       </c>
       <c r="O310">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P310">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q310">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R310">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="S310">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="T310">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="U310">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="V310">
         <v>0.164</v>
       </c>
       <c r="W310">
-        <v>0.533</v>
+        <v>0.538</v>
       </c>
       <c r="X310">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="311" spans="1:24">
@@ -26444,34 +26444,34 @@
         <v>928</v>
       </c>
       <c r="O315">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P315">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Q315">
         <v>61</v>
       </c>
       <c r="R315">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="S315">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T315">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="U315">
-        <v>0.163</v>
+        <v>0.153</v>
       </c>
       <c r="V315">
-        <v>0.222</v>
+        <v>0.22</v>
       </c>
       <c r="W315">
-        <v>0.556</v>
+        <v>0.575</v>
       </c>
       <c r="X315">
-        <v>0.278</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="316" spans="1:24">
@@ -26518,31 +26518,31 @@
         <v>913</v>
       </c>
       <c r="O316">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P316">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="Q316">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R316">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S316">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="T316">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U316">
-        <v>0.093</v>
+        <v>0.095</v>
       </c>
       <c r="V316">
-        <v>0.209</v>
+        <v>0.211</v>
       </c>
       <c r="W316">
-        <v>0.553</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="X316">
         <v>0.098</v>
@@ -26888,34 +26888,34 @@
         <v>877</v>
       </c>
       <c r="O321">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P321">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="Q321">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="R321">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S321">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="T321">
-        <v>0.056</v>
+        <v>0.063</v>
       </c>
       <c r="U321">
-        <v>0.178</v>
+        <v>0.176</v>
       </c>
       <c r="V321">
-        <v>0.247</v>
+        <v>0.245</v>
       </c>
       <c r="W321">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="X321">
-        <v>0.089</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:24">
@@ -27036,22 +27036,22 @@
         <v>909</v>
       </c>
       <c r="O323">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P323">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q323">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R323">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S323">
-        <v>-8.199999999999999</v>
+        <v>-7.5</v>
       </c>
       <c r="T323">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="U323">
         <v>0.218</v>
@@ -27060,10 +27060,10 @@
         <v>0.15</v>
       </c>
       <c r="W323">
-        <v>0.551</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="X323">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="324" spans="1:24">
@@ -27110,34 +27110,34 @@
         <v>899</v>
       </c>
       <c r="O324">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P324">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R324">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S324">
-        <v>-17.4</v>
+        <v>-19.8</v>
       </c>
       <c r="T324">
         <v>0.02</v>
       </c>
       <c r="U324">
-        <v>0.174</v>
+        <v>0.166</v>
       </c>
       <c r="V324">
-        <v>0.258</v>
+        <v>0.257</v>
       </c>
       <c r="W324">
-        <v>0.497</v>
+        <v>0.484</v>
       </c>
       <c r="X324">
-        <v>0.13</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="325" spans="1:24">
@@ -27332,34 +27332,34 @@
         <v>889</v>
       </c>
       <c r="O327">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P327">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q327">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="R327">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S327">
-        <v>-10.6</v>
+        <v>-11.5</v>
       </c>
       <c r="T327">
         <v>0.032</v>
       </c>
       <c r="U327">
-        <v>0.115</v>
+        <v>0.113</v>
       </c>
       <c r="V327">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="W327">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="X327">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="328" spans="1:24">
@@ -27406,34 +27406,34 @@
         <v>882</v>
       </c>
       <c r="O328">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P328">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="Q328">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="R328">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="S328">
-        <v>-2.3</v>
+        <v>-2</v>
       </c>
       <c r="T328">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="U328">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="V328">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="W328">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
       <c r="X328">
-        <v>0.397</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="329" spans="1:24">
@@ -27480,7 +27480,7 @@
         <v>894</v>
       </c>
       <c r="O329">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P329">
         <v>34</v>
@@ -27492,22 +27492,22 @@
         <v>6</v>
       </c>
       <c r="S329">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T329">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="U329">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="V329">
-        <v>0.128</v>
+        <v>0.125</v>
       </c>
       <c r="W329">
-        <v>0.472</v>
+        <v>0.459</v>
       </c>
       <c r="X329">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="330" spans="1:24">
@@ -27924,34 +27924,34 @@
         <v>851</v>
       </c>
       <c r="O335">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P335">
         <v>6</v>
       </c>
       <c r="Q335">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R335">
         <v>2</v>
       </c>
       <c r="S335">
-        <v>2.5</v>
+        <v>-3.4</v>
       </c>
       <c r="T335">
-        <v>0.119</v>
+        <v>0.113</v>
       </c>
       <c r="U335">
-        <v>0.116</v>
+        <v>0.102</v>
       </c>
       <c r="V335">
-        <v>0.113</v>
+        <v>0.115</v>
       </c>
       <c r="W335">
-        <v>0.347</v>
+        <v>0.311</v>
       </c>
       <c r="X335">
-        <v>0.06900000000000001</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="336" spans="1:24">
@@ -28072,34 +28072,34 @@
         <v>874</v>
       </c>
       <c r="O337">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P337">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="Q337">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R337">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S337">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="T337">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="U337">
-        <v>0.124</v>
+        <v>0.119</v>
       </c>
       <c r="V337">
         <v>0.141</v>
       </c>
       <c r="W337">
-        <v>0.508</v>
+        <v>0.533</v>
       </c>
       <c r="X337">
-        <v>0.227</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="338" spans="1:24">
@@ -28146,31 +28146,31 @@
         <v>851</v>
       </c>
       <c r="O338">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P338">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="Q338">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R338">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S338">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="T338">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="U338">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="V338">
         <v>0.133</v>
       </c>
       <c r="W338">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X338">
         <v>0.06900000000000001</v>
@@ -28442,34 +28442,34 @@
         <v>851</v>
       </c>
       <c r="O342">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P342">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q342">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="R342">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S342">
-        <v>14.1</v>
+        <v>14.9</v>
       </c>
       <c r="T342">
         <v>0.118</v>
       </c>
       <c r="U342">
-        <v>0.162</v>
+        <v>0.167</v>
       </c>
       <c r="V342">
-        <v>0.095</v>
+        <v>0.097</v>
       </c>
       <c r="W342">
         <v>0.66</v>
       </c>
       <c r="X342">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="343" spans="1:24">
@@ -28960,34 +28960,34 @@
         <v>913</v>
       </c>
       <c r="O349">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P349">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="Q349">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="R349">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="S349">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="T349">
         <v>0.01</v>
       </c>
       <c r="U349">
-        <v>0.105</v>
+        <v>0.108</v>
       </c>
       <c r="V349">
         <v>0.226</v>
       </c>
       <c r="W349">
-        <v>0.5629999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X349">
-        <v>0.242</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="350" spans="1:24">
@@ -29034,34 +29034,34 @@
         <v>889</v>
       </c>
       <c r="O350">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P350">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q350">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R350">
         <v>2</v>
       </c>
       <c r="S350">
-        <v>15.7</v>
+        <v>9.5</v>
       </c>
       <c r="T350">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="U350">
-        <v>0.177</v>
+        <v>0.165</v>
       </c>
       <c r="V350">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="W350">
-        <v>0.506</v>
+        <v>0.505</v>
       </c>
       <c r="X350">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="351" spans="1:24">
@@ -29256,34 +29256,34 @@
         <v>916</v>
       </c>
       <c r="O353">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P353">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="Q353">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="R353">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="S353">
-        <v>-18.3</v>
+        <v>-15.3</v>
       </c>
       <c r="T353">
-        <v>0.097</v>
+        <v>0.106</v>
       </c>
       <c r="U353">
-        <v>0.256</v>
+        <v>0.262</v>
       </c>
       <c r="V353">
-        <v>0.209</v>
+        <v>0.213</v>
       </c>
       <c r="W353">
-        <v>0.663</v>
+        <v>0.671</v>
       </c>
       <c r="X353">
-        <v>0.184</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="354" spans="1:24">
@@ -29552,34 +29552,34 @@
         <v>897</v>
       </c>
       <c r="O357">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P357">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q357">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="R357">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S357">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="T357">
         <v>0.097</v>
       </c>
       <c r="U357">
-        <v>0.259</v>
+        <v>0.257</v>
       </c>
       <c r="V357">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="W357">
-        <v>0.598</v>
+        <v>0.587</v>
       </c>
       <c r="X357">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="358" spans="1:24">
@@ -29626,34 +29626,34 @@
         <v>913</v>
       </c>
       <c r="O358">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P358">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q358">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R358">
         <v>18</v>
       </c>
       <c r="S358">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="T358">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="U358">
-        <v>0.134</v>
+        <v>0.132</v>
       </c>
       <c r="V358">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="W358">
-        <v>0.488</v>
+        <v>0.497</v>
       </c>
       <c r="X358">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="359" spans="1:24">
@@ -29700,31 +29700,31 @@
         <v>851</v>
       </c>
       <c r="O359">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P359">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q359">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R359">
         <v>0</v>
       </c>
       <c r="S359">
-        <v>-37.9</v>
+        <v>-31.7</v>
       </c>
       <c r="T359">
         <v>0</v>
       </c>
       <c r="U359">
-        <v>0.074</v>
+        <v>0.083</v>
       </c>
       <c r="V359">
-        <v>0.194</v>
+        <v>0.206</v>
       </c>
       <c r="W359">
-        <v>0.37</v>
+        <v>0.483</v>
       </c>
       <c r="X359">
         <v>0</v>
@@ -29848,34 +29848,34 @@
         <v>851</v>
       </c>
       <c r="O361">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P361">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q361">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R361">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S361">
-        <v>10.7</v>
+        <v>5.2</v>
       </c>
       <c r="T361">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="U361">
-        <v>0.103</v>
+        <v>0.108</v>
       </c>
       <c r="V361">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="W361">
-        <v>0.603</v>
+        <v>0.572</v>
       </c>
       <c r="X361">
-        <v>0.165</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="362" spans="1:24">
@@ -29922,34 +29922,34 @@
         <v>851</v>
       </c>
       <c r="O362">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P362">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q362">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R362">
         <v>27</v>
       </c>
       <c r="S362">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="T362">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="U362">
-        <v>0.117</v>
+        <v>0.113</v>
       </c>
       <c r="V362">
-        <v>0.07199999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="W362">
-        <v>0.491</v>
+        <v>0.499</v>
       </c>
       <c r="X362">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="363" spans="1:24">
@@ -30070,34 +30070,34 @@
         <v>851</v>
       </c>
       <c r="O364">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P364">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q364">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="R364">
         <v>13</v>
       </c>
       <c r="S364">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="T364">
-        <v>0.066</v>
+        <v>0.061</v>
       </c>
       <c r="U364">
-        <v>0.138</v>
+        <v>0.145</v>
       </c>
       <c r="V364">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="W364">
-        <v>0.5669999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X364">
-        <v>0.073</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="365" spans="1:24">
@@ -30144,34 +30144,34 @@
         <v>878</v>
       </c>
       <c r="O365">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P365">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="Q365">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="R365">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S365">
         <v>7</v>
       </c>
       <c r="T365">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="U365">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="V365">
-        <v>0.196</v>
+        <v>0.197</v>
       </c>
       <c r="W365">
-        <v>0.631</v>
+        <v>0.627</v>
       </c>
       <c r="X365">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="366" spans="1:24">
@@ -30218,34 +30218,34 @@
         <v>905</v>
       </c>
       <c r="O366">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P366">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R366">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="S366">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="T366">
         <v>0.024</v>
       </c>
       <c r="U366">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="V366">
-        <v>0.188</v>
+        <v>0.186</v>
       </c>
       <c r="W366">
-        <v>0.573</v>
+        <v>0.572</v>
       </c>
       <c r="X366">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="367" spans="1:24">
@@ -30366,34 +30366,34 @@
         <v>883</v>
       </c>
       <c r="O368">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P368">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="Q368">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="R368">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="S368">
-        <v>-6.8</v>
+        <v>-5.8</v>
       </c>
       <c r="T368">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U368">
-        <v>0.212</v>
+        <v>0.21</v>
       </c>
       <c r="V368">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="W368">
-        <v>0.526</v>
+        <v>0.532</v>
       </c>
       <c r="X368">
-        <v>0.187</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="369" spans="1:24">
@@ -30440,34 +30440,34 @@
         <v>887</v>
       </c>
       <c r="O369">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P369">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q369">
         <v>79</v>
       </c>
       <c r="R369">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S369">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T369">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U369">
-        <v>0.075</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V369">
         <v>0.164</v>
       </c>
       <c r="W369">
-        <v>0.5580000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="X369">
-        <v>0.164</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="370" spans="1:24">
@@ -31032,34 +31032,34 @@
         <v>913</v>
       </c>
       <c r="O377">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P377">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="Q377">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="R377">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S377">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T377">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="U377">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="V377">
-        <v>0.205</v>
+        <v>0.204</v>
       </c>
       <c r="W377">
         <v>0.599</v>
       </c>
       <c r="X377">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="378" spans="1:24">
@@ -31106,34 +31106,34 @@
         <v>851</v>
       </c>
       <c r="O378">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P378">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="Q378">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="R378">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S378">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="T378">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="U378">
-        <v>0.096</v>
+        <v>0.099</v>
       </c>
       <c r="V378">
         <v>0.189</v>
       </c>
       <c r="W378">
-        <v>0.585</v>
+        <v>0.588</v>
       </c>
       <c r="X378">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="379" spans="1:24">
@@ -31402,34 +31402,34 @@
         <v>888</v>
       </c>
       <c r="O382">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P382">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="Q382">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="R382">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S382">
-        <v>-11.6</v>
+        <v>-11</v>
       </c>
       <c r="T382">
-        <v>0.07099999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="U382">
-        <v>0.226</v>
+        <v>0.224</v>
       </c>
       <c r="V382">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="W382">
-        <v>0.5629999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X382">
-        <v>0.126</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="383" spans="1:24">
@@ -31476,34 +31476,34 @@
         <v>906</v>
       </c>
       <c r="O383">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P383">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q383">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="R383">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S383">
-        <v>-6.8</v>
+        <v>-7.9</v>
       </c>
       <c r="T383">
-        <v>0.102</v>
+        <v>0.106</v>
       </c>
       <c r="U383">
-        <v>0.233</v>
+        <v>0.228</v>
       </c>
       <c r="V383">
-        <v>0.176</v>
+        <v>0.173</v>
       </c>
       <c r="W383">
-        <v>0.617</v>
+        <v>0.614</v>
       </c>
       <c r="X383">
-        <v>0.097</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="384" spans="1:24">
@@ -31550,34 +31550,34 @@
         <v>899</v>
       </c>
       <c r="O384">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P384">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q384">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R384">
         <v>16</v>
       </c>
       <c r="S384">
-        <v>-5.6</v>
+        <v>-8.6</v>
       </c>
       <c r="T384">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="U384">
-        <v>0.113</v>
+        <v>0.119</v>
       </c>
       <c r="V384">
-        <v>0.183</v>
+        <v>0.192</v>
       </c>
       <c r="W384">
-        <v>0.508</v>
+        <v>0.495</v>
       </c>
       <c r="X384">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="385" spans="1:24">
@@ -31772,34 +31772,34 @@
         <v>880</v>
       </c>
       <c r="O387">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P387">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="Q387">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="R387">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="S387">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="T387">
         <v>0.098</v>
       </c>
       <c r="U387">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
       <c r="V387">
-        <v>0.301</v>
+        <v>0.299</v>
       </c>
       <c r="W387">
-        <v>0.644</v>
+        <v>0.642</v>
       </c>
       <c r="X387">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="388" spans="1:24">
@@ -31920,31 +31920,31 @@
         <v>885</v>
       </c>
       <c r="O389">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P389">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="Q389">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="R389">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S389">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="T389">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="U389">
-        <v>0.229</v>
+        <v>0.228</v>
       </c>
       <c r="V389">
         <v>0.222</v>
       </c>
       <c r="W389">
-        <v>0.646</v>
+        <v>0.643</v>
       </c>
       <c r="X389">
         <v>0.155</v>
@@ -31994,34 +31994,34 @@
         <v>903</v>
       </c>
       <c r="O390">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P390">
         <v>269</v>
       </c>
       <c r="Q390">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="R390">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S390">
-        <v>-14</v>
+        <v>-13.1</v>
       </c>
       <c r="T390">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="U390">
-        <v>0.147</v>
+        <v>0.144</v>
       </c>
       <c r="V390">
-        <v>0.184</v>
+        <v>0.182</v>
       </c>
       <c r="W390">
-        <v>0.57</v>
+        <v>0.546</v>
       </c>
       <c r="X390">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="391" spans="1:24">
@@ -32142,31 +32142,31 @@
         <v>876</v>
       </c>
       <c r="O392">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P392">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="Q392">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R392">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S392">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="T392">
         <v>0.035</v>
       </c>
       <c r="U392">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="V392">
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
       <c r="W392">
-        <v>0.58</v>
+        <v>0.577</v>
       </c>
       <c r="X392">
         <v>0.07000000000000001</v>
@@ -32216,34 +32216,34 @@
         <v>917</v>
       </c>
       <c r="O393">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P393">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Q393">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R393">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S393">
-        <v>-3.6</v>
+        <v>-2.9</v>
       </c>
       <c r="T393">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="U393">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="V393">
-        <v>0.175</v>
+        <v>0.177</v>
       </c>
       <c r="W393">
-        <v>0.657</v>
+        <v>0.653</v>
       </c>
       <c r="X393">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="394" spans="1:24">
@@ -32364,7 +32364,7 @@
         <v>889</v>
       </c>
       <c r="O395">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P395">
         <v>60</v>
@@ -32376,22 +32376,22 @@
         <v>14</v>
       </c>
       <c r="S395">
-        <v>-1.2</v>
+        <v>-2.1</v>
       </c>
       <c r="T395">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="U395">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="V395">
         <v>0.149</v>
       </c>
       <c r="W395">
-        <v>0.455</v>
+        <v>0.448</v>
       </c>
       <c r="X395">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="396" spans="1:24">
@@ -32586,31 +32586,31 @@
         <v>851</v>
       </c>
       <c r="O398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P398">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q398">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R398">
         <v>0</v>
       </c>
       <c r="S398">
-        <v>-17.6</v>
+        <v>-2.7</v>
       </c>
       <c r="T398">
-        <v>0.136</v>
+        <v>0.103</v>
       </c>
       <c r="U398">
-        <v>0.5</v>
+        <v>0.345</v>
       </c>
       <c r="V398">
-        <v>0.068</v>
+        <v>0.058</v>
       </c>
       <c r="W398">
-        <v>0.852</v>
+        <v>0.824</v>
       </c>
       <c r="X398">
         <v>0</v>
@@ -32660,34 +32660,34 @@
         <v>908</v>
       </c>
       <c r="O399">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P399">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q399">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R399">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S399">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="T399">
-        <v>0.064</v>
+        <v>0.067</v>
       </c>
       <c r="U399">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="V399">
         <v>0.106</v>
       </c>
       <c r="W399">
-        <v>0.587</v>
+        <v>0.603</v>
       </c>
       <c r="X399">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="400" spans="1:24">
@@ -32808,31 +32808,31 @@
         <v>883</v>
       </c>
       <c r="O401">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P401">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Q401">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="R401">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S401">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="T401">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="U401">
-        <v>0.183</v>
+        <v>0.181</v>
       </c>
       <c r="V401">
-        <v>0.179</v>
+        <v>0.177</v>
       </c>
       <c r="W401">
-        <v>0.547</v>
+        <v>0.542</v>
       </c>
       <c r="X401">
         <v>0.08500000000000001</v>
@@ -33104,34 +33104,34 @@
         <v>873</v>
       </c>
       <c r="O405">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P405">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="Q405">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="R405">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S405">
-        <v>8.699999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="T405">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
       <c r="U405">
-        <v>0.18</v>
+        <v>0.187</v>
       </c>
       <c r="V405">
-        <v>0.331</v>
+        <v>0.327</v>
       </c>
       <c r="W405">
-        <v>0.603</v>
+        <v>0.617</v>
       </c>
       <c r="X405">
-        <v>0.279</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="406" spans="1:24">
@@ -33178,19 +33178,19 @@
         <v>899</v>
       </c>
       <c r="O406">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P406">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="Q406">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="R406">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S406">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T406">
         <v>0.052</v>
@@ -33199,13 +33199,13 @@
         <v>0.165</v>
       </c>
       <c r="V406">
-        <v>0.225</v>
+        <v>0.226</v>
       </c>
       <c r="W406">
-        <v>0.615</v>
+        <v>0.609</v>
       </c>
       <c r="X406">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="407" spans="1:24">
@@ -33252,34 +33252,34 @@
         <v>880</v>
       </c>
       <c r="O407">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P407">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q407">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R407">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S407">
-        <v>-1.9</v>
+        <v>-3.1</v>
       </c>
       <c r="T407">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="U407">
+        <v>0.139</v>
+      </c>
+      <c r="V407">
+        <v>0.141</v>
+      </c>
+      <c r="W407">
+        <v>0.505</v>
+      </c>
+      <c r="X407">
         <v>0.135</v>
-      </c>
-      <c r="V407">
-        <v>0.138</v>
-      </c>
-      <c r="W407">
-        <v>0.498</v>
-      </c>
-      <c r="X407">
-        <v>0.133</v>
       </c>
     </row>
     <row r="408" spans="1:24">
@@ -33400,10 +33400,10 @@
         <v>904</v>
       </c>
       <c r="O409">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P409">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q409">
         <v>14</v>
@@ -33412,22 +33412,22 @@
         <v>1</v>
       </c>
       <c r="S409">
-        <v>13.5</v>
+        <v>11.3</v>
       </c>
       <c r="T409">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="U409">
-        <v>0.147</v>
+        <v>0.137</v>
       </c>
       <c r="V409">
-        <v>0.159</v>
+        <v>0.157</v>
       </c>
       <c r="W409">
-        <v>0.71</v>
+        <v>0.713</v>
       </c>
       <c r="X409">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="410" spans="1:24">
@@ -33474,34 +33474,34 @@
         <v>877</v>
       </c>
       <c r="O410">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P410">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q410">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="R410">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="S410">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="T410">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U410">
-        <v>0.115</v>
+        <v>0.116</v>
       </c>
       <c r="V410">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="W410">
-        <v>0.517</v>
+        <v>0.508</v>
       </c>
       <c r="X410">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="411" spans="1:24">
@@ -33622,34 +33622,34 @@
         <v>905</v>
       </c>
       <c r="O412">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P412">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="R412">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="S412">
-        <v>-2.4</v>
+        <v>-1.8</v>
       </c>
       <c r="T412">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U412">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="V412">
-        <v>0.246</v>
+        <v>0.248</v>
       </c>
       <c r="W412">
-        <v>0.529</v>
+        <v>0.534</v>
       </c>
       <c r="X412">
-        <v>0.247</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="413" spans="1:24">
@@ -33770,31 +33770,31 @@
         <v>894</v>
       </c>
       <c r="O414">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P414">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="Q414">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R414">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S414">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="T414">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U414">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="V414">
         <v>0.189</v>
       </c>
       <c r="W414">
-        <v>0.637</v>
+        <v>0.635</v>
       </c>
       <c r="X414">
         <v>0.175</v>
@@ -33992,34 +33992,34 @@
         <v>893</v>
       </c>
       <c r="O417">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P417">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q417">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="R417">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S417">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="T417">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="U417">
-        <v>0.094</v>
+        <v>0.096</v>
       </c>
       <c r="V417">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="W417">
-        <v>0.579</v>
+        <v>0.584</v>
       </c>
       <c r="X417">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="418" spans="1:24">
@@ -34066,31 +34066,31 @@
         <v>912</v>
       </c>
       <c r="O418">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P418">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q418">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R418">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S418">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T418">
-        <v>0.097</v>
+        <v>0.094</v>
       </c>
       <c r="U418">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="V418">
-        <v>0.129</v>
+        <v>0.126</v>
       </c>
       <c r="W418">
-        <v>0.5679999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="X418">
         <v>0.066</v>
@@ -34140,34 +34140,34 @@
         <v>896</v>
       </c>
       <c r="O419">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P419">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q419">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="R419">
         <v>76</v>
       </c>
       <c r="S419">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="T419">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U419">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="V419">
         <v>0.182</v>
       </c>
       <c r="W419">
-        <v>0.604</v>
+        <v>0.601</v>
       </c>
       <c r="X419">
-        <v>0.133</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="420" spans="1:24">
@@ -34658,34 +34658,34 @@
         <v>851</v>
       </c>
       <c r="O426">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P426">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q426">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R426">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S426">
-        <v>-4.8</v>
+        <v>-8.6</v>
       </c>
       <c r="T426">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="U426">
-        <v>0.02</v>
+        <v>0.027</v>
       </c>
       <c r="V426">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="W426">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
       <c r="X426">
-        <v>0.152</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="427" spans="1:24">
@@ -34806,31 +34806,31 @@
         <v>889</v>
       </c>
       <c r="O428">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P428">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q428">
         <v>28</v>
       </c>
       <c r="R428">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S428">
-        <v>-1.5</v>
+        <v>-2.7</v>
       </c>
       <c r="T428">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U428">
-        <v>0.096</v>
+        <v>0.091</v>
       </c>
       <c r="V428">
-        <v>0.164</v>
+        <v>0.163</v>
       </c>
       <c r="W428">
-        <v>0.505</v>
+        <v>0.511</v>
       </c>
       <c r="X428">
         <v>0.192</v>
@@ -34954,22 +34954,22 @@
         <v>851</v>
       </c>
       <c r="O430">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P430">
         <v>167</v>
       </c>
       <c r="Q430">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R430">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S430">
-        <v>-7.2</v>
+        <v>-6.8</v>
       </c>
       <c r="T430">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U430">
         <v>0.123</v>
@@ -34978,10 +34978,10 @@
         <v>0.182</v>
       </c>
       <c r="W430">
-        <v>0.5649999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="X430">
-        <v>0.082</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="431" spans="1:24">
@@ -35324,34 +35324,34 @@
         <v>851</v>
       </c>
       <c r="O435">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P435">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q435">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="R435">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S435">
-        <v>-0.9</v>
+        <v>0.5</v>
       </c>
       <c r="T435">
         <v>0.037</v>
       </c>
       <c r="U435">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="V435">
-        <v>0.155</v>
+        <v>0.157</v>
       </c>
       <c r="W435">
         <v>0.608</v>
       </c>
       <c r="X435">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="436" spans="1:24">
@@ -35546,31 +35546,31 @@
         <v>877</v>
       </c>
       <c r="O438">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P438">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="Q438">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="R438">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="S438">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T438">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="U438">
-        <v>0.126</v>
+        <v>0.13</v>
       </c>
       <c r="V438">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="W438">
-        <v>0.542</v>
+        <v>0.543</v>
       </c>
       <c r="X438">
         <v>0.323</v>
@@ -35620,34 +35620,34 @@
         <v>904</v>
       </c>
       <c r="O439">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P439">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q439">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="R439">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S439">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="T439">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="U439">
         <v>0.108</v>
       </c>
       <c r="V439">
-        <v>0.148</v>
+        <v>0.145</v>
       </c>
       <c r="W439">
-        <v>0.533</v>
+        <v>0.546</v>
       </c>
       <c r="X439">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="440" spans="1:24">
@@ -35768,16 +35768,16 @@
         <v>851</v>
       </c>
       <c r="O441">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P441">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q441">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R441">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S441">
         <v>8.6</v>
@@ -35786,16 +35786,16 @@
         <v>0.033</v>
       </c>
       <c r="U441">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="V441">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="W441">
-        <v>0.594</v>
+        <v>0.596</v>
       </c>
       <c r="X441">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="442" spans="1:24">
@@ -35842,34 +35842,34 @@
         <v>931</v>
       </c>
       <c r="O442">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P442">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q442">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R442">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S442">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="T442">
         <v>0.018</v>
       </c>
       <c r="U442">
-        <v>0.07000000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V442">
-        <v>0.147</v>
+        <v>0.148</v>
       </c>
       <c r="W442">
-        <v>0.5570000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="X442">
-        <v>0.107</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="443" spans="1:24">
@@ -36434,34 +36434,34 @@
         <v>913</v>
       </c>
       <c r="O450">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P450">
-        <v>1165</v>
+        <v>1192</v>
       </c>
       <c r="Q450">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="R450">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S450">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="T450">
         <v>0.023</v>
       </c>
       <c r="U450">
-        <v>0.124</v>
+        <v>0.126</v>
       </c>
       <c r="V450">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="W450">
-        <v>0.638</v>
+        <v>0.636</v>
       </c>
       <c r="X450">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="451" spans="1:24">
@@ -36730,19 +36730,19 @@
         <v>881</v>
       </c>
       <c r="O454">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P454">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="Q454">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R454">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="S454">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T454">
         <v>0.01</v>
@@ -36751,13 +36751,13 @@
         <v>0.082</v>
       </c>
       <c r="V454">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
       <c r="W454">
-        <v>0.551</v>
+        <v>0.546</v>
       </c>
       <c r="X454">
-        <v>0.209</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="455" spans="1:24">
@@ -36878,34 +36878,34 @@
         <v>851</v>
       </c>
       <c r="O456">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P456">
         <v>6</v>
       </c>
       <c r="Q456">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R456">
         <v>2</v>
       </c>
       <c r="S456">
-        <v>-3.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T456">
-        <v>0.029</v>
+        <v>0.022</v>
       </c>
       <c r="U456">
-        <v>0.195</v>
+        <v>0.213</v>
       </c>
       <c r="V456">
-        <v>0.078</v>
+        <v>0.104</v>
       </c>
       <c r="W456">
-        <v>0.436</v>
+        <v>0.304</v>
       </c>
       <c r="X456">
-        <v>0.08699999999999999</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="457" spans="1:24">
@@ -37174,34 +37174,34 @@
         <v>891</v>
       </c>
       <c r="O460">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P460">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="Q460">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R460">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S460">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="T460">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="U460">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V460">
-        <v>0.226</v>
+        <v>0.229</v>
       </c>
       <c r="W460">
-        <v>0.537</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X460">
-        <v>0.156</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="461" spans="1:24">
@@ -37245,34 +37245,34 @@
         <v>875</v>
       </c>
       <c r="O461">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P461">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q461">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R461">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="S461">
-        <v>-6</v>
+        <v>-4.8</v>
       </c>
       <c r="T461">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="U461">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="V461">
-        <v>0.233</v>
+        <v>0.232</v>
       </c>
       <c r="W461">
-        <v>0.569</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X461">
-        <v>0.318</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="462" spans="1:24">
@@ -37393,34 +37393,34 @@
         <v>910</v>
       </c>
       <c r="O463">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P463">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Q463">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R463">
         <v>47</v>
       </c>
       <c r="S463">
-        <v>5.3</v>
+        <v>3.4</v>
       </c>
       <c r="T463">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="U463">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="V463">
         <v>0.198</v>
       </c>
       <c r="W463">
-        <v>0.596</v>
+        <v>0.595</v>
       </c>
       <c r="X463">
-        <v>0.172</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="464" spans="1:24">
@@ -37541,34 +37541,34 @@
         <v>883</v>
       </c>
       <c r="O465">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P465">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q465">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R465">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S465">
-        <v>-0.8</v>
+        <v>-2</v>
       </c>
       <c r="T465">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U465">
         <v>0.119</v>
       </c>
       <c r="V465">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="W465">
-        <v>0.603</v>
+        <v>0.599</v>
       </c>
       <c r="X465">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="466" spans="1:24">
@@ -37985,31 +37985,31 @@
         <v>906</v>
       </c>
       <c r="O471">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P471">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Q471">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R471">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S471">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="T471">
-        <v>0.089</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="U471">
-        <v>0.176</v>
+        <v>0.17</v>
       </c>
       <c r="V471">
-        <v>0.147</v>
+        <v>0.145</v>
       </c>
       <c r="W471">
-        <v>0.649</v>
+        <v>0.669</v>
       </c>
       <c r="X471">
         <v>0.07099999999999999</v>
@@ -38059,34 +38059,34 @@
         <v>890</v>
       </c>
       <c r="O472">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P472">
         <v>156</v>
       </c>
       <c r="Q472">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="R472">
         <v>34</v>
       </c>
       <c r="S472">
-        <v>-8.5</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="T472">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="U472">
-        <v>0.172</v>
+        <v>0.173</v>
       </c>
       <c r="V472">
         <v>0.142</v>
       </c>
       <c r="W472">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="X472">
-        <v>0.092</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="473" spans="1:24">
@@ -38355,34 +38355,34 @@
         <v>851</v>
       </c>
       <c r="O476">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P476">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="Q476">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R476">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S476">
-        <v>-4.6</v>
+        <v>-4.9</v>
       </c>
       <c r="T476">
         <v>0.037</v>
       </c>
       <c r="U476">
-        <v>0.124</v>
+        <v>0.134</v>
       </c>
       <c r="V476">
-        <v>0.157</v>
+        <v>0.172</v>
       </c>
       <c r="W476">
-        <v>0.549</v>
+        <v>0.652</v>
       </c>
       <c r="X476">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="477" spans="1:24">
@@ -38947,34 +38947,34 @@
         <v>851</v>
       </c>
       <c r="O484">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P484">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q484">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="R484">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S484">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="T484">
-        <v>0.041</v>
+        <v>0.049</v>
       </c>
       <c r="U484">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="V484">
-        <v>0.156</v>
+        <v>0.144</v>
       </c>
       <c r="W484">
-        <v>0.548</v>
+        <v>0.536</v>
       </c>
       <c r="X484">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="485" spans="1:24">
@@ -39169,34 +39169,34 @@
         <v>883</v>
       </c>
       <c r="O487">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P487">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q487">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="R487">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S487">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="T487">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="U487">
-        <v>0.168</v>
+        <v>0.173</v>
       </c>
       <c r="V487">
-        <v>0.136</v>
+        <v>0.139</v>
       </c>
       <c r="W487">
-        <v>0.571</v>
+        <v>0.555</v>
       </c>
       <c r="X487">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="488" spans="1:24">
@@ -39243,34 +39243,34 @@
         <v>920</v>
       </c>
       <c r="O488">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P488">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="Q488">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="R488">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S488">
-        <v>-11.4</v>
+        <v>-11.1</v>
       </c>
       <c r="T488">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="U488">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="V488">
-        <v>0.227</v>
+        <v>0.228</v>
       </c>
       <c r="W488">
-        <v>0.59</v>
+        <v>0.599</v>
       </c>
       <c r="X488">
-        <v>0.129</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="489" spans="1:24">
@@ -39317,10 +39317,10 @@
         <v>877</v>
       </c>
       <c r="O489">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P489">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q489">
         <v>36</v>
@@ -39329,22 +39329,22 @@
         <v>4</v>
       </c>
       <c r="S489">
-        <v>-23.5</v>
+        <v>-22</v>
       </c>
       <c r="T489">
-        <v>0.082</v>
+        <v>0.08</v>
       </c>
       <c r="U489">
-        <v>0.235</v>
+        <v>0.233</v>
       </c>
       <c r="V489">
-        <v>0.174</v>
+        <v>0.179</v>
       </c>
       <c r="W489">
-        <v>0.432</v>
+        <v>0.461</v>
       </c>
       <c r="X489">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="490" spans="1:24">
@@ -39465,7 +39465,7 @@
         <v>919</v>
       </c>
       <c r="O491">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P491">
         <v>325</v>
@@ -39835,34 +39835,34 @@
         <v>907</v>
       </c>
       <c r="O496">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P496">
         <v>50</v>
       </c>
       <c r="Q496">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R496">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S496">
-        <v>-5.8</v>
+        <v>-4</v>
       </c>
       <c r="T496">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U496">
-        <v>0.068</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V496">
-        <v>0.168</v>
+        <v>0.165</v>
       </c>
       <c r="W496">
         <v>0.536</v>
       </c>
       <c r="X496">
-        <v>0.184</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="497" spans="1:24">
@@ -39983,19 +39983,19 @@
         <v>883</v>
       </c>
       <c r="O498">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P498">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="Q498">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R498">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="S498">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T498">
         <v>0.019</v>
@@ -40004,13 +40004,13 @@
         <v>0.083</v>
       </c>
       <c r="V498">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="W498">
-        <v>0.594</v>
+        <v>0.59</v>
       </c>
       <c r="X498">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="499" spans="1:24">
@@ -40057,31 +40057,31 @@
         <v>902</v>
       </c>
       <c r="O499">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P499">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q499">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R499">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S499">
-        <v>-11.7</v>
+        <v>-10.5</v>
       </c>
       <c r="T499">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="U499">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="V499">
         <v>0.187</v>
       </c>
       <c r="W499">
-        <v>0.553</v>
+        <v>0.541</v>
       </c>
       <c r="X499">
         <v>0.144</v>
@@ -40131,16 +40131,16 @@
         <v>903</v>
       </c>
       <c r="O500">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P500">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="Q500">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="R500">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S500">
         <v>-1.1</v>
@@ -40149,16 +40149,16 @@
         <v>0.006</v>
       </c>
       <c r="U500">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="V500">
-        <v>0.293</v>
+        <v>0.296</v>
       </c>
       <c r="W500">
-        <v>0.549</v>
+        <v>0.55</v>
       </c>
       <c r="X500">
-        <v>0.279</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="501" spans="1:24">
@@ -40205,34 +40205,34 @@
         <v>889</v>
       </c>
       <c r="O501">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P501">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q501">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R501">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="S501">
-        <v>-3.8</v>
+        <v>-4.4</v>
       </c>
       <c r="T501">
         <v>0.019</v>
       </c>
       <c r="U501">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="V501">
         <v>0.158</v>
       </c>
       <c r="W501">
-        <v>0.607</v>
+        <v>0.603</v>
       </c>
       <c r="X501">
-        <v>0.284</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="502" spans="1:24">
@@ -40326,7 +40326,7 @@
         <v>568</v>
       </c>
       <c r="F503">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G503" t="s">
         <v>577</v>
@@ -40353,19 +40353,19 @@
         <v>929</v>
       </c>
       <c r="O503">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P503">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q503">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R503">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S503">
-        <v>-9</v>
+        <v>-9.5</v>
       </c>
       <c r="T503">
         <v>0.026</v>
@@ -40374,13 +40374,13 @@
         <v>0.08</v>
       </c>
       <c r="V503">
-        <v>0.208</v>
+        <v>0.207</v>
       </c>
       <c r="W503">
-        <v>0.434</v>
+        <v>0.442</v>
       </c>
       <c r="X503">
-        <v>0.282</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="504" spans="1:24">
@@ -40797,34 +40797,34 @@
         <v>895</v>
       </c>
       <c r="O509">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P509">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q509">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="R509">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S509">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="T509">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="U509">
         <v>0.23</v>
       </c>
       <c r="V509">
-        <v>0.148</v>
+        <v>0.147</v>
       </c>
       <c r="W509">
-        <v>0.537</v>
+        <v>0.533</v>
       </c>
       <c r="X509">
-        <v>0.133</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="510" spans="1:24">
@@ -41093,25 +41093,25 @@
         <v>903</v>
       </c>
       <c r="O513">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P513">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q513">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="R513">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S513">
-        <v>-12.9</v>
+        <v>-12.3</v>
       </c>
       <c r="T513">
-        <v>0.128</v>
+        <v>0.126</v>
       </c>
       <c r="U513">
-        <v>0.169</v>
+        <v>0.166</v>
       </c>
       <c r="V513">
         <v>0.136</v>
@@ -41120,7 +41120,7 @@
         <v>0.587</v>
       </c>
       <c r="X513">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="514" spans="1:24">
@@ -41389,34 +41389,34 @@
         <v>914</v>
       </c>
       <c r="O517">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P517">
-        <v>780</v>
+        <v>816</v>
       </c>
       <c r="Q517">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="R517">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="S517">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="T517">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="U517">
-        <v>0.116</v>
+        <v>0.119</v>
       </c>
       <c r="V517">
-        <v>0.259</v>
+        <v>0.262</v>
       </c>
       <c r="W517">
-        <v>0.644</v>
+        <v>0.645</v>
       </c>
       <c r="X517">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="518" spans="1:24">
@@ -41537,34 +41537,34 @@
         <v>905</v>
       </c>
       <c r="O519">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P519">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="Q519">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="R519">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S519">
-        <v>-9.199999999999999</v>
+        <v>-8.6</v>
       </c>
       <c r="T519">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="U519">
         <v>0.179</v>
       </c>
       <c r="V519">
-        <v>0.192</v>
+        <v>0.193</v>
       </c>
       <c r="W519">
-        <v>0.53</v>
+        <v>0.537</v>
       </c>
       <c r="X519">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="520" spans="1:24">
@@ -41611,34 +41611,34 @@
         <v>873</v>
       </c>
       <c r="O520">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P520">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Q520">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="R520">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S520">
-        <v>-0.1</v>
+        <v>1</v>
       </c>
       <c r="T520">
-        <v>0.08500000000000001</v>
+        <v>0.079</v>
       </c>
       <c r="U520">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="V520">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="W520">
-        <v>0.529</v>
+        <v>0.52</v>
       </c>
       <c r="X520">
-        <v>0.283</v>
+        <v>0.269</v>
       </c>
     </row>
   </sheetData>

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -3587,34 +3587,34 @@
         <v>876</v>
       </c>
       <c r="O6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6">
         <v>30</v>
       </c>
       <c r="S6">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="T6">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="U6">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
       <c r="V6">
-        <v>0.137</v>
+        <v>0.141</v>
       </c>
       <c r="W6">
-        <v>0.579</v>
+        <v>0.587</v>
       </c>
       <c r="X6">
-        <v>0.145</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -4179,7 +4179,7 @@
         <v>883</v>
       </c>
       <c r="O14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P14">
         <v>132</v>
@@ -4188,25 +4188,25 @@
         <v>48</v>
       </c>
       <c r="R14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S14">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="T14">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U14">
-        <v>0.102</v>
+        <v>0.099</v>
       </c>
       <c r="V14">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="W14">
-        <v>0.626</v>
+        <v>0.603</v>
       </c>
       <c r="X14">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -4549,34 +4549,34 @@
         <v>874</v>
       </c>
       <c r="O19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P19">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="Q19">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R19">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S19">
-        <v>-15.9</v>
+        <v>-16.3</v>
       </c>
       <c r="T19">
         <v>0.064</v>
       </c>
       <c r="U19">
-        <v>0.161</v>
+        <v>0.158</v>
       </c>
       <c r="V19">
         <v>0.202</v>
       </c>
       <c r="W19">
-        <v>0.494</v>
+        <v>0.496</v>
       </c>
       <c r="X19">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -4697,34 +4697,34 @@
         <v>885</v>
       </c>
       <c r="O21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P21">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="Q21">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="R21">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="S21">
         <v>9</v>
       </c>
       <c r="T21">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="U21">
-        <v>0.215</v>
+        <v>0.214</v>
       </c>
       <c r="V21">
-        <v>0.262</v>
+        <v>0.263</v>
       </c>
       <c r="W21">
-        <v>0.545</v>
+        <v>0.541</v>
       </c>
       <c r="X21">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -4771,34 +4771,34 @@
         <v>877</v>
       </c>
       <c r="O22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P22">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="Q22">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R22">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S22">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="T22">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="U22">
-        <v>0.159</v>
+        <v>0.161</v>
       </c>
       <c r="V22">
-        <v>0.166</v>
+        <v>0.168</v>
       </c>
       <c r="W22">
-        <v>0.614</v>
+        <v>0.61</v>
       </c>
       <c r="X22">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -4845,10 +4845,10 @@
         <v>851</v>
       </c>
       <c r="O23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P23">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q23">
         <v>94</v>
@@ -4857,22 +4857,22 @@
         <v>42</v>
       </c>
       <c r="S23">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="T23">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U23">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="V23">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="W23">
-        <v>0.62</v>
+        <v>0.617</v>
       </c>
       <c r="X23">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -5141,19 +5141,19 @@
         <v>873</v>
       </c>
       <c r="O27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P27">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="Q27">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R27">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S27">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="T27">
         <v>0.046</v>
@@ -5165,10 +5165,10 @@
         <v>0.218</v>
       </c>
       <c r="W27">
-        <v>0.573</v>
+        <v>0.575</v>
       </c>
       <c r="X27">
-        <v>0.124</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -5363,31 +5363,31 @@
         <v>873</v>
       </c>
       <c r="O30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P30">
-        <v>878</v>
+        <v>908</v>
       </c>
       <c r="Q30">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="R30">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S30">
-        <v>-0.6</v>
+        <v>-1.5</v>
       </c>
       <c r="T30">
-        <v>0.079</v>
+        <v>0.083</v>
       </c>
       <c r="U30">
-        <v>0.253</v>
+        <v>0.252</v>
       </c>
       <c r="V30">
         <v>0.295</v>
       </c>
       <c r="W30">
-        <v>0.598</v>
+        <v>0.602</v>
       </c>
       <c r="X30">
         <v>0.172</v>
@@ -5437,34 +5437,34 @@
         <v>873</v>
       </c>
       <c r="O31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P31">
-        <v>965</v>
+        <v>1006</v>
       </c>
       <c r="Q31">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R31">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="S31">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="T31">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="U31">
         <v>0.132</v>
       </c>
       <c r="V31">
-        <v>0.298</v>
+        <v>0.3</v>
       </c>
       <c r="W31">
-        <v>0.576</v>
+        <v>0.581</v>
       </c>
       <c r="X31">
-        <v>0.2</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -5511,10 +5511,10 @@
         <v>851</v>
       </c>
       <c r="O32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P32">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q32">
         <v>27</v>
@@ -5523,19 +5523,19 @@
         <v>7</v>
       </c>
       <c r="S32">
-        <v>-6.8</v>
+        <v>-6</v>
       </c>
       <c r="T32">
         <v>0.03</v>
       </c>
       <c r="U32">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="V32">
-        <v>0.122</v>
+        <v>0.126</v>
       </c>
       <c r="W32">
-        <v>0.585</v>
+        <v>0.574</v>
       </c>
       <c r="X32">
         <v>0.053</v>
@@ -5807,34 +5807,34 @@
         <v>884</v>
       </c>
       <c r="O36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P36">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Q36">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="R36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S36">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="T36">
-        <v>0.07099999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="U36">
-        <v>0.167</v>
+        <v>0.178</v>
       </c>
       <c r="V36">
-        <v>0.184</v>
+        <v>0.181</v>
       </c>
       <c r="W36">
-        <v>0.536</v>
+        <v>0.547</v>
       </c>
       <c r="X36">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -5881,34 +5881,34 @@
         <v>851</v>
       </c>
       <c r="O37">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P37">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="Q37">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="R37">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="S37">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="T37">
         <v>0.028</v>
       </c>
       <c r="U37">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="V37">
         <v>0.224</v>
       </c>
       <c r="W37">
-        <v>0.577</v>
+        <v>0.573</v>
       </c>
       <c r="X37">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -6399,34 +6399,34 @@
         <v>895</v>
       </c>
       <c r="O44">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P44">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="Q44">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R44">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S44">
-        <v>-16.3</v>
+        <v>-16.4</v>
       </c>
       <c r="T44">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="U44">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
       <c r="V44">
-        <v>0.174</v>
+        <v>0.173</v>
       </c>
       <c r="W44">
-        <v>0.513</v>
+        <v>0.519</v>
       </c>
       <c r="X44">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -6473,34 +6473,34 @@
         <v>896</v>
       </c>
       <c r="O45">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P45">
         <v>89</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R45">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S45">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="T45">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U45">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="V45">
         <v>0.179</v>
       </c>
       <c r="W45">
-        <v>0.522</v>
+        <v>0.516</v>
       </c>
       <c r="X45">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -7213,19 +7213,19 @@
         <v>903</v>
       </c>
       <c r="O55">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P55">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q55">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="R55">
         <v>34</v>
       </c>
       <c r="S55">
-        <v>13.8</v>
+        <v>12.3</v>
       </c>
       <c r="T55">
         <v>0.089</v>
@@ -7234,13 +7234,13 @@
         <v>0.156</v>
       </c>
       <c r="V55">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="W55">
-        <v>0.622</v>
+        <v>0.619</v>
       </c>
       <c r="X55">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -7731,34 +7731,34 @@
         <v>906</v>
       </c>
       <c r="O62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P62">
         <v>41</v>
       </c>
       <c r="Q62">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R62">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S62">
-        <v>-25.7</v>
+        <v>-23.2</v>
       </c>
       <c r="T62">
-        <v>0.045</v>
+        <v>0.039</v>
       </c>
       <c r="U62">
-        <v>0.108</v>
+        <v>0.116</v>
       </c>
       <c r="V62">
-        <v>0.171</v>
+        <v>0.169</v>
       </c>
       <c r="W62">
-        <v>0.51</v>
+        <v>0.486</v>
       </c>
       <c r="X62">
-        <v>0.08599999999999999</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -7953,34 +7953,34 @@
         <v>890</v>
       </c>
       <c r="O65">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P65">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="Q65">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="R65">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S65">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="T65">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U65">
-        <v>0.115</v>
+        <v>0.113</v>
       </c>
       <c r="V65">
         <v>0.209</v>
       </c>
       <c r="W65">
-        <v>0.5679999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X65">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -8101,34 +8101,34 @@
         <v>873</v>
       </c>
       <c r="O67">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P67">
-        <v>847</v>
+        <v>883</v>
       </c>
       <c r="Q67">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R67">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="S67">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="T67">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="U67">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="V67">
-        <v>0.309</v>
+        <v>0.311</v>
       </c>
       <c r="W67">
-        <v>0.554</v>
+        <v>0.556</v>
       </c>
       <c r="X67">
-        <v>0.422</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -8397,34 +8397,34 @@
         <v>905</v>
       </c>
       <c r="O71">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P71">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q71">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R71">
         <v>22</v>
       </c>
       <c r="S71">
-        <v>-5.6</v>
+        <v>-6.4</v>
       </c>
       <c r="T71">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="U71">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="V71">
-        <v>0.081</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="W71">
-        <v>0.544</v>
+        <v>0.52</v>
       </c>
       <c r="X71">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="72" spans="1:24">
@@ -8619,34 +8619,34 @@
         <v>912</v>
       </c>
       <c r="O74">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P74">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q74">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S74">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="T74">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="U74">
-        <v>0.131</v>
+        <v>0.127</v>
       </c>
       <c r="V74">
-        <v>0.262</v>
+        <v>0.257</v>
       </c>
       <c r="W74">
-        <v>0.518</v>
+        <v>0.537</v>
       </c>
       <c r="X74">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -8767,31 +8767,31 @@
         <v>878</v>
       </c>
       <c r="O76">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P76">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="Q76">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R76">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S76">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T76">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U76">
         <v>0.074</v>
       </c>
       <c r="V76">
-        <v>0.186</v>
+        <v>0.189</v>
       </c>
       <c r="W76">
-        <v>0.571</v>
+        <v>0.573</v>
       </c>
       <c r="X76">
         <v>0.221</v>
@@ -8915,16 +8915,16 @@
         <v>878</v>
       </c>
       <c r="O78">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P78">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q78">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="R78">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S78">
         <v>-18.4</v>
@@ -8939,10 +8939,10 @@
         <v>0.139</v>
       </c>
       <c r="W78">
-        <v>0.515</v>
+        <v>0.512</v>
       </c>
       <c r="X78">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -9063,34 +9063,34 @@
         <v>911</v>
       </c>
       <c r="O80">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P80">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q80">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="R80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S80">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="T80">
-        <v>0.123</v>
+        <v>0.127</v>
       </c>
       <c r="U80">
-        <v>0.224</v>
+        <v>0.232</v>
       </c>
       <c r="V80">
         <v>0.171</v>
       </c>
       <c r="W80">
-        <v>0.578</v>
+        <v>0.581</v>
       </c>
       <c r="X80">
-        <v>0.067</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -9211,34 +9211,34 @@
         <v>851</v>
       </c>
       <c r="O82">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P82">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="Q82">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="R82">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S82">
-        <v>-4.9</v>
+        <v>-4.5</v>
       </c>
       <c r="T82">
-        <v>0.07000000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="U82">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="V82">
         <v>0.214</v>
       </c>
       <c r="W82">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="X82">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -9433,31 +9433,31 @@
         <v>877</v>
       </c>
       <c r="O85">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P85">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="Q85">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R85">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="S85">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="T85">
         <v>0.018</v>
       </c>
       <c r="U85">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="V85">
         <v>0.144</v>
       </c>
       <c r="W85">
-        <v>0.572</v>
+        <v>0.577</v>
       </c>
       <c r="X85">
         <v>0.387</v>
@@ -10395,31 +10395,31 @@
         <v>916</v>
       </c>
       <c r="O98">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P98">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q98">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R98">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S98">
-        <v>-11.8</v>
+        <v>-11.7</v>
       </c>
       <c r="T98">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="U98">
-        <v>0.08599999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V98">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="W98">
-        <v>0.58</v>
+        <v>0.576</v>
       </c>
       <c r="X98">
         <v>0.09</v>
@@ -11135,31 +11135,31 @@
         <v>920</v>
       </c>
       <c r="O108">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P108">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q108">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="R108">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S108">
         <v>-3.6</v>
       </c>
       <c r="T108">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U108">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="V108">
         <v>0.172</v>
       </c>
       <c r="W108">
-        <v>0.592</v>
+        <v>0.588</v>
       </c>
       <c r="X108">
         <v>0.066</v>
@@ -11949,7 +11949,7 @@
         <v>886</v>
       </c>
       <c r="O119">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P119">
         <v>206</v>
@@ -11958,25 +11958,25 @@
         <v>70</v>
       </c>
       <c r="R119">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="S119">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="T119">
         <v>0.017</v>
       </c>
       <c r="U119">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="V119">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="W119">
-        <v>0.506</v>
+        <v>0.499</v>
       </c>
       <c r="X119">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -12837,31 +12837,31 @@
         <v>920</v>
       </c>
       <c r="O131">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P131">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="Q131">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R131">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="S131">
-        <v>-4.1</v>
+        <v>-3.9</v>
       </c>
       <c r="T131">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="U131">
         <v>0.078</v>
       </c>
       <c r="V131">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="W131">
-        <v>0.541</v>
+        <v>0.54</v>
       </c>
       <c r="X131">
         <v>0.295</v>
@@ -12985,34 +12985,34 @@
         <v>851</v>
       </c>
       <c r="O133">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P133">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="Q133">
         <v>115</v>
       </c>
       <c r="R133">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S133">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T133">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U133">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V133">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="W133">
-        <v>0.591</v>
+        <v>0.59</v>
       </c>
       <c r="X133">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -13133,34 +13133,34 @@
         <v>893</v>
       </c>
       <c r="O135">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P135">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="Q135">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="R135">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S135">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="T135">
         <v>0.025</v>
       </c>
       <c r="U135">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="V135">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="W135">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
       <c r="X135">
-        <v>0.237</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -13355,34 +13355,34 @@
         <v>913</v>
       </c>
       <c r="O138">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P138">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="Q138">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="R138">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="S138">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T138">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="U138">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="V138">
-        <v>0.23</v>
+        <v>0.232</v>
       </c>
       <c r="W138">
-        <v>0.527</v>
+        <v>0.533</v>
       </c>
       <c r="X138">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -13429,31 +13429,31 @@
         <v>922</v>
       </c>
       <c r="O139">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P139">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="Q139">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="R139">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S139">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="T139">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="U139">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="V139">
-        <v>0.175</v>
+        <v>0.173</v>
       </c>
       <c r="W139">
-        <v>0.535</v>
+        <v>0.531</v>
       </c>
       <c r="X139">
         <v>0.073</v>
@@ -13873,34 +13873,34 @@
         <v>920</v>
       </c>
       <c r="O145">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P145">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="Q145">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="R145">
         <v>135</v>
       </c>
       <c r="S145">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="T145">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="U145">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="V145">
-        <v>0.181</v>
+        <v>0.183</v>
       </c>
       <c r="W145">
-        <v>0.5580000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="X145">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -13947,34 +13947,34 @@
         <v>851</v>
       </c>
       <c r="O146">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P146">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q146">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R146">
         <v>37</v>
       </c>
       <c r="S146">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="T146">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="U146">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="V146">
         <v>0.137</v>
       </c>
       <c r="W146">
-        <v>0.616</v>
+        <v>0.611</v>
       </c>
       <c r="X146">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:24">
@@ -14391,34 +14391,34 @@
         <v>851</v>
       </c>
       <c r="O152">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P152">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q152">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R152">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S152">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="T152">
         <v>0.013</v>
       </c>
       <c r="U152">
-        <v>0.089</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V152">
-        <v>0.2</v>
+        <v>0.197</v>
       </c>
       <c r="W152">
-        <v>0.5659999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X152">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="153" spans="1:24">
@@ -15205,34 +15205,34 @@
         <v>851</v>
       </c>
       <c r="O163">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P163">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="Q163">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R163">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S163">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="T163">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U163">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="V163">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="W163">
-        <v>0.509</v>
+        <v>0.511</v>
       </c>
       <c r="X163">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="164" spans="1:24">
@@ -15279,34 +15279,34 @@
         <v>851</v>
       </c>
       <c r="O164">
+        <v>33</v>
+      </c>
+      <c r="P164">
+        <v>140</v>
+      </c>
+      <c r="Q164">
+        <v>44</v>
+      </c>
+      <c r="R164">
         <v>32</v>
       </c>
-      <c r="P164">
-        <v>133</v>
-      </c>
-      <c r="Q164">
-        <v>42</v>
-      </c>
-      <c r="R164">
-        <v>31</v>
-      </c>
       <c r="S164">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="T164">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="U164">
         <v>0.054</v>
       </c>
       <c r="V164">
-        <v>0.111</v>
+        <v>0.114</v>
       </c>
       <c r="W164">
-        <v>0.47</v>
+        <v>0.475</v>
       </c>
       <c r="X164">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -15945,22 +15945,22 @@
         <v>914</v>
       </c>
       <c r="O173">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P173">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="Q173">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R173">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S173">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="T173">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="U173">
         <v>0.08400000000000001</v>
@@ -15969,10 +15969,10 @@
         <v>0.222</v>
       </c>
       <c r="W173">
-        <v>0.544</v>
+        <v>0.545</v>
       </c>
       <c r="X173">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="174" spans="1:24">
@@ -16241,34 +16241,34 @@
         <v>879</v>
       </c>
       <c r="O177">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P177">
         <v>34</v>
       </c>
       <c r="Q177">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R177">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S177">
-        <v>14.5</v>
+        <v>10.1</v>
       </c>
       <c r="T177">
-        <v>0.06</v>
+        <v>0.073</v>
       </c>
       <c r="U177">
-        <v>0.115</v>
+        <v>0.102</v>
       </c>
       <c r="V177">
-        <v>0.134</v>
+        <v>0.128</v>
       </c>
       <c r="W177">
-        <v>0.638</v>
+        <v>0.574</v>
       </c>
       <c r="X177">
-        <v>0.112</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="178" spans="1:24">
@@ -16315,34 +16315,34 @@
         <v>895</v>
       </c>
       <c r="O178">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P178">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="Q178">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="R178">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S178">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="T178">
         <v>0.049</v>
       </c>
       <c r="U178">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="V178">
         <v>0.144</v>
       </c>
       <c r="W178">
-        <v>0.621</v>
+        <v>0.627</v>
       </c>
       <c r="X178">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -16457,31 +16457,31 @@
         <v>854</v>
       </c>
       <c r="O180">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P180">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q180">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R180">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S180">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="T180">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="U180">
-        <v>0.093</v>
+        <v>0.095</v>
       </c>
       <c r="V180">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
       <c r="W180">
-        <v>0.624</v>
+        <v>0.619</v>
       </c>
       <c r="X180">
         <v>0.07199999999999999</v>
@@ -17271,34 +17271,34 @@
         <v>885</v>
       </c>
       <c r="O191">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P191">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q191">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="R191">
         <v>64</v>
       </c>
       <c r="S191">
-        <v>-4.4</v>
+        <v>-3.5</v>
       </c>
       <c r="T191">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="U191">
-        <v>0.169</v>
+        <v>0.165</v>
       </c>
       <c r="V191">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="W191">
-        <v>0.585</v>
+        <v>0.587</v>
       </c>
       <c r="X191">
-        <v>0.124</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -17419,34 +17419,34 @@
         <v>909</v>
       </c>
       <c r="O193">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P193">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="Q193">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="R193">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S193">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T193">
         <v>0.121</v>
       </c>
       <c r="U193">
-        <v>0.27</v>
+        <v>0.277</v>
       </c>
       <c r="V193">
-        <v>0.184</v>
+        <v>0.185</v>
       </c>
       <c r="W193">
-        <v>0.614</v>
+        <v>0.618</v>
       </c>
       <c r="X193">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="194" spans="1:24">
@@ -17641,34 +17641,34 @@
         <v>874</v>
       </c>
       <c r="O196">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P196">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="Q196">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="R196">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="S196">
         <v>10.5</v>
       </c>
       <c r="T196">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="U196">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="V196">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
       <c r="W196">
         <v>0.555</v>
       </c>
       <c r="X196">
-        <v>0.376</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="197" spans="1:24">
@@ -18233,34 +18233,34 @@
         <v>904</v>
       </c>
       <c r="O204">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P204">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q204">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="R204">
         <v>58</v>
       </c>
       <c r="S204">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="T204">
         <v>0.045</v>
       </c>
       <c r="U204">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
       <c r="V204">
         <v>0.148</v>
       </c>
       <c r="W204">
-        <v>0.535</v>
+        <v>0.533</v>
       </c>
       <c r="X204">
-        <v>0.077</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="205" spans="1:24">
@@ -18455,7 +18455,7 @@
         <v>851</v>
       </c>
       <c r="O207">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P207">
         <v>76</v>
@@ -18464,25 +18464,25 @@
         <v>46</v>
       </c>
       <c r="R207">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S207">
-        <v>21.3</v>
+        <v>18.2</v>
       </c>
       <c r="T207">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="U207">
-        <v>0.142</v>
+        <v>0.139</v>
       </c>
       <c r="V207">
-        <v>0.141</v>
+        <v>0.137</v>
       </c>
       <c r="W207">
         <v>0.5669999999999999</v>
       </c>
       <c r="X207">
-        <v>0.092</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="208" spans="1:24">
@@ -18529,34 +18529,34 @@
         <v>919</v>
       </c>
       <c r="O208">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P208">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Q208">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R208">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="S208">
-        <v>-6</v>
+        <v>-5.7</v>
       </c>
       <c r="T208">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="U208">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="V208">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="W208">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="X208">
-        <v>0.18</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -18603,34 +18603,34 @@
         <v>901</v>
       </c>
       <c r="O209">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P209">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="Q209">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="R209">
         <v>124</v>
       </c>
       <c r="S209">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="T209">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="U209">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="V209">
         <v>0.146</v>
       </c>
       <c r="W209">
-        <v>0.609</v>
+        <v>0.616</v>
       </c>
       <c r="X209">
-        <v>0.186</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -18677,34 +18677,34 @@
         <v>886</v>
       </c>
       <c r="O210">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P210">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="Q210">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="R210">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S210">
-        <v>-5.9</v>
+        <v>-5.2</v>
       </c>
       <c r="T210">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="U210">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="V210">
-        <v>0.181</v>
+        <v>0.18</v>
       </c>
       <c r="W210">
-        <v>0.621</v>
+        <v>0.619</v>
       </c>
       <c r="X210">
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -18825,34 +18825,34 @@
         <v>915</v>
       </c>
       <c r="O212">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P212">
-        <v>996</v>
+        <v>1027</v>
       </c>
       <c r="Q212">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R212">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="S212">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="T212">
         <v>0.014</v>
       </c>
       <c r="U212">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="V212">
-        <v>0.289</v>
+        <v>0.291</v>
       </c>
       <c r="W212">
-        <v>0.604</v>
+        <v>0.603</v>
       </c>
       <c r="X212">
-        <v>0.33</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="213" spans="1:24">
@@ -18899,34 +18899,34 @@
         <v>914</v>
       </c>
       <c r="O213">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P213">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q213">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="R213">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S213">
-        <v>-2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="T213">
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="U213">
         <v>0.247</v>
       </c>
       <c r="V213">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
       <c r="W213">
-        <v>0.6850000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="X213">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -18973,34 +18973,34 @@
         <v>874</v>
       </c>
       <c r="O214">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P214">
-        <v>756</v>
+        <v>798</v>
       </c>
       <c r="Q214">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R214">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="S214">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T214">
         <v>0.015</v>
       </c>
       <c r="U214">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="V214">
         <v>0.261</v>
       </c>
       <c r="W214">
-        <v>0.541</v>
+        <v>0.553</v>
       </c>
       <c r="X214">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -19713,34 +19713,34 @@
         <v>922</v>
       </c>
       <c r="O224">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P224">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q224">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R224">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S224">
-        <v>-14.4</v>
+        <v>-13.7</v>
       </c>
       <c r="T224">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="U224">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="V224">
         <v>0.166</v>
       </c>
       <c r="W224">
-        <v>0.515</v>
+        <v>0.522</v>
       </c>
       <c r="X224">
-        <v>0.311</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -19787,31 +19787,31 @@
         <v>882</v>
       </c>
       <c r="O225">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P225">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="Q225">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="R225">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="S225">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="T225">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="U225">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="V225">
-        <v>0.298</v>
+        <v>0.297</v>
       </c>
       <c r="W225">
-        <v>0.5629999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X225">
         <v>0.368</v>
@@ -20157,10 +20157,10 @@
         <v>908</v>
       </c>
       <c r="O230">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P230">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q230">
         <v>38</v>
@@ -20169,22 +20169,22 @@
         <v>76</v>
       </c>
       <c r="S230">
-        <v>-7.1</v>
+        <v>-6</v>
       </c>
       <c r="T230">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="U230">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="V230">
-        <v>0.245</v>
+        <v>0.248</v>
       </c>
       <c r="W230">
-        <v>0.5659999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="X230">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -20379,34 +20379,34 @@
         <v>877</v>
       </c>
       <c r="O233">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P233">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="Q233">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R233">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S233">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="T233">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="U233">
-        <v>0.148</v>
+        <v>0.146</v>
       </c>
       <c r="V233">
-        <v>0.282</v>
+        <v>0.281</v>
       </c>
       <c r="W233">
-        <v>0.597</v>
+        <v>0.596</v>
       </c>
       <c r="X233">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="234" spans="1:24">
@@ -20601,34 +20601,34 @@
         <v>917</v>
       </c>
       <c r="O236">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P236">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q236">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R236">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S236">
-        <v>-4.7</v>
+        <v>-5.2</v>
       </c>
       <c r="T236">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="U236">
-        <v>0.151</v>
+        <v>0.144</v>
       </c>
       <c r="V236">
         <v>0.12</v>
       </c>
       <c r="W236">
-        <v>0.6929999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="X236">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="237" spans="1:24">
@@ -20823,7 +20823,7 @@
         <v>911</v>
       </c>
       <c r="O239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P239">
         <v>0</v>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="S239">
-        <v>-71.40000000000001</v>
+        <v>-80</v>
       </c>
       <c r="T239">
         <v>0</v>
@@ -20844,7 +20844,7 @@
         <v>0</v>
       </c>
       <c r="V239">
-        <v>0.125</v>
+        <v>0.091</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21042,10 +21042,10 @@
         <v>928</v>
       </c>
       <c r="O242">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P242">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="Q242">
         <v>136</v>
@@ -21054,22 +21054,22 @@
         <v>67</v>
       </c>
       <c r="S242">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T242">
         <v>0.039</v>
       </c>
       <c r="U242">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V242">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="W242">
-        <v>0.5639999999999999</v>
+        <v>0.569</v>
       </c>
       <c r="X242">
-        <v>0.08500000000000001</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="243" spans="1:24">
@@ -22448,7 +22448,7 @@
         <v>905</v>
       </c>
       <c r="O261">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P261">
         <v>72</v>
@@ -22460,16 +22460,16 @@
         <v>9</v>
       </c>
       <c r="S261">
-        <v>-0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="T261">
         <v>0.029</v>
       </c>
       <c r="U261">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="V261">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
       <c r="W261">
         <v>0.494</v>
@@ -22670,34 +22670,34 @@
         <v>884</v>
       </c>
       <c r="O264">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P264">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q264">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="R264">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S264">
-        <v>-15.5</v>
+        <v>-15.1</v>
       </c>
       <c r="T264">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="U264">
-        <v>0.274</v>
+        <v>0.276</v>
       </c>
       <c r="V264">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
       <c r="W264">
-        <v>0.606</v>
+        <v>0.61</v>
       </c>
       <c r="X264">
-        <v>0.185</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="265" spans="1:24">
@@ -23262,34 +23262,34 @@
         <v>904</v>
       </c>
       <c r="O272">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P272">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="Q272">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R272">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="S272">
-        <v>-12.9</v>
+        <v>-13.2</v>
       </c>
       <c r="T272">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="U272">
-        <v>0.06900000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V272">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="W272">
-        <v>0.598</v>
+        <v>0.593</v>
       </c>
       <c r="X272">
-        <v>0.257</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="273" spans="1:24">
@@ -23706,34 +23706,34 @@
         <v>893</v>
       </c>
       <c r="O278">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P278">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="Q278">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="R278">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="S278">
         <v>6.9</v>
       </c>
       <c r="T278">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="U278">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="V278">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
       <c r="W278">
-        <v>0.667</v>
+        <v>0.669</v>
       </c>
       <c r="X278">
-        <v>0.194</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="279" spans="1:24">
@@ -23780,10 +23780,10 @@
         <v>922</v>
       </c>
       <c r="O279">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P279">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q279">
         <v>29</v>
@@ -23792,19 +23792,19 @@
         <v>13</v>
       </c>
       <c r="S279">
-        <v>0.5</v>
+        <v>-1.3</v>
       </c>
       <c r="T279">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="U279">
-        <v>0.12</v>
+        <v>0.116</v>
       </c>
       <c r="V279">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="W279">
-        <v>0.602</v>
+        <v>0.599</v>
       </c>
       <c r="X279">
         <v>0.102</v>
@@ -24076,34 +24076,34 @@
         <v>851</v>
       </c>
       <c r="O283">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P283">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q283">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R283">
         <v>47</v>
       </c>
       <c r="S283">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="T283">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="U283">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
       <c r="V283">
         <v>0.169</v>
       </c>
       <c r="W283">
-        <v>0.591</v>
+        <v>0.583</v>
       </c>
       <c r="X283">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="284" spans="1:24">
@@ -24298,34 +24298,34 @@
         <v>895</v>
       </c>
       <c r="O286">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P286">
-        <v>744</v>
+        <v>764</v>
       </c>
       <c r="Q286">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="R286">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S286">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="T286">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="U286">
-        <v>0.145</v>
+        <v>0.146</v>
       </c>
       <c r="V286">
         <v>0.255</v>
       </c>
       <c r="W286">
-        <v>0.594</v>
+        <v>0.593</v>
       </c>
       <c r="X286">
-        <v>0.222</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="287" spans="1:24">
@@ -24372,34 +24372,34 @@
         <v>851</v>
       </c>
       <c r="O287">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P287">
         <v>192</v>
       </c>
       <c r="Q287">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R287">
         <v>23</v>
       </c>
       <c r="S287">
-        <v>-9.5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="T287">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="U287">
         <v>0.142</v>
       </c>
       <c r="V287">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="W287">
         <v>0.638</v>
       </c>
       <c r="X287">
-        <v>0.067</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -24890,34 +24890,34 @@
         <v>873</v>
       </c>
       <c r="O294">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P294">
-        <v>939</v>
+        <v>965</v>
       </c>
       <c r="Q294">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="R294">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S294">
-        <v>10.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T294">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="U294">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="V294">
         <v>0.265</v>
       </c>
       <c r="W294">
-        <v>0.665</v>
+        <v>0.664</v>
       </c>
       <c r="X294">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="295" spans="1:24">
@@ -25038,34 +25038,34 @@
         <v>916</v>
       </c>
       <c r="O296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P296">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q296">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R296">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S296">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="T296">
         <v>0.051</v>
       </c>
       <c r="U296">
-        <v>0.06</v>
+        <v>0.099</v>
       </c>
       <c r="V296">
-        <v>0.268</v>
+        <v>0.243</v>
       </c>
       <c r="W296">
-        <v>0.429</v>
+        <v>0.402</v>
       </c>
       <c r="X296">
-        <v>0.103</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:24">
@@ -25260,34 +25260,34 @@
         <v>916</v>
       </c>
       <c r="O299">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P299">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="Q299">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="R299">
         <v>10</v>
       </c>
       <c r="S299">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="T299">
-        <v>0.063</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U299">
-        <v>0.158</v>
+        <v>0.167</v>
       </c>
       <c r="V299">
         <v>0.177</v>
       </c>
       <c r="W299">
-        <v>0.651</v>
+        <v>0.667</v>
       </c>
       <c r="X299">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="300" spans="1:24">
@@ -25334,34 +25334,34 @@
         <v>918</v>
       </c>
       <c r="O300">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P300">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="Q300">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="R300">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S300">
-        <v>-6.7</v>
+        <v>-5.9</v>
       </c>
       <c r="T300">
         <v>0.05</v>
       </c>
       <c r="U300">
-        <v>0.151</v>
+        <v>0.147</v>
       </c>
       <c r="V300">
-        <v>0.206</v>
+        <v>0.205</v>
       </c>
       <c r="W300">
-        <v>0.545</v>
+        <v>0.549</v>
       </c>
       <c r="X300">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="301" spans="1:24">
@@ -25408,34 +25408,34 @@
         <v>914</v>
       </c>
       <c r="O301">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P301">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q301">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R301">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S301">
-        <v>-8</v>
+        <v>-9.6</v>
       </c>
       <c r="T301">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="U301">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="V301">
-        <v>0.186</v>
+        <v>0.183</v>
       </c>
       <c r="W301">
-        <v>0.594</v>
+        <v>0.592</v>
       </c>
       <c r="X301">
-        <v>0.198</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="302" spans="1:24">
@@ -26148,34 +26148,34 @@
         <v>884</v>
       </c>
       <c r="O311">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P311">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q311">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R311">
         <v>19</v>
       </c>
       <c r="S311">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T311">
-        <v>0.08400000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="U311">
-        <v>0.282</v>
+        <v>0.279</v>
       </c>
       <c r="V311">
-        <v>0.249</v>
+        <v>0.247</v>
       </c>
       <c r="W311">
-        <v>0.478</v>
+        <v>0.484</v>
       </c>
       <c r="X311">
-        <v>0.164</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="312" spans="1:24">
@@ -26222,34 +26222,34 @@
         <v>893</v>
       </c>
       <c r="O312">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P312">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q312">
         <v>117</v>
       </c>
       <c r="R312">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="S312">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="T312">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="U312">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
       <c r="V312">
-        <v>0.26</v>
+        <v>0.262</v>
       </c>
       <c r="W312">
-        <v>0.478</v>
+        <v>0.473</v>
       </c>
       <c r="X312">
-        <v>0.269</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="313" spans="1:24">
@@ -26296,34 +26296,34 @@
         <v>893</v>
       </c>
       <c r="O313">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P313">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="Q313">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="R313">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S313">
-        <v>-0.8</v>
+        <v>-1.4</v>
       </c>
       <c r="T313">
         <v>0.156</v>
       </c>
       <c r="U313">
-        <v>0.231</v>
+        <v>0.233</v>
       </c>
       <c r="V313">
-        <v>0.136</v>
+        <v>0.138</v>
       </c>
       <c r="W313">
-        <v>0.53</v>
+        <v>0.532</v>
       </c>
       <c r="X313">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="314" spans="1:24">
@@ -26740,34 +26740,34 @@
         <v>884</v>
       </c>
       <c r="O319">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P319">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q319">
         <v>127</v>
       </c>
       <c r="R319">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="S319">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T319">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="U319">
-        <v>0.112</v>
+        <v>0.109</v>
       </c>
       <c r="V319">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="W319">
-        <v>0.523</v>
+        <v>0.506</v>
       </c>
       <c r="X319">
-        <v>0.154</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="320" spans="1:24">
@@ -26962,34 +26962,34 @@
         <v>893</v>
       </c>
       <c r="O322">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P322">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q322">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R322">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S322">
         <v>-6.3</v>
       </c>
       <c r="T322">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="U322">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="V322">
         <v>0.149</v>
       </c>
       <c r="W322">
-        <v>0.501</v>
+        <v>0.521</v>
       </c>
       <c r="X322">
-        <v>0.231</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="323" spans="1:24">
@@ -27110,34 +27110,34 @@
         <v>899</v>
       </c>
       <c r="O324">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P324">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="Q324">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R324">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="S324">
-        <v>-19.8</v>
+        <v>-19.5</v>
       </c>
       <c r="T324">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U324">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="V324">
-        <v>0.257</v>
+        <v>0.259</v>
       </c>
       <c r="W324">
         <v>0.484</v>
       </c>
       <c r="X324">
-        <v>0.134</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="325" spans="1:24">
@@ -27332,34 +27332,34 @@
         <v>889</v>
       </c>
       <c r="O327">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P327">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q327">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R327">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S327">
-        <v>-11.5</v>
+        <v>-11.3</v>
       </c>
       <c r="T327">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="U327">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="V327">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="W327">
-        <v>0.442</v>
+        <v>0.449</v>
       </c>
       <c r="X327">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="328" spans="1:24">
@@ -27480,34 +27480,34 @@
         <v>894</v>
       </c>
       <c r="O329">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P329">
         <v>34</v>
       </c>
       <c r="Q329">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R329">
         <v>6</v>
       </c>
       <c r="S329">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="T329">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U329">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="V329">
         <v>0.125</v>
       </c>
       <c r="W329">
-        <v>0.459</v>
+        <v>0.447</v>
       </c>
       <c r="X329">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="330" spans="1:24">
@@ -27702,31 +27702,31 @@
         <v>873</v>
       </c>
       <c r="O332">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P332">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="Q332">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="R332">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="S332">
-        <v>-6.6</v>
+        <v>-7</v>
       </c>
       <c r="T332">
         <v>0.025</v>
       </c>
       <c r="U332">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="V332">
-        <v>0.283</v>
+        <v>0.282</v>
       </c>
       <c r="W332">
-        <v>0.597</v>
+        <v>0.599</v>
       </c>
       <c r="X332">
         <v>0.433</v>
@@ -27776,28 +27776,28 @@
         <v>915</v>
       </c>
       <c r="O333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P333">
         <v>2</v>
       </c>
       <c r="Q333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R333">
         <v>0</v>
       </c>
       <c r="S333">
-        <v>-17.3</v>
+        <v>-35.2</v>
       </c>
       <c r="T333">
-        <v>0.2</v>
+        <v>0.167</v>
       </c>
       <c r="U333">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="V333">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="W333">
         <v>0.347</v>
@@ -27998,34 +27998,34 @@
         <v>851</v>
       </c>
       <c r="O336">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P336">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q336">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R336">
         <v>37</v>
       </c>
       <c r="S336">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="T336">
         <v>0.022</v>
       </c>
       <c r="U336">
-        <v>0.115</v>
+        <v>0.123</v>
       </c>
       <c r="V336">
         <v>0.142</v>
       </c>
       <c r="W336">
-        <v>0.512</v>
+        <v>0.513</v>
       </c>
       <c r="X336">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:24">
@@ -28294,7 +28294,7 @@
         <v>929</v>
       </c>
       <c r="O340">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P340">
         <v>39</v>
@@ -28306,19 +28306,19 @@
         <v>1</v>
       </c>
       <c r="S340">
-        <v>-3.7</v>
+        <v>-6.1</v>
       </c>
       <c r="T340">
-        <v>0.095</v>
+        <v>0.093</v>
       </c>
       <c r="U340">
-        <v>0.137</v>
+        <v>0.132</v>
       </c>
       <c r="V340">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
       <c r="W340">
-        <v>0.639</v>
+        <v>0.619</v>
       </c>
       <c r="X340">
         <v>0.031</v>
@@ -28368,31 +28368,31 @@
         <v>883</v>
       </c>
       <c r="O341">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P341">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q341">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R341">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S341">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="T341">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="U341">
-        <v>0.097</v>
+        <v>0.095</v>
       </c>
       <c r="V341">
         <v>0.137</v>
       </c>
       <c r="W341">
-        <v>0.635</v>
+        <v>0.632</v>
       </c>
       <c r="X341">
         <v>0.184</v>
@@ -28664,10 +28664,10 @@
         <v>912</v>
       </c>
       <c r="O345">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P345">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q345">
         <v>31</v>
@@ -28676,22 +28676,22 @@
         <v>26</v>
       </c>
       <c r="S345">
-        <v>-14.9</v>
+        <v>-13.9</v>
       </c>
       <c r="T345">
         <v>0.011</v>
       </c>
       <c r="U345">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
       <c r="V345">
         <v>0.222</v>
       </c>
       <c r="W345">
-        <v>0.5580000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="X345">
-        <v>0.163</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="346" spans="1:24">
@@ -28886,31 +28886,31 @@
         <v>901</v>
       </c>
       <c r="O348">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P348">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="Q348">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R348">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S348">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="T348">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="U348">
         <v>0.08400000000000001</v>
       </c>
       <c r="V348">
-        <v>0.218</v>
+        <v>0.22</v>
       </c>
       <c r="W348">
-        <v>0.572</v>
+        <v>0.577</v>
       </c>
       <c r="X348">
         <v>0.102</v>
@@ -29108,34 +29108,34 @@
         <v>896</v>
       </c>
       <c r="O351">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P351">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q351">
         <v>31</v>
       </c>
       <c r="R351">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S351">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="T351">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U351">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="V351">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="W351">
-        <v>0.59</v>
+        <v>0.594</v>
       </c>
       <c r="X351">
-        <v>0.21</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="352" spans="1:24">
@@ -29774,34 +29774,34 @@
         <v>921</v>
       </c>
       <c r="O360">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P360">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q360">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R360">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S360">
-        <v>-4.7</v>
+        <v>-5.4</v>
       </c>
       <c r="T360">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="U360">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="V360">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="W360">
-        <v>0.619</v>
+        <v>0.61</v>
       </c>
       <c r="X360">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="361" spans="1:24">
@@ -30218,34 +30218,34 @@
         <v>905</v>
       </c>
       <c r="O366">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P366">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="Q366">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R366">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S366">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="T366">
         <v>0.024</v>
       </c>
       <c r="U366">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="V366">
         <v>0.186</v>
       </c>
       <c r="W366">
-        <v>0.572</v>
+        <v>0.581</v>
       </c>
       <c r="X366">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="367" spans="1:24">
@@ -30292,31 +30292,31 @@
         <v>877</v>
       </c>
       <c r="O367">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P367">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q367">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R367">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="S367">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T367">
         <v>0.02</v>
       </c>
       <c r="U367">
-        <v>0.08500000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V367">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
       <c r="W367">
-        <v>0.524</v>
+        <v>0.527</v>
       </c>
       <c r="X367">
         <v>0.25</v>
@@ -30440,34 +30440,34 @@
         <v>887</v>
       </c>
       <c r="O369">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P369">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q369">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R369">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S369">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="T369">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="U369">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="V369">
-        <v>0.164</v>
+        <v>0.161</v>
       </c>
       <c r="W369">
-        <v>0.555</v>
+        <v>0.556</v>
       </c>
       <c r="X369">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="370" spans="1:24">
@@ -30514,34 +30514,34 @@
         <v>890</v>
       </c>
       <c r="O370">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P370">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q370">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R370">
         <v>12</v>
       </c>
       <c r="S370">
-        <v>-8.9</v>
+        <v>-8.1</v>
       </c>
       <c r="T370">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="U370">
-        <v>0.263</v>
+        <v>0.276</v>
       </c>
       <c r="V370">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="W370">
-        <v>0.502</v>
+        <v>0.514</v>
       </c>
       <c r="X370">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="371" spans="1:24">
@@ -30810,34 +30810,34 @@
         <v>878</v>
       </c>
       <c r="O374">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P374">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q374">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R374">
         <v>27</v>
       </c>
       <c r="S374">
-        <v>-0.6</v>
+        <v>-1.5</v>
       </c>
       <c r="T374">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U374">
-        <v>0.077</v>
+        <v>0.079</v>
       </c>
       <c r="V374">
         <v>0.192</v>
       </c>
       <c r="W374">
-        <v>0.576</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X374">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="375" spans="1:24">
@@ -31254,34 +31254,34 @@
         <v>851</v>
       </c>
       <c r="O380">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P380">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="Q380">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="R380">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S380">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T380">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="U380">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="V380">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="W380">
-        <v>0.581</v>
+        <v>0.586</v>
       </c>
       <c r="X380">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="381" spans="1:24">
@@ -31624,31 +31624,31 @@
         <v>920</v>
       </c>
       <c r="O385">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P385">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q385">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R385">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="S385">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="T385">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U385">
         <v>0.094</v>
       </c>
       <c r="V385">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="W385">
-        <v>0.608</v>
+        <v>0.613</v>
       </c>
       <c r="X385">
         <v>0.16</v>
@@ -31698,16 +31698,16 @@
         <v>896</v>
       </c>
       <c r="O386">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P386">
         <v>127</v>
       </c>
       <c r="Q386">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="R386">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S386">
         <v>4.6</v>
@@ -31716,16 +31716,16 @@
         <v>0.035</v>
       </c>
       <c r="U386">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
       <c r="V386">
-        <v>0.08500000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="W386">
-        <v>0.5629999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="X386">
-        <v>0.111</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="387" spans="1:24">
@@ -31846,34 +31846,34 @@
         <v>899</v>
       </c>
       <c r="O388">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P388">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q388">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="R388">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S388">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="T388">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="U388">
-        <v>0.143</v>
+        <v>0.141</v>
       </c>
       <c r="V388">
-        <v>0.179</v>
+        <v>0.181</v>
       </c>
       <c r="W388">
-        <v>0.591</v>
+        <v>0.575</v>
       </c>
       <c r="X388">
-        <v>0.157</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="389" spans="1:24">
@@ -32068,34 +32068,34 @@
         <v>910</v>
       </c>
       <c r="O391">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P391">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="Q391">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="R391">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S391">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="T391">
         <v>0.01</v>
       </c>
       <c r="U391">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="V391">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="W391">
-        <v>0.625</v>
+        <v>0.631</v>
       </c>
       <c r="X391">
-        <v>0.114</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="392" spans="1:24">
@@ -32142,34 +32142,34 @@
         <v>876</v>
       </c>
       <c r="O392">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P392">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="Q392">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="R392">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S392">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="T392">
         <v>0.035</v>
       </c>
       <c r="U392">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
       <c r="V392">
-        <v>0.183</v>
+        <v>0.181</v>
       </c>
       <c r="W392">
-        <v>0.577</v>
+        <v>0.576</v>
       </c>
       <c r="X392">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="393" spans="1:24">
@@ -32290,34 +32290,34 @@
         <v>878</v>
       </c>
       <c r="O394">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P394">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="Q394">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R394">
         <v>66</v>
       </c>
       <c r="S394">
-        <v>-7.4</v>
+        <v>-7</v>
       </c>
       <c r="T394">
         <v>0.03</v>
       </c>
       <c r="U394">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
       <c r="V394">
         <v>0.136</v>
       </c>
       <c r="W394">
-        <v>0.606</v>
+        <v>0.61</v>
       </c>
       <c r="X394">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="395" spans="1:24">
@@ -33400,28 +33400,28 @@
         <v>904</v>
       </c>
       <c r="O409">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P409">
         <v>41</v>
       </c>
       <c r="Q409">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R409">
         <v>1</v>
       </c>
       <c r="S409">
-        <v>11.3</v>
+        <v>12.9</v>
       </c>
       <c r="T409">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="U409">
-        <v>0.137</v>
+        <v>0.149</v>
       </c>
       <c r="V409">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="W409">
         <v>0.713</v>
@@ -34066,34 +34066,34 @@
         <v>912</v>
       </c>
       <c r="O418">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P418">
         <v>102</v>
       </c>
       <c r="Q418">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R418">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S418">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="T418">
-        <v>0.094</v>
+        <v>0.1</v>
       </c>
       <c r="U418">
-        <v>0.219</v>
+        <v>0.217</v>
       </c>
       <c r="V418">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="W418">
-        <v>0.578</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X418">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="419" spans="1:24">
@@ -34288,7 +34288,7 @@
         <v>851</v>
       </c>
       <c r="O421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P421">
         <v>3</v>
@@ -34297,10 +34297,10 @@
         <v>0</v>
       </c>
       <c r="R421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S421">
-        <v>-76.5</v>
+        <v>-81.8</v>
       </c>
       <c r="T421">
         <v>0</v>
@@ -34309,13 +34309,13 @@
         <v>0</v>
       </c>
       <c r="V421">
+        <v>0.231</v>
+      </c>
+      <c r="W421">
+        <v>0.3</v>
+      </c>
+      <c r="X421">
         <v>0.2</v>
-      </c>
-      <c r="W421">
-        <v>0.5</v>
-      </c>
-      <c r="X421">
-        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:24">
@@ -34436,22 +34436,22 @@
         <v>882</v>
       </c>
       <c r="O423">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P423">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="Q423">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="R423">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="S423">
-        <v>-7.7</v>
+        <v>-7.3</v>
       </c>
       <c r="T423">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U423">
         <v>0.161</v>
@@ -34460,7 +34460,7 @@
         <v>0.286</v>
       </c>
       <c r="W423">
-        <v>0.546</v>
+        <v>0.545</v>
       </c>
       <c r="X423">
         <v>0.261</v>
@@ -35250,34 +35250,34 @@
         <v>884</v>
       </c>
       <c r="O434">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P434">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q434">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R434">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S434">
-        <v>-3.2</v>
+        <v>-3.6</v>
       </c>
       <c r="T434">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="U434">
         <v>0.149</v>
       </c>
       <c r="V434">
-        <v>0.174</v>
+        <v>0.173</v>
       </c>
       <c r="W434">
-        <v>0.553</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X434">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="435" spans="1:24">
@@ -35398,31 +35398,31 @@
         <v>899</v>
       </c>
       <c r="O436">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P436">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q436">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="R436">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S436">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="T436">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
       <c r="U436">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="V436">
-        <v>0.118</v>
+        <v>0.117</v>
       </c>
       <c r="W436">
-        <v>0.654</v>
+        <v>0.657</v>
       </c>
       <c r="X436">
         <v>0.076</v>
@@ -35472,34 +35472,34 @@
         <v>886</v>
       </c>
       <c r="O437">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P437">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="Q437">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="R437">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S437">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="T437">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="U437">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="V437">
-        <v>0.148</v>
+        <v>0.147</v>
       </c>
       <c r="W437">
-        <v>0.593</v>
+        <v>0.596</v>
       </c>
       <c r="X437">
-        <v>0.067</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="438" spans="1:24">
@@ -35916,31 +35916,31 @@
         <v>932</v>
       </c>
       <c r="O443">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P443">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q443">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R443">
         <v>8</v>
       </c>
       <c r="S443">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="T443">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
       <c r="U443">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="V443">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
       <c r="W443">
-        <v>0.6879999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="X443">
         <v>0.063</v>
@@ -35990,31 +35990,31 @@
         <v>893</v>
       </c>
       <c r="O444">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P444">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q444">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R444">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S444">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T444">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="U444">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="V444">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="W444">
-        <v>0.607</v>
+        <v>0.604</v>
       </c>
       <c r="X444">
         <v>0.147</v>
@@ -36138,34 +36138,34 @@
         <v>877</v>
       </c>
       <c r="O446">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P446">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="Q446">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="R446">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="S446">
-        <v>-8.9</v>
+        <v>-8</v>
       </c>
       <c r="T446">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="U446">
-        <v>0.184</v>
+        <v>0.181</v>
       </c>
       <c r="V446">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
       <c r="W446">
-        <v>0.549</v>
+        <v>0.546</v>
       </c>
       <c r="X446">
-        <v>0.296</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="447" spans="1:24">
@@ -36212,19 +36212,19 @@
         <v>851</v>
       </c>
       <c r="O447">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P447">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q447">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R447">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S447">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="T447">
         <v>0.03</v>
@@ -36233,13 +36233,13 @@
         <v>0.107</v>
       </c>
       <c r="V447">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="W447">
         <v>0.569</v>
       </c>
       <c r="X447">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="448" spans="1:24">
@@ -36656,34 +36656,34 @@
         <v>851</v>
       </c>
       <c r="O453">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P453">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q453">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R453">
         <v>31</v>
       </c>
       <c r="S453">
-        <v>-2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="T453">
         <v>0.037</v>
       </c>
       <c r="U453">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="V453">
         <v>0.154</v>
       </c>
       <c r="W453">
-        <v>0.5620000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X453">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="454" spans="1:24">
@@ -36952,34 +36952,34 @@
         <v>895</v>
       </c>
       <c r="O457">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P457">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="Q457">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="R457">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="S457">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="T457">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="U457">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="V457">
         <v>0.275</v>
       </c>
       <c r="W457">
-        <v>0.615</v>
+        <v>0.618</v>
       </c>
       <c r="X457">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="458" spans="1:24">
@@ -37026,34 +37026,34 @@
         <v>877</v>
       </c>
       <c r="O458">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P458">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="Q458">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="R458">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S458">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="T458">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U458">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="V458">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="W458">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
       <c r="X458">
-        <v>0.224</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="459" spans="1:24">
@@ -37100,34 +37100,34 @@
         <v>883</v>
       </c>
       <c r="O459">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P459">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q459">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="R459">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S459">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="T459">
-        <v>0.173</v>
+        <v>0.184</v>
       </c>
       <c r="U459">
-        <v>0.215</v>
+        <v>0.208</v>
       </c>
       <c r="V459">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
       <c r="W459">
-        <v>0.5570000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="X459">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="460" spans="1:24">
@@ -37911,34 +37911,34 @@
         <v>885</v>
       </c>
       <c r="O470">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P470">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Q470">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="R470">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S470">
-        <v>-0.9</v>
+        <v>-1.4</v>
       </c>
       <c r="T470">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U470">
-        <v>0.109</v>
+        <v>0.111</v>
       </c>
       <c r="V470">
-        <v>0.198</v>
+        <v>0.199</v>
       </c>
       <c r="W470">
-        <v>0.508</v>
+        <v>0.509</v>
       </c>
       <c r="X470">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="471" spans="1:24">
@@ -38133,34 +38133,34 @@
         <v>889</v>
       </c>
       <c r="O473">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P473">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q473">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R473">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S473">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="T473">
         <v>0.007</v>
       </c>
       <c r="U473">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="V473">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
       <c r="W473">
-        <v>0.595</v>
+        <v>0.589</v>
       </c>
       <c r="X473">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="474" spans="1:24">
@@ -38207,22 +38207,22 @@
         <v>901</v>
       </c>
       <c r="O474">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P474">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="Q474">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="R474">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S474">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="T474">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="U474">
         <v>0.168</v>
@@ -38231,10 +38231,10 @@
         <v>0.175</v>
       </c>
       <c r="W474">
-        <v>0.5570000000000001</v>
+        <v>0.553</v>
       </c>
       <c r="X474">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="475" spans="1:24">
@@ -38577,34 +38577,34 @@
         <v>927</v>
       </c>
       <c r="O479">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P479">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q479">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="R479">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S479">
-        <v>-2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="T479">
         <v>0.097</v>
       </c>
       <c r="U479">
-        <v>0.192</v>
+        <v>0.188</v>
       </c>
       <c r="V479">
-        <v>0.167</v>
+        <v>0.165</v>
       </c>
       <c r="W479">
-        <v>0.604</v>
+        <v>0.597</v>
       </c>
       <c r="X479">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="480" spans="1:24">
@@ -38651,34 +38651,34 @@
         <v>880</v>
       </c>
       <c r="O480">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P480">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q480">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R480">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S480">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="T480">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="U480">
-        <v>0.089</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V480">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="W480">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="X480">
-        <v>0.314</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="481" spans="1:24">
@@ -39539,28 +39539,28 @@
         <v>926</v>
       </c>
       <c r="O492">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P492">
         <v>3</v>
       </c>
       <c r="Q492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R492">
         <v>1</v>
       </c>
       <c r="S492">
-        <v>-12.5</v>
+        <v>-22.2</v>
       </c>
       <c r="T492">
         <v>0</v>
       </c>
       <c r="U492">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="V492">
-        <v>0.241</v>
+        <v>0.219</v>
       </c>
       <c r="W492">
         <v>0.233</v>
@@ -39761,34 +39761,34 @@
         <v>914</v>
       </c>
       <c r="O495">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P495">
-        <v>880</v>
+        <v>912</v>
       </c>
       <c r="Q495">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="R495">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="S495">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="T495">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="U495">
-        <v>0.146</v>
+        <v>0.15</v>
       </c>
       <c r="V495">
-        <v>0.26</v>
+        <v>0.261</v>
       </c>
       <c r="W495">
-        <v>0.617</v>
+        <v>0.618</v>
       </c>
       <c r="X495">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="496" spans="1:24">
@@ -40427,31 +40427,31 @@
         <v>873</v>
       </c>
       <c r="O504">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P504">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="Q504">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="R504">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="S504">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="T504">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="U504">
-        <v>0.243</v>
+        <v>0.242</v>
       </c>
       <c r="V504">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="W504">
-        <v>0.603</v>
+        <v>0.604</v>
       </c>
       <c r="X504">
         <v>0.197</v>
@@ -41241,34 +41241,34 @@
         <v>905</v>
       </c>
       <c r="O515">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P515">
         <v>155</v>
       </c>
       <c r="Q515">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R515">
         <v>47</v>
       </c>
       <c r="S515">
-        <v>-7.4</v>
+        <v>-7</v>
       </c>
       <c r="T515">
         <v>0.081</v>
       </c>
       <c r="U515">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="V515">
-        <v>0.172</v>
+        <v>0.173</v>
       </c>
       <c r="W515">
-        <v>0.552</v>
+        <v>0.548</v>
       </c>
       <c r="X515">
-        <v>0.175</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="516" spans="1:24">
@@ -41315,34 +41315,34 @@
         <v>886</v>
       </c>
       <c r="O516">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P516">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q516">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="R516">
         <v>24</v>
       </c>
       <c r="S516">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T516">
-        <v>0.155</v>
+        <v>0.151</v>
       </c>
       <c r="U516">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="V516">
-        <v>0.172</v>
+        <v>0.169</v>
       </c>
       <c r="W516">
-        <v>0.632</v>
+        <v>0.625</v>
       </c>
       <c r="X516">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="517" spans="1:24">

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -3365,34 +3365,34 @@
         <v>851</v>
       </c>
       <c r="O3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="Q3">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S3">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="T3">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="U3">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V3">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="W3">
-        <v>0.662</v>
+        <v>0.657</v>
       </c>
       <c r="X3">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -3513,34 +3513,34 @@
         <v>877</v>
       </c>
       <c r="O5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P5">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q5">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R5">
         <v>54</v>
       </c>
       <c r="S5">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="T5">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="U5">
-        <v>0.13</v>
+        <v>0.126</v>
       </c>
       <c r="V5">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
       <c r="W5">
-        <v>0.645</v>
+        <v>0.631</v>
       </c>
       <c r="X5">
-        <v>0.135</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -3735,34 +3735,34 @@
         <v>879</v>
       </c>
       <c r="O8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S8">
-        <v>15</v>
+        <v>14.1</v>
       </c>
       <c r="T8">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="U8">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="V8">
-        <v>0.182</v>
+        <v>0.181</v>
       </c>
       <c r="W8">
         <v>0.604</v>
       </c>
       <c r="X8">
-        <v>0.093</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -3957,34 +3957,34 @@
         <v>880</v>
       </c>
       <c r="O11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P11">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R11">
         <v>5</v>
       </c>
       <c r="S11">
-        <v>-4.7</v>
+        <v>-5.5</v>
       </c>
       <c r="T11">
         <v>0.073</v>
       </c>
       <c r="U11">
-        <v>0.159</v>
+        <v>0.155</v>
       </c>
       <c r="V11">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="W11">
-        <v>0.67</v>
+        <v>0.708</v>
       </c>
       <c r="X11">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -4253,34 +4253,34 @@
         <v>851</v>
       </c>
       <c r="O15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P15">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S15">
-        <v>12.6</v>
+        <v>10.6</v>
       </c>
       <c r="T15">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="U15">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="V15">
-        <v>0.136</v>
+        <v>0.135</v>
       </c>
       <c r="W15">
-        <v>0.466</v>
+        <v>0.463</v>
       </c>
       <c r="X15">
-        <v>0.167</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -4327,28 +4327,28 @@
         <v>851</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16">
         <v>3</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>-3.1</v>
+        <v>-2.5</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="V16">
-        <v>0.114</v>
+        <v>0.106</v>
       </c>
       <c r="W16">
         <v>0.3</v>
@@ -4401,34 +4401,34 @@
         <v>884</v>
       </c>
       <c r="O17">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P17">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q17">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S17">
-        <v>-16.4</v>
+        <v>-15.1</v>
       </c>
       <c r="T17">
-        <v>0.08699999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="U17">
-        <v>0.161</v>
+        <v>0.157</v>
       </c>
       <c r="V17">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="W17">
-        <v>0.55</v>
+        <v>0.547</v>
       </c>
       <c r="X17">
-        <v>0.175</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -4789,7 +4789,7 @@
         <v>0.08</v>
       </c>
       <c r="U22">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="V22">
         <v>0.168</v>
@@ -4993,34 +4993,34 @@
         <v>887</v>
       </c>
       <c r="O25">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P25">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q25">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R25">
         <v>52</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="T25">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="U25">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="V25">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="W25">
         <v>0.517</v>
       </c>
       <c r="X25">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -5067,19 +5067,19 @@
         <v>888</v>
       </c>
       <c r="O26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P26">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R26">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="S26">
-        <v>10.2</v>
+        <v>8.5</v>
       </c>
       <c r="T26">
         <v>0.02</v>
@@ -5088,13 +5088,13 @@
         <v>0.096</v>
       </c>
       <c r="V26">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="W26">
-        <v>0.5629999999999999</v>
+        <v>0.551</v>
       </c>
       <c r="X26">
-        <v>0.236</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -5215,34 +5215,34 @@
         <v>889</v>
       </c>
       <c r="O28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P28">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="Q28">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R28">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="S28">
-        <v>-8.4</v>
+        <v>-9</v>
       </c>
       <c r="T28">
         <v>0.008999999999999999</v>
       </c>
       <c r="U28">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="V28">
-        <v>0.249</v>
+        <v>0.248</v>
       </c>
       <c r="W28">
-        <v>0.5610000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X28">
-        <v>0.255</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -6177,22 +6177,22 @@
         <v>894</v>
       </c>
       <c r="O41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P41">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q41">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R41">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S41">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="T41">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U41">
         <v>0.094</v>
@@ -6201,7 +6201,7 @@
         <v>0.11</v>
       </c>
       <c r="W41">
-        <v>0.552</v>
+        <v>0.544</v>
       </c>
       <c r="X41">
         <v>0.065</v>
@@ -6251,34 +6251,34 @@
         <v>873</v>
       </c>
       <c r="O42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P42">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q42">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="R42">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="S42">
-        <v>-4.5</v>
+        <v>-3.9</v>
       </c>
       <c r="T42">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="U42">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="V42">
         <v>0.145</v>
       </c>
       <c r="W42">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X42">
-        <v>0.406</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -6325,31 +6325,31 @@
         <v>890</v>
       </c>
       <c r="O43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P43">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="Q43">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="R43">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S43">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="T43">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="U43">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="V43">
         <v>0.214</v>
       </c>
       <c r="W43">
-        <v>0.571</v>
+        <v>0.575</v>
       </c>
       <c r="X43">
         <v>0.08500000000000001</v>
@@ -6547,34 +6547,34 @@
         <v>897</v>
       </c>
       <c r="O46">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P46">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="Q46">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="R46">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S46">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="T46">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="U46">
-        <v>0.233</v>
+        <v>0.235</v>
       </c>
       <c r="V46">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="W46">
-        <v>0.542</v>
+        <v>0.541</v>
       </c>
       <c r="X46">
-        <v>0.128</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -6695,31 +6695,31 @@
         <v>899</v>
       </c>
       <c r="O48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P48">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>49</v>
       </c>
       <c r="R48">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S48">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="T48">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U48">
-        <v>0.08400000000000001</v>
+        <v>0.079</v>
       </c>
       <c r="V48">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="W48">
-        <v>0.5639999999999999</v>
+        <v>0.546</v>
       </c>
       <c r="X48">
         <v>0.127</v>
@@ -6917,31 +6917,31 @@
         <v>882</v>
       </c>
       <c r="O51">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P51">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="Q51">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="R51">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S51">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
       <c r="T51">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U51">
-        <v>0.08400000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V51">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="W51">
-        <v>0.582</v>
+        <v>0.579</v>
       </c>
       <c r="X51">
         <v>0.159</v>
@@ -6991,10 +6991,10 @@
         <v>851</v>
       </c>
       <c r="O52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P52">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -7003,22 +7003,22 @@
         <v>3</v>
       </c>
       <c r="S52">
-        <v>16.7</v>
+        <v>18.1</v>
       </c>
       <c r="T52">
-        <v>0.105</v>
+        <v>0.103</v>
       </c>
       <c r="U52">
-        <v>0.222</v>
+        <v>0.205</v>
       </c>
       <c r="V52">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="W52">
-        <v>0.432</v>
+        <v>0.504</v>
       </c>
       <c r="X52">
-        <v>0.1</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -7139,10 +7139,10 @@
         <v>902</v>
       </c>
       <c r="O54">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P54">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q54">
         <v>123</v>
@@ -7151,22 +7151,22 @@
         <v>89</v>
       </c>
       <c r="S54">
-        <v>-4.9</v>
+        <v>-5</v>
       </c>
       <c r="T54">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="U54">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="V54">
-        <v>0.195</v>
+        <v>0.196</v>
       </c>
       <c r="W54">
-        <v>0.536</v>
+        <v>0.537</v>
       </c>
       <c r="X54">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -7435,10 +7435,10 @@
         <v>851</v>
       </c>
       <c r="O58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P58">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -7447,22 +7447,22 @@
         <v>6</v>
       </c>
       <c r="S58">
-        <v>-4.7</v>
+        <v>-4.4</v>
       </c>
       <c r="T58">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="U58">
         <v>0.078</v>
       </c>
       <c r="V58">
-        <v>0.212</v>
+        <v>0.206</v>
       </c>
       <c r="W58">
-        <v>0.551</v>
+        <v>0.581</v>
       </c>
       <c r="X58">
-        <v>0.143</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -7657,31 +7657,31 @@
         <v>905</v>
       </c>
       <c r="O61">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P61">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="Q61">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R61">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S61">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="T61">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="U61">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
       <c r="V61">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="W61">
-        <v>0.599</v>
+        <v>0.601</v>
       </c>
       <c r="X61">
         <v>0.07000000000000001</v>
@@ -8027,34 +8027,34 @@
         <v>905</v>
       </c>
       <c r="O66">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P66">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="Q66">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R66">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="S66">
         <v>-8.4</v>
       </c>
       <c r="T66">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="U66">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V66">
-        <v>0.268</v>
+        <v>0.266</v>
       </c>
       <c r="W66">
-        <v>0.556</v>
+        <v>0.55</v>
       </c>
       <c r="X66">
-        <v>0.184</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -8693,34 +8693,34 @@
         <v>913</v>
       </c>
       <c r="O75">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P75">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="Q75">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R75">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S75">
-        <v>-4.6</v>
+        <v>-4.1</v>
       </c>
       <c r="T75">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U75">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="V75">
-        <v>0.213</v>
+        <v>0.216</v>
       </c>
       <c r="W75">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="X75">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -8841,34 +8841,34 @@
         <v>912</v>
       </c>
       <c r="O77">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P77">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q77">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R77">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S77">
         <v>15.2</v>
       </c>
       <c r="T77">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="U77">
-        <v>0.089</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V77">
-        <v>0.181</v>
+        <v>0.18</v>
       </c>
       <c r="W77">
-        <v>0.615</v>
+        <v>0.611</v>
       </c>
       <c r="X77">
-        <v>0.197</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -8989,34 +8989,34 @@
         <v>905</v>
       </c>
       <c r="O79">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P79">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="Q79">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R79">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="S79">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="T79">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="U79">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="V79">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="W79">
-        <v>0.525</v>
+        <v>0.537</v>
       </c>
       <c r="X79">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -9359,28 +9359,28 @@
         <v>892</v>
       </c>
       <c r="O84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P84">
         <v>2</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84">
-        <v>31.4</v>
+        <v>-6.8</v>
       </c>
       <c r="T84">
-        <v>0.167</v>
+        <v>0.154</v>
       </c>
       <c r="U84">
-        <v>0.077</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="V84">
-        <v>0.176</v>
+        <v>0.111</v>
       </c>
       <c r="W84">
         <v>0.5</v>
@@ -9507,34 +9507,34 @@
         <v>903</v>
       </c>
       <c r="O86">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P86">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="Q86">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="R86">
         <v>76</v>
       </c>
       <c r="S86">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="T86">
         <v>0.036</v>
       </c>
       <c r="U86">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="V86">
-        <v>0.147</v>
+        <v>0.145</v>
       </c>
       <c r="W86">
-        <v>0.639</v>
+        <v>0.637</v>
       </c>
       <c r="X86">
-        <v>0.079</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -9655,34 +9655,34 @@
         <v>896</v>
       </c>
       <c r="O88">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P88">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q88">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="R88">
         <v>49</v>
       </c>
       <c r="S88">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="T88">
-        <v>0.129</v>
+        <v>0.126</v>
       </c>
       <c r="U88">
-        <v>0.235</v>
+        <v>0.24</v>
       </c>
       <c r="V88">
-        <v>0.159</v>
+        <v>0.156</v>
       </c>
       <c r="W88">
-        <v>0.579</v>
+        <v>0.578</v>
       </c>
       <c r="X88">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -9729,19 +9729,19 @@
         <v>895</v>
       </c>
       <c r="O89">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P89">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="Q89">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R89">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="S89">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="T89">
         <v>0.011</v>
@@ -9750,13 +9750,13 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="V89">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="W89">
         <v>0.581</v>
       </c>
       <c r="X89">
-        <v>0.201</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -9951,10 +9951,10 @@
         <v>907</v>
       </c>
       <c r="O92">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P92">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q92">
         <v>20</v>
@@ -9963,22 +9963,22 @@
         <v>5</v>
       </c>
       <c r="S92">
-        <v>-2.7</v>
+        <v>-0.3</v>
       </c>
       <c r="T92">
         <v>0.05</v>
       </c>
       <c r="U92">
-        <v>0.112</v>
+        <v>0.106</v>
       </c>
       <c r="V92">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="X92">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -10543,7 +10543,7 @@
         <v>851</v>
       </c>
       <c r="O100">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P100">
         <v>52</v>
@@ -10555,16 +10555,16 @@
         <v>24</v>
       </c>
       <c r="S100">
-        <v>-2.4</v>
+        <v>-3.4</v>
       </c>
       <c r="T100">
         <v>0.013</v>
       </c>
       <c r="U100">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="V100">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="W100">
         <v>0.633</v>
@@ -10691,34 +10691,34 @@
         <v>874</v>
       </c>
       <c r="O102">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P102">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="Q102">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R102">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="S102">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="T102">
         <v>0.01</v>
       </c>
       <c r="U102">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="V102">
-        <v>0.214</v>
+        <v>0.216</v>
       </c>
       <c r="W102">
-        <v>0.541</v>
+        <v>0.54</v>
       </c>
       <c r="X102">
-        <v>0.274</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -10987,34 +10987,34 @@
         <v>910</v>
       </c>
       <c r="O106">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P106">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q106">
         <v>61</v>
       </c>
       <c r="R106">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T106">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U106">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="V106">
-        <v>0.26</v>
+        <v>0.257</v>
       </c>
       <c r="W106">
-        <v>0.511</v>
+        <v>0.515</v>
       </c>
       <c r="X106">
-        <v>0.231</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -11061,7 +11061,7 @@
         <v>919</v>
       </c>
       <c r="O107">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P107">
         <v>136</v>
@@ -11073,22 +11073,22 @@
         <v>40</v>
       </c>
       <c r="S107">
-        <v>-11.9</v>
+        <v>-12.5</v>
       </c>
       <c r="T107">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U107">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
       <c r="V107">
-        <v>0.129</v>
+        <v>0.127</v>
       </c>
       <c r="W107">
         <v>0.554</v>
       </c>
       <c r="X107">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11209,34 +11209,34 @@
         <v>890</v>
       </c>
       <c r="O109">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P109">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="Q109">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="R109">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="S109">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="T109">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="U109">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="V109">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
       <c r="W109">
-        <v>0.612</v>
+        <v>0.616</v>
       </c>
       <c r="X109">
-        <v>0.312</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -11357,31 +11357,31 @@
         <v>881</v>
       </c>
       <c r="O111">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P111">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="Q111">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="R111">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S111">
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="T111">
-        <v>0.118</v>
+        <v>0.116</v>
       </c>
       <c r="U111">
         <v>0.16</v>
       </c>
       <c r="V111">
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="W111">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="X111">
         <v>0.08799999999999999</v>
@@ -11431,34 +11431,34 @@
         <v>851</v>
       </c>
       <c r="O112">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P112">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q112">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="R112">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S112">
-        <v>-7.2</v>
+        <v>-5.8</v>
       </c>
       <c r="T112">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="U112">
-        <v>0.213</v>
+        <v>0.209</v>
       </c>
       <c r="V112">
         <v>0.115</v>
       </c>
       <c r="W112">
-        <v>0.58</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="X112">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -11653,7 +11653,7 @@
         <v>897</v>
       </c>
       <c r="O115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P115">
         <v>21</v>
@@ -11665,22 +11665,22 @@
         <v>1</v>
       </c>
       <c r="S115">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T115">
         <v>0</v>
       </c>
       <c r="U115">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="V115">
-        <v>0.213</v>
+        <v>0.207</v>
       </c>
       <c r="W115">
         <v>0.75</v>
       </c>
       <c r="X115">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="116" spans="1:24">
@@ -11727,16 +11727,16 @@
         <v>884</v>
       </c>
       <c r="O116">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P116">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="Q116">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R116">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="S116">
         <v>11.8</v>
@@ -11745,16 +11745,16 @@
         <v>0.015</v>
       </c>
       <c r="U116">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="V116">
-        <v>0.262</v>
+        <v>0.263</v>
       </c>
       <c r="W116">
-        <v>0.634</v>
+        <v>0.633</v>
       </c>
       <c r="X116">
-        <v>0.301</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="117" spans="1:24">
@@ -11875,34 +11875,34 @@
         <v>876</v>
       </c>
       <c r="O118">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P118">
         <v>110</v>
       </c>
       <c r="Q118">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R118">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S118">
-        <v>-12.3</v>
+        <v>-11.2</v>
       </c>
       <c r="T118">
-        <v>0.023</v>
+        <v>0.032</v>
       </c>
       <c r="U118">
-        <v>0.158</v>
+        <v>0.163</v>
       </c>
       <c r="V118">
-        <v>0.145</v>
+        <v>0.142</v>
       </c>
       <c r="W118">
-        <v>0.714</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="X118">
-        <v>0.119</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -12023,34 +12023,34 @@
         <v>918</v>
       </c>
       <c r="O120">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P120">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Q120">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="R120">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S120">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="T120">
-        <v>0.141</v>
+        <v>0.137</v>
       </c>
       <c r="U120">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="V120">
-        <v>0.196</v>
+        <v>0.195</v>
       </c>
       <c r="W120">
-        <v>0.525</v>
+        <v>0.528</v>
       </c>
       <c r="X120">
-        <v>0.132</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -12097,31 +12097,31 @@
         <v>884</v>
       </c>
       <c r="O121">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P121">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="Q121">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="R121">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="S121">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="T121">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="U121">
-        <v>0.103</v>
+        <v>0.108</v>
       </c>
       <c r="V121">
         <v>0.293</v>
       </c>
       <c r="W121">
-        <v>0.583</v>
+        <v>0.579</v>
       </c>
       <c r="X121">
         <v>0.261</v>
@@ -12319,34 +12319,34 @@
         <v>921</v>
       </c>
       <c r="O124">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P124">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q124">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R124">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S124">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="T124">
-        <v>0.101</v>
+        <v>0.106</v>
       </c>
       <c r="U124">
-        <v>0.264</v>
+        <v>0.262</v>
       </c>
       <c r="V124">
-        <v>0.127</v>
+        <v>0.131</v>
       </c>
       <c r="W124">
-        <v>0.602</v>
+        <v>0.609</v>
       </c>
       <c r="X124">
-        <v>0.107</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="125" spans="1:24">
@@ -12393,31 +12393,31 @@
         <v>886</v>
       </c>
       <c r="O125">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P125">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="Q125">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="R125">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="S125">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="T125">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U125">
-        <v>0.08799999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="V125">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="W125">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X125">
         <v>0.159</v>
@@ -12467,34 +12467,34 @@
         <v>851</v>
       </c>
       <c r="O126">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P126">
         <v>179</v>
       </c>
       <c r="Q126">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="R126">
         <v>43</v>
       </c>
       <c r="S126">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="T126">
         <v>0.04</v>
       </c>
       <c r="U126">
-        <v>0.177</v>
+        <v>0.175</v>
       </c>
       <c r="V126">
-        <v>0.103</v>
+        <v>0.101</v>
       </c>
       <c r="W126">
-        <v>0.575</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="X126">
-        <v>0.077</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -12541,34 +12541,34 @@
         <v>873</v>
       </c>
       <c r="O127">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P127">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q127">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="R127">
         <v>42</v>
       </c>
       <c r="S127">
-        <v>-10.7</v>
+        <v>-11.5</v>
       </c>
       <c r="T127">
-        <v>0.092</v>
+        <v>0.089</v>
       </c>
       <c r="U127">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="V127">
-        <v>0.192</v>
+        <v>0.189</v>
       </c>
       <c r="W127">
-        <v>0.583</v>
+        <v>0.579</v>
       </c>
       <c r="X127">
-        <v>0.079</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -12615,34 +12615,34 @@
         <v>918</v>
       </c>
       <c r="O128">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P128">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q128">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="R128">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="S128">
-        <v>-13.2</v>
+        <v>-13</v>
       </c>
       <c r="T128">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="U128">
-        <v>0.186</v>
+        <v>0.184</v>
       </c>
       <c r="V128">
-        <v>0.259</v>
+        <v>0.257</v>
       </c>
       <c r="W128">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="X128">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -12911,10 +12911,10 @@
         <v>883</v>
       </c>
       <c r="O132">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P132">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>251</v>
@@ -12923,19 +12923,19 @@
         <v>84</v>
       </c>
       <c r="S132">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="T132">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="U132">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
       <c r="V132">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="W132">
-        <v>0.705</v>
+        <v>0.704</v>
       </c>
       <c r="X132">
         <v>0.154</v>
@@ -13207,34 +13207,34 @@
         <v>914</v>
       </c>
       <c r="O136">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P136">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="Q136">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R136">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S136">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="T136">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="U136">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="V136">
-        <v>0.279</v>
+        <v>0.281</v>
       </c>
       <c r="W136">
-        <v>0.579</v>
+        <v>0.583</v>
       </c>
       <c r="X136">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -13281,34 +13281,34 @@
         <v>914</v>
       </c>
       <c r="O137">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P137">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q137">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S137">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="T137">
-        <v>0.049</v>
+        <v>0.04</v>
       </c>
       <c r="U137">
-        <v>0.241</v>
+        <v>0.221</v>
       </c>
       <c r="V137">
-        <v>0.187</v>
+        <v>0.191</v>
       </c>
       <c r="W137">
-        <v>0.508</v>
+        <v>0.455</v>
       </c>
       <c r="X137">
-        <v>0.196</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -13577,34 +13577,34 @@
         <v>913</v>
       </c>
       <c r="O141">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P141">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="Q141">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="R141">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="S141">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="T141">
-        <v>0.107</v>
+        <v>0.105</v>
       </c>
       <c r="U141">
-        <v>0.285</v>
+        <v>0.283</v>
       </c>
       <c r="V141">
-        <v>0.214</v>
+        <v>0.213</v>
       </c>
       <c r="W141">
-        <v>0.669</v>
+        <v>0.67</v>
       </c>
       <c r="X141">
-        <v>0.255</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -13725,34 +13725,34 @@
         <v>895</v>
       </c>
       <c r="O143">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P143">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q143">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="R143">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S143">
-        <v>-4.4</v>
+        <v>-3.8</v>
       </c>
       <c r="T143">
+        <v>0.144</v>
+      </c>
+      <c r="U143">
+        <v>0.209</v>
+      </c>
+      <c r="V143">
         <v>0.142</v>
       </c>
-      <c r="U143">
-        <v>0.201</v>
-      </c>
-      <c r="V143">
-        <v>0.144</v>
-      </c>
       <c r="W143">
-        <v>0.581</v>
+        <v>0.587</v>
       </c>
       <c r="X143">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="144" spans="1:24">
@@ -13799,34 +13799,34 @@
         <v>914</v>
       </c>
       <c r="O144">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P144">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="Q144">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R144">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S144">
         <v>11.5</v>
       </c>
       <c r="T144">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="U144">
-        <v>0.115</v>
+        <v>0.118</v>
       </c>
       <c r="V144">
-        <v>0.288</v>
+        <v>0.289</v>
       </c>
       <c r="W144">
-        <v>0.584</v>
+        <v>0.587</v>
       </c>
       <c r="X144">
-        <v>0.219</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -14465,7 +14465,7 @@
         <v>851</v>
       </c>
       <c r="O153">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P153">
         <v>44</v>
@@ -14477,7 +14477,7 @@
         <v>5</v>
       </c>
       <c r="S153">
-        <v>-16.3</v>
+        <v>-18.2</v>
       </c>
       <c r="T153">
         <v>0.058</v>
@@ -14486,7 +14486,7 @@
         <v>0.115</v>
       </c>
       <c r="V153">
-        <v>0.158</v>
+        <v>0.16</v>
       </c>
       <c r="W153">
         <v>0.516</v>
@@ -14539,34 +14539,34 @@
         <v>922</v>
       </c>
       <c r="O154">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P154">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q154">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R154">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S154">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="T154">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="U154">
-        <v>0.152</v>
+        <v>0.149</v>
       </c>
       <c r="V154">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="W154">
-        <v>0.784</v>
+        <v>0.778</v>
       </c>
       <c r="X154">
-        <v>0.121</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -14613,31 +14613,31 @@
         <v>917</v>
       </c>
       <c r="O155">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P155">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="Q155">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R155">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S155">
-        <v>-4.4</v>
+        <v>-4.8</v>
       </c>
       <c r="T155">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="U155">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="V155">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="W155">
-        <v>0.51</v>
+        <v>0.508</v>
       </c>
       <c r="X155">
         <v>0.146</v>
@@ -14983,34 +14983,34 @@
         <v>895</v>
       </c>
       <c r="O160">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P160">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Q160">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R160">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S160">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="T160">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="U160">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="V160">
         <v>0.144</v>
       </c>
       <c r="W160">
-        <v>0.554</v>
+        <v>0.552</v>
       </c>
       <c r="X160">
-        <v>0.099</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="161" spans="1:24">
@@ -15057,16 +15057,16 @@
         <v>882</v>
       </c>
       <c r="O161">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P161">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="Q161">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="R161">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S161">
         <v>14.8</v>
@@ -15075,16 +15075,16 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="U161">
-        <v>0.209</v>
+        <v>0.212</v>
       </c>
       <c r="V161">
-        <v>0.229</v>
+        <v>0.228</v>
       </c>
       <c r="W161">
-        <v>0.654</v>
+        <v>0.658</v>
       </c>
       <c r="X161">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -15427,34 +15427,34 @@
         <v>851</v>
       </c>
       <c r="O166">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P166">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="Q166">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R166">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S166">
-        <v>-5.9</v>
+        <v>-4</v>
       </c>
       <c r="T166">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="U166">
         <v>0.07000000000000001</v>
       </c>
       <c r="V166">
-        <v>0.159</v>
+        <v>0.16</v>
       </c>
       <c r="W166">
-        <v>0.644</v>
+        <v>0.655</v>
       </c>
       <c r="X166">
-        <v>0.116</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -15723,34 +15723,34 @@
         <v>923</v>
       </c>
       <c r="O170">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P170">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q170">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R170">
         <v>58</v>
       </c>
       <c r="S170">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="T170">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="U170">
-        <v>0.136</v>
+        <v>0.134</v>
       </c>
       <c r="V170">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="W170">
-        <v>0.603</v>
+        <v>0.605</v>
       </c>
       <c r="X170">
-        <v>0.099</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -15797,34 +15797,34 @@
         <v>916</v>
       </c>
       <c r="O171">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P171">
-        <v>974</v>
+        <v>1007</v>
       </c>
       <c r="Q171">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="R171">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="S171">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="T171">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="U171">
-        <v>0.263</v>
+        <v>0.262</v>
       </c>
       <c r="V171">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="W171">
-        <v>0.612</v>
+        <v>0.613</v>
       </c>
       <c r="X171">
-        <v>0.329</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -16093,31 +16093,31 @@
         <v>903</v>
       </c>
       <c r="O175">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P175">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q175">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="R175">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S175">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="T175">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U175">
         <v>0.102</v>
       </c>
       <c r="V175">
-        <v>0.175</v>
+        <v>0.171</v>
       </c>
       <c r="W175">
-        <v>0.625</v>
+        <v>0.632</v>
       </c>
       <c r="X175">
         <v>0.109</v>
@@ -16167,34 +16167,34 @@
         <v>885</v>
       </c>
       <c r="O176">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P176">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="Q176">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="R176">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S176">
-        <v>-1.2</v>
+        <v>-2.1</v>
       </c>
       <c r="T176">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U176">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
       <c r="V176">
-        <v>0.158</v>
+        <v>0.159</v>
       </c>
       <c r="W176">
-        <v>0.626</v>
+        <v>0.631</v>
       </c>
       <c r="X176">
-        <v>0.103</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -16605,34 +16605,34 @@
         <v>898</v>
       </c>
       <c r="O182">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P182">
         <v>59</v>
       </c>
       <c r="Q182">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R182">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S182">
-        <v>-9.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="T182">
         <v>0.035</v>
       </c>
       <c r="U182">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="V182">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="W182">
         <v>0.5610000000000001</v>
       </c>
       <c r="X182">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="183" spans="1:24">
@@ -16753,7 +16753,7 @@
         <v>851</v>
       </c>
       <c r="O184">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P184">
         <v>76</v>
@@ -16765,22 +16765,22 @@
         <v>4</v>
       </c>
       <c r="S184">
-        <v>-14.7</v>
+        <v>-13</v>
       </c>
       <c r="T184">
         <v>0.058</v>
       </c>
       <c r="U184">
-        <v>0.124</v>
+        <v>0.119</v>
       </c>
       <c r="V184">
         <v>0.157</v>
       </c>
       <c r="W184">
-        <v>0.669</v>
+        <v>0.657</v>
       </c>
       <c r="X184">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="185" spans="1:24">
@@ -16827,34 +16827,34 @@
         <v>884</v>
       </c>
       <c r="O185">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P185">
         <v>154</v>
       </c>
       <c r="Q185">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R185">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S185">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="T185">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="U185">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="V185">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="W185">
-        <v>0.596</v>
+        <v>0.583</v>
       </c>
       <c r="X185">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="186" spans="1:24">
@@ -17049,34 +17049,34 @@
         <v>925</v>
       </c>
       <c r="O188">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P188">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q188">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="R188">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S188">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="T188">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="U188">
-        <v>0.275</v>
+        <v>0.281</v>
       </c>
       <c r="V188">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="W188">
-        <v>0.585</v>
+        <v>0.584</v>
       </c>
       <c r="X188">
-        <v>0.19</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="189" spans="1:24">
@@ -17197,34 +17197,34 @@
         <v>926</v>
       </c>
       <c r="O190">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P190">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Q190">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R190">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S190">
         <v>15.5</v>
       </c>
       <c r="T190">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U190">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="V190">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
       <c r="W190">
-        <v>0.5570000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="X190">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="191" spans="1:24">
@@ -17656,13 +17656,13 @@
         <v>10.5</v>
       </c>
       <c r="T196">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U196">
         <v>0.114</v>
       </c>
       <c r="V196">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="W196">
         <v>0.555</v>
@@ -17863,7 +17863,7 @@
         <v>927</v>
       </c>
       <c r="O199">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P199">
         <v>88</v>
@@ -17875,16 +17875,16 @@
         <v>13</v>
       </c>
       <c r="S199">
-        <v>-3.7</v>
+        <v>-7</v>
       </c>
       <c r="T199">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U199">
-        <v>0.204</v>
+        <v>0.202</v>
       </c>
       <c r="V199">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
       <c r="W199">
         <v>0.512</v>
@@ -18085,34 +18085,34 @@
         <v>898</v>
       </c>
       <c r="O202">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P202">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q202">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R202">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="S202">
-        <v>-0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="T202">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="U202">
         <v>0.079</v>
       </c>
       <c r="V202">
-        <v>0.224</v>
+        <v>0.227</v>
       </c>
       <c r="W202">
-        <v>0.549</v>
+        <v>0.537</v>
       </c>
       <c r="X202">
-        <v>0.131</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="203" spans="1:24">
@@ -18381,7 +18381,7 @@
         <v>907</v>
       </c>
       <c r="O206">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P206">
         <v>20</v>
@@ -18393,16 +18393,16 @@
         <v>4</v>
       </c>
       <c r="S206">
-        <v>-2.6</v>
+        <v>-6.2</v>
       </c>
       <c r="T206">
-        <v>0.065</v>
+        <v>0.061</v>
       </c>
       <c r="U206">
-        <v>0.122</v>
+        <v>0.118</v>
       </c>
       <c r="V206">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
       <c r="W206">
         <v>0.509</v>
@@ -19195,10 +19195,10 @@
         <v>909</v>
       </c>
       <c r="O217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P217">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q217">
         <v>12</v>
@@ -19207,22 +19207,22 @@
         <v>21</v>
       </c>
       <c r="S217">
-        <v>14.8</v>
+        <v>14.1</v>
       </c>
       <c r="T217">
         <v>0.01</v>
       </c>
       <c r="U217">
-        <v>0.092</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V217">
-        <v>0.142</v>
+        <v>0.145</v>
       </c>
       <c r="W217">
-        <v>0.6860000000000001</v>
+        <v>0.713</v>
       </c>
       <c r="X217">
-        <v>0.309</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -19269,34 +19269,34 @@
         <v>905</v>
       </c>
       <c r="O218">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P218">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="Q218">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="R218">
         <v>32</v>
       </c>
       <c r="S218">
-        <v>-0.1</v>
+        <v>-1.5</v>
       </c>
       <c r="T218">
-        <v>0.08500000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="U218">
-        <v>0.234</v>
+        <v>0.23</v>
       </c>
       <c r="V218">
-        <v>0.194</v>
+        <v>0.196</v>
       </c>
       <c r="W218">
-        <v>0.6</v>
+        <v>0.604</v>
       </c>
       <c r="X218">
-        <v>0.08699999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -19417,31 +19417,31 @@
         <v>883</v>
       </c>
       <c r="O220">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P220">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="Q220">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="R220">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="S220">
-        <v>10.8</v>
+        <v>11.4</v>
       </c>
       <c r="T220">
         <v>0.025</v>
       </c>
       <c r="U220">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="V220">
         <v>0.27</v>
       </c>
       <c r="W220">
-        <v>0.5580000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X220">
         <v>0.245</v>
@@ -19491,22 +19491,22 @@
         <v>902</v>
       </c>
       <c r="O221">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P221">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="Q221">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="R221">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S221">
-        <v>-7</v>
+        <v>-6.4</v>
       </c>
       <c r="T221">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="U221">
         <v>0.091</v>
@@ -19515,10 +19515,10 @@
         <v>0.157</v>
       </c>
       <c r="W221">
-        <v>0.512</v>
+        <v>0.521</v>
       </c>
       <c r="X221">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -19639,34 +19639,34 @@
         <v>895</v>
       </c>
       <c r="O223">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P223">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="Q223">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="R223">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="S223">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="T223">
         <v>0.014</v>
       </c>
       <c r="U223">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
       <c r="V223">
-        <v>0.226</v>
+        <v>0.231</v>
       </c>
       <c r="W223">
-        <v>0.544</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X223">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -19861,7 +19861,7 @@
         <v>885</v>
       </c>
       <c r="O226">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P226">
         <v>8</v>
@@ -19873,22 +19873,22 @@
         <v>3</v>
       </c>
       <c r="S226">
-        <v>-3.8</v>
+        <v>3.5</v>
       </c>
       <c r="T226">
         <v>0</v>
       </c>
       <c r="U226">
-        <v>0.16</v>
+        <v>0.154</v>
       </c>
       <c r="V226">
-        <v>0.177</v>
+        <v>0.169</v>
       </c>
       <c r="W226">
         <v>0.538</v>
       </c>
       <c r="X226">
-        <v>0.176</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="227" spans="1:24">
@@ -20083,31 +20083,31 @@
         <v>917</v>
       </c>
       <c r="O229">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P229">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="Q229">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="R229">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S229">
-        <v>-8.4</v>
+        <v>-8.6</v>
       </c>
       <c r="T229">
         <v>0.023</v>
       </c>
       <c r="U229">
-        <v>0.184</v>
+        <v>0.185</v>
       </c>
       <c r="V229">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="W229">
-        <v>0.586</v>
+        <v>0.588</v>
       </c>
       <c r="X229">
         <v>0.116</v>
@@ -20403,7 +20403,7 @@
         <v>0.281</v>
       </c>
       <c r="W233">
-        <v>0.596</v>
+        <v>0.597</v>
       </c>
       <c r="X233">
         <v>0.108</v>
@@ -20453,34 +20453,34 @@
         <v>897</v>
       </c>
       <c r="O234">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P234">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="Q234">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="R234">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S234">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="T234">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="U234">
-        <v>0.251</v>
+        <v>0.253</v>
       </c>
       <c r="V234">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="W234">
-        <v>0.721</v>
+        <v>0.726</v>
       </c>
       <c r="X234">
-        <v>0.08799999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -20527,34 +20527,34 @@
         <v>851</v>
       </c>
       <c r="O235">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P235">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q235">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="R235">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S235">
-        <v>-15.7</v>
+        <v>-14.8</v>
       </c>
       <c r="T235">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="U235">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="V235">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="W235">
-        <v>0.579</v>
+        <v>0.578</v>
       </c>
       <c r="X235">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -21116,34 +21116,34 @@
         <v>907</v>
       </c>
       <c r="O243">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P243">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q243">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R243">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S243">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
       <c r="T243">
-        <v>0.07199999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="U243">
-        <v>0.222</v>
+        <v>0.209</v>
       </c>
       <c r="V243">
-        <v>0.14</v>
+        <v>0.147</v>
       </c>
       <c r="W243">
-        <v>0.57</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X243">
-        <v>0.211</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="244" spans="1:24">
@@ -21190,7 +21190,7 @@
         <v>912</v>
       </c>
       <c r="O244">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P244">
         <v>42</v>
@@ -21202,16 +21202,16 @@
         <v>15</v>
       </c>
       <c r="S244">
-        <v>-8</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T244">
         <v>0.08</v>
       </c>
       <c r="U244">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="V244">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="W244">
         <v>0.472</v>
@@ -21412,34 +21412,34 @@
         <v>851</v>
       </c>
       <c r="O247">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P247">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Q247">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R247">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S247">
         <v>-12.1</v>
       </c>
       <c r="T247">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="U247">
-        <v>0.092</v>
+        <v>0.108</v>
       </c>
       <c r="V247">
-        <v>0.134</v>
+        <v>0.149</v>
       </c>
       <c r="W247">
-        <v>0.477</v>
+        <v>0.511</v>
       </c>
       <c r="X247">
-        <v>0.148</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="248" spans="1:24">
@@ -22522,7 +22522,7 @@
         <v>921</v>
       </c>
       <c r="O262">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P262">
         <v>60</v>
@@ -22534,16 +22534,16 @@
         <v>9</v>
       </c>
       <c r="S262">
-        <v>-8.9</v>
+        <v>-8</v>
       </c>
       <c r="T262">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="U262">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V262">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="W262">
         <v>0.517</v>
@@ -23040,34 +23040,34 @@
         <v>878</v>
       </c>
       <c r="O269">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P269">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q269">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R269">
         <v>24</v>
       </c>
       <c r="S269">
-        <v>-12.4</v>
+        <v>-10.8</v>
       </c>
       <c r="T269">
         <v>0.014</v>
       </c>
       <c r="U269">
-        <v>0.094</v>
+        <v>0.092</v>
       </c>
       <c r="V269">
         <v>0.21</v>
       </c>
       <c r="W269">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="X269">
-        <v>0.06900000000000001</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="270" spans="1:24">
@@ -23114,34 +23114,34 @@
         <v>851</v>
       </c>
       <c r="O270">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P270">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q270">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R270">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S270">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="T270">
         <v>0.026</v>
       </c>
       <c r="U270">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
       <c r="V270">
         <v>0.149</v>
       </c>
       <c r="W270">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="X270">
-        <v>0.173</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="271" spans="1:24">
@@ -23410,34 +23410,34 @@
         <v>851</v>
       </c>
       <c r="O274">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P274">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q274">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R274">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S274">
-        <v>-7.5</v>
+        <v>-4.8</v>
       </c>
       <c r="T274">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="U274">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="V274">
         <v>0.187</v>
       </c>
       <c r="W274">
-        <v>0.554</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X274">
-        <v>0.263</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="275" spans="1:24">
@@ -23558,34 +23558,34 @@
         <v>890</v>
       </c>
       <c r="O276">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P276">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q276">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="R276">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="S276">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
       <c r="T276">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="U276">
         <v>0.191</v>
       </c>
       <c r="V276">
-        <v>0.205</v>
+        <v>0.203</v>
       </c>
       <c r="W276">
-        <v>0.533</v>
+        <v>0.524</v>
       </c>
       <c r="X276">
-        <v>0.317</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="277" spans="1:24">
@@ -24150,34 +24150,34 @@
         <v>921</v>
       </c>
       <c r="O284">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P284">
         <v>171</v>
       </c>
       <c r="Q284">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R284">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S284">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="T284">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="U284">
         <v>0.073</v>
       </c>
       <c r="V284">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="W284">
-        <v>0.551</v>
+        <v>0.544</v>
       </c>
       <c r="X284">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="285" spans="1:24">
@@ -24224,16 +24224,16 @@
         <v>918</v>
       </c>
       <c r="O285">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P285">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q285">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="R285">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S285">
         <v>-3.6</v>
@@ -24242,16 +24242,16 @@
         <v>0.013</v>
       </c>
       <c r="U285">
-        <v>0.081</v>
+        <v>0.083</v>
       </c>
       <c r="V285">
-        <v>0.166</v>
+        <v>0.164</v>
       </c>
       <c r="W285">
-        <v>0.579</v>
+        <v>0.578</v>
       </c>
       <c r="X285">
-        <v>0.083</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="286" spans="1:24">
@@ -24446,34 +24446,34 @@
         <v>851</v>
       </c>
       <c r="O288">
+        <v>9</v>
+      </c>
+      <c r="P288">
+        <v>56</v>
+      </c>
+      <c r="Q288">
+        <v>21</v>
+      </c>
+      <c r="R288">
         <v>8</v>
       </c>
-      <c r="P288">
-        <v>31</v>
-      </c>
-      <c r="Q288">
-        <v>15</v>
-      </c>
-      <c r="R288">
-        <v>4</v>
-      </c>
       <c r="S288">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T288">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="U288">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="V288">
-        <v>0.129</v>
+        <v>0.16</v>
       </c>
       <c r="W288">
-        <v>0.5649999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="X288">
-        <v>0.063</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="289" spans="1:24">
@@ -24520,7 +24520,7 @@
         <v>851</v>
       </c>
       <c r="O289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P289">
         <v>0</v>
@@ -24532,16 +24532,16 @@
         <v>1</v>
       </c>
       <c r="S289">
-        <v>-27.8</v>
+        <v>-47.6</v>
       </c>
       <c r="T289">
-        <v>0.154</v>
+        <v>0.143</v>
       </c>
       <c r="U289">
         <v>0.143</v>
       </c>
       <c r="V289">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -25186,19 +25186,19 @@
         <v>877</v>
       </c>
       <c r="O298">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P298">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Q298">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="R298">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S298">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="T298">
         <v>0.058</v>
@@ -25210,10 +25210,10 @@
         <v>0.146</v>
       </c>
       <c r="W298">
-        <v>0.522</v>
+        <v>0.521</v>
       </c>
       <c r="X298">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="299" spans="1:24">
@@ -25482,19 +25482,19 @@
         <v>916</v>
       </c>
       <c r="O302">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P302">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q302">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="R302">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S302">
-        <v>-2.4</v>
+        <v>-3.5</v>
       </c>
       <c r="T302">
         <v>0.048</v>
@@ -25506,10 +25506,10 @@
         <v>0.178</v>
       </c>
       <c r="W302">
-        <v>0.539</v>
+        <v>0.534</v>
       </c>
       <c r="X302">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="303" spans="1:24">
@@ -25556,22 +25556,22 @@
         <v>851</v>
       </c>
       <c r="O303">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P303">
         <v>174</v>
       </c>
       <c r="Q303">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R303">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S303">
-        <v>17.2</v>
+        <v>16.7</v>
       </c>
       <c r="T303">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="U303">
         <v>0.156</v>
@@ -25580,10 +25580,10 @@
         <v>0.162</v>
       </c>
       <c r="W303">
-        <v>0.651</v>
+        <v>0.637</v>
       </c>
       <c r="X303">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="304" spans="1:24">
@@ -25704,34 +25704,34 @@
         <v>851</v>
       </c>
       <c r="O305">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P305">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="Q305">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="R305">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S305">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T305">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="U305">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="V305">
-        <v>0.124</v>
+        <v>0.126</v>
       </c>
       <c r="W305">
-        <v>0.643</v>
+        <v>0.648</v>
       </c>
       <c r="X305">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:24">
@@ -25778,34 +25778,34 @@
         <v>903</v>
       </c>
       <c r="O306">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P306">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="Q306">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R306">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S306">
-        <v>-10.2</v>
+        <v>-9.1</v>
       </c>
       <c r="T306">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="U306">
-        <v>0.133</v>
+        <v>0.132</v>
       </c>
       <c r="V306">
-        <v>0.203</v>
+        <v>0.204</v>
       </c>
       <c r="W306">
-        <v>0.469</v>
+        <v>0.48</v>
       </c>
       <c r="X306">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="307" spans="1:24">
@@ -26000,34 +26000,34 @@
         <v>874</v>
       </c>
       <c r="O309">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P309">
-        <v>759</v>
+        <v>790</v>
       </c>
       <c r="Q309">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="R309">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="S309">
-        <v>-1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="T309">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="U309">
         <v>0.153</v>
       </c>
       <c r="V309">
-        <v>0.303</v>
+        <v>0.302</v>
       </c>
       <c r="W309">
-        <v>0.629</v>
+        <v>0.63</v>
       </c>
       <c r="X309">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="310" spans="1:24">
@@ -26074,31 +26074,31 @@
         <v>901</v>
       </c>
       <c r="O310">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P310">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q310">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R310">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S310">
-        <v>-1.1</v>
+        <v>-2.4</v>
       </c>
       <c r="T310">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U310">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="V310">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
       <c r="W310">
-        <v>0.538</v>
+        <v>0.535</v>
       </c>
       <c r="X310">
         <v>0.113</v>
@@ -26518,34 +26518,34 @@
         <v>913</v>
       </c>
       <c r="O316">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P316">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q316">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R316">
         <v>68</v>
       </c>
       <c r="S316">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="T316">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U316">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="V316">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="W316">
-        <v>0.5580000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="X316">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="317" spans="1:24">
@@ -26814,34 +26814,34 @@
         <v>876</v>
       </c>
       <c r="O320">
+        <v>33</v>
+      </c>
+      <c r="P320">
+        <v>144</v>
+      </c>
+      <c r="Q320">
+        <v>76</v>
+      </c>
+      <c r="R320">
         <v>32</v>
       </c>
-      <c r="P320">
-        <v>140</v>
-      </c>
-      <c r="Q320">
-        <v>72</v>
-      </c>
-      <c r="R320">
-        <v>29</v>
-      </c>
       <c r="S320">
-        <v>-9</v>
+        <v>-7.8</v>
       </c>
       <c r="T320">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="U320">
-        <v>0.08799999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V320">
         <v>0.133</v>
       </c>
       <c r="W320">
-        <v>0.534</v>
+        <v>0.526</v>
       </c>
       <c r="X320">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="321" spans="1:24">
@@ -27258,19 +27258,19 @@
         <v>873</v>
       </c>
       <c r="O326">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P326">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="Q326">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="R326">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S326">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="T326">
         <v>0.029</v>
@@ -27279,13 +27279,13 @@
         <v>0.093</v>
       </c>
       <c r="V326">
-        <v>0.257</v>
+        <v>0.258</v>
       </c>
       <c r="W326">
-        <v>0.611</v>
+        <v>0.6</v>
       </c>
       <c r="X326">
-        <v>0.209</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="327" spans="1:24">
@@ -27924,7 +27924,7 @@
         <v>851</v>
       </c>
       <c r="O335">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P335">
         <v>6</v>
@@ -27936,19 +27936,19 @@
         <v>2</v>
       </c>
       <c r="S335">
-        <v>-3.4</v>
+        <v>-8.6</v>
       </c>
       <c r="T335">
-        <v>0.113</v>
+        <v>0.1</v>
       </c>
       <c r="U335">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="V335">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="W335">
-        <v>0.311</v>
+        <v>0.282</v>
       </c>
       <c r="X335">
         <v>0.063</v>
@@ -28072,34 +28072,34 @@
         <v>874</v>
       </c>
       <c r="O337">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P337">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Q337">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="R337">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="S337">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="T337">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="U337">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
       <c r="V337">
-        <v>0.141</v>
+        <v>0.144</v>
       </c>
       <c r="W337">
-        <v>0.533</v>
+        <v>0.534</v>
       </c>
       <c r="X337">
-        <v>0.224</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="338" spans="1:24">
@@ -28146,34 +28146,34 @@
         <v>851</v>
       </c>
       <c r="O338">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P338">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q338">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R338">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S338">
-        <v>12.9</v>
+        <v>13.9</v>
       </c>
       <c r="T338">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="U338">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="V338">
-        <v>0.133</v>
+        <v>0.134</v>
       </c>
       <c r="W338">
-        <v>0.5600000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="X338">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="339" spans="1:24">
@@ -29034,31 +29034,31 @@
         <v>889</v>
       </c>
       <c r="O350">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P350">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q350">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R350">
         <v>2</v>
       </c>
       <c r="S350">
-        <v>9.5</v>
+        <v>5.9</v>
       </c>
       <c r="T350">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="U350">
-        <v>0.165</v>
+        <v>0.174</v>
       </c>
       <c r="V350">
-        <v>0.23</v>
+        <v>0.234</v>
       </c>
       <c r="W350">
-        <v>0.505</v>
+        <v>0.493</v>
       </c>
       <c r="X350">
         <v>0.04</v>
@@ -29552,34 +29552,34 @@
         <v>897</v>
       </c>
       <c r="O357">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P357">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q357">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="R357">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S357">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T357">
-        <v>0.097</v>
+        <v>0.094</v>
       </c>
       <c r="U357">
-        <v>0.257</v>
+        <v>0.253</v>
       </c>
       <c r="V357">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="W357">
-        <v>0.587</v>
+        <v>0.588</v>
       </c>
       <c r="X357">
-        <v>0.136</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="358" spans="1:24">
@@ -29626,34 +29626,34 @@
         <v>913</v>
       </c>
       <c r="O358">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P358">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q358">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R358">
         <v>18</v>
       </c>
       <c r="S358">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="T358">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="U358">
-        <v>0.132</v>
+        <v>0.136</v>
       </c>
       <c r="V358">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="W358">
-        <v>0.497</v>
+        <v>0.494</v>
       </c>
       <c r="X358">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="359" spans="1:24">
@@ -29848,34 +29848,34 @@
         <v>851</v>
       </c>
       <c r="O361">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P361">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="Q361">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R361">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S361">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T361">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="U361">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
       <c r="V361">
-        <v>0.143</v>
+        <v>0.145</v>
       </c>
       <c r="W361">
-        <v>0.572</v>
+        <v>0.591</v>
       </c>
       <c r="X361">
-        <v>0.162</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="362" spans="1:24">
@@ -29922,34 +29922,34 @@
         <v>851</v>
       </c>
       <c r="O362">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P362">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Q362">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R362">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S362">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="T362">
         <v>0.039</v>
       </c>
       <c r="U362">
-        <v>0.113</v>
+        <v>0.111</v>
       </c>
       <c r="V362">
-        <v>0.074</v>
+        <v>0.077</v>
       </c>
       <c r="W362">
-        <v>0.499</v>
+        <v>0.518</v>
       </c>
       <c r="X362">
-        <v>0.064</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="363" spans="1:24">
@@ -30144,19 +30144,19 @@
         <v>878</v>
       </c>
       <c r="O365">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P365">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="Q365">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="R365">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S365">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="T365">
         <v>0.047</v>
@@ -30165,10 +30165,10 @@
         <v>0.137</v>
       </c>
       <c r="V365">
-        <v>0.197</v>
+        <v>0.196</v>
       </c>
       <c r="W365">
-        <v>0.627</v>
+        <v>0.629</v>
       </c>
       <c r="X365">
         <v>0.098</v>
@@ -31032,34 +31032,34 @@
         <v>913</v>
       </c>
       <c r="O377">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P377">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="Q377">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="R377">
         <v>58</v>
       </c>
       <c r="S377">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="T377">
         <v>0.048</v>
       </c>
       <c r="U377">
-        <v>0.178</v>
+        <v>0.177</v>
       </c>
       <c r="V377">
-        <v>0.204</v>
+        <v>0.205</v>
       </c>
       <c r="W377">
-        <v>0.599</v>
+        <v>0.6</v>
       </c>
       <c r="X377">
-        <v>0.073</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="378" spans="1:24">
@@ -31106,34 +31106,34 @@
         <v>851</v>
       </c>
       <c r="O378">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P378">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="Q378">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="R378">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S378">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="T378">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="U378">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="V378">
-        <v>0.189</v>
+        <v>0.188</v>
       </c>
       <c r="W378">
-        <v>0.588</v>
+        <v>0.59</v>
       </c>
       <c r="X378">
-        <v>0.136</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="379" spans="1:24">
@@ -31772,34 +31772,34 @@
         <v>880</v>
       </c>
       <c r="O387">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P387">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="Q387">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="R387">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="S387">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="T387">
         <v>0.098</v>
       </c>
       <c r="U387">
-        <v>0.24</v>
+        <v>0.242</v>
       </c>
       <c r="V387">
-        <v>0.299</v>
+        <v>0.295</v>
       </c>
       <c r="W387">
         <v>0.642</v>
       </c>
       <c r="X387">
-        <v>0.393</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="388" spans="1:24">
@@ -31920,34 +31920,34 @@
         <v>885</v>
       </c>
       <c r="O389">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P389">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="Q389">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="R389">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S389">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="T389">
-        <v>0.068</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="U389">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="V389">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="W389">
         <v>0.643</v>
       </c>
       <c r="X389">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="390" spans="1:24">
@@ -31994,34 +31994,34 @@
         <v>903</v>
       </c>
       <c r="O390">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P390">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="Q390">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="R390">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S390">
-        <v>-13.1</v>
+        <v>-11.7</v>
       </c>
       <c r="T390">
         <v>0.038</v>
       </c>
       <c r="U390">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="V390">
         <v>0.182</v>
       </c>
       <c r="W390">
-        <v>0.546</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X390">
-        <v>0.067</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="391" spans="1:24">
@@ -32216,34 +32216,34 @@
         <v>917</v>
       </c>
       <c r="O393">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P393">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q393">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="R393">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S393">
         <v>-2.9</v>
       </c>
       <c r="T393">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U393">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="V393">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="W393">
-        <v>0.653</v>
+        <v>0.65</v>
       </c>
       <c r="X393">
-        <v>0.113</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="394" spans="1:24">
@@ -32364,34 +32364,34 @@
         <v>889</v>
       </c>
       <c r="O395">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P395">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q395">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R395">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S395">
-        <v>-2.1</v>
+        <v>-0.2</v>
       </c>
       <c r="T395">
-        <v>0.099</v>
+        <v>0.094</v>
       </c>
       <c r="U395">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="V395">
-        <v>0.149</v>
+        <v>0.155</v>
       </c>
       <c r="W395">
-        <v>0.448</v>
+        <v>0.468</v>
       </c>
       <c r="X395">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="396" spans="1:24">
@@ -32438,34 +32438,34 @@
         <v>890</v>
       </c>
       <c r="O396">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P396">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="Q396">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="R396">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S396">
-        <v>-3</v>
+        <v>-2.1</v>
       </c>
       <c r="T396">
-        <v>0.098</v>
+        <v>0.107</v>
       </c>
       <c r="U396">
-        <v>0.175</v>
+        <v>0.183</v>
       </c>
       <c r="V396">
-        <v>0.164</v>
+        <v>0.166</v>
       </c>
       <c r="W396">
-        <v>0.598</v>
+        <v>0.602</v>
       </c>
       <c r="X396">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="397" spans="1:24">
@@ -32660,31 +32660,31 @@
         <v>908</v>
       </c>
       <c r="O399">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P399">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q399">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="R399">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S399">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="T399">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
       <c r="U399">
-        <v>0.151</v>
+        <v>0.154</v>
       </c>
       <c r="V399">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="W399">
-        <v>0.603</v>
+        <v>0.59</v>
       </c>
       <c r="X399">
         <v>0.083</v>
@@ -32808,22 +32808,22 @@
         <v>883</v>
       </c>
       <c r="O401">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P401">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q401">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="R401">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S401">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="T401">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="U401">
         <v>0.181</v>
@@ -32832,10 +32832,10 @@
         <v>0.177</v>
       </c>
       <c r="W401">
-        <v>0.542</v>
+        <v>0.534</v>
       </c>
       <c r="X401">
-        <v>0.08500000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="402" spans="1:24">
@@ -33178,22 +33178,22 @@
         <v>899</v>
       </c>
       <c r="O406">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P406">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="Q406">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="R406">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="S406">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="T406">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="U406">
         <v>0.165</v>
@@ -33202,10 +33202,10 @@
         <v>0.226</v>
       </c>
       <c r="W406">
-        <v>0.609</v>
+        <v>0.611</v>
       </c>
       <c r="X406">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="407" spans="1:24">
@@ -33252,34 +33252,34 @@
         <v>880</v>
       </c>
       <c r="O407">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P407">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q407">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R407">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S407">
-        <v>-3.1</v>
+        <v>-2.5</v>
       </c>
       <c r="T407">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="U407">
         <v>0.139</v>
       </c>
       <c r="V407">
-        <v>0.141</v>
+        <v>0.137</v>
       </c>
       <c r="W407">
-        <v>0.505</v>
+        <v>0.516</v>
       </c>
       <c r="X407">
-        <v>0.135</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="408" spans="1:24">
@@ -33474,34 +33474,34 @@
         <v>877</v>
       </c>
       <c r="O410">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P410">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q410">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R410">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S410">
-        <v>-7.1</v>
+        <v>-7.9</v>
       </c>
       <c r="T410">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U410">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
       <c r="V410">
         <v>0.161</v>
       </c>
       <c r="W410">
-        <v>0.508</v>
+        <v>0.509</v>
       </c>
       <c r="X410">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="411" spans="1:24">
@@ -33918,34 +33918,34 @@
         <v>851</v>
       </c>
       <c r="O416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P416">
         <v>3</v>
       </c>
       <c r="Q416">
+        <v>2</v>
+      </c>
+      <c r="R416">
         <v>1</v>
       </c>
-      <c r="R416">
-        <v>0</v>
-      </c>
       <c r="S416">
-        <v>-28.6</v>
+        <v>-14.8</v>
       </c>
       <c r="T416">
         <v>0</v>
       </c>
       <c r="U416">
-        <v>0.167</v>
+        <v>0.1</v>
       </c>
       <c r="V416">
-        <v>0.143</v>
+        <v>0.077</v>
       </c>
       <c r="W416">
-        <v>1.5</v>
+        <v>0.375</v>
       </c>
       <c r="X416">
-        <v>0</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="417" spans="1:24">
@@ -33992,25 +33992,25 @@
         <v>893</v>
       </c>
       <c r="O417">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P417">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="Q417">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="R417">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S417">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="T417">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="U417">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
       <c r="V417">
         <v>0.142</v>
@@ -34019,7 +34019,7 @@
         <v>0.584</v>
       </c>
       <c r="X417">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="418" spans="1:24">
@@ -34140,34 +34140,34 @@
         <v>896</v>
       </c>
       <c r="O419">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P419">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="Q419">
         <v>154</v>
       </c>
       <c r="R419">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S419">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="T419">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="U419">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="V419">
-        <v>0.182</v>
+        <v>0.181</v>
       </c>
       <c r="W419">
-        <v>0.601</v>
+        <v>0.6</v>
       </c>
       <c r="X419">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="420" spans="1:24">
@@ -34510,10 +34510,10 @@
         <v>851</v>
       </c>
       <c r="O424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P424">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q424">
         <v>0</v>
@@ -34522,7 +34522,7 @@
         <v>0</v>
       </c>
       <c r="S424">
-        <v>-166.7</v>
+        <v>-16.7</v>
       </c>
       <c r="T424">
         <v>0</v>
@@ -34531,10 +34531,10 @@
         <v>0</v>
       </c>
       <c r="V424">
-        <v>0.25</v>
+        <v>0.429</v>
       </c>
       <c r="W424">
-        <v>0</v>
+        <v>0.532</v>
       </c>
       <c r="X424">
         <v>0</v>
@@ -34584,7 +34584,7 @@
         <v>925</v>
       </c>
       <c r="O425">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P425">
         <v>79</v>
@@ -34596,7 +34596,7 @@
         <v>13</v>
       </c>
       <c r="S425">
-        <v>-11</v>
+        <v>-11.9</v>
       </c>
       <c r="T425">
         <v>0.058</v>
@@ -34605,10 +34605,10 @@
         <v>0.077</v>
       </c>
       <c r="V425">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="W425">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="X425">
         <v>0.075</v>
@@ -34658,7 +34658,7 @@
         <v>851</v>
       </c>
       <c r="O426">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P426">
         <v>28</v>
@@ -34667,10 +34667,10 @@
         <v>5</v>
       </c>
       <c r="R426">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S426">
-        <v>-8.6</v>
+        <v>-7.2</v>
       </c>
       <c r="T426">
         <v>0.016</v>
@@ -34679,13 +34679,13 @@
         <v>0.027</v>
       </c>
       <c r="V426">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="W426">
         <v>0.449</v>
       </c>
       <c r="X426">
-        <v>0.164</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="427" spans="1:24">
@@ -34806,34 +34806,34 @@
         <v>889</v>
       </c>
       <c r="O428">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P428">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q428">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R428">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S428">
-        <v>-2.7</v>
+        <v>-5.2</v>
       </c>
       <c r="T428">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U428">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
       <c r="V428">
-        <v>0.163</v>
+        <v>0.169</v>
       </c>
       <c r="W428">
-        <v>0.511</v>
+        <v>0.505</v>
       </c>
       <c r="X428">
-        <v>0.192</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="429" spans="1:24">
@@ -34954,34 +34954,34 @@
         <v>851</v>
       </c>
       <c r="O430">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P430">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q430">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R430">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S430">
-        <v>-6.8</v>
+        <v>-8.4</v>
       </c>
       <c r="T430">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="U430">
-        <v>0.123</v>
+        <v>0.12</v>
       </c>
       <c r="V430">
-        <v>0.182</v>
+        <v>0.188</v>
       </c>
       <c r="W430">
-        <v>0.5580000000000001</v>
+        <v>0.542</v>
       </c>
       <c r="X430">
-        <v>0.08500000000000001</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="431" spans="1:24">
@@ -35324,19 +35324,19 @@
         <v>851</v>
       </c>
       <c r="O435">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P435">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q435">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="R435">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S435">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
       <c r="T435">
         <v>0.037</v>
@@ -35348,7 +35348,7 @@
         <v>0.157</v>
       </c>
       <c r="W435">
-        <v>0.608</v>
+        <v>0.601</v>
       </c>
       <c r="X435">
         <v>0.132</v>
@@ -35546,34 +35546,34 @@
         <v>877</v>
       </c>
       <c r="O438">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P438">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q438">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="R438">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="S438">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="T438">
         <v>0.049</v>
       </c>
       <c r="U438">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="V438">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="W438">
-        <v>0.543</v>
+        <v>0.539</v>
       </c>
       <c r="X438">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="439" spans="1:24">
@@ -35620,34 +35620,34 @@
         <v>904</v>
       </c>
       <c r="O439">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P439">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="Q439">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R439">
         <v>31</v>
       </c>
       <c r="S439">
-        <v>-3</v>
+        <v>-2.3</v>
       </c>
       <c r="T439">
         <v>0.044</v>
       </c>
       <c r="U439">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
       <c r="V439">
-        <v>0.145</v>
+        <v>0.148</v>
       </c>
       <c r="W439">
-        <v>0.546</v>
+        <v>0.545</v>
       </c>
       <c r="X439">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="440" spans="1:24">
@@ -35694,34 +35694,34 @@
         <v>900</v>
       </c>
       <c r="O440">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P440">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Q440">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R440">
         <v>23</v>
       </c>
       <c r="S440">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="T440">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="U440">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="V440">
-        <v>0.175</v>
+        <v>0.179</v>
       </c>
       <c r="W440">
-        <v>0.581</v>
+        <v>0.576</v>
       </c>
       <c r="X440">
-        <v>0.139</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="441" spans="1:24">
@@ -35842,34 +35842,34 @@
         <v>931</v>
       </c>
       <c r="O442">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P442">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q442">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R442">
         <v>52</v>
       </c>
       <c r="S442">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="T442">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="U442">
-        <v>0.07199999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V442">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="W442">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="X442">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="443" spans="1:24">
@@ -36064,34 +36064,34 @@
         <v>882</v>
       </c>
       <c r="O445">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P445">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="Q445">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="R445">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="S445">
-        <v>-9</v>
+        <v>-9.1</v>
       </c>
       <c r="T445">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U445">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V445">
-        <v>0.213</v>
+        <v>0.216</v>
       </c>
       <c r="W445">
-        <v>0.506</v>
+        <v>0.53</v>
       </c>
       <c r="X445">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="446" spans="1:24">
@@ -36360,19 +36360,19 @@
         <v>895</v>
       </c>
       <c r="O449">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P449">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="Q449">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R449">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S449">
-        <v>-8</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="T449">
         <v>0.02</v>
@@ -36384,10 +36384,10 @@
         <v>0.243</v>
       </c>
       <c r="W449">
-        <v>0.552</v>
+        <v>0.553</v>
       </c>
       <c r="X449">
-        <v>0.135</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="450" spans="1:24">
@@ -36434,34 +36434,34 @@
         <v>913</v>
       </c>
       <c r="O450">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P450">
-        <v>1192</v>
+        <v>1224</v>
       </c>
       <c r="Q450">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="R450">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="S450">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="T450">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U450">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="V450">
-        <v>0.328</v>
+        <v>0.327</v>
       </c>
       <c r="W450">
-        <v>0.636</v>
+        <v>0.64</v>
       </c>
       <c r="X450">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="451" spans="1:24">
@@ -36730,19 +36730,19 @@
         <v>881</v>
       </c>
       <c r="O454">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P454">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q454">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R454">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="S454">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="T454">
         <v>0.01</v>
@@ -36751,10 +36751,10 @@
         <v>0.082</v>
       </c>
       <c r="V454">
-        <v>0.173</v>
+        <v>0.171</v>
       </c>
       <c r="W454">
-        <v>0.546</v>
+        <v>0.551</v>
       </c>
       <c r="X454">
         <v>0.216</v>
@@ -36878,31 +36878,31 @@
         <v>851</v>
       </c>
       <c r="O456">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P456">
         <v>6</v>
       </c>
       <c r="Q456">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R456">
         <v>2</v>
       </c>
       <c r="S456">
-        <v>-9.199999999999999</v>
+        <v>-15</v>
       </c>
       <c r="T456">
-        <v>0.022</v>
+        <v>0.057</v>
       </c>
       <c r="U456">
-        <v>0.213</v>
+        <v>0.208</v>
       </c>
       <c r="V456">
-        <v>0.104</v>
+        <v>0.121</v>
       </c>
       <c r="W456">
-        <v>0.304</v>
+        <v>0.233</v>
       </c>
       <c r="X456">
         <v>0.077</v>
@@ -37245,34 +37245,34 @@
         <v>875</v>
       </c>
       <c r="O461">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P461">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="Q461">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R461">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="S461">
-        <v>-4.8</v>
+        <v>-4.5</v>
       </c>
       <c r="T461">
         <v>0.031</v>
       </c>
       <c r="U461">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="V461">
-        <v>0.232</v>
+        <v>0.231</v>
       </c>
       <c r="W461">
-        <v>0.5669999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X461">
-        <v>0.323</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="462" spans="1:24">
@@ -37393,7 +37393,7 @@
         <v>910</v>
       </c>
       <c r="O463">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P463">
         <v>210</v>
@@ -37405,22 +37405,22 @@
         <v>47</v>
       </c>
       <c r="S463">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T463">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U463">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
       <c r="V463">
-        <v>0.198</v>
+        <v>0.195</v>
       </c>
       <c r="W463">
-        <v>0.595</v>
+        <v>0.591</v>
       </c>
       <c r="X463">
-        <v>0.165</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="464" spans="1:24">
@@ -37541,34 +37541,34 @@
         <v>883</v>
       </c>
       <c r="O465">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P465">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q465">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="R465">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S465">
-        <v>-2</v>
+        <v>-0.6</v>
       </c>
       <c r="T465">
         <v>0.022</v>
       </c>
       <c r="U465">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="V465">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="W465">
-        <v>0.599</v>
+        <v>0.609</v>
       </c>
       <c r="X465">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="466" spans="1:24">
@@ -37985,19 +37985,19 @@
         <v>906</v>
       </c>
       <c r="O471">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P471">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q471">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="R471">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S471">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T471">
         <v>0.08699999999999999</v>
@@ -38009,7 +38009,7 @@
         <v>0.145</v>
       </c>
       <c r="W471">
-        <v>0.669</v>
+        <v>0.675</v>
       </c>
       <c r="X471">
         <v>0.07099999999999999</v>
@@ -38355,34 +38355,34 @@
         <v>851</v>
       </c>
       <c r="O476">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P476">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Q476">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R476">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S476">
-        <v>-4.9</v>
+        <v>-1.1</v>
       </c>
       <c r="T476">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="U476">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="V476">
         <v>0.172</v>
       </c>
       <c r="W476">
-        <v>0.652</v>
+        <v>0.663</v>
       </c>
       <c r="X476">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="477" spans="1:24">
@@ -38429,34 +38429,34 @@
         <v>929</v>
       </c>
       <c r="O477">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P477">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="Q477">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="R477">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="S477">
-        <v>-8.800000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="T477">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U477">
-        <v>0.106</v>
+        <v>0.104</v>
       </c>
       <c r="V477">
-        <v>0.137</v>
+        <v>0.141</v>
       </c>
       <c r="W477">
-        <v>0.541</v>
+        <v>0.538</v>
       </c>
       <c r="X477">
-        <v>0.089</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="478" spans="1:24">
@@ -38503,34 +38503,34 @@
         <v>884</v>
       </c>
       <c r="O478">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P478">
-        <v>811</v>
+        <v>854</v>
       </c>
       <c r="Q478">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R478">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="S478">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="T478">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="U478">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="V478">
-        <v>0.267</v>
+        <v>0.272</v>
       </c>
       <c r="W478">
-        <v>0.5639999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X478">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="479" spans="1:24">
@@ -39021,34 +39021,34 @@
         <v>851</v>
       </c>
       <c r="O485">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P485">
         <v>9</v>
       </c>
       <c r="Q485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R485">
         <v>5</v>
       </c>
       <c r="S485">
-        <v>1.7</v>
+        <v>-0.8</v>
       </c>
       <c r="T485">
         <v>0</v>
       </c>
       <c r="U485">
-        <v>0.036</v>
+        <v>0.051</v>
       </c>
       <c r="V485">
-        <v>0.121</v>
+        <v>0.114</v>
       </c>
       <c r="W485">
         <v>0.302</v>
       </c>
       <c r="X485">
-        <v>0.119</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="486" spans="1:24">
@@ -39169,34 +39169,34 @@
         <v>883</v>
       </c>
       <c r="O487">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P487">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q487">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R487">
         <v>29</v>
       </c>
       <c r="S487">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="T487">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="U487">
-        <v>0.173</v>
+        <v>0.17</v>
       </c>
       <c r="V487">
         <v>0.139</v>
       </c>
       <c r="W487">
-        <v>0.555</v>
+        <v>0.556</v>
       </c>
       <c r="X487">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="488" spans="1:24">
@@ -39243,34 +39243,34 @@
         <v>920</v>
       </c>
       <c r="O488">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P488">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="Q488">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="R488">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S488">
-        <v>-11.1</v>
+        <v>-10.5</v>
       </c>
       <c r="T488">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U488">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="V488">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="W488">
-        <v>0.599</v>
+        <v>0.601</v>
       </c>
       <c r="X488">
-        <v>0.132</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="489" spans="1:24">
@@ -40057,34 +40057,34 @@
         <v>902</v>
       </c>
       <c r="O499">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P499">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q499">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R499">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S499">
-        <v>-10.5</v>
+        <v>-9.5</v>
       </c>
       <c r="T499">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="U499">
-        <v>0.153</v>
+        <v>0.149</v>
       </c>
       <c r="V499">
-        <v>0.187</v>
+        <v>0.185</v>
       </c>
       <c r="W499">
-        <v>0.541</v>
+        <v>0.54</v>
       </c>
       <c r="X499">
-        <v>0.144</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="500" spans="1:24">
@@ -40205,19 +40205,19 @@
         <v>889</v>
       </c>
       <c r="O501">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P501">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q501">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R501">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="S501">
-        <v>-4.4</v>
+        <v>-3.9</v>
       </c>
       <c r="T501">
         <v>0.019</v>
@@ -40226,13 +40226,13 @@
         <v>0.063</v>
       </c>
       <c r="V501">
-        <v>0.158</v>
+        <v>0.157</v>
       </c>
       <c r="W501">
-        <v>0.603</v>
+        <v>0.604</v>
       </c>
       <c r="X501">
-        <v>0.286</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="502" spans="1:24">
@@ -40649,34 +40649,34 @@
         <v>898</v>
       </c>
       <c r="O507">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P507">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Q507">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="R507">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S507">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="T507">
         <v>0.026</v>
       </c>
       <c r="U507">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="V507">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
       <c r="W507">
-        <v>0.522</v>
+        <v>0.547</v>
       </c>
       <c r="X507">
-        <v>0.183</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="508" spans="1:24">
@@ -41093,34 +41093,34 @@
         <v>903</v>
       </c>
       <c r="O513">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P513">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q513">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="R513">
         <v>59</v>
       </c>
       <c r="S513">
-        <v>-12.3</v>
+        <v>-12</v>
       </c>
       <c r="T513">
         <v>0.126</v>
       </c>
       <c r="U513">
-        <v>0.166</v>
+        <v>0.169</v>
       </c>
       <c r="V513">
-        <v>0.136</v>
+        <v>0.135</v>
       </c>
       <c r="W513">
-        <v>0.587</v>
+        <v>0.59</v>
       </c>
       <c r="X513">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="514" spans="1:24">
@@ -41167,34 +41167,34 @@
         <v>873</v>
       </c>
       <c r="O514">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P514">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q514">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="R514">
         <v>45</v>
       </c>
       <c r="S514">
-        <v>-3.9</v>
+        <v>-4.4</v>
       </c>
       <c r="T514">
         <v>0.05</v>
       </c>
       <c r="U514">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="V514">
-        <v>0.2</v>
+        <v>0.199</v>
       </c>
       <c r="W514">
-        <v>0.495</v>
+        <v>0.491</v>
       </c>
       <c r="X514">
-        <v>0.067</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="515" spans="1:24">
@@ -41389,31 +41389,31 @@
         <v>914</v>
       </c>
       <c r="O517">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P517">
-        <v>816</v>
+        <v>841</v>
       </c>
       <c r="Q517">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="R517">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="S517">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T517">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="U517">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
       <c r="V517">
         <v>0.262</v>
       </c>
       <c r="W517">
-        <v>0.645</v>
+        <v>0.641</v>
       </c>
       <c r="X517">
         <v>0.192</v>
@@ -41463,34 +41463,34 @@
         <v>897</v>
       </c>
       <c r="O518">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P518">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q518">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R518">
         <v>4</v>
       </c>
       <c r="S518">
-        <v>-39.2</v>
+        <v>-39</v>
       </c>
       <c r="T518">
         <v>0.018</v>
       </c>
       <c r="U518">
-        <v>0.048</v>
+        <v>0.055</v>
       </c>
       <c r="V518">
-        <v>0.145</v>
+        <v>0.157</v>
       </c>
       <c r="W518">
-        <v>0.401</v>
+        <v>0.438</v>
       </c>
       <c r="X518">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="519" spans="1:24">
@@ -41537,34 +41537,34 @@
         <v>905</v>
       </c>
       <c r="O519">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P519">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="Q519">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="R519">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S519">
-        <v>-8.6</v>
+        <v>-7.7</v>
       </c>
       <c r="T519">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="U519">
-        <v>0.179</v>
+        <v>0.178</v>
       </c>
       <c r="V519">
-        <v>0.193</v>
+        <v>0.19</v>
       </c>
       <c r="W519">
-        <v>0.537</v>
+        <v>0.546</v>
       </c>
       <c r="X519">
-        <v>0.102</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="520" spans="1:24">
@@ -41611,34 +41611,34 @@
         <v>873</v>
       </c>
       <c r="O520">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P520">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="Q520">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="R520">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S520">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="T520">
-        <v>0.079</v>
+        <v>0.089</v>
       </c>
       <c r="U520">
-        <v>0.152</v>
+        <v>0.143</v>
       </c>
       <c r="V520">
         <v>0.328</v>
       </c>
       <c r="W520">
-        <v>0.52</v>
+        <v>0.532</v>
       </c>
       <c r="X520">
-        <v>0.269</v>
+        <v>0.304</v>
       </c>
     </row>
   </sheetData>

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -184,7 +184,7 @@
     <t>Ariel Hukporti</t>
   </si>
   <si>
-    <t>Armel Traoré</t>
+    <t>Armel Traore</t>
   </si>
   <si>
     <t>Ausar Thompson</t>
@@ -1210,7 +1210,7 @@
     <t>Mouhamed Gueye</t>
   </si>
   <si>
-    <t>Moussa Diabaté</t>
+    <t>Moussa Diabate</t>
   </si>
   <si>
     <t>Myles Turner</t>
@@ -1483,7 +1483,7 @@
     <t>Taylor Hendricks</t>
   </si>
   <si>
-    <t>Tazé Moore</t>
+    <t>Taze Moore</t>
   </si>
   <si>
     <t>Terance Mann</t>
@@ -3590,34 +3590,34 @@
         <v>877</v>
       </c>
       <c r="O6">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>111</v>
+      </c>
+      <c r="Q6">
         <v>28</v>
       </c>
-      <c r="P6">
-        <v>105</v>
-      </c>
-      <c r="Q6">
-        <v>25</v>
-      </c>
       <c r="R6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6">
-        <v>12.8</v>
+        <v>11.1</v>
       </c>
       <c r="T6">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="U6">
         <v>0.062</v>
       </c>
       <c r="V6">
-        <v>0.139</v>
+        <v>0.142</v>
       </c>
       <c r="W6">
-        <v>0.58</v>
+        <v>0.581</v>
       </c>
       <c r="X6">
-        <v>0.147</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -3664,34 +3664,34 @@
         <v>879</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7">
-        <v>-0.3</v>
+        <v>1.4</v>
       </c>
       <c r="T7">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="U7">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="V7">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="W7">
-        <v>0.659</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="X7">
-        <v>0.057</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -3738,16 +3738,16 @@
         <v>880</v>
       </c>
       <c r="O8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="R8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S8">
         <v>14.1</v>
@@ -3756,13 +3756,13 @@
         <v>0.047</v>
       </c>
       <c r="U8">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="V8">
-        <v>0.181</v>
+        <v>0.179</v>
       </c>
       <c r="W8">
-        <v>0.604</v>
+        <v>0.595</v>
       </c>
       <c r="X8">
         <v>0.096</v>
@@ -3812,7 +3812,7 @@
         <v>852</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P9">
         <v>15</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>11.5</v>
+        <v>-2.2</v>
       </c>
       <c r="T9">
-        <v>0.038</v>
+        <v>0.031</v>
       </c>
       <c r="U9">
-        <v>0.098</v>
+        <v>0.08</v>
       </c>
       <c r="V9">
-        <v>0.206</v>
+        <v>0.254</v>
       </c>
       <c r="W9">
-        <v>0.375</v>
+        <v>0.259</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -4256,19 +4256,19 @@
         <v>852</v>
       </c>
       <c r="O15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P15">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Q15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R15">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S15">
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="T15">
         <v>0.026</v>
@@ -4280,10 +4280,10 @@
         <v>0.135</v>
       </c>
       <c r="W15">
-        <v>0.463</v>
+        <v>0.489</v>
       </c>
       <c r="X15">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -4330,34 +4330,34 @@
         <v>852</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P16">
         <v>3</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>-2.5</v>
+        <v>-21.1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="U16">
-        <v>0.042</v>
+        <v>0.03</v>
       </c>
       <c r="V16">
-        <v>0.106</v>
+        <v>0.094</v>
       </c>
       <c r="W16">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="X16">
-        <v>0.067</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -4552,34 +4552,34 @@
         <v>875</v>
       </c>
       <c r="O19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="Q19">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="R19">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S19">
-        <v>-16.3</v>
+        <v>-16.4</v>
       </c>
       <c r="T19">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="U19">
-        <v>0.158</v>
+        <v>0.161</v>
       </c>
       <c r="V19">
-        <v>0.202</v>
+        <v>0.204</v>
       </c>
       <c r="W19">
-        <v>0.496</v>
+        <v>0.494</v>
       </c>
       <c r="X19">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -4700,34 +4700,34 @@
         <v>886</v>
       </c>
       <c r="O21">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P21">
-        <v>752</v>
+        <v>773</v>
       </c>
       <c r="Q21">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="R21">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S21">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="T21">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="U21">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="V21">
-        <v>0.266</v>
+        <v>0.265</v>
       </c>
       <c r="W21">
-        <v>0.539</v>
+        <v>0.54</v>
       </c>
       <c r="X21">
-        <v>0.255</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -4774,22 +4774,22 @@
         <v>878</v>
       </c>
       <c r="O22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P22">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="Q22">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="R22">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="S22">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="T22">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="U22">
         <v>0.162</v>
@@ -4798,10 +4798,10 @@
         <v>0.168</v>
       </c>
       <c r="W22">
-        <v>0.607</v>
+        <v>0.611</v>
       </c>
       <c r="X22">
-        <v>0.112</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -4848,19 +4848,19 @@
         <v>852</v>
       </c>
       <c r="O23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Q23">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R23">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S23">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="T23">
         <v>0.022</v>
@@ -4872,10 +4872,10 @@
         <v>0.154</v>
       </c>
       <c r="W23">
-        <v>0.618</v>
+        <v>0.621</v>
       </c>
       <c r="X23">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -5070,34 +5070,34 @@
         <v>889</v>
       </c>
       <c r="O26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P26">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q26">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R26">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="S26">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="T26">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U26">
         <v>0.096</v>
       </c>
       <c r="V26">
-        <v>0.178</v>
+        <v>0.179</v>
       </c>
       <c r="W26">
-        <v>0.551</v>
+        <v>0.545</v>
       </c>
       <c r="X26">
-        <v>0.243</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -5218,19 +5218,19 @@
         <v>890</v>
       </c>
       <c r="O28">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P28">
         <v>672</v>
       </c>
       <c r="Q28">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R28">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="S28">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="T28">
         <v>0.008999999999999999</v>
@@ -5239,13 +5239,13 @@
         <v>0.073</v>
       </c>
       <c r="V28">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="W28">
-        <v>0.5570000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="X28">
-        <v>0.252</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -5810,34 +5810,34 @@
         <v>885</v>
       </c>
       <c r="O36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P36">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q36">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S36">
-        <v>0.1</v>
+        <v>-2.6</v>
       </c>
       <c r="T36">
-        <v>0.065</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U36">
-        <v>0.178</v>
+        <v>0.18</v>
       </c>
       <c r="V36">
-        <v>0.181</v>
+        <v>0.183</v>
       </c>
       <c r="W36">
-        <v>0.547</v>
+        <v>0.536</v>
       </c>
       <c r="X36">
-        <v>0.14</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -5931,7 +5931,7 @@
         <v>549</v>
       </c>
       <c r="F38">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
         <v>575</v>
@@ -6180,10 +6180,10 @@
         <v>895</v>
       </c>
       <c r="O41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P41">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>70</v>
@@ -6192,22 +6192,22 @@
         <v>29</v>
       </c>
       <c r="S41">
-        <v>-5.8</v>
+        <v>-5.2</v>
       </c>
       <c r="T41">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="U41">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="V41">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="W41">
         <v>0.544</v>
       </c>
       <c r="X41">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -6402,34 +6402,34 @@
         <v>896</v>
       </c>
       <c r="O44">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P44">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="Q44">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="R44">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S44">
-        <v>-16.4</v>
+        <v>-16.5</v>
       </c>
       <c r="T44">
         <v>0.038</v>
       </c>
       <c r="U44">
-        <v>0.107</v>
+        <v>0.105</v>
       </c>
       <c r="V44">
         <v>0.173</v>
       </c>
       <c r="W44">
-        <v>0.519</v>
+        <v>0.52</v>
       </c>
       <c r="X44">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -6772,34 +6772,34 @@
         <v>901</v>
       </c>
       <c r="O49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P49">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R49">
         <v>1</v>
       </c>
       <c r="S49">
-        <v>2.7</v>
+        <v>-1.2</v>
       </c>
       <c r="T49">
-        <v>0.089</v>
+        <v>0.102</v>
       </c>
       <c r="U49">
-        <v>0.148</v>
+        <v>0.143</v>
       </c>
       <c r="V49">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="W49">
-        <v>0.647</v>
+        <v>0.659</v>
       </c>
       <c r="X49">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -6846,34 +6846,34 @@
         <v>895</v>
       </c>
       <c r="O50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P50">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R50">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S50">
         <v>-6.9</v>
       </c>
       <c r="T50">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U50">
-        <v>0.083</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V50">
-        <v>0.282</v>
+        <v>0.279</v>
       </c>
       <c r="W50">
-        <v>0.552</v>
+        <v>0.546</v>
       </c>
       <c r="X50">
-        <v>0.248</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -6994,34 +6994,34 @@
         <v>852</v>
       </c>
       <c r="O52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P52">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q52">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R52">
         <v>3</v>
       </c>
       <c r="S52">
-        <v>18.1</v>
+        <v>14.2</v>
       </c>
       <c r="T52">
-        <v>0.103</v>
+        <v>0.077</v>
       </c>
       <c r="U52">
-        <v>0.205</v>
+        <v>0.183</v>
       </c>
       <c r="V52">
-        <v>0.168</v>
+        <v>0.174</v>
       </c>
       <c r="W52">
-        <v>0.504</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="X52">
-        <v>0.097</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -8104,34 +8104,34 @@
         <v>874</v>
       </c>
       <c r="O67">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P67">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="Q67">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R67">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="S67">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="T67">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U67">
-        <v>0.158</v>
+        <v>0.157</v>
       </c>
       <c r="V67">
         <v>0.311</v>
       </c>
       <c r="W67">
-        <v>0.556</v>
+        <v>0.553</v>
       </c>
       <c r="X67">
-        <v>0.418</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -8622,34 +8622,34 @@
         <v>913</v>
       </c>
       <c r="O74">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P74">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q74">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R74">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S74">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="T74">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="U74">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="V74">
-        <v>0.254</v>
+        <v>0.25</v>
       </c>
       <c r="W74">
-        <v>0.547</v>
+        <v>0.545</v>
       </c>
       <c r="X74">
-        <v>0.055</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -8844,34 +8844,34 @@
         <v>913</v>
       </c>
       <c r="O77">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P77">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q77">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R77">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="S77">
-        <v>15.2</v>
+        <v>13.2</v>
       </c>
       <c r="T77">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U77">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="V77">
-        <v>0.18</v>
+        <v>0.181</v>
       </c>
       <c r="W77">
         <v>0.611</v>
       </c>
       <c r="X77">
-        <v>0.201</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -8918,34 +8918,34 @@
         <v>879</v>
       </c>
       <c r="O78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P78">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q78">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="R78">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="S78">
-        <v>-18.4</v>
+        <v>-18.7</v>
       </c>
       <c r="T78">
         <v>0.01</v>
       </c>
       <c r="U78">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="V78">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="W78">
-        <v>0.512</v>
+        <v>0.509</v>
       </c>
       <c r="X78">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -8992,34 +8992,34 @@
         <v>906</v>
       </c>
       <c r="O79">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P79">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q79">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="R79">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S79">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="T79">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="U79">
-        <v>0.073</v>
+        <v>0.077</v>
       </c>
       <c r="V79">
         <v>0.114</v>
       </c>
       <c r="W79">
-        <v>0.537</v>
+        <v>0.536</v>
       </c>
       <c r="X79">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -10398,34 +10398,34 @@
         <v>917</v>
       </c>
       <c r="O98">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P98">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="Q98">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R98">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="S98">
-        <v>-11.7</v>
+        <v>-10.5</v>
       </c>
       <c r="T98">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="U98">
         <v>0.08699999999999999</v>
       </c>
       <c r="V98">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="W98">
-        <v>0.576</v>
+        <v>0.573</v>
       </c>
       <c r="X98">
-        <v>0.09</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -10546,34 +10546,34 @@
         <v>852</v>
       </c>
       <c r="O100">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P100">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="Q100">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R100">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="S100">
-        <v>-3.4</v>
+        <v>-0.5</v>
       </c>
       <c r="T100">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="U100">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="V100">
-        <v>0.123</v>
+        <v>0.127</v>
       </c>
       <c r="W100">
-        <v>0.633</v>
+        <v>0.674</v>
       </c>
       <c r="X100">
-        <v>0.18</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="101" spans="1:24">
@@ -11064,34 +11064,34 @@
         <v>911</v>
       </c>
       <c r="O107">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P107">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="Q107">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R107">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S107">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="T107">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="U107">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="V107">
-        <v>0.257</v>
+        <v>0.261</v>
       </c>
       <c r="W107">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="X107">
-        <v>0.227</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11804,34 +11804,34 @@
         <v>885</v>
       </c>
       <c r="O117">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P117">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="Q117">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R117">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="S117">
-        <v>11.8</v>
+        <v>10.8</v>
       </c>
       <c r="T117">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="U117">
         <v>0.064</v>
       </c>
       <c r="V117">
-        <v>0.263</v>
+        <v>0.262</v>
       </c>
       <c r="W117">
-        <v>0.633</v>
+        <v>0.636</v>
       </c>
       <c r="X117">
-        <v>0.302</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="118" spans="1:24">
@@ -12174,16 +12174,16 @@
         <v>885</v>
       </c>
       <c r="O122">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P122">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="Q122">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R122">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="S122">
         <v>1.4</v>
@@ -12192,16 +12192,16 @@
         <v>0.029</v>
       </c>
       <c r="U122">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="V122">
-        <v>0.293</v>
+        <v>0.291</v>
       </c>
       <c r="W122">
-        <v>0.579</v>
+        <v>0.577</v>
       </c>
       <c r="X122">
-        <v>0.261</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -12470,19 +12470,19 @@
         <v>887</v>
       </c>
       <c r="O126">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P126">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="Q126">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R126">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="S126">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="T126">
         <v>0.014</v>
@@ -12491,10 +12491,10 @@
         <v>0.09</v>
       </c>
       <c r="V126">
-        <v>0.238</v>
+        <v>0.239</v>
       </c>
       <c r="W126">
-        <v>0.5620000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X126">
         <v>0.159</v>
@@ -12544,19 +12544,19 @@
         <v>852</v>
       </c>
       <c r="O127">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P127">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q127">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="R127">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S127">
-        <v>12.9</v>
+        <v>11.6</v>
       </c>
       <c r="T127">
         <v>0.04</v>
@@ -12568,10 +12568,10 @@
         <v>0.101</v>
       </c>
       <c r="W127">
-        <v>0.5639999999999999</v>
+        <v>0.569</v>
       </c>
       <c r="X127">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -12618,34 +12618,34 @@
         <v>874</v>
       </c>
       <c r="O128">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P128">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="Q128">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="R128">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S128">
-        <v>-11.5</v>
+        <v>-12.6</v>
       </c>
       <c r="T128">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="U128">
-        <v>0.246</v>
+        <v>0.247</v>
       </c>
       <c r="V128">
-        <v>0.189</v>
+        <v>0.191</v>
       </c>
       <c r="W128">
-        <v>0.579</v>
+        <v>0.578</v>
       </c>
       <c r="X128">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="129" spans="1:24">
@@ -13062,34 +13062,34 @@
         <v>852</v>
       </c>
       <c r="O134">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P134">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="Q134">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="R134">
         <v>32</v>
       </c>
       <c r="S134">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="T134">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="U134">
         <v>0.089</v>
       </c>
       <c r="V134">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="W134">
-        <v>0.592</v>
+        <v>0.596</v>
       </c>
       <c r="X134">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -13284,34 +13284,34 @@
         <v>915</v>
       </c>
       <c r="O137">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P137">
-        <v>856</v>
+        <v>893</v>
       </c>
       <c r="Q137">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R137">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="S137">
-        <v>-1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="T137">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U137">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="V137">
-        <v>0.281</v>
+        <v>0.283</v>
       </c>
       <c r="W137">
-        <v>0.583</v>
+        <v>0.584</v>
       </c>
       <c r="X137">
-        <v>0.294</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -13358,34 +13358,34 @@
         <v>915</v>
       </c>
       <c r="O138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P138">
         <v>34</v>
       </c>
       <c r="Q138">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R138">
         <v>11</v>
       </c>
       <c r="S138">
-        <v>1.6</v>
+        <v>-2</v>
       </c>
       <c r="T138">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="U138">
-        <v>0.221</v>
+        <v>0.214</v>
       </c>
       <c r="V138">
-        <v>0.191</v>
+        <v>0.18</v>
       </c>
       <c r="W138">
-        <v>0.455</v>
+        <v>0.443</v>
       </c>
       <c r="X138">
-        <v>0.183</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="139" spans="1:24">
@@ -13506,19 +13506,19 @@
         <v>923</v>
       </c>
       <c r="O140">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P140">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="Q140">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="R140">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S140">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="T140">
         <v>0.036</v>
@@ -13527,13 +13527,13 @@
         <v>0.079</v>
       </c>
       <c r="V140">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="W140">
-        <v>0.532</v>
+        <v>0.528</v>
       </c>
       <c r="X140">
-        <v>0.07099999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -13654,34 +13654,34 @@
         <v>914</v>
       </c>
       <c r="O142">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P142">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="Q142">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="R142">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="S142">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T142">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
       <c r="U142">
-        <v>0.283</v>
+        <v>0.282</v>
       </c>
       <c r="V142">
-        <v>0.213</v>
+        <v>0.212</v>
       </c>
       <c r="W142">
         <v>0.67</v>
       </c>
       <c r="X142">
-        <v>0.257</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -13876,31 +13876,31 @@
         <v>915</v>
       </c>
       <c r="O145">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P145">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Q145">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R145">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="S145">
-        <v>11.5</v>
+        <v>10.2</v>
       </c>
       <c r="T145">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U145">
         <v>0.118</v>
       </c>
       <c r="V145">
-        <v>0.289</v>
+        <v>0.29</v>
       </c>
       <c r="W145">
-        <v>0.587</v>
+        <v>0.579</v>
       </c>
       <c r="X145">
         <v>0.218</v>
@@ -14542,10 +14542,10 @@
         <v>852</v>
       </c>
       <c r="O154">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P154">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q154">
         <v>19</v>
@@ -14554,22 +14554,22 @@
         <v>5</v>
       </c>
       <c r="S154">
-        <v>-18.2</v>
+        <v>-17</v>
       </c>
       <c r="T154">
         <v>0.058</v>
       </c>
       <c r="U154">
-        <v>0.115</v>
+        <v>0.111</v>
       </c>
       <c r="V154">
-        <v>0.16</v>
+        <v>0.168</v>
       </c>
       <c r="W154">
-        <v>0.516</v>
+        <v>0.527</v>
       </c>
       <c r="X154">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -15134,31 +15134,31 @@
         <v>883</v>
       </c>
       <c r="O162">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P162">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="Q162">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="R162">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S162">
-        <v>14.8</v>
+        <v>13.5</v>
       </c>
       <c r="T162">
         <v>0.07000000000000001</v>
       </c>
       <c r="U162">
-        <v>0.212</v>
+        <v>0.211</v>
       </c>
       <c r="V162">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="W162">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="X162">
         <v>0.137</v>
@@ -15800,34 +15800,34 @@
         <v>924</v>
       </c>
       <c r="O171">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P171">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q171">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R171">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S171">
-        <v>10.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T171">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U171">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="V171">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="W171">
-        <v>0.605</v>
+        <v>0.598</v>
       </c>
       <c r="X171">
-        <v>0.097</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -16170,34 +16170,34 @@
         <v>904</v>
       </c>
       <c r="O176">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P176">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="Q176">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R176">
         <v>55</v>
       </c>
       <c r="S176">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="T176">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U176">
-        <v>0.102</v>
+        <v>0.105</v>
       </c>
       <c r="V176">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
       <c r="W176">
-        <v>0.632</v>
+        <v>0.643</v>
       </c>
       <c r="X176">
-        <v>0.109</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -16904,34 +16904,34 @@
         <v>885</v>
       </c>
       <c r="O186">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P186">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q186">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R186">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S186">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="T186">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="U186">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="V186">
-        <v>0.114</v>
+        <v>0.118</v>
       </c>
       <c r="W186">
-        <v>0.583</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X186">
-        <v>0.099</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="187" spans="1:24">
@@ -17274,34 +17274,34 @@
         <v>927</v>
       </c>
       <c r="O191">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P191">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="Q191">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R191">
         <v>53</v>
       </c>
       <c r="S191">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="T191">
         <v>0.021</v>
       </c>
       <c r="U191">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="V191">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="W191">
-        <v>0.5590000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="X191">
-        <v>0.089</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -17348,34 +17348,34 @@
         <v>886</v>
       </c>
       <c r="O192">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P192">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q192">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="R192">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S192">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="T192">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
       <c r="U192">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="V192">
         <v>0.112</v>
       </c>
       <c r="W192">
-        <v>0.587</v>
+        <v>0.58</v>
       </c>
       <c r="X192">
-        <v>0.118</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -17496,31 +17496,31 @@
         <v>910</v>
       </c>
       <c r="O194">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P194">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="Q194">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="R194">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S194">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="T194">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="U194">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
       <c r="V194">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
       <c r="W194">
-        <v>0.62</v>
+        <v>0.618</v>
       </c>
       <c r="X194">
         <v>0.123</v>
@@ -17940,34 +17940,34 @@
         <v>928</v>
       </c>
       <c r="O200">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P200">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="R200">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S200">
-        <v>-7</v>
+        <v>-6.3</v>
       </c>
       <c r="T200">
         <v>0.07000000000000001</v>
       </c>
       <c r="U200">
-        <v>0.202</v>
+        <v>0.204</v>
       </c>
       <c r="V200">
-        <v>0.146</v>
+        <v>0.142</v>
       </c>
       <c r="W200">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="X200">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -18976,34 +18976,34 @@
         <v>915</v>
       </c>
       <c r="O214">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P214">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="Q214">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="R214">
         <v>87</v>
       </c>
       <c r="S214">
-        <v>-2.8</v>
+        <v>-3.5</v>
       </c>
       <c r="T214">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="U214">
-        <v>0.247</v>
+        <v>0.252</v>
       </c>
       <c r="V214">
         <v>0.149</v>
       </c>
       <c r="W214">
-        <v>0.6909999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="X214">
-        <v>0.133</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -19050,34 +19050,34 @@
         <v>875</v>
       </c>
       <c r="O215">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P215">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="Q215">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="R215">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="S215">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T215">
         <v>0.015</v>
       </c>
       <c r="U215">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="V215">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="W215">
-        <v>0.5620000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="X215">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -19494,19 +19494,19 @@
         <v>884</v>
       </c>
       <c r="O221">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P221">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="Q221">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="R221">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="S221">
-        <v>11.4</v>
+        <v>12.1</v>
       </c>
       <c r="T221">
         <v>0.025</v>
@@ -19515,13 +19515,13 @@
         <v>0.14</v>
       </c>
       <c r="V221">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="W221">
-        <v>0.5610000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X221">
-        <v>0.245</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -19864,34 +19864,34 @@
         <v>883</v>
       </c>
       <c r="O226">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P226">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="Q226">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R226">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="S226">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T226">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="U226">
-        <v>0.157</v>
+        <v>0.153</v>
       </c>
       <c r="V226">
         <v>0.295</v>
       </c>
       <c r="W226">
-        <v>0.572</v>
+        <v>0.571</v>
       </c>
       <c r="X226">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="227" spans="1:24">
@@ -20160,19 +20160,19 @@
         <v>918</v>
       </c>
       <c r="O230">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P230">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q230">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R230">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S230">
-        <v>-8.6</v>
+        <v>-7.6</v>
       </c>
       <c r="T230">
         <v>0.023</v>
@@ -20184,10 +20184,10 @@
         <v>0.161</v>
       </c>
       <c r="W230">
-        <v>0.588</v>
+        <v>0.591</v>
       </c>
       <c r="X230">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -20234,34 +20234,34 @@
         <v>909</v>
       </c>
       <c r="O231">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P231">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q231">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R231">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S231">
-        <v>-6</v>
+        <v>-3.7</v>
       </c>
       <c r="T231">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U231">
-        <v>0.07099999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="V231">
-        <v>0.248</v>
+        <v>0.244</v>
       </c>
       <c r="W231">
-        <v>0.57</v>
+        <v>0.571</v>
       </c>
       <c r="X231">
-        <v>0.371</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="232" spans="1:24">
@@ -20530,31 +20530,31 @@
         <v>898</v>
       </c>
       <c r="O235">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P235">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="Q235">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="R235">
         <v>77</v>
       </c>
       <c r="S235">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="T235">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="U235">
         <v>0.253</v>
       </c>
       <c r="V235">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="W235">
-        <v>0.726</v>
+        <v>0.73</v>
       </c>
       <c r="X235">
         <v>0.08699999999999999</v>
@@ -21193,34 +21193,34 @@
         <v>908</v>
       </c>
       <c r="O244">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P244">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q244">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="R244">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S244">
-        <v>11.6</v>
+        <v>12.3</v>
       </c>
       <c r="T244">
-        <v>0.066</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U244">
-        <v>0.209</v>
+        <v>0.205</v>
       </c>
       <c r="V244">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
       <c r="W244">
-        <v>0.5629999999999999</v>
+        <v>0.546</v>
       </c>
       <c r="X244">
-        <v>0.217</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="245" spans="1:24">
@@ -21267,34 +21267,34 @@
         <v>913</v>
       </c>
       <c r="O245">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P245">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="Q245">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R245">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S245">
-        <v>-9.199999999999999</v>
+        <v>-3.8</v>
       </c>
       <c r="T245">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="U245">
-        <v>0.126</v>
+        <v>0.133</v>
       </c>
       <c r="V245">
-        <v>0.138</v>
+        <v>0.144</v>
       </c>
       <c r="W245">
-        <v>0.472</v>
+        <v>0.465</v>
       </c>
       <c r="X245">
-        <v>0.138</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="246" spans="1:24">
@@ -21563,34 +21563,34 @@
         <v>885</v>
       </c>
       <c r="O249">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P249">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q249">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S249">
-        <v>-11.3</v>
+        <v>-10.8</v>
       </c>
       <c r="T249">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="U249">
-        <v>0.109</v>
+        <v>0.103</v>
       </c>
       <c r="V249">
-        <v>0.135</v>
+        <v>0.131</v>
       </c>
       <c r="W249">
-        <v>0.652</v>
+        <v>0.671</v>
       </c>
       <c r="X249">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="250" spans="1:24">
@@ -22747,34 +22747,34 @@
         <v>885</v>
       </c>
       <c r="O265">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P265">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Q265">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="R265">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S265">
-        <v>-15.1</v>
+        <v>-14.4</v>
       </c>
       <c r="T265">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="U265">
-        <v>0.276</v>
+        <v>0.279</v>
       </c>
       <c r="V265">
         <v>0.236</v>
       </c>
       <c r="W265">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="X265">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -23265,7 +23265,7 @@
         <v>925</v>
       </c>
       <c r="O272">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P272">
         <v>134</v>
@@ -23277,22 +23277,22 @@
         <v>30</v>
       </c>
       <c r="S272">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="T272">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="U272">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V272">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
       <c r="W272">
-        <v>0.502</v>
+        <v>0.498</v>
       </c>
       <c r="X272">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="273" spans="1:24">
@@ -23339,34 +23339,34 @@
         <v>905</v>
       </c>
       <c r="O273">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P273">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="Q273">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R273">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="S273">
-        <v>-13.2</v>
+        <v>-13.9</v>
       </c>
       <c r="T273">
         <v>0.012</v>
       </c>
       <c r="U273">
-        <v>0.07199999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="V273">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="W273">
-        <v>0.593</v>
+        <v>0.591</v>
       </c>
       <c r="X273">
-        <v>0.255</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="274" spans="1:24">
@@ -24449,13 +24449,13 @@
         <v>852</v>
       </c>
       <c r="O288">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P288">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q288">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R288">
         <v>23</v>
@@ -24464,19 +24464,19 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="T288">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
       <c r="U288">
+        <v>0.14</v>
+      </c>
+      <c r="V288">
         <v>0.142</v>
       </c>
-      <c r="V288">
-        <v>0.14</v>
-      </c>
       <c r="W288">
-        <v>0.638</v>
+        <v>0.646</v>
       </c>
       <c r="X288">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="289" spans="1:24">
@@ -24597,7 +24597,7 @@
         <v>852</v>
       </c>
       <c r="O290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P290">
         <v>0</v>
@@ -24609,22 +24609,22 @@
         <v>1</v>
       </c>
       <c r="S290">
-        <v>-47.6</v>
+        <v>-28.6</v>
       </c>
       <c r="T290">
-        <v>0.143</v>
+        <v>0.125</v>
       </c>
       <c r="U290">
-        <v>0.143</v>
+        <v>0.083</v>
       </c>
       <c r="V290">
-        <v>0.037</v>
+        <v>0.029</v>
       </c>
       <c r="W290">
         <v>0</v>
       </c>
       <c r="X290">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="291" spans="1:24">
@@ -24893,7 +24893,7 @@
         <v>902</v>
       </c>
       <c r="O294">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P294">
         <v>57</v>
@@ -24905,22 +24905,22 @@
         <v>10</v>
       </c>
       <c r="S294">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="T294">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U294">
         <v>0.138</v>
       </c>
       <c r="V294">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="W294">
         <v>0.726</v>
       </c>
       <c r="X294">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="295" spans="1:24">
@@ -25263,34 +25263,34 @@
         <v>878</v>
       </c>
       <c r="O299">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P299">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="Q299">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="R299">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S299">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T299">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="U299">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="V299">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
       <c r="W299">
-        <v>0.521</v>
+        <v>0.529</v>
       </c>
       <c r="X299">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="300" spans="1:24">
@@ -25633,34 +25633,34 @@
         <v>852</v>
       </c>
       <c r="O304">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P304">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q304">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R304">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S304">
-        <v>16.7</v>
+        <v>16.1</v>
       </c>
       <c r="T304">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="U304">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
       <c r="V304">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="W304">
-        <v>0.637</v>
+        <v>0.63</v>
       </c>
       <c r="X304">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="305" spans="1:24">
@@ -25781,13 +25781,13 @@
         <v>852</v>
       </c>
       <c r="O306">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P306">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q306">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R306">
         <v>45</v>
@@ -25796,7 +25796,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="T306">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="U306">
         <v>0.074</v>
@@ -25805,10 +25805,10 @@
         <v>0.126</v>
       </c>
       <c r="W306">
-        <v>0.648</v>
+        <v>0.653</v>
       </c>
       <c r="X306">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:24">
@@ -26077,34 +26077,34 @@
         <v>875</v>
       </c>
       <c r="O310">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P310">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="Q310">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="R310">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S310">
-        <v>-1.1</v>
+        <v>-0.2</v>
       </c>
       <c r="T310">
         <v>0.014</v>
       </c>
       <c r="U310">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="V310">
-        <v>0.302</v>
+        <v>0.3</v>
       </c>
       <c r="W310">
-        <v>0.63</v>
+        <v>0.629</v>
       </c>
       <c r="X310">
-        <v>0.2</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="311" spans="1:24">
@@ -26151,19 +26151,19 @@
         <v>902</v>
       </c>
       <c r="O311">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P311">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q311">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R311">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S311">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="T311">
         <v>0.021</v>
@@ -26172,10 +26172,10 @@
         <v>0.112</v>
       </c>
       <c r="V311">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="W311">
-        <v>0.535</v>
+        <v>0.537</v>
       </c>
       <c r="X311">
         <v>0.113</v>
@@ -26299,19 +26299,19 @@
         <v>894</v>
       </c>
       <c r="O313">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P313">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q313">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R313">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S313">
-        <v>-2.2</v>
+        <v>-0.8</v>
       </c>
       <c r="T313">
         <v>0.032</v>
@@ -26323,10 +26323,10 @@
         <v>0.262</v>
       </c>
       <c r="W313">
-        <v>0.473</v>
+        <v>0.477</v>
       </c>
       <c r="X313">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="314" spans="1:24">
@@ -26669,34 +26669,34 @@
         <v>894</v>
       </c>
       <c r="O318">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P318">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q318">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R318">
         <v>6</v>
       </c>
       <c r="S318">
-        <v>-5.2</v>
+        <v>-5.5</v>
       </c>
       <c r="T318">
-        <v>0.064</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U318">
-        <v>0.238</v>
+        <v>0.236</v>
       </c>
       <c r="V318">
-        <v>0.154</v>
+        <v>0.161</v>
       </c>
       <c r="W318">
-        <v>0.5669999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="X318">
-        <v>0.115</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="319" spans="1:24">
@@ -26817,31 +26817,31 @@
         <v>885</v>
       </c>
       <c r="O320">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P320">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q320">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="R320">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S320">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="T320">
         <v>0.03</v>
       </c>
       <c r="U320">
-        <v>0.108</v>
+        <v>0.112</v>
       </c>
       <c r="V320">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="W320">
-        <v>0.499</v>
+        <v>0.505</v>
       </c>
       <c r="X320">
         <v>0.16</v>
@@ -26891,34 +26891,34 @@
         <v>877</v>
       </c>
       <c r="O321">
+        <v>34</v>
+      </c>
+      <c r="P321">
+        <v>153</v>
+      </c>
+      <c r="Q321">
+        <v>80</v>
+      </c>
+      <c r="R321">
         <v>33</v>
       </c>
-      <c r="P321">
-        <v>144</v>
-      </c>
-      <c r="Q321">
-        <v>76</v>
-      </c>
-      <c r="R321">
-        <v>32</v>
-      </c>
       <c r="S321">
-        <v>-7.8</v>
+        <v>-8.1</v>
       </c>
       <c r="T321">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U321">
-        <v>0.08500000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V321">
-        <v>0.133</v>
+        <v>0.135</v>
       </c>
       <c r="W321">
-        <v>0.526</v>
+        <v>0.52</v>
       </c>
       <c r="X321">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="322" spans="1:24">
@@ -27187,34 +27187,34 @@
         <v>900</v>
       </c>
       <c r="O325">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P325">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="R325">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S325">
-        <v>-19.5</v>
+        <v>-20.1</v>
       </c>
       <c r="T325">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="U325">
-        <v>0.165</v>
+        <v>0.163</v>
       </c>
       <c r="V325">
-        <v>0.259</v>
+        <v>0.253</v>
       </c>
       <c r="W325">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="X325">
-        <v>0.14</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="326" spans="1:24">
@@ -27409,19 +27409,19 @@
         <v>890</v>
       </c>
       <c r="O328">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P328">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="Q328">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R328">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S328">
-        <v>-11.3</v>
+        <v>-10.5</v>
       </c>
       <c r="T328">
         <v>0.031</v>
@@ -27430,13 +27430,13 @@
         <v>0.112</v>
       </c>
       <c r="V328">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="W328">
-        <v>0.449</v>
+        <v>0.474</v>
       </c>
       <c r="X328">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="329" spans="1:24">
@@ -28223,34 +28223,34 @@
         <v>852</v>
       </c>
       <c r="O339">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P339">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="Q339">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R339">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S339">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="T339">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="U339">
         <v>0.094</v>
       </c>
       <c r="V339">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
       <c r="W339">
-        <v>0.5590000000000001</v>
+        <v>0.573</v>
       </c>
       <c r="X339">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="340" spans="1:24">
@@ -28963,13 +28963,13 @@
         <v>902</v>
       </c>
       <c r="O349">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P349">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="R349">
         <v>76</v>
@@ -28978,19 +28978,19 @@
         <v>1.6</v>
       </c>
       <c r="T349">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U349">
         <v>0.08400000000000001</v>
       </c>
       <c r="V349">
-        <v>0.22</v>
+        <v>0.219</v>
       </c>
       <c r="W349">
-        <v>0.577</v>
+        <v>0.569</v>
       </c>
       <c r="X349">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="350" spans="1:24">
@@ -29037,34 +29037,34 @@
         <v>914</v>
       </c>
       <c r="O350">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P350">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="Q350">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R350">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="S350">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="T350">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="U350">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="V350">
         <v>0.226</v>
       </c>
       <c r="W350">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X350">
-        <v>0.245</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="351" spans="1:24">
@@ -29185,34 +29185,34 @@
         <v>897</v>
       </c>
       <c r="O352">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P352">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q352">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R352">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S352">
-        <v>-2.5</v>
+        <v>-1.8</v>
       </c>
       <c r="T352">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U352">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="V352">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="W352">
         <v>0.594</v>
       </c>
       <c r="X352">
-        <v>0.216</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="353" spans="1:24">
@@ -29629,34 +29629,34 @@
         <v>898</v>
       </c>
       <c r="O358">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P358">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q358">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="R358">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S358">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="T358">
-        <v>0.094</v>
+        <v>0.096</v>
       </c>
       <c r="U358">
-        <v>0.253</v>
+        <v>0.256</v>
       </c>
       <c r="V358">
         <v>0.103</v>
       </c>
       <c r="W358">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
       <c r="X358">
-        <v>0.138</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="359" spans="1:24">
@@ -29925,34 +29925,34 @@
         <v>852</v>
       </c>
       <c r="O362">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P362">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q362">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R362">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S362">
-        <v>5.3</v>
+        <v>-0.4</v>
       </c>
       <c r="T362">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="U362">
-        <v>0.113</v>
+        <v>0.116</v>
       </c>
       <c r="V362">
         <v>0.145</v>
       </c>
       <c r="W362">
-        <v>0.591</v>
+        <v>0.58</v>
       </c>
       <c r="X362">
-        <v>0.167</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="363" spans="1:24">
@@ -30591,34 +30591,34 @@
         <v>891</v>
       </c>
       <c r="O371">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P371">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q371">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="R371">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S371">
-        <v>-6.8</v>
+        <v>-6.1</v>
       </c>
       <c r="T371">
-        <v>0.067</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="U371">
-        <v>0.273</v>
+        <v>0.269</v>
       </c>
       <c r="V371">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="W371">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="X371">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="372" spans="1:24">
@@ -30665,22 +30665,22 @@
         <v>903</v>
       </c>
       <c r="O372">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P372">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q372">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R372">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="S372">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="T372">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="U372">
         <v>0.09</v>
@@ -30689,10 +30689,10 @@
         <v>0.165</v>
       </c>
       <c r="W372">
-        <v>0.539</v>
+        <v>0.538</v>
       </c>
       <c r="X372">
-        <v>0.173</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="373" spans="1:24">
@@ -31109,34 +31109,34 @@
         <v>914</v>
       </c>
       <c r="O378">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P378">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="Q378">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="R378">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S378">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="T378">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U378">
-        <v>0.177</v>
+        <v>0.174</v>
       </c>
       <c r="V378">
         <v>0.205</v>
       </c>
       <c r="W378">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="X378">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:24">
@@ -31775,34 +31775,34 @@
         <v>897</v>
       </c>
       <c r="O387">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P387">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q387">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R387">
         <v>57</v>
       </c>
       <c r="S387">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T387">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U387">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
       <c r="V387">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="W387">
-        <v>0.539</v>
+        <v>0.548</v>
       </c>
       <c r="X387">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="388" spans="1:24">
@@ -32145,34 +32145,34 @@
         <v>911</v>
       </c>
       <c r="O392">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P392">
-        <v>759</v>
+        <v>782</v>
       </c>
       <c r="Q392">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="R392">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S392">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="T392">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="U392">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="V392">
         <v>0.27</v>
       </c>
       <c r="W392">
-        <v>0.635</v>
+        <v>0.637</v>
       </c>
       <c r="X392">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="393" spans="1:24">
@@ -32293,34 +32293,34 @@
         <v>918</v>
       </c>
       <c r="O394">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P394">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q394">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="R394">
         <v>63</v>
       </c>
       <c r="S394">
-        <v>-2.9</v>
+        <v>-3.4</v>
       </c>
       <c r="T394">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="U394">
         <v>0.164</v>
       </c>
       <c r="V394">
-        <v>0.178</v>
+        <v>0.179</v>
       </c>
       <c r="W394">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="X394">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="395" spans="1:24">
@@ -32737,34 +32737,34 @@
         <v>909</v>
       </c>
       <c r="O400">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P400">
         <v>134</v>
       </c>
       <c r="Q400">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="R400">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S400">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="T400">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="U400">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="V400">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="W400">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="X400">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="401" spans="1:24">
@@ -32811,34 +32811,34 @@
         <v>914</v>
       </c>
       <c r="O401">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P401">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q401">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R401">
         <v>14</v>
       </c>
       <c r="S401">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="T401">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="U401">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="V401">
-        <v>0.151</v>
+        <v>0.152</v>
       </c>
       <c r="W401">
-        <v>0.415</v>
+        <v>0.414</v>
       </c>
       <c r="X401">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="402" spans="1:24">
@@ -33255,34 +33255,34 @@
         <v>900</v>
       </c>
       <c r="O407">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P407">
-        <v>819</v>
+        <v>845</v>
       </c>
       <c r="Q407">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="R407">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="S407">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="T407">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="U407">
         <v>0.165</v>
       </c>
       <c r="V407">
-        <v>0.226</v>
+        <v>0.227</v>
       </c>
       <c r="W407">
-        <v>0.611</v>
+        <v>0.609</v>
       </c>
       <c r="X407">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="408" spans="1:24">
@@ -34661,34 +34661,34 @@
         <v>926</v>
       </c>
       <c r="O426">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P426">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q426">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R426">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S426">
-        <v>-11.9</v>
+        <v>-11.4</v>
       </c>
       <c r="T426">
-        <v>0.058</v>
+        <v>0.063</v>
       </c>
       <c r="U426">
-        <v>0.077</v>
+        <v>0.074</v>
       </c>
       <c r="V426">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="W426">
-        <v>0.506</v>
+        <v>0.518</v>
       </c>
       <c r="X426">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="427" spans="1:24">
@@ -35253,34 +35253,34 @@
         <v>900</v>
       </c>
       <c r="O434">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P434">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q434">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="R434">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S434">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="T434">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
       <c r="U434">
-        <v>0.192</v>
+        <v>0.199</v>
       </c>
       <c r="V434">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="W434">
-        <v>0.764</v>
+        <v>0.746</v>
       </c>
       <c r="X434">
-        <v>0.094</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="435" spans="1:24">
@@ -35327,10 +35327,10 @@
         <v>885</v>
       </c>
       <c r="O435">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P435">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q435">
         <v>115</v>
@@ -35339,22 +35339,22 @@
         <v>31</v>
       </c>
       <c r="S435">
-        <v>-3.6</v>
+        <v>-4</v>
       </c>
       <c r="T435">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="U435">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="V435">
-        <v>0.173</v>
+        <v>0.175</v>
       </c>
       <c r="W435">
-        <v>0.5570000000000001</v>
+        <v>0.553</v>
       </c>
       <c r="X435">
-        <v>0.073</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="436" spans="1:24">
@@ -35401,31 +35401,31 @@
         <v>852</v>
       </c>
       <c r="O436">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P436">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q436">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="R436">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S436">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="T436">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="U436">
         <v>0.169</v>
       </c>
       <c r="V436">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="W436">
-        <v>0.601</v>
+        <v>0.604</v>
       </c>
       <c r="X436">
         <v>0.132</v>
@@ -35697,31 +35697,31 @@
         <v>905</v>
       </c>
       <c r="O440">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P440">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="Q440">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="R440">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S440">
-        <v>-2.3</v>
+        <v>-1.7</v>
       </c>
       <c r="T440">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="U440">
-        <v>0.105</v>
+        <v>0.111</v>
       </c>
       <c r="V440">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="W440">
-        <v>0.545</v>
+        <v>0.555</v>
       </c>
       <c r="X440">
         <v>0.065</v>
@@ -35919,34 +35919,34 @@
         <v>932</v>
       </c>
       <c r="O443">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P443">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q443">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R443">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S443">
-        <v>9.5</v>
+        <v>10.6</v>
       </c>
       <c r="T443">
         <v>0.019</v>
       </c>
       <c r="U443">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="V443">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="W443">
-        <v>0.544</v>
+        <v>0.55</v>
       </c>
       <c r="X443">
-        <v>0.115</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="444" spans="1:24">
@@ -36141,34 +36141,34 @@
         <v>883</v>
       </c>
       <c r="O446">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P446">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="Q446">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R446">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="S446">
-        <v>-9.1</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="T446">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U446">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V446">
-        <v>0.216</v>
+        <v>0.217</v>
       </c>
       <c r="W446">
-        <v>0.53</v>
+        <v>0.531</v>
       </c>
       <c r="X446">
-        <v>0.276</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="447" spans="1:24">
@@ -36437,22 +36437,22 @@
         <v>896</v>
       </c>
       <c r="O450">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P450">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="Q450">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R450">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="S450">
-        <v>-8.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T450">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="U450">
         <v>0.1</v>
@@ -36464,7 +36464,7 @@
         <v>0.553</v>
       </c>
       <c r="X450">
-        <v>0.133</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="451" spans="1:24">
@@ -36511,34 +36511,34 @@
         <v>914</v>
       </c>
       <c r="O451">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P451">
-        <v>1224</v>
+        <v>1264</v>
       </c>
       <c r="Q451">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R451">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="S451">
-        <v>17.6</v>
+        <v>18.4</v>
       </c>
       <c r="T451">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U451">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="V451">
-        <v>0.327</v>
+        <v>0.329</v>
       </c>
       <c r="W451">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="X451">
-        <v>0.284</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="452" spans="1:24">
@@ -36733,34 +36733,34 @@
         <v>852</v>
       </c>
       <c r="O454">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P454">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q454">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R454">
         <v>31</v>
       </c>
       <c r="S454">
-        <v>-2.9</v>
+        <v>-3.2</v>
       </c>
       <c r="T454">
         <v>0.037</v>
       </c>
       <c r="U454">
-        <v>0.127</v>
+        <v>0.124</v>
       </c>
       <c r="V454">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="W454">
-        <v>0.5610000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X454">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="455" spans="1:24">
@@ -37177,31 +37177,31 @@
         <v>884</v>
       </c>
       <c r="O460">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P460">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q460">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="R460">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S460">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="T460">
-        <v>0.187</v>
+        <v>0.183</v>
       </c>
       <c r="U460">
-        <v>0.205</v>
+        <v>0.207</v>
       </c>
       <c r="V460">
-        <v>0.128</v>
+        <v>0.126</v>
       </c>
       <c r="W460">
-        <v>0.5580000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="X460">
         <v>0.124</v>
@@ -37322,34 +37322,34 @@
         <v>876</v>
       </c>
       <c r="O462">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P462">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q462">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R462">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="S462">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="T462">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U462">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="V462">
-        <v>0.231</v>
+        <v>0.23</v>
       </c>
       <c r="W462">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="X462">
-        <v>0.328</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="463" spans="1:24">
@@ -37544,34 +37544,34 @@
         <v>921</v>
       </c>
       <c r="O465">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P465">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="Q465">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="R465">
         <v>25</v>
       </c>
       <c r="S465">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="T465">
-        <v>0.083</v>
+        <v>0.081</v>
       </c>
       <c r="U465">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="V465">
         <v>0.189</v>
       </c>
       <c r="W465">
-        <v>0.5570000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X465">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="466" spans="1:24">
@@ -37840,34 +37840,34 @@
         <v>925</v>
       </c>
       <c r="O469">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P469">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Q469">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="R469">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S469">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="T469">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="U469">
-        <v>0.101</v>
+        <v>0.106</v>
       </c>
       <c r="V469">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
       <c r="W469">
-        <v>0.547</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X469">
-        <v>0.117</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="470" spans="1:24">
@@ -38062,34 +38062,34 @@
         <v>907</v>
       </c>
       <c r="O472">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P472">
         <v>143</v>
       </c>
       <c r="Q472">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R472">
         <v>17</v>
       </c>
       <c r="S472">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="T472">
-        <v>0.08699999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="U472">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="V472">
-        <v>0.145</v>
+        <v>0.146</v>
       </c>
       <c r="W472">
-        <v>0.675</v>
+        <v>0.65</v>
       </c>
       <c r="X472">
-        <v>0.07099999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="473" spans="1:24">
@@ -38210,34 +38210,34 @@
         <v>890</v>
       </c>
       <c r="O474">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P474">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="Q474">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R474">
         <v>57</v>
       </c>
       <c r="S474">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="T474">
         <v>0.007</v>
       </c>
       <c r="U474">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="V474">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
       <c r="W474">
-        <v>0.589</v>
+        <v>0.593</v>
       </c>
       <c r="X474">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="475" spans="1:24">
@@ -38284,31 +38284,31 @@
         <v>902</v>
       </c>
       <c r="O475">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P475">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="Q475">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="R475">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S475">
         <v>2.3</v>
       </c>
       <c r="T475">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="U475">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
       <c r="V475">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="W475">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="X475">
         <v>0.108</v>
@@ -38506,34 +38506,34 @@
         <v>930</v>
       </c>
       <c r="O478">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P478">
         <v>374</v>
       </c>
       <c r="Q478">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R478">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S478">
-        <v>-8.6</v>
+        <v>-9.4</v>
       </c>
       <c r="T478">
-        <v>0.06900000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="U478">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="V478">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="W478">
-        <v>0.538</v>
+        <v>0.53</v>
       </c>
       <c r="X478">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="479" spans="1:24">
@@ -39139,10 +39139,10 @@
         <v>508</v>
       </c>
       <c r="D487">
-        <v>1610612740</v>
+        <v>1610612747</v>
       </c>
       <c r="E487" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F487">
         <v>25</v>
@@ -39246,34 +39246,34 @@
         <v>884</v>
       </c>
       <c r="O488">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P488">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q488">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="R488">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S488">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="T488">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="U488">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="V488">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="W488">
-        <v>0.556</v>
+        <v>0.546</v>
       </c>
       <c r="X488">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="489" spans="1:24">
@@ -39394,34 +39394,34 @@
         <v>878</v>
       </c>
       <c r="O490">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P490">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q490">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R490">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S490">
-        <v>-22</v>
+        <v>-12.8</v>
       </c>
       <c r="T490">
-        <v>0.08</v>
+        <v>0.079</v>
       </c>
       <c r="U490">
-        <v>0.233</v>
+        <v>0.239</v>
       </c>
       <c r="V490">
-        <v>0.179</v>
+        <v>0.169</v>
       </c>
       <c r="W490">
-        <v>0.461</v>
+        <v>0.476</v>
       </c>
       <c r="X490">
-        <v>0.07000000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="491" spans="1:24">
@@ -39690,34 +39690,34 @@
         <v>890</v>
       </c>
       <c r="O494">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P494">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="Q494">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R494">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="S494">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="T494">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="U494">
-        <v>0.083</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V494">
-        <v>0.217</v>
+        <v>0.215</v>
       </c>
       <c r="W494">
-        <v>0.625</v>
+        <v>0.633</v>
       </c>
       <c r="X494">
-        <v>0.266</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="495" spans="1:24">
@@ -40060,34 +40060,34 @@
         <v>884</v>
       </c>
       <c r="O499">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P499">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="Q499">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="R499">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="S499">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="T499">
         <v>0.019</v>
       </c>
       <c r="U499">
-        <v>0.083</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V499">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="W499">
-        <v>0.59</v>
+        <v>0.589</v>
       </c>
       <c r="X499">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="500" spans="1:24">
@@ -40282,34 +40282,34 @@
         <v>890</v>
       </c>
       <c r="O502">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P502">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="Q502">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R502">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="S502">
-        <v>-3.9</v>
+        <v>-3.2</v>
       </c>
       <c r="T502">
         <v>0.019</v>
       </c>
       <c r="U502">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="V502">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="W502">
         <v>0.604</v>
       </c>
       <c r="X502">
-        <v>0.285</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="503" spans="1:24">

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -1498,7 +1498,7 @@
     <t>Thomas Bryant</t>
   </si>
   <si>
-    <t>Tidjane Salaün</t>
+    <t>Tidjane Salaun</t>
   </si>
   <si>
     <t>Tim Hardaway Jr.</t>
@@ -3368,31 +3368,31 @@
         <v>852</v>
       </c>
       <c r="O3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q3">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="R3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="T3">
         <v>0.013</v>
       </c>
       <c r="U3">
-        <v>0.08500000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V3">
-        <v>0.134</v>
+        <v>0.133</v>
       </c>
       <c r="W3">
-        <v>0.649</v>
+        <v>0.65</v>
       </c>
       <c r="X3">
         <v>0.077</v>
@@ -3516,34 +3516,34 @@
         <v>878</v>
       </c>
       <c r="O5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Q5">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="R5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S5">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0.068</v>
+        <v>0.065</v>
       </c>
       <c r="U5">
-        <v>0.126</v>
+        <v>0.131</v>
       </c>
       <c r="V5">
-        <v>0.173</v>
+        <v>0.175</v>
       </c>
       <c r="W5">
-        <v>0.631</v>
+        <v>0.638</v>
       </c>
       <c r="X5">
-        <v>0.131</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -3738,34 +3738,34 @@
         <v>880</v>
       </c>
       <c r="O8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="Q8">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="R8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S8">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="T8">
         <v>0.047</v>
       </c>
       <c r="U8">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="V8">
         <v>0.179</v>
       </c>
       <c r="W8">
-        <v>0.595</v>
+        <v>0.599</v>
       </c>
       <c r="X8">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -3812,7 +3812,7 @@
         <v>852</v>
       </c>
       <c r="O9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P9">
         <v>15</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-2.2</v>
+        <v>-3.1</v>
       </c>
       <c r="T9">
         <v>0.031</v>
@@ -3833,7 +3833,7 @@
         <v>0.08</v>
       </c>
       <c r="V9">
-        <v>0.254</v>
+        <v>0.252</v>
       </c>
       <c r="W9">
         <v>0.259</v>
@@ -4108,31 +4108,31 @@
         <v>883</v>
       </c>
       <c r="O13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P13">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q13">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R13">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S13">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="T13">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="U13">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="V13">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="W13">
-        <v>0.5679999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="X13">
         <v>0.101</v>
@@ -4256,34 +4256,34 @@
         <v>852</v>
       </c>
       <c r="O15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P15">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q15">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R15">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S15">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="T15">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
       <c r="U15">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="V15">
-        <v>0.135</v>
+        <v>0.137</v>
       </c>
       <c r="W15">
-        <v>0.489</v>
+        <v>0.478</v>
       </c>
       <c r="X15">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -5292,34 +5292,34 @@
         <v>891</v>
       </c>
       <c r="O29">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P29">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="Q29">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="R29">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S29">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="T29">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U29">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
       <c r="V29">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
       <c r="W29">
-        <v>0.502</v>
+        <v>0.503</v>
       </c>
       <c r="X29">
-        <v>0.236</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -5440,34 +5440,34 @@
         <v>874</v>
       </c>
       <c r="O31">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P31">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="Q31">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="R31">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="S31">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="T31">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="U31">
-        <v>0.133</v>
+        <v>0.136</v>
       </c>
       <c r="V31">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="W31">
-        <v>0.581</v>
+        <v>0.586</v>
       </c>
       <c r="X31">
-        <v>0.199</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -5662,7 +5662,7 @@
         <v>893</v>
       </c>
       <c r="O34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P34">
         <v>24</v>
@@ -5674,16 +5674,16 @@
         <v>6</v>
       </c>
       <c r="S34">
-        <v>-16.9</v>
+        <v>-17</v>
       </c>
       <c r="T34">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="U34">
-        <v>0.172</v>
+        <v>0.168</v>
       </c>
       <c r="V34">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="W34">
         <v>0.615</v>
@@ -5884,34 +5884,34 @@
         <v>852</v>
       </c>
       <c r="O37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P37">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="Q37">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R37">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S37">
         <v>1</v>
       </c>
       <c r="T37">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="U37">
         <v>0.096</v>
       </c>
       <c r="V37">
-        <v>0.221</v>
+        <v>0.224</v>
       </c>
       <c r="W37">
-        <v>0.576</v>
+        <v>0.583</v>
       </c>
       <c r="X37">
-        <v>0.258</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -5958,34 +5958,34 @@
         <v>882</v>
       </c>
       <c r="O38">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P38">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q38">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="R38">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S38">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="T38">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="U38">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="V38">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="W38">
-        <v>0.583</v>
+        <v>0.582</v>
       </c>
       <c r="X38">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -6032,25 +6032,25 @@
         <v>879</v>
       </c>
       <c r="O39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P39">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="Q39">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="R39">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="S39">
-        <v>-0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="T39">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="U39">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="V39">
         <v>0.224</v>
@@ -6059,7 +6059,7 @@
         <v>0.523</v>
       </c>
       <c r="X39">
-        <v>0.218</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -6106,34 +6106,34 @@
         <v>894</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P40">
         <v>4</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R40">
         <v>2</v>
       </c>
       <c r="S40">
-        <v>-12.7</v>
+        <v>-10.2</v>
       </c>
       <c r="T40">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="U40">
-        <v>0.119</v>
+        <v>0.163</v>
       </c>
       <c r="V40">
-        <v>0.138</v>
+        <v>0.136</v>
       </c>
       <c r="W40">
-        <v>0.184</v>
+        <v>0.168</v>
       </c>
       <c r="X40">
-        <v>0.105</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -6254,31 +6254,31 @@
         <v>874</v>
       </c>
       <c r="O42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P42">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q42">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="R42">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="S42">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="T42">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="U42">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="V42">
-        <v>0.145</v>
+        <v>0.144</v>
       </c>
       <c r="W42">
-        <v>0.5649999999999999</v>
+        <v>0.569</v>
       </c>
       <c r="X42">
         <v>0.407</v>
@@ -6476,7 +6476,7 @@
         <v>897</v>
       </c>
       <c r="O45">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P45">
         <v>89</v>
@@ -6485,25 +6485,25 @@
         <v>22</v>
       </c>
       <c r="R45">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S45">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T45">
         <v>0.024</v>
       </c>
       <c r="U45">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="V45">
-        <v>0.179</v>
+        <v>0.178</v>
       </c>
       <c r="W45">
-        <v>0.516</v>
+        <v>0.51</v>
       </c>
       <c r="X45">
-        <v>0.242</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -6550,34 +6550,34 @@
         <v>898</v>
       </c>
       <c r="O46">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P46">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="Q46">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="R46">
         <v>75</v>
       </c>
       <c r="S46">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <v>0.067</v>
       </c>
       <c r="U46">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="V46">
-        <v>0.231</v>
+        <v>0.232</v>
       </c>
       <c r="W46">
-        <v>0.546</v>
+        <v>0.548</v>
       </c>
       <c r="X46">
-        <v>0.122</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -6994,34 +6994,34 @@
         <v>852</v>
       </c>
       <c r="O52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P52">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S52">
-        <v>14.2</v>
+        <v>16.6</v>
       </c>
       <c r="T52">
-        <v>0.077</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U52">
-        <v>0.183</v>
+        <v>0.194</v>
       </c>
       <c r="V52">
         <v>0.174</v>
       </c>
       <c r="W52">
-        <v>0.5679999999999999</v>
+        <v>0.583</v>
       </c>
       <c r="X52">
-        <v>0.073</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -7216,34 +7216,34 @@
         <v>904</v>
       </c>
       <c r="O55">
+        <v>39</v>
+      </c>
+      <c r="P55">
+        <v>294</v>
+      </c>
+      <c r="Q55">
+        <v>194</v>
+      </c>
+      <c r="R55">
         <v>38</v>
       </c>
-      <c r="P55">
-        <v>282</v>
-      </c>
-      <c r="Q55">
-        <v>191</v>
-      </c>
-      <c r="R55">
-        <v>36</v>
-      </c>
       <c r="S55">
-        <v>12.7</v>
+        <v>14.1</v>
       </c>
       <c r="T55">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="U55">
-        <v>0.158</v>
+        <v>0.156</v>
       </c>
       <c r="V55">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="W55">
-        <v>0.617</v>
+        <v>0.623</v>
       </c>
       <c r="X55">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -7512,34 +7512,34 @@
         <v>905</v>
       </c>
       <c r="O59">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P59">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="Q59">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R59">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S59">
-        <v>-12</v>
+        <v>-11.5</v>
       </c>
       <c r="T59">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="U59">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="V59">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="W59">
         <v>0.623</v>
       </c>
       <c r="X59">
-        <v>0.128</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -7660,34 +7660,34 @@
         <v>906</v>
       </c>
       <c r="O61">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P61">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="Q61">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="R61">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="S61">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="T61">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="U61">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="V61">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="W61">
-        <v>0.605</v>
+        <v>0.604</v>
       </c>
       <c r="X61">
-        <v>0.07099999999999999</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -7734,34 +7734,34 @@
         <v>907</v>
       </c>
       <c r="O62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P62">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R62">
         <v>8</v>
       </c>
       <c r="S62">
-        <v>-19.8</v>
+        <v>-20.2</v>
       </c>
       <c r="T62">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="U62">
-        <v>0.114</v>
+        <v>0.127</v>
       </c>
       <c r="V62">
-        <v>0.173</v>
+        <v>0.185</v>
       </c>
       <c r="W62">
-        <v>0.461</v>
+        <v>0.501</v>
       </c>
       <c r="X62">
-        <v>0.08799999999999999</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -8030,34 +8030,34 @@
         <v>906</v>
       </c>
       <c r="O66">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P66">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="Q66">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="R66">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S66">
-        <v>-7.6</v>
+        <v>-6.4</v>
       </c>
       <c r="T66">
         <v>0.021</v>
       </c>
       <c r="U66">
-        <v>0.081</v>
+        <v>0.083</v>
       </c>
       <c r="V66">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
       <c r="W66">
-        <v>0.545</v>
+        <v>0.551</v>
       </c>
       <c r="X66">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -8178,7 +8178,7 @@
         <v>910</v>
       </c>
       <c r="O68">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P68">
         <v>86</v>
@@ -8190,22 +8190,22 @@
         <v>12</v>
       </c>
       <c r="S68">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="T68">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="U68">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="V68">
         <v>0.117</v>
       </c>
       <c r="W68">
-        <v>0.494</v>
+        <v>0.478</v>
       </c>
       <c r="X68">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -8770,34 +8770,34 @@
         <v>879</v>
       </c>
       <c r="O76">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P76">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="Q76">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R76">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S76">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="T76">
         <v>0.018</v>
       </c>
       <c r="U76">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
       <c r="V76">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="W76">
-        <v>0.576</v>
+        <v>0.59</v>
       </c>
       <c r="X76">
-        <v>0.224</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -8992,34 +8992,34 @@
         <v>906</v>
       </c>
       <c r="O79">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P79">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q79">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="R79">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="S79">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="T79">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="U79">
-        <v>0.077</v>
+        <v>0.078</v>
       </c>
       <c r="V79">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
       <c r="W79">
-        <v>0.536</v>
+        <v>0.533</v>
       </c>
       <c r="X79">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -9066,34 +9066,34 @@
         <v>912</v>
       </c>
       <c r="O80">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P80">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Q80">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="R80">
         <v>12</v>
       </c>
       <c r="S80">
-        <v>-10</v>
+        <v>-11.3</v>
       </c>
       <c r="T80">
-        <v>0.129</v>
+        <v>0.136</v>
       </c>
       <c r="U80">
-        <v>0.232</v>
+        <v>0.237</v>
       </c>
       <c r="V80">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="W80">
-        <v>0.583</v>
+        <v>0.601</v>
       </c>
       <c r="X80">
-        <v>0.066</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -9214,34 +9214,34 @@
         <v>852</v>
       </c>
       <c r="O82">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P82">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q82">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="R82">
         <v>24</v>
       </c>
       <c r="S82">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="T82">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="U82">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="V82">
-        <v>0.214</v>
+        <v>0.211</v>
       </c>
       <c r="W82">
-        <v>0.614</v>
+        <v>0.616</v>
       </c>
       <c r="X82">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="83" spans="1:24">
@@ -9362,34 +9362,34 @@
         <v>893</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P84">
         <v>2</v>
       </c>
       <c r="Q84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84">
-        <v>-3.9</v>
+        <v>4.6</v>
       </c>
       <c r="T84">
         <v>0.125</v>
       </c>
       <c r="U84">
-        <v>0.182</v>
+        <v>0.2</v>
       </c>
       <c r="V84">
-        <v>0.098</v>
+        <v>0.091</v>
       </c>
       <c r="W84">
         <v>0.5</v>
       </c>
       <c r="X84">
-        <v>0.167</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -9436,34 +9436,34 @@
         <v>878</v>
       </c>
       <c r="O85">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P85">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q85">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R85">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="S85">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="T85">
         <v>0.017</v>
       </c>
       <c r="U85">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="V85">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="W85">
-        <v>0.578</v>
+        <v>0.576</v>
       </c>
       <c r="X85">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -9510,22 +9510,22 @@
         <v>904</v>
       </c>
       <c r="O86">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P86">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="Q86">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="R86">
         <v>77</v>
       </c>
       <c r="S86">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="T86">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="U86">
         <v>0.098</v>
@@ -9534,10 +9534,10 @@
         <v>0.146</v>
       </c>
       <c r="W86">
-        <v>0.647</v>
+        <v>0.646</v>
       </c>
       <c r="X86">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -9732,34 +9732,34 @@
         <v>896</v>
       </c>
       <c r="O89">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P89">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="Q89">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="R89">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="S89">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="T89">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="U89">
-        <v>0.08500000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V89">
-        <v>0.227</v>
+        <v>0.225</v>
       </c>
       <c r="W89">
-        <v>0.579</v>
+        <v>0.585</v>
       </c>
       <c r="X89">
-        <v>0.203</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -9806,34 +9806,34 @@
         <v>888</v>
       </c>
       <c r="O90">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P90">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q90">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R90">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S90">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="T90">
         <v>0.036</v>
       </c>
       <c r="U90">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="V90">
         <v>0.139</v>
       </c>
       <c r="W90">
-        <v>0.538</v>
+        <v>0.537</v>
       </c>
       <c r="X90">
-        <v>0.128</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -9880,34 +9880,34 @@
         <v>906</v>
       </c>
       <c r="O91">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P91">
         <v>99</v>
       </c>
       <c r="Q91">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R91">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S91">
-        <v>-18.6</v>
+        <v>-20.6</v>
       </c>
       <c r="T91">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U91">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="V91">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="W91">
-        <v>0.4</v>
+        <v>0.394</v>
       </c>
       <c r="X91">
-        <v>0.08500000000000001</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -10028,34 +10028,34 @@
         <v>917</v>
       </c>
       <c r="O93">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P93">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="Q93">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="R93">
         <v>106</v>
       </c>
       <c r="S93">
-        <v>1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="T93">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="U93">
         <v>0.142</v>
       </c>
       <c r="V93">
-        <v>0.265</v>
+        <v>0.264</v>
       </c>
       <c r="W93">
-        <v>0.494</v>
+        <v>0.505</v>
       </c>
       <c r="X93">
-        <v>0.286</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="94" spans="1:24">
@@ -10324,34 +10324,34 @@
         <v>918</v>
       </c>
       <c r="O97">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P97">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="Q97">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="R97">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="S97">
-        <v>-2.8</v>
+        <v>-3.3</v>
       </c>
       <c r="T97">
         <v>0.032</v>
       </c>
       <c r="U97">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="V97">
         <v>0.253</v>
       </c>
       <c r="W97">
-        <v>0.595</v>
+        <v>0.6</v>
       </c>
       <c r="X97">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -10472,7 +10472,7 @@
         <v>919</v>
       </c>
       <c r="O99">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P99">
         <v>50</v>
@@ -10484,22 +10484,22 @@
         <v>23</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>-0.2</v>
       </c>
       <c r="T99">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U99">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V99">
-        <v>0.139</v>
+        <v>0.135</v>
       </c>
       <c r="W99">
         <v>0.464</v>
       </c>
       <c r="X99">
-        <v>0.189</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -10694,34 +10694,34 @@
         <v>875</v>
       </c>
       <c r="O102">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P102">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="Q102">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="R102">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="S102">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T102">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="U102">
-        <v>0.092</v>
+        <v>0.096</v>
       </c>
       <c r="V102">
-        <v>0.216</v>
+        <v>0.217</v>
       </c>
       <c r="W102">
-        <v>0.54</v>
+        <v>0.544</v>
       </c>
       <c r="X102">
-        <v>0.281</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -11138,16 +11138,16 @@
         <v>920</v>
       </c>
       <c r="O108">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P108">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q108">
         <v>53</v>
       </c>
       <c r="R108">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S108">
         <v>-12.7</v>
@@ -11159,13 +11159,13 @@
         <v>0.066</v>
       </c>
       <c r="V108">
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="W108">
-        <v>0.545</v>
+        <v>0.551</v>
       </c>
       <c r="X108">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -11212,31 +11212,31 @@
         <v>921</v>
       </c>
       <c r="O109">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P109">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q109">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R109">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S109">
-        <v>-3.9</v>
+        <v>-3.4</v>
       </c>
       <c r="T109">
         <v>0.03</v>
       </c>
       <c r="U109">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="V109">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="W109">
-        <v>0.582</v>
+        <v>0.575</v>
       </c>
       <c r="X109">
         <v>0.067</v>
@@ -11286,34 +11286,34 @@
         <v>891</v>
       </c>
       <c r="O110">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P110">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="Q110">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="R110">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="S110">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="T110">
         <v>0.016</v>
       </c>
       <c r="U110">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="V110">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
       <c r="W110">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="X110">
-        <v>0.307</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -11434,34 +11434,34 @@
         <v>882</v>
       </c>
       <c r="O112">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P112">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="Q112">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="R112">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S112">
-        <v>-2</v>
+        <v>-1.3</v>
       </c>
       <c r="T112">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="U112">
-        <v>0.163</v>
+        <v>0.164</v>
       </c>
       <c r="V112">
-        <v>0.189</v>
+        <v>0.19</v>
       </c>
       <c r="W112">
-        <v>0.717</v>
+        <v>0.715</v>
       </c>
       <c r="X112">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="113" spans="1:24">
@@ -11508,34 +11508,34 @@
         <v>852</v>
       </c>
       <c r="O113">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P113">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="Q113">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="R113">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S113">
-        <v>-6.4</v>
+        <v>-5</v>
       </c>
       <c r="T113">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="U113">
-        <v>0.206</v>
+        <v>0.202</v>
       </c>
       <c r="V113">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="W113">
-        <v>0.5570000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="X113">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -12026,34 +12026,34 @@
         <v>887</v>
       </c>
       <c r="O120">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P120">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="Q120">
         <v>74</v>
       </c>
       <c r="R120">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S120">
-        <v>-4.9</v>
+        <v>-5.1</v>
       </c>
       <c r="T120">
         <v>0.016</v>
       </c>
       <c r="U120">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="V120">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
       <c r="W120">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="X120">
-        <v>0.241</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="121" spans="1:24">
@@ -12100,31 +12100,31 @@
         <v>919</v>
       </c>
       <c r="O121">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P121">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q121">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="R121">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S121">
-        <v>-1.5</v>
+        <v>-2.8</v>
       </c>
       <c r="T121">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
       <c r="U121">
         <v>0.218</v>
       </c>
       <c r="V121">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="W121">
-        <v>0.51</v>
+        <v>0.497</v>
       </c>
       <c r="X121">
         <v>0.133</v>
@@ -12396,34 +12396,34 @@
         <v>922</v>
       </c>
       <c r="O125">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P125">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q125">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="R125">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S125">
-        <v>-7.7</v>
+        <v>-5.4</v>
       </c>
       <c r="T125">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="U125">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
       <c r="V125">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="W125">
-        <v>0.609</v>
+        <v>0.623</v>
       </c>
       <c r="X125">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -12692,34 +12692,34 @@
         <v>919</v>
       </c>
       <c r="O129">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P129">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="Q129">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="R129">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="S129">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="T129">
         <v>0.015</v>
       </c>
       <c r="U129">
-        <v>0.185</v>
+        <v>0.186</v>
       </c>
       <c r="V129">
-        <v>0.26</v>
+        <v>0.257</v>
       </c>
       <c r="W129">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="X129">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -13136,19 +13136,19 @@
         <v>919</v>
       </c>
       <c r="O135">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P135">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="Q135">
+        <v>166</v>
+      </c>
+      <c r="R135">
         <v>163</v>
       </c>
-      <c r="R135">
-        <v>161</v>
-      </c>
       <c r="S135">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="T135">
         <v>0.026</v>
@@ -13160,10 +13160,10 @@
         <v>0.194</v>
       </c>
       <c r="W135">
-        <v>0.595</v>
+        <v>0.593</v>
       </c>
       <c r="X135">
-        <v>0.179</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -13210,34 +13210,34 @@
         <v>894</v>
       </c>
       <c r="O136">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P136">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="Q136">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="R136">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="S136">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="T136">
         <v>0.026</v>
       </c>
       <c r="U136">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="V136">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="W136">
-        <v>0.601</v>
+        <v>0.603</v>
       </c>
       <c r="X136">
-        <v>0.226</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="137" spans="1:24">
@@ -13432,34 +13432,34 @@
         <v>914</v>
       </c>
       <c r="O139">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P139">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="Q139">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R139">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S139">
-        <v>-8.699999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="T139">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="U139">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="V139">
         <v>0.232</v>
       </c>
       <c r="W139">
-        <v>0.539</v>
+        <v>0.545</v>
       </c>
       <c r="X139">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -14246,34 +14246,34 @@
         <v>852</v>
       </c>
       <c r="O150">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P150">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="Q150">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="R150">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S150">
-        <v>-4.9</v>
+        <v>-6</v>
       </c>
       <c r="T150">
-        <v>0.07199999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="U150">
-        <v>0.214</v>
+        <v>0.213</v>
       </c>
       <c r="V150">
-        <v>0.142</v>
+        <v>0.144</v>
       </c>
       <c r="W150">
-        <v>0.625</v>
+        <v>0.643</v>
       </c>
       <c r="X150">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -14468,34 +14468,34 @@
         <v>852</v>
       </c>
       <c r="O153">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P153">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q153">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R153">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="T153">
         <v>0.013</v>
       </c>
       <c r="U153">
-        <v>0.08799999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="V153">
-        <v>0.198</v>
+        <v>0.195</v>
       </c>
       <c r="W153">
-        <v>0.5580000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X153">
-        <v>0.169</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -14616,10 +14616,10 @@
         <v>923</v>
       </c>
       <c r="O155">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P155">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q155">
         <v>59</v>
@@ -14628,22 +14628,22 @@
         <v>23</v>
       </c>
       <c r="S155">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="T155">
-        <v>0.08799999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="U155">
-        <v>0.147</v>
+        <v>0.143</v>
       </c>
       <c r="V155">
         <v>0.062</v>
       </c>
       <c r="W155">
-        <v>0.778</v>
+        <v>0.785</v>
       </c>
       <c r="X155">
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="156" spans="1:24">
@@ -14912,34 +14912,34 @@
         <v>852</v>
       </c>
       <c r="O159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q159">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R159">
         <v>3</v>
       </c>
       <c r="S159">
-        <v>22.3</v>
+        <v>24.8</v>
       </c>
       <c r="T159">
-        <v>0.038</v>
+        <v>0.03</v>
       </c>
       <c r="U159">
-        <v>0.15</v>
+        <v>0.119</v>
       </c>
       <c r="V159">
-        <v>0.147</v>
+        <v>0.112</v>
       </c>
       <c r="W159">
-        <v>0.37</v>
+        <v>0.381</v>
       </c>
       <c r="X159">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -15356,16 +15356,16 @@
         <v>852</v>
       </c>
       <c r="O165">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P165">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="Q165">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R165">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S165">
         <v>-3.7</v>
@@ -15374,16 +15374,16 @@
         <v>0.016</v>
       </c>
       <c r="U165">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="V165">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="W165">
-        <v>0.492</v>
+        <v>0.496</v>
       </c>
       <c r="X165">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -15430,34 +15430,34 @@
         <v>852</v>
       </c>
       <c r="O166">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P166">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R166">
         <v>9</v>
       </c>
       <c r="S166">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="T166">
-        <v>0.022</v>
+        <v>0.041</v>
       </c>
       <c r="U166">
-        <v>0.16</v>
+        <v>0.157</v>
       </c>
       <c r="V166">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="W166">
-        <v>0.322</v>
+        <v>0.383</v>
       </c>
       <c r="X166">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="167" spans="1:24">
@@ -15699,7 +15699,7 @@
         <v>544</v>
       </c>
       <c r="F170">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G170" t="s">
         <v>575</v>
@@ -15726,31 +15726,31 @@
         <v>899</v>
       </c>
       <c r="O170">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P170">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q170">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R170">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S170">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="T170">
         <v>0.007</v>
       </c>
       <c r="U170">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="V170">
         <v>0.152</v>
       </c>
       <c r="W170">
-        <v>0.597</v>
+        <v>0.598</v>
       </c>
       <c r="X170">
         <v>0.049</v>
@@ -15874,34 +15874,34 @@
         <v>917</v>
       </c>
       <c r="O172">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P172">
-        <v>1033</v>
+        <v>1068</v>
       </c>
       <c r="Q172">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="R172">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S172">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T172">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="U172">
-        <v>0.262</v>
+        <v>0.263</v>
       </c>
       <c r="V172">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="W172">
         <v>0.615</v>
       </c>
       <c r="X172">
-        <v>0.331</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -16022,16 +16022,16 @@
         <v>915</v>
       </c>
       <c r="O174">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P174">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="Q174">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R174">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S174">
         <v>-4.1</v>
@@ -16040,16 +16040,16 @@
         <v>0.024</v>
       </c>
       <c r="U174">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V174">
         <v>0.221</v>
       </c>
       <c r="W174">
-        <v>0.546</v>
+        <v>0.544</v>
       </c>
       <c r="X174">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="175" spans="1:24">
@@ -16392,34 +16392,34 @@
         <v>896</v>
       </c>
       <c r="O179">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P179">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="Q179">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="R179">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="S179">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="T179">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="U179">
         <v>0.078</v>
       </c>
       <c r="V179">
-        <v>0.143</v>
+        <v>0.144</v>
       </c>
       <c r="W179">
         <v>0.627</v>
       </c>
       <c r="X179">
-        <v>0.079</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -16534,10 +16534,10 @@
         <v>855</v>
       </c>
       <c r="O181">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P181">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q181">
         <v>126</v>
@@ -16546,22 +16546,22 @@
         <v>48</v>
       </c>
       <c r="S181">
-        <v>-1.4</v>
+        <v>-2</v>
       </c>
       <c r="T181">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U181">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="V181">
         <v>0.111</v>
       </c>
       <c r="W181">
-        <v>0.618</v>
+        <v>0.614</v>
       </c>
       <c r="X181">
-        <v>0.07199999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -16682,10 +16682,10 @@
         <v>899</v>
       </c>
       <c r="O183">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P183">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q183">
         <v>44</v>
@@ -16694,19 +16694,19 @@
         <v>12</v>
       </c>
       <c r="S183">
-        <v>-9.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T183">
         <v>0.038</v>
       </c>
       <c r="U183">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="V183">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="W183">
-        <v>0.5580000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="X183">
         <v>0.073</v>
@@ -16978,34 +16978,34 @@
         <v>919</v>
       </c>
       <c r="O187">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P187">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q187">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R187">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="S187">
-        <v>-7.2</v>
+        <v>-6.1</v>
       </c>
       <c r="T187">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="U187">
         <v>0.115</v>
       </c>
       <c r="V187">
-        <v>0.159</v>
+        <v>0.16</v>
       </c>
       <c r="W187">
-        <v>0.419</v>
+        <v>0.414</v>
       </c>
       <c r="X187">
-        <v>0.299</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="188" spans="1:24">
@@ -17274,31 +17274,31 @@
         <v>927</v>
       </c>
       <c r="O191">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P191">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q191">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R191">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S191">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="T191">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="U191">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="V191">
         <v>0.166</v>
       </c>
       <c r="W191">
-        <v>0.5659999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X191">
         <v>0.08599999999999999</v>
@@ -18162,7 +18162,7 @@
         <v>899</v>
       </c>
       <c r="O203">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P203">
         <v>277</v>
@@ -18174,19 +18174,19 @@
         <v>49</v>
       </c>
       <c r="S203">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="T203">
         <v>0.013</v>
       </c>
       <c r="U203">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V203">
-        <v>0.228</v>
+        <v>0.229</v>
       </c>
       <c r="W203">
-        <v>0.547</v>
+        <v>0.545</v>
       </c>
       <c r="X203">
         <v>0.136</v>
@@ -18310,31 +18310,31 @@
         <v>905</v>
       </c>
       <c r="O205">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P205">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="Q205">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="R205">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S205">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="T205">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="U205">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="V205">
         <v>0.147</v>
       </c>
       <c r="W205">
-        <v>0.538</v>
+        <v>0.536</v>
       </c>
       <c r="X205">
         <v>0.077</v>
@@ -18384,7 +18384,7 @@
         <v>905</v>
       </c>
       <c r="O206">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P206">
         <v>20</v>
@@ -18393,25 +18393,25 @@
         <v>14</v>
       </c>
       <c r="R206">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S206">
-        <v>-7.7</v>
+        <v>-5.4</v>
       </c>
       <c r="T206">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="U206">
-        <v>0.141</v>
+        <v>0.132</v>
       </c>
       <c r="V206">
-        <v>0.143</v>
+        <v>0.139</v>
       </c>
       <c r="W206">
         <v>0.466</v>
       </c>
       <c r="X206">
-        <v>0.114</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="207" spans="1:24">
@@ -18606,31 +18606,31 @@
         <v>920</v>
       </c>
       <c r="O209">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P209">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="Q209">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="R209">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S209">
         <v>-6.2</v>
       </c>
       <c r="T209">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="U209">
         <v>0.14</v>
       </c>
       <c r="V209">
-        <v>0.197</v>
+        <v>0.195</v>
       </c>
       <c r="W209">
-        <v>0.524</v>
+        <v>0.526</v>
       </c>
       <c r="X209">
         <v>0.18</v>
@@ -18680,34 +18680,34 @@
         <v>902</v>
       </c>
       <c r="O210">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P210">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q210">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="R210">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="S210">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T210">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="U210">
-        <v>0.123</v>
+        <v>0.127</v>
       </c>
       <c r="V210">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
       <c r="W210">
-        <v>0.615</v>
+        <v>0.609</v>
       </c>
       <c r="X210">
-        <v>0.182</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="211" spans="1:24">
@@ -18754,34 +18754,34 @@
         <v>887</v>
       </c>
       <c r="O211">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P211">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="Q211">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="R211">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S211">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="T211">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="U211">
-        <v>0.21</v>
+        <v>0.211</v>
       </c>
       <c r="V211">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="W211">
-        <v>0.626</v>
+        <v>0.624</v>
       </c>
       <c r="X211">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="212" spans="1:24">
@@ -18902,34 +18902,34 @@
         <v>916</v>
       </c>
       <c r="O213">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P213">
-        <v>1065</v>
+        <v>1091</v>
       </c>
       <c r="Q213">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R213">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="S213">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="T213">
         <v>0.014</v>
       </c>
       <c r="U213">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="V213">
-        <v>0.291</v>
+        <v>0.292</v>
       </c>
       <c r="W213">
-        <v>0.606</v>
+        <v>0.604</v>
       </c>
       <c r="X213">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="214" spans="1:24">
@@ -19272,7 +19272,7 @@
         <v>910</v>
       </c>
       <c r="O218">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P218">
         <v>44</v>
@@ -19284,22 +19284,22 @@
         <v>26</v>
       </c>
       <c r="S218">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="T218">
         <v>0.008999999999999999</v>
       </c>
       <c r="U218">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V218">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="W218">
-        <v>0.678</v>
+        <v>0.658</v>
       </c>
       <c r="X218">
-        <v>0.313</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="219" spans="1:24">
@@ -19346,34 +19346,34 @@
         <v>906</v>
       </c>
       <c r="O219">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P219">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q219">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R219">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S219">
-        <v>-2.5</v>
+        <v>-2.9</v>
       </c>
       <c r="T219">
-        <v>0.08699999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="U219">
-        <v>0.229</v>
+        <v>0.228</v>
       </c>
       <c r="V219">
-        <v>0.197</v>
+        <v>0.198</v>
       </c>
       <c r="W219">
-        <v>0.6</v>
+        <v>0.595</v>
       </c>
       <c r="X219">
-        <v>0.08500000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -19494,34 +19494,34 @@
         <v>884</v>
       </c>
       <c r="O221">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P221">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="Q221">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R221">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="S221">
-        <v>12.1</v>
+        <v>11.3</v>
       </c>
       <c r="T221">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="U221">
         <v>0.14</v>
       </c>
       <c r="V221">
-        <v>0.268</v>
+        <v>0.271</v>
       </c>
       <c r="W221">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="X221">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="222" spans="1:24">
@@ -19568,22 +19568,22 @@
         <v>903</v>
       </c>
       <c r="O222">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P222">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="Q222">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R222">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S222">
-        <v>-7.7</v>
+        <v>-8</v>
       </c>
       <c r="T222">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="U222">
         <v>0.092</v>
@@ -19592,10 +19592,10 @@
         <v>0.157</v>
       </c>
       <c r="W222">
-        <v>0.525</v>
+        <v>0.529</v>
       </c>
       <c r="X222">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -19642,34 +19642,34 @@
         <v>852</v>
       </c>
       <c r="O223">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P223">
         <v>69</v>
       </c>
       <c r="Q223">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R223">
         <v>10</v>
       </c>
       <c r="S223">
-        <v>-18.7</v>
+        <v>-19.7</v>
       </c>
       <c r="T223">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="U223">
-        <v>0.138</v>
+        <v>0.135</v>
       </c>
       <c r="V223">
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="W223">
-        <v>0.556</v>
+        <v>0.539</v>
       </c>
       <c r="X223">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="224" spans="1:24">
@@ -19716,34 +19716,34 @@
         <v>896</v>
       </c>
       <c r="O224">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P224">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="Q224">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="R224">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="S224">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="T224">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="U224">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="V224">
-        <v>0.233</v>
+        <v>0.235</v>
       </c>
       <c r="W224">
-        <v>0.5610000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X224">
-        <v>0.223</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -19790,34 +19790,34 @@
         <v>923</v>
       </c>
       <c r="O225">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P225">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q225">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R225">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S225">
-        <v>-13.3</v>
+        <v>-13.9</v>
       </c>
       <c r="T225">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="U225">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="V225">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
       <c r="W225">
-        <v>0.527</v>
+        <v>0.524</v>
       </c>
       <c r="X225">
-        <v>0.304</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="226" spans="1:24">
@@ -20086,31 +20086,31 @@
         <v>852</v>
       </c>
       <c r="O229">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P229">
         <v>186</v>
       </c>
       <c r="Q229">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R229">
         <v>31</v>
       </c>
       <c r="S229">
-        <v>-9.6</v>
+        <v>-9.9</v>
       </c>
       <c r="T229">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="U229">
-        <v>0.102</v>
+        <v>0.104</v>
       </c>
       <c r="V229">
         <v>0.15</v>
       </c>
       <c r="W229">
-        <v>0.636</v>
+        <v>0.628</v>
       </c>
       <c r="X229">
         <v>0.11</v>
@@ -20456,34 +20456,34 @@
         <v>878</v>
       </c>
       <c r="O234">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P234">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="Q234">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R234">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S234">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T234">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U234">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
       <c r="V234">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="W234">
-        <v>0.59</v>
+        <v>0.587</v>
       </c>
       <c r="X234">
-        <v>0.107</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="235" spans="1:24">
@@ -20604,19 +20604,19 @@
         <v>852</v>
       </c>
       <c r="O236">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P236">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q236">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R236">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S236">
-        <v>-13.8</v>
+        <v>-13.2</v>
       </c>
       <c r="T236">
         <v>0.042</v>
@@ -20625,10 +20625,10 @@
         <v>0.109</v>
       </c>
       <c r="V236">
-        <v>0.111</v>
+        <v>0.109</v>
       </c>
       <c r="W236">
-        <v>0.588</v>
+        <v>0.589</v>
       </c>
       <c r="X236">
         <v>0.055</v>
@@ -20678,34 +20678,34 @@
         <v>918</v>
       </c>
       <c r="O237">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P237">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q237">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="R237">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S237">
-        <v>-4.6</v>
+        <v>-2.5</v>
       </c>
       <c r="T237">
-        <v>0.099</v>
+        <v>0.092</v>
       </c>
       <c r="U237">
-        <v>0.139</v>
+        <v>0.154</v>
       </c>
       <c r="V237">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="W237">
-        <v>0.679</v>
+        <v>0.655</v>
       </c>
       <c r="X237">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="238" spans="1:24">
@@ -20752,34 +20752,34 @@
         <v>852</v>
       </c>
       <c r="O238">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P238">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q238">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R238">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S238">
-        <v>-1.3</v>
+        <v>-1.7</v>
       </c>
       <c r="T238">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="U238">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="V238">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="W238">
-        <v>0.6830000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="X238">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="239" spans="1:24">
@@ -20826,34 +20826,34 @@
         <v>883</v>
       </c>
       <c r="O239">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P239">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="Q239">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="R239">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="S239">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="T239">
         <v>0.039</v>
       </c>
       <c r="U239">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="V239">
         <v>0.287</v>
       </c>
       <c r="W239">
-        <v>0.548</v>
+        <v>0.55</v>
       </c>
       <c r="X239">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="240" spans="1:24">
@@ -20900,28 +20900,28 @@
         <v>912</v>
       </c>
       <c r="O240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P240">
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R240">
         <v>0</v>
       </c>
       <c r="S240">
-        <v>-80</v>
+        <v>-49.5</v>
       </c>
       <c r="T240">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="U240">
         <v>0</v>
       </c>
       <c r="V240">
-        <v>0.091</v>
+        <v>0.125</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21119,34 +21119,34 @@
         <v>929</v>
       </c>
       <c r="O243">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P243">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="Q243">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R243">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S243">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="T243">
         <v>0.038</v>
       </c>
       <c r="U243">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="V243">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
       <c r="W243">
-        <v>0.5639999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="X243">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="244" spans="1:24">
@@ -21193,22 +21193,22 @@
         <v>908</v>
       </c>
       <c r="O244">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P244">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q244">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R244">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S244">
-        <v>12.3</v>
+        <v>10.2</v>
       </c>
       <c r="T244">
-        <v>0.07199999999999999</v>
+        <v>0.077</v>
       </c>
       <c r="U244">
         <v>0.205</v>
@@ -21217,10 +21217,10 @@
         <v>0.149</v>
       </c>
       <c r="W244">
-        <v>0.546</v>
+        <v>0.539</v>
       </c>
       <c r="X244">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="245" spans="1:24">
@@ -21341,34 +21341,34 @@
         <v>883</v>
       </c>
       <c r="O246">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P246">
-        <v>1026</v>
+        <v>1056</v>
       </c>
       <c r="Q246">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="R246">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="S246">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="T246">
         <v>0.017</v>
       </c>
       <c r="U246">
-        <v>0.224</v>
+        <v>0.222</v>
       </c>
       <c r="V246">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
       <c r="W246">
-        <v>0.598</v>
+        <v>0.6</v>
       </c>
       <c r="X246">
-        <v>0.24</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="247" spans="1:24">
@@ -21711,34 +21711,34 @@
         <v>910</v>
       </c>
       <c r="O251">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P251">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q251">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="R251">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S251">
-        <v>-8.6</v>
+        <v>-7.6</v>
       </c>
       <c r="T251">
-        <v>0.08799999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="U251">
         <v>0.16</v>
       </c>
       <c r="V251">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="W251">
-        <v>0.544</v>
+        <v>0.55</v>
       </c>
       <c r="X251">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="252" spans="1:24">
@@ -21859,19 +21859,19 @@
         <v>893</v>
       </c>
       <c r="O253">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P253">
         <v>62</v>
       </c>
       <c r="Q253">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="R253">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S253">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T253">
         <v>0.119</v>
@@ -21880,13 +21880,13 @@
         <v>0.186</v>
       </c>
       <c r="V253">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="W253">
-        <v>0.636</v>
+        <v>0.611</v>
       </c>
       <c r="X253">
-        <v>0.065</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="254" spans="1:24">
@@ -22081,34 +22081,34 @@
         <v>894</v>
       </c>
       <c r="O256">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P256">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="Q256">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="R256">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S256">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="T256">
         <v>0.075</v>
       </c>
       <c r="U256">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
       <c r="V256">
-        <v>0.203</v>
+        <v>0.205</v>
       </c>
       <c r="W256">
-        <v>0.648</v>
+        <v>0.642</v>
       </c>
       <c r="X256">
-        <v>0.235</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="257" spans="1:24">
@@ -22451,7 +22451,7 @@
         <v>852</v>
       </c>
       <c r="O261">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P261">
         <v>63</v>
@@ -22463,7 +22463,7 @@
         <v>26</v>
       </c>
       <c r="S261">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="T261">
         <v>0.07099999999999999</v>
@@ -22472,13 +22472,13 @@
         <v>0.182</v>
       </c>
       <c r="V261">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="W261">
         <v>0.519</v>
       </c>
       <c r="X261">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="262" spans="1:24">
@@ -22821,34 +22821,34 @@
         <v>891</v>
       </c>
       <c r="O266">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P266">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q266">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="R266">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S266">
-        <v>-6.7</v>
+        <v>-7.5</v>
       </c>
       <c r="T266">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="U266">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="V266">
-        <v>0.163</v>
+        <v>0.161</v>
       </c>
       <c r="W266">
-        <v>0.513</v>
+        <v>0.509</v>
       </c>
       <c r="X266">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="267" spans="1:24">
@@ -22969,34 +22969,34 @@
         <v>889</v>
       </c>
       <c r="O268">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P268">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q268">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R268">
         <v>56</v>
       </c>
       <c r="S268">
-        <v>-10.2</v>
+        <v>-10.4</v>
       </c>
       <c r="T268">
-        <v>0.1</v>
+        <v>0.097</v>
       </c>
       <c r="U268">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
       <c r="V268">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="W268">
-        <v>0.529</v>
+        <v>0.532</v>
       </c>
       <c r="X268">
-        <v>0.139</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="269" spans="1:24">
@@ -23117,34 +23117,34 @@
         <v>879</v>
       </c>
       <c r="O270">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P270">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q270">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R270">
         <v>26</v>
       </c>
       <c r="S270">
-        <v>-11.3</v>
+        <v>-10.6</v>
       </c>
       <c r="T270">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="U270">
         <v>0.091</v>
       </c>
       <c r="V270">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="W270">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="X270">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="271" spans="1:24">
@@ -23413,7 +23413,7 @@
         <v>882</v>
       </c>
       <c r="O274">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P274">
         <v>45</v>
@@ -23431,16 +23431,16 @@
         <v>0.045</v>
       </c>
       <c r="U274">
-        <v>0.091</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V274">
-        <v>0.104</v>
+        <v>0.103</v>
       </c>
       <c r="W274">
         <v>0.438</v>
       </c>
       <c r="X274">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="275" spans="1:24">
@@ -23487,34 +23487,34 @@
         <v>852</v>
       </c>
       <c r="O275">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P275">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q275">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R275">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="S275">
-        <v>-5.3</v>
+        <v>-4.9</v>
       </c>
       <c r="T275">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U275">
-        <v>0.06</v>
+        <v>0.068</v>
       </c>
       <c r="V275">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="W275">
-        <v>0.552</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="X275">
-        <v>0.267</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="276" spans="1:24">
@@ -23635,34 +23635,34 @@
         <v>891</v>
       </c>
       <c r="O277">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P277">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q277">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="R277">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="S277">
-        <v>-3.2</v>
+        <v>-3.7</v>
       </c>
       <c r="T277">
         <v>0.052</v>
       </c>
       <c r="U277">
-        <v>0.194</v>
+        <v>0.191</v>
       </c>
       <c r="V277">
         <v>0.202</v>
       </c>
       <c r="W277">
-        <v>0.523</v>
+        <v>0.521</v>
       </c>
       <c r="X277">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="278" spans="1:24">
@@ -23709,19 +23709,19 @@
         <v>920</v>
       </c>
       <c r="O278">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P278">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q278">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R278">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S278">
-        <v>-6.5</v>
+        <v>-6</v>
       </c>
       <c r="T278">
         <v>0.037</v>
@@ -23730,10 +23730,10 @@
         <v>0.063</v>
       </c>
       <c r="V278">
-        <v>0.111</v>
+        <v>0.109</v>
       </c>
       <c r="W278">
-        <v>0.536</v>
+        <v>0.544</v>
       </c>
       <c r="X278">
         <v>0.07199999999999999</v>
@@ -23783,34 +23783,34 @@
         <v>894</v>
       </c>
       <c r="O279">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P279">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Q279">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="R279">
         <v>232</v>
       </c>
       <c r="S279">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="T279">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="U279">
-        <v>0.195</v>
+        <v>0.196</v>
       </c>
       <c r="V279">
-        <v>0.144</v>
+        <v>0.146</v>
       </c>
       <c r="W279">
-        <v>0.665</v>
+        <v>0.657</v>
       </c>
       <c r="X279">
-        <v>0.197</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="280" spans="1:24">
@@ -23857,7 +23857,7 @@
         <v>923</v>
       </c>
       <c r="O280">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P280">
         <v>73</v>
@@ -23869,22 +23869,22 @@
         <v>13</v>
       </c>
       <c r="S280">
-        <v>-1.3</v>
+        <v>-1.7</v>
       </c>
       <c r="T280">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U280">
-        <v>0.116</v>
+        <v>0.11</v>
       </c>
       <c r="V280">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="W280">
-        <v>0.599</v>
+        <v>0.58</v>
       </c>
       <c r="X280">
-        <v>0.102</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="281" spans="1:24">
@@ -24079,34 +24079,34 @@
         <v>921</v>
       </c>
       <c r="O283">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P283">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q283">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="R283">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="S283">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="T283">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="U283">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="V283">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="W283">
         <v>0.575</v>
       </c>
       <c r="X283">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="284" spans="1:24">
@@ -24153,31 +24153,31 @@
         <v>852</v>
       </c>
       <c r="O284">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P284">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q284">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="R284">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S284">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="T284">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="U284">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="V284">
         <v>0.168</v>
       </c>
       <c r="W284">
-        <v>0.585</v>
+        <v>0.582</v>
       </c>
       <c r="X284">
         <v>0.066</v>
@@ -24227,34 +24227,34 @@
         <v>922</v>
       </c>
       <c r="O285">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P285">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q285">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R285">
         <v>17</v>
       </c>
       <c r="S285">
-        <v>-4.1</v>
+        <v>-4.2</v>
       </c>
       <c r="T285">
-        <v>0.057</v>
+        <v>0.062</v>
       </c>
       <c r="U285">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="V285">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
       <c r="W285">
-        <v>0.555</v>
+        <v>0.548</v>
       </c>
       <c r="X285">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="286" spans="1:24">
@@ -24301,34 +24301,34 @@
         <v>919</v>
       </c>
       <c r="O286">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P286">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="Q286">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R286">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S286">
-        <v>-3.7</v>
+        <v>-3</v>
       </c>
       <c r="T286">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="U286">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="V286">
         <v>0.166</v>
       </c>
       <c r="W286">
-        <v>0.576</v>
+        <v>0.581</v>
       </c>
       <c r="X286">
-        <v>0.08799999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:24">
@@ -24375,34 +24375,34 @@
         <v>896</v>
       </c>
       <c r="O287">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P287">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="Q287">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="R287">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="S287">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="T287">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="U287">
         <v>0.144</v>
       </c>
       <c r="V287">
-        <v>0.257</v>
+        <v>0.254</v>
       </c>
       <c r="W287">
-        <v>0.59</v>
+        <v>0.589</v>
       </c>
       <c r="X287">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -25041,34 +25041,34 @@
         <v>930</v>
       </c>
       <c r="O296">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P296">
         <v>8</v>
       </c>
       <c r="Q296">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R296">
         <v>1</v>
       </c>
       <c r="S296">
-        <v>12.9</v>
+        <v>1.1</v>
       </c>
       <c r="T296">
-        <v>0.152</v>
+        <v>0.132</v>
       </c>
       <c r="U296">
-        <v>0.171</v>
+        <v>0.167</v>
       </c>
       <c r="V296">
-        <v>0.111</v>
+        <v>0.116</v>
       </c>
       <c r="W296">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="X296">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="297" spans="1:24">
@@ -25337,34 +25337,34 @@
         <v>917</v>
       </c>
       <c r="O300">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P300">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q300">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="R300">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S300">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="T300">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U300">
-        <v>0.184</v>
+        <v>0.193</v>
       </c>
       <c r="V300">
-        <v>0.178</v>
+        <v>0.181</v>
       </c>
       <c r="W300">
-        <v>0.662</v>
+        <v>0.65</v>
       </c>
       <c r="X300">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="301" spans="1:24">
@@ -25411,34 +25411,34 @@
         <v>919</v>
       </c>
       <c r="O301">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P301">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="Q301">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R301">
         <v>55</v>
       </c>
       <c r="S301">
-        <v>-6.3</v>
+        <v>-7</v>
       </c>
       <c r="T301">
         <v>0.048</v>
       </c>
       <c r="U301">
-        <v>0.147</v>
+        <v>0.144</v>
       </c>
       <c r="V301">
-        <v>0.206</v>
+        <v>0.204</v>
       </c>
       <c r="W301">
-        <v>0.551</v>
+        <v>0.553</v>
       </c>
       <c r="X301">
-        <v>0.099</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="302" spans="1:24">
@@ -25485,34 +25485,34 @@
         <v>915</v>
       </c>
       <c r="O302">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P302">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="Q302">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R302">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S302">
-        <v>-7.8</v>
+        <v>-9</v>
       </c>
       <c r="T302">
         <v>0.063</v>
       </c>
       <c r="U302">
-        <v>0.16</v>
+        <v>0.162</v>
       </c>
       <c r="V302">
-        <v>0.179</v>
+        <v>0.183</v>
       </c>
       <c r="W302">
-        <v>0.6</v>
+        <v>0.617</v>
       </c>
       <c r="X302">
-        <v>0.211</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="303" spans="1:24">
@@ -25633,34 +25633,34 @@
         <v>852</v>
       </c>
       <c r="O304">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P304">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q304">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="R304">
         <v>30</v>
       </c>
       <c r="S304">
-        <v>16.1</v>
+        <v>13.6</v>
       </c>
       <c r="T304">
         <v>0.055</v>
       </c>
       <c r="U304">
-        <v>0.155</v>
+        <v>0.161</v>
       </c>
       <c r="V304">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="W304">
-        <v>0.63</v>
+        <v>0.615</v>
       </c>
       <c r="X304">
-        <v>0.097</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="305" spans="1:24">
@@ -25707,34 +25707,34 @@
         <v>918</v>
       </c>
       <c r="O305">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P305">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q305">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R305">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S305">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="T305">
         <v>0.01</v>
       </c>
       <c r="U305">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="V305">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
       <c r="W305">
-        <v>0.555</v>
+        <v>0.554</v>
       </c>
       <c r="X305">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="306" spans="1:24">
@@ -25855,34 +25855,34 @@
         <v>904</v>
       </c>
       <c r="O307">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P307">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="Q307">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R307">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S307">
-        <v>-10.8</v>
+        <v>-10.2</v>
       </c>
       <c r="T307">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="U307">
-        <v>0.129</v>
+        <v>0.126</v>
       </c>
       <c r="V307">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="W307">
-        <v>0.473</v>
+        <v>0.475</v>
       </c>
       <c r="X307">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="308" spans="1:24">
@@ -25929,7 +25929,7 @@
         <v>852</v>
       </c>
       <c r="O308">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P308">
         <v>14</v>
@@ -25941,22 +25941,22 @@
         <v>2</v>
       </c>
       <c r="S308">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T308">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="U308">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
       <c r="V308">
-        <v>0.132</v>
+        <v>0.125</v>
       </c>
       <c r="W308">
         <v>0.595</v>
       </c>
       <c r="X308">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="309" spans="1:24">
@@ -26447,34 +26447,34 @@
         <v>886</v>
       </c>
       <c r="O315">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P315">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="Q315">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R315">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S315">
-        <v>-10.4</v>
+        <v>-10.9</v>
       </c>
       <c r="T315">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="U315">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="V315">
-        <v>0.238</v>
+        <v>0.241</v>
       </c>
       <c r="W315">
-        <v>0.532</v>
+        <v>0.535</v>
       </c>
       <c r="X315">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="316" spans="1:24">
@@ -26521,31 +26521,31 @@
         <v>929</v>
       </c>
       <c r="O316">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P316">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Q316">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R316">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S316">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="T316">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="U316">
-        <v>0.148</v>
+        <v>0.144</v>
       </c>
       <c r="V316">
-        <v>0.22</v>
+        <v>0.214</v>
       </c>
       <c r="W316">
-        <v>0.58</v>
+        <v>0.592</v>
       </c>
       <c r="X316">
         <v>0.28</v>
@@ -26595,16 +26595,16 @@
         <v>914</v>
       </c>
       <c r="O317">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P317">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="Q317">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="R317">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S317">
         <v>5.4</v>
@@ -26616,13 +26616,13 @@
         <v>0.095</v>
       </c>
       <c r="V317">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="W317">
-        <v>0.555</v>
+        <v>0.553</v>
       </c>
       <c r="X317">
-        <v>0.096</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="318" spans="1:24">
@@ -26965,34 +26965,34 @@
         <v>878</v>
       </c>
       <c r="O322">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P322">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="Q322">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="R322">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S322">
-        <v>-0.9</v>
+        <v>0.6</v>
       </c>
       <c r="T322">
         <v>0.06</v>
       </c>
       <c r="U322">
-        <v>0.178</v>
+        <v>0.175</v>
       </c>
       <c r="V322">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
       <c r="W322">
-        <v>0.589</v>
+        <v>0.603</v>
       </c>
       <c r="X322">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="323" spans="1:24">
@@ -27113,34 +27113,34 @@
         <v>910</v>
       </c>
       <c r="O324">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P324">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q324">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="R324">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S324">
-        <v>-6</v>
+        <v>-7.1</v>
       </c>
       <c r="T324">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="U324">
-        <v>0.211</v>
+        <v>0.209</v>
       </c>
       <c r="V324">
-        <v>0.148</v>
+        <v>0.147</v>
       </c>
       <c r="W324">
-        <v>0.572</v>
+        <v>0.577</v>
       </c>
       <c r="X324">
-        <v>0.143</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="325" spans="1:24">
@@ -27335,19 +27335,19 @@
         <v>874</v>
       </c>
       <c r="O327">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P327">
-        <v>740</v>
+        <v>765</v>
       </c>
       <c r="Q327">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="R327">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="S327">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="T327">
         <v>0.029</v>
@@ -27483,31 +27483,31 @@
         <v>883</v>
       </c>
       <c r="O329">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P329">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="Q329">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R329">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="S329">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="T329">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U329">
-        <v>0.129</v>
+        <v>0.126</v>
       </c>
       <c r="V329">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="W329">
-        <v>0.552</v>
+        <v>0.551</v>
       </c>
       <c r="X329">
         <v>0.395</v>
@@ -27779,34 +27779,34 @@
         <v>874</v>
       </c>
       <c r="O333">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P333">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="Q333">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="R333">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="S333">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="T333">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="U333">
-        <v>0.193</v>
+        <v>0.192</v>
       </c>
       <c r="V333">
         <v>0.281</v>
       </c>
       <c r="W333">
-        <v>0.601</v>
+        <v>0.607</v>
       </c>
       <c r="X333">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="334" spans="1:24">
@@ -28001,7 +28001,7 @@
         <v>852</v>
       </c>
       <c r="O336">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P336">
         <v>9</v>
@@ -28013,22 +28013,22 @@
         <v>2</v>
       </c>
       <c r="S336">
-        <v>-6.2</v>
+        <v>-5.3</v>
       </c>
       <c r="T336">
         <v>0.111</v>
       </c>
       <c r="U336">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V336">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="W336">
         <v>0.363</v>
       </c>
       <c r="X336">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="337" spans="1:24">
@@ -28149,34 +28149,34 @@
         <v>875</v>
       </c>
       <c r="O338">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P338">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q338">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R338">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S338">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="T338">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="U338">
-        <v>0.121</v>
+        <v>0.118</v>
       </c>
       <c r="V338">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="W338">
-        <v>0.534</v>
+        <v>0.533</v>
       </c>
       <c r="X338">
-        <v>0.227</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="339" spans="1:24">
@@ -28223,19 +28223,19 @@
         <v>852</v>
       </c>
       <c r="O339">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P339">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="Q339">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="R339">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S339">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="T339">
         <v>0.045</v>
@@ -28247,10 +28247,10 @@
         <v>0.136</v>
       </c>
       <c r="W339">
-        <v>0.573</v>
+        <v>0.582</v>
       </c>
       <c r="X339">
-        <v>0.06900000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="340" spans="1:24">
@@ -28371,7 +28371,7 @@
         <v>930</v>
       </c>
       <c r="O341">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P341">
         <v>39</v>
@@ -28383,22 +28383,22 @@
         <v>1</v>
       </c>
       <c r="S341">
-        <v>-6.1</v>
+        <v>-5.1</v>
       </c>
       <c r="T341">
-        <v>0.093</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="U341">
-        <v>0.132</v>
+        <v>0.127</v>
       </c>
       <c r="V341">
-        <v>0.274</v>
+        <v>0.264</v>
       </c>
       <c r="W341">
         <v>0.619</v>
       </c>
       <c r="X341">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="342" spans="1:24">
@@ -28445,34 +28445,34 @@
         <v>884</v>
       </c>
       <c r="O342">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P342">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q342">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R342">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S342">
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="T342">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U342">
-        <v>0.102</v>
+        <v>0.103</v>
       </c>
       <c r="V342">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="W342">
-        <v>0.641</v>
+        <v>0.651</v>
       </c>
       <c r="X342">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="343" spans="1:24">
@@ -28519,34 +28519,34 @@
         <v>852</v>
       </c>
       <c r="O343">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P343">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q343">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="R343">
         <v>50</v>
       </c>
       <c r="S343">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="T343">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
       <c r="U343">
-        <v>0.166</v>
+        <v>0.168</v>
       </c>
       <c r="V343">
         <v>0.097</v>
       </c>
       <c r="W343">
-        <v>0.658</v>
+        <v>0.656</v>
       </c>
       <c r="X343">
-        <v>0.119</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="344" spans="1:24">
@@ -28741,7 +28741,7 @@
         <v>913</v>
       </c>
       <c r="O346">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P346">
         <v>130</v>
@@ -28753,7 +28753,7 @@
         <v>26</v>
       </c>
       <c r="S346">
-        <v>-13.9</v>
+        <v>-14.6</v>
       </c>
       <c r="T346">
         <v>0.011</v>
@@ -28765,10 +28765,10 @@
         <v>0.222</v>
       </c>
       <c r="W346">
-        <v>0.5659999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X346">
-        <v>0.161</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="347" spans="1:24">
@@ -29333,34 +29333,34 @@
         <v>917</v>
       </c>
       <c r="O354">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P354">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q354">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="R354">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S354">
-        <v>-11</v>
+        <v>-8.9</v>
       </c>
       <c r="T354">
-        <v>0.113</v>
+        <v>0.118</v>
       </c>
       <c r="U354">
-        <v>0.253</v>
+        <v>0.265</v>
       </c>
       <c r="V354">
-        <v>0.214</v>
+        <v>0.213</v>
       </c>
       <c r="W354">
-        <v>0.6919999999999999</v>
+        <v>0.675</v>
       </c>
       <c r="X354">
-        <v>0.173</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="355" spans="1:24">
@@ -29703,10 +29703,10 @@
         <v>914</v>
       </c>
       <c r="O359">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P359">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q359">
         <v>103</v>
@@ -29715,13 +29715,13 @@
         <v>18</v>
       </c>
       <c r="S359">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="T359">
         <v>0.04</v>
       </c>
       <c r="U359">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="V359">
         <v>0.169</v>
@@ -29730,7 +29730,7 @@
         <v>0.494</v>
       </c>
       <c r="X359">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="360" spans="1:24">
@@ -29851,34 +29851,34 @@
         <v>922</v>
       </c>
       <c r="O361">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P361">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Q361">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R361">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="S361">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="T361">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="U361">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="V361">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="W361">
-        <v>0.611</v>
+        <v>0.592</v>
       </c>
       <c r="X361">
-        <v>0.076</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="362" spans="1:24">
@@ -29999,34 +29999,34 @@
         <v>852</v>
       </c>
       <c r="O363">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P363">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q363">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R363">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S363">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="T363">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="U363">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
       <c r="V363">
-        <v>0.076</v>
+        <v>0.079</v>
       </c>
       <c r="W363">
-        <v>0.518</v>
+        <v>0.509</v>
       </c>
       <c r="X363">
-        <v>0.07000000000000001</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="364" spans="1:24">
@@ -30221,31 +30221,31 @@
         <v>879</v>
       </c>
       <c r="O366">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P366">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="Q366">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="R366">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S366">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="T366">
         <v>0.047</v>
       </c>
       <c r="U366">
-        <v>0.136</v>
+        <v>0.139</v>
       </c>
       <c r="V366">
-        <v>0.195</v>
+        <v>0.196</v>
       </c>
       <c r="W366">
-        <v>0.628</v>
+        <v>0.625</v>
       </c>
       <c r="X366">
         <v>0.096</v>
@@ -30295,34 +30295,34 @@
         <v>906</v>
       </c>
       <c r="O367">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P367">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="Q367">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R367">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S367">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="T367">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="U367">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="V367">
-        <v>0.186</v>
+        <v>0.187</v>
       </c>
       <c r="W367">
-        <v>0.581</v>
+        <v>0.578</v>
       </c>
       <c r="X367">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="368" spans="1:24">
@@ -30369,34 +30369,34 @@
         <v>878</v>
       </c>
       <c r="O368">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P368">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q368">
         <v>95</v>
       </c>
       <c r="R368">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S368">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="T368">
         <v>0.019</v>
       </c>
       <c r="U368">
-        <v>0.08699999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V368">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="W368">
-        <v>0.521</v>
+        <v>0.527</v>
       </c>
       <c r="X368">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="369" spans="1:24">
@@ -30443,34 +30443,34 @@
         <v>884</v>
       </c>
       <c r="O369">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P369">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="Q369">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="R369">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S369">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="T369">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="U369">
-        <v>0.207</v>
+        <v>0.201</v>
       </c>
       <c r="V369">
-        <v>0.248</v>
+        <v>0.247</v>
       </c>
       <c r="W369">
-        <v>0.539</v>
+        <v>0.544</v>
       </c>
       <c r="X369">
-        <v>0.185</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="370" spans="1:24">
@@ -30517,10 +30517,10 @@
         <v>888</v>
       </c>
       <c r="O370">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P370">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q370">
         <v>83</v>
@@ -30529,22 +30529,22 @@
         <v>96</v>
       </c>
       <c r="S370">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T370">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U370">
-        <v>0.07199999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V370">
         <v>0.16</v>
       </c>
       <c r="W370">
-        <v>0.5679999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X370">
-        <v>0.163</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="371" spans="1:24">
@@ -31035,34 +31035,34 @@
         <v>926</v>
       </c>
       <c r="O377">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P377">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q377">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="R377">
         <v>19</v>
       </c>
       <c r="S377">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="T377">
-        <v>0.153</v>
+        <v>0.151</v>
       </c>
       <c r="U377">
-        <v>0.213</v>
+        <v>0.212</v>
       </c>
       <c r="V377">
         <v>0.08599999999999999</v>
       </c>
       <c r="W377">
-        <v>0.592</v>
+        <v>0.59</v>
       </c>
       <c r="X377">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="378" spans="1:24">
@@ -31183,34 +31183,34 @@
         <v>852</v>
       </c>
       <c r="O379">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P379">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="Q379">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="R379">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S379">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="T379">
         <v>0.036</v>
       </c>
       <c r="U379">
-        <v>0.096</v>
+        <v>0.102</v>
       </c>
       <c r="V379">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="W379">
-        <v>0.588</v>
+        <v>0.595</v>
       </c>
       <c r="X379">
-        <v>0.154</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="380" spans="1:24">
@@ -31331,31 +31331,31 @@
         <v>852</v>
       </c>
       <c r="O381">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P381">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="Q381">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="R381">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S381">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="T381">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="U381">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
       <c r="V381">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
       <c r="W381">
-        <v>0.585</v>
+        <v>0.595</v>
       </c>
       <c r="X381">
         <v>0.107</v>
@@ -31405,34 +31405,34 @@
         <v>929</v>
       </c>
       <c r="O382">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P382">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="R382">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S382">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="T382">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="U382">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
       <c r="V382">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="W382">
-        <v>0.678</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="X382">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="383" spans="1:24">
@@ -31479,34 +31479,34 @@
         <v>889</v>
       </c>
       <c r="O383">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P383">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q383">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="R383">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S383">
-        <v>-13</v>
+        <v>-11.8</v>
       </c>
       <c r="T383">
-        <v>0.073</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U383">
-        <v>0.225</v>
+        <v>0.226</v>
       </c>
       <c r="V383">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="W383">
-        <v>0.546</v>
+        <v>0.549</v>
       </c>
       <c r="X383">
-        <v>0.132</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="384" spans="1:24">
@@ -31627,34 +31627,34 @@
         <v>900</v>
       </c>
       <c r="O385">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P385">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="Q385">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R385">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S385">
-        <v>-11.4</v>
+        <v>-8.5</v>
       </c>
       <c r="T385">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="U385">
-        <v>0.117</v>
+        <v>0.123</v>
       </c>
       <c r="V385">
-        <v>0.189</v>
+        <v>0.197</v>
       </c>
       <c r="W385">
-        <v>0.466</v>
+        <v>0.485</v>
       </c>
       <c r="X385">
-        <v>0.16</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="386" spans="1:24">
@@ -31701,34 +31701,34 @@
         <v>921</v>
       </c>
       <c r="O386">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P386">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q386">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R386">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S386">
         <v>7.1</v>
       </c>
       <c r="T386">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="U386">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
       <c r="V386">
         <v>0.153</v>
       </c>
       <c r="W386">
-        <v>0.613</v>
+        <v>0.609</v>
       </c>
       <c r="X386">
-        <v>0.157</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="387" spans="1:24">
@@ -31849,34 +31849,34 @@
         <v>881</v>
       </c>
       <c r="O388">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P388">
-        <v>1041</v>
+        <v>1065</v>
       </c>
       <c r="Q388">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="R388">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="S388">
         <v>12.1</v>
       </c>
       <c r="T388">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
       <c r="U388">
-        <v>0.242</v>
+        <v>0.244</v>
       </c>
       <c r="V388">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="W388">
-        <v>0.642</v>
+        <v>0.645</v>
       </c>
       <c r="X388">
-        <v>0.395</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="389" spans="1:24">
@@ -31923,31 +31923,31 @@
         <v>900</v>
       </c>
       <c r="O389">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P389">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="R389">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S389">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="T389">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U389">
         <v>0.139</v>
       </c>
       <c r="V389">
-        <v>0.18</v>
+        <v>0.182</v>
       </c>
       <c r="W389">
-        <v>0.581</v>
+        <v>0.583</v>
       </c>
       <c r="X389">
         <v>0.171</v>
@@ -31997,31 +31997,31 @@
         <v>886</v>
       </c>
       <c r="O390">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P390">
-        <v>804</v>
+        <v>844</v>
       </c>
       <c r="Q390">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="R390">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S390">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="T390">
         <v>0.07199999999999999</v>
       </c>
       <c r="U390">
-        <v>0.228</v>
+        <v>0.23</v>
       </c>
       <c r="V390">
-        <v>0.221</v>
+        <v>0.224</v>
       </c>
       <c r="W390">
-        <v>0.639</v>
+        <v>0.644</v>
       </c>
       <c r="X390">
         <v>0.153</v>
@@ -32071,31 +32071,31 @@
         <v>904</v>
       </c>
       <c r="O391">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P391">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q391">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R391">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S391">
-        <v>-14.4</v>
+        <v>-13.8</v>
       </c>
       <c r="T391">
         <v>0.038</v>
       </c>
       <c r="U391">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="V391">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
       <c r="W391">
-        <v>0.555</v>
+        <v>0.553</v>
       </c>
       <c r="X391">
         <v>0.067</v>
@@ -32219,34 +32219,34 @@
         <v>877</v>
       </c>
       <c r="O393">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P393">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="Q393">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R393">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S393">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="T393">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="U393">
-        <v>0.094</v>
+        <v>0.096</v>
       </c>
       <c r="V393">
-        <v>0.182</v>
+        <v>0.181</v>
       </c>
       <c r="W393">
-        <v>0.574</v>
+        <v>0.577</v>
       </c>
       <c r="X393">
-        <v>0.07099999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="394" spans="1:24">
@@ -32441,34 +32441,34 @@
         <v>890</v>
       </c>
       <c r="O396">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P396">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q396">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R396">
         <v>16</v>
       </c>
       <c r="S396">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="T396">
-        <v>0.092</v>
+        <v>0.089</v>
       </c>
       <c r="U396">
-        <v>0.156</v>
+        <v>0.157</v>
       </c>
       <c r="V396">
-        <v>0.154</v>
+        <v>0.158</v>
       </c>
       <c r="W396">
-        <v>0.451</v>
+        <v>0.472</v>
       </c>
       <c r="X396">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="397" spans="1:24">
@@ -32663,31 +32663,31 @@
         <v>852</v>
       </c>
       <c r="O399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P399">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q399">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R399">
         <v>0</v>
       </c>
       <c r="S399">
-        <v>-2.7</v>
+        <v>10.8</v>
       </c>
       <c r="T399">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="U399">
-        <v>0.345</v>
+        <v>0.333</v>
       </c>
       <c r="V399">
-        <v>0.058</v>
+        <v>0.083</v>
       </c>
       <c r="W399">
-        <v>0.824</v>
+        <v>0.735</v>
       </c>
       <c r="X399">
         <v>0</v>
@@ -32811,34 +32811,34 @@
         <v>914</v>
       </c>
       <c r="O401">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P401">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q401">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R401">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S401">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="T401">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="U401">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="V401">
-        <v>0.152</v>
+        <v>0.157</v>
       </c>
       <c r="W401">
-        <v>0.414</v>
+        <v>0.439</v>
       </c>
       <c r="X401">
-        <v>0.091</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="402" spans="1:24">
@@ -32885,22 +32885,22 @@
         <v>884</v>
       </c>
       <c r="O402">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P402">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="Q402">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="R402">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="S402">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T402">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="U402">
         <v>0.184</v>
@@ -32909,10 +32909,10 @@
         <v>0.178</v>
       </c>
       <c r="W402">
-        <v>0.532</v>
+        <v>0.539</v>
       </c>
       <c r="X402">
-        <v>0.08699999999999999</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="403" spans="1:24">
@@ -33033,34 +33033,34 @@
         <v>852</v>
       </c>
       <c r="O404">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P404">
         <v>4</v>
       </c>
       <c r="Q404">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S404">
-        <v>18.7</v>
+        <v>15.7</v>
       </c>
       <c r="T404">
         <v>0</v>
       </c>
       <c r="U404">
-        <v>0.231</v>
+        <v>0.267</v>
       </c>
       <c r="V404">
-        <v>0.167</v>
+        <v>0.171</v>
       </c>
       <c r="W404">
         <v>0.4</v>
       </c>
       <c r="X404">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="405" spans="1:24">
@@ -33107,7 +33107,7 @@
         <v>897</v>
       </c>
       <c r="O405">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P405">
         <v>19</v>
@@ -33119,16 +33119,16 @@
         <v>5</v>
       </c>
       <c r="S405">
-        <v>-3.8</v>
+        <v>-4.2</v>
       </c>
       <c r="T405">
         <v>0</v>
       </c>
       <c r="U405">
-        <v>0.138</v>
+        <v>0.134</v>
       </c>
       <c r="V405">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="W405">
         <v>0.455</v>
@@ -33181,34 +33181,34 @@
         <v>874</v>
       </c>
       <c r="O406">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P406">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Q406">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="R406">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S406">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="T406">
-        <v>0.051</v>
+        <v>0.046</v>
       </c>
       <c r="U406">
-        <v>0.194</v>
+        <v>0.191</v>
       </c>
       <c r="V406">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="W406">
-        <v>0.603</v>
+        <v>0.586</v>
       </c>
       <c r="X406">
-        <v>0.293</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="407" spans="1:24">
@@ -33551,34 +33551,34 @@
         <v>878</v>
       </c>
       <c r="O411">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P411">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q411">
         <v>123</v>
       </c>
       <c r="R411">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S411">
-        <v>-8.4</v>
+        <v>-9.1</v>
       </c>
       <c r="T411">
         <v>0.023</v>
       </c>
       <c r="U411">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="V411">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="W411">
-        <v>0.512</v>
+        <v>0.507</v>
       </c>
       <c r="X411">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="412" spans="1:24">
@@ -33625,34 +33625,34 @@
         <v>880</v>
       </c>
       <c r="O412">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P412">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q412">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R412">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S412">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="T412">
         <v>0.008</v>
       </c>
       <c r="U412">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="V412">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="W412">
-        <v>0.473</v>
+        <v>0.485</v>
       </c>
       <c r="X412">
-        <v>0.129</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="413" spans="1:24">
@@ -33847,25 +33847,25 @@
         <v>895</v>
       </c>
       <c r="O415">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P415">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q415">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R415">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S415">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="T415">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="U415">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="V415">
         <v>0.188</v>
@@ -33874,7 +33874,7 @@
         <v>0.64</v>
       </c>
       <c r="X415">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="416" spans="1:24">
@@ -33921,7 +33921,7 @@
         <v>901</v>
       </c>
       <c r="O416">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P416">
         <v>100</v>
@@ -33933,7 +33933,7 @@
         <v>27</v>
       </c>
       <c r="S416">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T416">
         <v>0.034</v>
@@ -33945,10 +33945,10 @@
         <v>0.134</v>
       </c>
       <c r="W416">
-        <v>0.569</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X416">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="417" spans="1:24">
@@ -34069,34 +34069,34 @@
         <v>894</v>
       </c>
       <c r="O418">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P418">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R418">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S418">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T418">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="U418">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="V418">
         <v>0.143</v>
       </c>
       <c r="W418">
-        <v>0.584</v>
+        <v>0.579</v>
       </c>
       <c r="X418">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="419" spans="1:24">
@@ -34143,34 +34143,34 @@
         <v>913</v>
       </c>
       <c r="O419">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P419">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q419">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="R419">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S419">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="T419">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="U419">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="V419">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="W419">
-        <v>0.571</v>
+        <v>0.546</v>
       </c>
       <c r="X419">
-        <v>0.066</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="420" spans="1:24">
@@ -34217,34 +34217,34 @@
         <v>897</v>
       </c>
       <c r="O420">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P420">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q420">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R420">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S420">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="T420">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U420">
         <v>0.134</v>
       </c>
       <c r="V420">
-        <v>0.182</v>
+        <v>0.18</v>
       </c>
       <c r="W420">
         <v>0.6</v>
       </c>
       <c r="X420">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="421" spans="1:24">
@@ -34513,34 +34513,34 @@
         <v>883</v>
       </c>
       <c r="O424">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P424">
-        <v>740</v>
+        <v>761</v>
       </c>
       <c r="Q424">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="R424">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="S424">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="T424">
         <v>0.029</v>
       </c>
       <c r="U424">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="V424">
         <v>0.286</v>
       </c>
       <c r="W424">
-        <v>0.545</v>
+        <v>0.546</v>
       </c>
       <c r="X424">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="425" spans="1:24">
@@ -35179,19 +35179,19 @@
         <v>918</v>
       </c>
       <c r="O433">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P433">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q433">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R433">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S433">
-        <v>-14</v>
+        <v>-14.1</v>
       </c>
       <c r="T433">
         <v>0.007</v>
@@ -35200,13 +35200,13 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="V433">
-        <v>0.214</v>
+        <v>0.218</v>
       </c>
       <c r="W433">
-        <v>0.539</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X433">
-        <v>0.316</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="434" spans="1:24">
@@ -35475,34 +35475,34 @@
         <v>900</v>
       </c>
       <c r="O437">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P437">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q437">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="R437">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S437">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="T437">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="U437">
-        <v>0.204</v>
+        <v>0.203</v>
       </c>
       <c r="V437">
-        <v>0.117</v>
+        <v>0.116</v>
       </c>
       <c r="W437">
-        <v>0.659</v>
+        <v>0.662</v>
       </c>
       <c r="X437">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="438" spans="1:24">
@@ -35549,22 +35549,22 @@
         <v>887</v>
       </c>
       <c r="O438">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P438">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Q438">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="R438">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S438">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="T438">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="U438">
         <v>0.107</v>
@@ -35573,10 +35573,10 @@
         <v>0.15</v>
       </c>
       <c r="W438">
-        <v>0.601</v>
+        <v>0.597</v>
       </c>
       <c r="X438">
-        <v>0.066</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:24">
@@ -35623,34 +35623,34 @@
         <v>878</v>
       </c>
       <c r="O439">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P439">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="Q439">
         <v>205</v>
       </c>
       <c r="R439">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="S439">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T439">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="U439">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
       <c r="V439">
-        <v>0.224</v>
+        <v>0.222</v>
       </c>
       <c r="W439">
-        <v>0.54</v>
+        <v>0.544</v>
       </c>
       <c r="X439">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="440" spans="1:24">
@@ -35771,34 +35771,34 @@
         <v>901</v>
       </c>
       <c r="O441">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P441">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q441">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R441">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S441">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
       <c r="T441">
-        <v>0.023</v>
+        <v>0.03</v>
       </c>
       <c r="U441">
-        <v>0.121</v>
+        <v>0.115</v>
       </c>
       <c r="V441">
-        <v>0.177</v>
+        <v>0.176</v>
       </c>
       <c r="W441">
-        <v>0.583</v>
+        <v>0.584</v>
       </c>
       <c r="X441">
-        <v>0.132</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="442" spans="1:24">
@@ -35845,34 +35845,34 @@
         <v>852</v>
       </c>
       <c r="O442">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P442">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q442">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R442">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S442">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="T442">
         <v>0.034</v>
       </c>
       <c r="U442">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="V442">
         <v>0.14</v>
       </c>
       <c r="W442">
-        <v>0.586</v>
+        <v>0.591</v>
       </c>
       <c r="X442">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="443" spans="1:24">
@@ -35993,31 +35993,31 @@
         <v>933</v>
       </c>
       <c r="O444">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P444">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q444">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R444">
         <v>8</v>
       </c>
       <c r="S444">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="T444">
-        <v>0.062</v>
+        <v>0.066</v>
       </c>
       <c r="U444">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="V444">
-        <v>0.173</v>
+        <v>0.177</v>
       </c>
       <c r="W444">
-        <v>0.698</v>
+        <v>0.706</v>
       </c>
       <c r="X444">
         <v>0.063</v>
@@ -36067,34 +36067,34 @@
         <v>894</v>
       </c>
       <c r="O445">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P445">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="Q445">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="R445">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S445">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="T445">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="U445">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="V445">
-        <v>0.18</v>
+        <v>0.184</v>
       </c>
       <c r="W445">
-        <v>0.605</v>
+        <v>0.61</v>
       </c>
       <c r="X445">
-        <v>0.146</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="446" spans="1:24">
@@ -36215,34 +36215,34 @@
         <v>878</v>
       </c>
       <c r="O447">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P447">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="Q447">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="R447">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="S447">
-        <v>-7.3</v>
+        <v>-7.7</v>
       </c>
       <c r="T447">
         <v>0.046</v>
       </c>
       <c r="U447">
-        <v>0.176</v>
+        <v>0.177</v>
       </c>
       <c r="V447">
-        <v>0.258</v>
+        <v>0.257</v>
       </c>
       <c r="W447">
-        <v>0.545</v>
+        <v>0.537</v>
       </c>
       <c r="X447">
-        <v>0.295</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="448" spans="1:24">
@@ -36289,19 +36289,19 @@
         <v>852</v>
       </c>
       <c r="O448">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P448">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q448">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R448">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="S448">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="T448">
         <v>0.03</v>
@@ -36316,7 +36316,7 @@
         <v>0.5659999999999999</v>
       </c>
       <c r="X448">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="449" spans="1:24">
@@ -36363,34 +36363,34 @@
         <v>852</v>
       </c>
       <c r="O449">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P449">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Q449">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R449">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S449">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="T449">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="U449">
         <v>0.07099999999999999</v>
       </c>
       <c r="V449">
-        <v>0.138</v>
+        <v>0.142</v>
       </c>
       <c r="W449">
-        <v>0.597</v>
+        <v>0.607</v>
       </c>
       <c r="X449">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="450" spans="1:24">
@@ -36585,7 +36585,7 @@
         <v>933</v>
       </c>
       <c r="O452">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P452">
         <v>212</v>
@@ -36594,25 +36594,25 @@
         <v>61</v>
       </c>
       <c r="R452">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S452">
-        <v>-8.9</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="T452">
         <v>0.03</v>
       </c>
       <c r="U452">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="V452">
-        <v>0.165</v>
+        <v>0.163</v>
       </c>
       <c r="W452">
         <v>0.5659999999999999</v>
       </c>
       <c r="X452">
-        <v>0.197</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="453" spans="1:24">
@@ -36807,31 +36807,31 @@
         <v>882</v>
       </c>
       <c r="O455">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P455">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="Q455">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R455">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="S455">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="T455">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="U455">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="V455">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="W455">
-        <v>0.549</v>
+        <v>0.55</v>
       </c>
       <c r="X455">
         <v>0.213</v>
@@ -36955,7 +36955,7 @@
         <v>852</v>
       </c>
       <c r="O457">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P457">
         <v>6</v>
@@ -36967,22 +36967,22 @@
         <v>2</v>
       </c>
       <c r="S457">
-        <v>-15.3</v>
+        <v>-14</v>
       </c>
       <c r="T457">
         <v>0.055</v>
       </c>
       <c r="U457">
-        <v>0.204</v>
+        <v>0.2</v>
       </c>
       <c r="V457">
-        <v>0.115</v>
+        <v>0.113</v>
       </c>
       <c r="W457">
         <v>0.233</v>
       </c>
       <c r="X457">
-        <v>0.074</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="458" spans="1:24">
@@ -37103,34 +37103,34 @@
         <v>878</v>
       </c>
       <c r="O459">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P459">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="Q459">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="R459">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="S459">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="T459">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U459">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="V459">
-        <v>0.225</v>
+        <v>0.227</v>
       </c>
       <c r="W459">
-        <v>0.485</v>
+        <v>0.491</v>
       </c>
       <c r="X459">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="460" spans="1:24">
@@ -37251,34 +37251,34 @@
         <v>892</v>
       </c>
       <c r="O461">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P461">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="Q461">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R461">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S461">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="T461">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="U461">
-        <v>0.08500000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="V461">
-        <v>0.229</v>
+        <v>0.235</v>
       </c>
       <c r="W461">
-        <v>0.5629999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X461">
-        <v>0.164</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="462" spans="1:24">
@@ -37618,31 +37618,31 @@
         <v>884</v>
       </c>
       <c r="O466">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P466">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q466">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R466">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S466">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T466">
         <v>0.022</v>
       </c>
       <c r="U466">
-        <v>0.118</v>
+        <v>0.116</v>
       </c>
       <c r="V466">
         <v>0.119</v>
       </c>
       <c r="W466">
-        <v>0.612</v>
+        <v>0.613</v>
       </c>
       <c r="X466">
         <v>0.094</v>
@@ -37988,34 +37988,34 @@
         <v>886</v>
       </c>
       <c r="O471">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P471">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q471">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="R471">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="S471">
-        <v>-1.6</v>
+        <v>-2</v>
       </c>
       <c r="T471">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U471">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="V471">
-        <v>0.198</v>
+        <v>0.196</v>
       </c>
       <c r="W471">
-        <v>0.508</v>
+        <v>0.513</v>
       </c>
       <c r="X471">
-        <v>0.149</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="472" spans="1:24">
@@ -38136,34 +38136,34 @@
         <v>891</v>
       </c>
       <c r="O473">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P473">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q473">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R473">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S473">
-        <v>-9.800000000000001</v>
+        <v>-10.4</v>
       </c>
       <c r="T473">
         <v>0.049</v>
       </c>
       <c r="U473">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="V473">
         <v>0.141</v>
       </c>
       <c r="W473">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="X473">
-        <v>0.091</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="474" spans="1:24">
@@ -38432,34 +38432,34 @@
         <v>852</v>
       </c>
       <c r="O477">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P477">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="Q477">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="R477">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S477">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="T477">
-        <v>0.038</v>
+        <v>0.047</v>
       </c>
       <c r="U477">
-        <v>0.127</v>
+        <v>0.131</v>
       </c>
       <c r="V477">
-        <v>0.172</v>
+        <v>0.178</v>
       </c>
       <c r="W477">
-        <v>0.627</v>
+        <v>0.637</v>
       </c>
       <c r="X477">
-        <v>0.08</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="478" spans="1:24">
@@ -38728,34 +38728,34 @@
         <v>881</v>
       </c>
       <c r="O481">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P481">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q481">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R481">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S481">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="T481">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="U481">
-        <v>0.08599999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V481">
-        <v>0.102</v>
+        <v>0.104</v>
       </c>
       <c r="W481">
-        <v>0.544</v>
+        <v>0.529</v>
       </c>
       <c r="X481">
-        <v>0.305</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="482" spans="1:24">
@@ -39024,34 +39024,34 @@
         <v>852</v>
       </c>
       <c r="O485">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P485">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Q485">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R485">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S485">
-        <v>-4</v>
+        <v>-5.2</v>
       </c>
       <c r="T485">
-        <v>0.042</v>
+        <v>0.05</v>
       </c>
       <c r="U485">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="V485">
-        <v>0.147</v>
+        <v>0.153</v>
       </c>
       <c r="W485">
-        <v>0.544</v>
+        <v>0.53</v>
       </c>
       <c r="X485">
-        <v>0.149</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="486" spans="1:24">
@@ -39172,34 +39172,34 @@
         <v>852</v>
       </c>
       <c r="O487">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P487">
         <v>38</v>
       </c>
       <c r="Q487">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R487">
         <v>10</v>
       </c>
       <c r="S487">
-        <v>-7.1</v>
+        <v>-7.6</v>
       </c>
       <c r="T487">
+        <v>0.114</v>
+      </c>
+      <c r="U487">
+        <v>0.135</v>
+      </c>
+      <c r="V487">
         <v>0.121</v>
-      </c>
-      <c r="U487">
-        <v>0.126</v>
-      </c>
-      <c r="V487">
-        <v>0.127</v>
       </c>
       <c r="W487">
         <v>0.461</v>
       </c>
       <c r="X487">
-        <v>0.08799999999999999</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="488" spans="1:24">
@@ -39320,34 +39320,34 @@
         <v>921</v>
       </c>
       <c r="O489">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P489">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="Q489">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="R489">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="S489">
-        <v>-9.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="T489">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="U489">
         <v>0.112</v>
       </c>
       <c r="V489">
-        <v>0.231</v>
+        <v>0.227</v>
       </c>
       <c r="W489">
-        <v>0.599</v>
+        <v>0.601</v>
       </c>
       <c r="X489">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="490" spans="1:24">
@@ -39542,31 +39542,31 @@
         <v>920</v>
       </c>
       <c r="O492">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P492">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R492">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S492">
-        <v>-0.4</v>
+        <v>-1.4</v>
       </c>
       <c r="T492">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="U492">
-        <v>0.12</v>
+        <v>0.117</v>
       </c>
       <c r="V492">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="W492">
-        <v>0.513</v>
+        <v>0.51</v>
       </c>
       <c r="X492">
         <v>0.099</v>
@@ -39838,19 +39838,19 @@
         <v>915</v>
       </c>
       <c r="O496">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P496">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="Q496">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="R496">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="S496">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="T496">
         <v>0.008999999999999999</v>
@@ -39859,13 +39859,13 @@
         <v>0.149</v>
       </c>
       <c r="V496">
-        <v>0.263</v>
+        <v>0.262</v>
       </c>
       <c r="W496">
         <v>0.625</v>
       </c>
       <c r="X496">
-        <v>0.24</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="497" spans="1:24">
@@ -39912,28 +39912,28 @@
         <v>908</v>
       </c>
       <c r="O497">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P497">
         <v>50</v>
       </c>
       <c r="Q497">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R497">
         <v>18</v>
       </c>
       <c r="S497">
-        <v>-4</v>
+        <v>-4.3</v>
       </c>
       <c r="T497">
         <v>0.014</v>
       </c>
       <c r="U497">
-        <v>0.07199999999999999</v>
+        <v>0.076</v>
       </c>
       <c r="V497">
-        <v>0.165</v>
+        <v>0.163</v>
       </c>
       <c r="W497">
         <v>0.536</v>
@@ -40134,25 +40134,25 @@
         <v>903</v>
       </c>
       <c r="O500">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P500">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q500">
         <v>93</v>
       </c>
       <c r="R500">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S500">
-        <v>-14</v>
+        <v>-14.1</v>
       </c>
       <c r="T500">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="U500">
-        <v>0.143</v>
+        <v>0.139</v>
       </c>
       <c r="V500">
         <v>0.187</v>
@@ -40161,7 +40161,7 @@
         <v>0.516</v>
       </c>
       <c r="X500">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="501" spans="1:24">
@@ -40430,19 +40430,19 @@
         <v>930</v>
       </c>
       <c r="O504">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P504">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q504">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R504">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="S504">
-        <v>-10.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="T504">
         <v>0.026</v>
@@ -40451,13 +40451,13 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="V504">
-        <v>0.206</v>
+        <v>0.204</v>
       </c>
       <c r="W504">
-        <v>0.445</v>
+        <v>0.449</v>
       </c>
       <c r="X504">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="505" spans="1:24">
@@ -40504,31 +40504,31 @@
         <v>874</v>
       </c>
       <c r="O505">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P505">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="Q505">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="R505">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S505">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="T505">
         <v>0.054</v>
       </c>
       <c r="U505">
-        <v>0.243</v>
+        <v>0.246</v>
       </c>
       <c r="V505">
         <v>0.307</v>
       </c>
       <c r="W505">
-        <v>0.597</v>
+        <v>0.594</v>
       </c>
       <c r="X505">
         <v>0.192</v>
@@ -40874,34 +40874,34 @@
         <v>896</v>
       </c>
       <c r="O510">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P510">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q510">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="R510">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S510">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="T510">
         <v>0.058</v>
       </c>
       <c r="U510">
-        <v>0.233</v>
+        <v>0.234</v>
       </c>
       <c r="V510">
-        <v>0.149</v>
+        <v>0.151</v>
       </c>
       <c r="W510">
-        <v>0.526</v>
+        <v>0.528</v>
       </c>
       <c r="X510">
-        <v>0.127</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="511" spans="1:24">
@@ -41096,7 +41096,7 @@
         <v>852</v>
       </c>
       <c r="O513">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P513">
         <v>24</v>
@@ -41108,22 +41108,22 @@
         <v>12</v>
       </c>
       <c r="S513">
-        <v>-0.9</v>
+        <v>-2.5</v>
       </c>
       <c r="T513">
         <v>0</v>
       </c>
       <c r="U513">
-        <v>0.08500000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V513">
-        <v>0.211</v>
+        <v>0.204</v>
       </c>
       <c r="W513">
         <v>0.508</v>
       </c>
       <c r="X513">
-        <v>0.343</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="514" spans="1:24">
@@ -41318,10 +41318,10 @@
         <v>906</v>
       </c>
       <c r="O516">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P516">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q516">
         <v>94</v>
@@ -41330,22 +41330,22 @@
         <v>47</v>
       </c>
       <c r="S516">
-        <v>-7</v>
+        <v>-7.6</v>
       </c>
       <c r="T516">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="U516">
-        <v>0.145</v>
+        <v>0.144</v>
       </c>
       <c r="V516">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="W516">
-        <v>0.548</v>
+        <v>0.555</v>
       </c>
       <c r="X516">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="517" spans="1:24">
@@ -41392,34 +41392,34 @@
         <v>887</v>
       </c>
       <c r="O517">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P517">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q517">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="R517">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S517">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="T517">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="U517">
-        <v>0.171</v>
+        <v>0.176</v>
       </c>
       <c r="V517">
         <v>0.169</v>
       </c>
       <c r="W517">
-        <v>0.621</v>
+        <v>0.625</v>
       </c>
       <c r="X517">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="518" spans="1:24">
@@ -41466,34 +41466,34 @@
         <v>915</v>
       </c>
       <c r="O518">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P518">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="Q518">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="R518">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="S518">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="T518">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="U518">
         <v>0.121</v>
       </c>
       <c r="V518">
-        <v>0.261</v>
+        <v>0.26</v>
       </c>
       <c r="W518">
-        <v>0.64</v>
+        <v>0.639</v>
       </c>
       <c r="X518">
-        <v>0.194</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="519" spans="1:24">
@@ -41540,7 +41540,7 @@
         <v>898</v>
       </c>
       <c r="O519">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P519">
         <v>31</v>
@@ -41552,22 +41552,22 @@
         <v>4</v>
       </c>
       <c r="S519">
-        <v>-36.9</v>
+        <v>-36.1</v>
       </c>
       <c r="T519">
         <v>0.017</v>
       </c>
       <c r="U519">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="V519">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="W519">
         <v>0.455</v>
       </c>
       <c r="X519">
-        <v>0.074</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="520" spans="1:24">
@@ -41614,34 +41614,34 @@
         <v>906</v>
       </c>
       <c r="O520">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P520">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q520">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="R520">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S520">
-        <v>-10.4</v>
+        <v>-10</v>
       </c>
       <c r="T520">
         <v>0.045</v>
       </c>
       <c r="U520">
-        <v>0.181</v>
+        <v>0.179</v>
       </c>
       <c r="V520">
-        <v>0.189</v>
+        <v>0.192</v>
       </c>
       <c r="W520">
-        <v>0.545</v>
+        <v>0.544</v>
       </c>
       <c r="X520">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="521" spans="1:24">
@@ -41688,34 +41688,34 @@
         <v>874</v>
       </c>
       <c r="O521">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P521">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="Q521">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="R521">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="S521">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="T521">
-        <v>0.089</v>
+        <v>0.106</v>
       </c>
       <c r="U521">
-        <v>0.143</v>
+        <v>0.151</v>
       </c>
       <c r="V521">
-        <v>0.328</v>
+        <v>0.335</v>
       </c>
       <c r="W521">
-        <v>0.532</v>
+        <v>0.531</v>
       </c>
       <c r="X521">
-        <v>0.304</v>
+        <v>0.321</v>
       </c>
     </row>
   </sheetData>

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -3590,34 +3590,34 @@
         <v>877</v>
       </c>
       <c r="O6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>28</v>
       </c>
       <c r="R6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6">
-        <v>11.1</v>
+        <v>12.9</v>
       </c>
       <c r="T6">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="U6">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="V6">
-        <v>0.142</v>
+        <v>0.146</v>
       </c>
       <c r="W6">
-        <v>0.581</v>
+        <v>0.579</v>
       </c>
       <c r="X6">
-        <v>0.143</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -3664,34 +3664,34 @@
         <v>879</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R7">
         <v>6</v>
       </c>
       <c r="S7">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="T7">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="U7">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="V7">
-        <v>0.156</v>
+        <v>0.162</v>
       </c>
       <c r="W7">
-        <v>0.6929999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="X7">
-        <v>0.053</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -3960,34 +3960,34 @@
         <v>881</v>
       </c>
       <c r="O11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Q11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S11">
-        <v>-4.8</v>
+        <v>-5.7</v>
       </c>
       <c r="T11">
-        <v>0.083</v>
+        <v>0.093</v>
       </c>
       <c r="U11">
         <v>0.159</v>
       </c>
       <c r="V11">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="W11">
-        <v>0.716</v>
+        <v>0.754</v>
       </c>
       <c r="X11">
-        <v>0.032</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -4552,31 +4552,31 @@
         <v>875</v>
       </c>
       <c r="O19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q19">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="R19">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S19">
-        <v>-16.4</v>
+        <v>-15.9</v>
       </c>
       <c r="T19">
         <v>0.063</v>
       </c>
       <c r="U19">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="V19">
-        <v>0.204</v>
+        <v>0.202</v>
       </c>
       <c r="W19">
-        <v>0.494</v>
+        <v>0.495</v>
       </c>
       <c r="X19">
         <v>0.129</v>
@@ -4700,25 +4700,25 @@
         <v>886</v>
       </c>
       <c r="O21">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P21">
-        <v>773</v>
+        <v>796</v>
       </c>
       <c r="Q21">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="R21">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="S21">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="T21">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
       <c r="U21">
-        <v>0.216</v>
+        <v>0.217</v>
       </c>
       <c r="V21">
         <v>0.265</v>
@@ -4727,7 +4727,7 @@
         <v>0.54</v>
       </c>
       <c r="X21">
-        <v>0.251</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -4922,34 +4922,34 @@
         <v>887</v>
       </c>
       <c r="O24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P24">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q24">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="R24">
         <v>14</v>
       </c>
       <c r="S24">
-        <v>-10.5</v>
+        <v>-11.4</v>
       </c>
       <c r="T24">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="U24">
-        <v>0.308</v>
+        <v>0.296</v>
       </c>
       <c r="V24">
         <v>0.18</v>
       </c>
       <c r="W24">
-        <v>0.534</v>
+        <v>0.531</v>
       </c>
       <c r="X24">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -5070,34 +5070,34 @@
         <v>889</v>
       </c>
       <c r="O26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P26">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q26">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R26">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="S26">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="T26">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U26">
-        <v>0.096</v>
+        <v>0.093</v>
       </c>
       <c r="V26">
-        <v>0.179</v>
+        <v>0.176</v>
       </c>
       <c r="W26">
         <v>0.545</v>
       </c>
       <c r="X26">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -5144,16 +5144,16 @@
         <v>874</v>
       </c>
       <c r="O27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="Q27">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="R27">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S27">
         <v>-0.6</v>
@@ -5162,16 +5162,16 @@
         <v>0.046</v>
       </c>
       <c r="U27">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
       <c r="V27">
-        <v>0.221</v>
+        <v>0.223</v>
       </c>
       <c r="W27">
-        <v>0.575</v>
+        <v>0.577</v>
       </c>
       <c r="X27">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -5218,34 +5218,34 @@
         <v>890</v>
       </c>
       <c r="O28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P28">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="Q28">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R28">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="S28">
-        <v>-10</v>
+        <v>-10.1</v>
       </c>
       <c r="T28">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="U28">
         <v>0.073</v>
       </c>
       <c r="V28">
-        <v>0.245</v>
+        <v>0.243</v>
       </c>
       <c r="W28">
-        <v>0.549</v>
+        <v>0.548</v>
       </c>
       <c r="X28">
-        <v>0.253</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -5440,25 +5440,25 @@
         <v>874</v>
       </c>
       <c r="O31">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P31">
-        <v>1070</v>
+        <v>1098</v>
       </c>
       <c r="Q31">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="R31">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="S31">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T31">
         <v>0.02</v>
       </c>
       <c r="U31">
-        <v>0.136</v>
+        <v>0.134</v>
       </c>
       <c r="V31">
         <v>0.301</v>
@@ -5467,7 +5467,7 @@
         <v>0.586</v>
       </c>
       <c r="X31">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -5810,34 +5810,34 @@
         <v>885</v>
       </c>
       <c r="O36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P36">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q36">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="R36">
         <v>35</v>
       </c>
       <c r="S36">
-        <v>-2.6</v>
+        <v>-3.3</v>
       </c>
       <c r="T36">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U36">
-        <v>0.18</v>
+        <v>0.177</v>
       </c>
       <c r="V36">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="W36">
-        <v>0.536</v>
+        <v>0.532</v>
       </c>
       <c r="X36">
-        <v>0.146</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -6180,34 +6180,34 @@
         <v>895</v>
       </c>
       <c r="O41">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P41">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R41">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S41">
-        <v>-5.2</v>
+        <v>-3.5</v>
       </c>
       <c r="T41">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="U41">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="V41">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="W41">
-        <v>0.544</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X41">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -6328,34 +6328,34 @@
         <v>891</v>
       </c>
       <c r="O43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P43">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="Q43">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="R43">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S43">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="T43">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="U43">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="V43">
-        <v>0.214</v>
+        <v>0.213</v>
       </c>
       <c r="W43">
         <v>0.575</v>
       </c>
       <c r="X43">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -6402,19 +6402,19 @@
         <v>896</v>
       </c>
       <c r="O44">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P44">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q44">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="R44">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="S44">
-        <v>-16.5</v>
+        <v>-16.1</v>
       </c>
       <c r="T44">
         <v>0.038</v>
@@ -6426,10 +6426,10 @@
         <v>0.173</v>
       </c>
       <c r="W44">
-        <v>0.52</v>
+        <v>0.514</v>
       </c>
       <c r="X44">
-        <v>0.148</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -6698,34 +6698,34 @@
         <v>900</v>
       </c>
       <c r="O48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P48">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q48">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R48">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S48">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="T48">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="U48">
-        <v>0.077</v>
+        <v>0.078</v>
       </c>
       <c r="V48">
-        <v>0.181</v>
+        <v>0.177</v>
       </c>
       <c r="W48">
-        <v>0.526</v>
+        <v>0.53</v>
       </c>
       <c r="X48">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -7882,10 +7882,10 @@
         <v>909</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -7894,19 +7894,19 @@
         <v>1</v>
       </c>
       <c r="S64">
-        <v>59.4</v>
+        <v>30.4</v>
       </c>
       <c r="T64">
-        <v>0.07099999999999999</v>
+        <v>0.063</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64">
-        <v>0.12</v>
+        <v>0.194</v>
       </c>
       <c r="W64">
-        <v>0.333</v>
+        <v>0.551</v>
       </c>
       <c r="X64">
         <v>0.125</v>
@@ -7956,34 +7956,34 @@
         <v>891</v>
       </c>
       <c r="O65">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P65">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q65">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R65">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T65">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="U65">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="V65">
-        <v>0.209</v>
+        <v>0.208</v>
       </c>
       <c r="W65">
-        <v>0.5649999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X65">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="66" spans="1:24">
@@ -8104,34 +8104,34 @@
         <v>874</v>
       </c>
       <c r="O67">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P67">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="Q67">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="R67">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="S67">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T67">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="U67">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="V67">
-        <v>0.311</v>
+        <v>0.313</v>
       </c>
       <c r="W67">
-        <v>0.553</v>
+        <v>0.546</v>
       </c>
       <c r="X67">
-        <v>0.416</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="68" spans="1:24">
@@ -8622,34 +8622,34 @@
         <v>913</v>
       </c>
       <c r="O74">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P74">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q74">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="R74">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S74">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="T74">
-        <v>0.039</v>
+        <v>0.047</v>
       </c>
       <c r="U74">
-        <v>0.138</v>
+        <v>0.142</v>
       </c>
       <c r="V74">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="W74">
-        <v>0.545</v>
+        <v>0.533</v>
       </c>
       <c r="X74">
-        <v>0.063</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:24">
@@ -8844,34 +8844,34 @@
         <v>913</v>
       </c>
       <c r="O77">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P77">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q77">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="R77">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S77">
-        <v>13.2</v>
+        <v>12.4</v>
       </c>
       <c r="T77">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="U77">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="V77">
-        <v>0.181</v>
+        <v>0.179</v>
       </c>
       <c r="W77">
-        <v>0.611</v>
+        <v>0.603</v>
       </c>
       <c r="X77">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -8918,16 +8918,16 @@
         <v>879</v>
       </c>
       <c r="O78">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P78">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="Q78">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R78">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S78">
         <v>-18.7</v>
@@ -8936,13 +8936,13 @@
         <v>0.01</v>
       </c>
       <c r="U78">
-        <v>0.124</v>
+        <v>0.122</v>
       </c>
       <c r="V78">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="W78">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="X78">
         <v>0.189</v>
@@ -9658,34 +9658,34 @@
         <v>897</v>
       </c>
       <c r="O88">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P88">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q88">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="R88">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="T88">
         <v>0.124</v>
       </c>
       <c r="U88">
-        <v>0.243</v>
+        <v>0.245</v>
       </c>
       <c r="V88">
         <v>0.158</v>
       </c>
       <c r="W88">
-        <v>0.574</v>
+        <v>0.57</v>
       </c>
       <c r="X88">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="89" spans="1:24">
@@ -10398,34 +10398,34 @@
         <v>917</v>
       </c>
       <c r="O98">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P98">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="Q98">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="R98">
         <v>59</v>
       </c>
       <c r="S98">
-        <v>-10.5</v>
+        <v>-9.9</v>
       </c>
       <c r="T98">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="U98">
         <v>0.08699999999999999</v>
       </c>
       <c r="V98">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="W98">
-        <v>0.573</v>
+        <v>0.575</v>
       </c>
       <c r="X98">
-        <v>0.094</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="99" spans="1:24">
@@ -11064,34 +11064,34 @@
         <v>911</v>
       </c>
       <c r="O107">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P107">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q107">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R107">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S107">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="T107">
         <v>0.021</v>
       </c>
       <c r="U107">
-        <v>0.102</v>
+        <v>0.101</v>
       </c>
       <c r="V107">
-        <v>0.261</v>
+        <v>0.258</v>
       </c>
       <c r="W107">
-        <v>0.52</v>
+        <v>0.518</v>
       </c>
       <c r="X107">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11804,28 +11804,28 @@
         <v>885</v>
       </c>
       <c r="O117">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P117">
-        <v>819</v>
+        <v>848</v>
       </c>
       <c r="Q117">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="R117">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="S117">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="T117">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="U117">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
       <c r="V117">
-        <v>0.262</v>
+        <v>0.263</v>
       </c>
       <c r="W117">
         <v>0.636</v>
@@ -12248,34 +12248,34 @@
         <v>878</v>
       </c>
       <c r="O123">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P123">
-        <v>524</v>
+        <v>540</v>
       </c>
       <c r="Q123">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="R123">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S123">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="T123">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="U123">
-        <v>0.115</v>
+        <v>0.113</v>
       </c>
       <c r="V123">
-        <v>0.239</v>
+        <v>0.238</v>
       </c>
       <c r="W123">
-        <v>0.633</v>
+        <v>0.629</v>
       </c>
       <c r="X123">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="124" spans="1:24">
@@ -12544,34 +12544,34 @@
         <v>852</v>
       </c>
       <c r="O127">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P127">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q127">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="R127">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S127">
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
       <c r="T127">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="U127">
-        <v>0.175</v>
+        <v>0.172</v>
       </c>
       <c r="V127">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
       <c r="W127">
-        <v>0.569</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="X127">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="128" spans="1:24">
@@ -12914,34 +12914,34 @@
         <v>921</v>
       </c>
       <c r="O132">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P132">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="Q132">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R132">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S132">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="T132">
         <v>0.008999999999999999</v>
       </c>
       <c r="U132">
-        <v>0.077</v>
+        <v>0.075</v>
       </c>
       <c r="V132">
         <v>0.221</v>
       </c>
       <c r="W132">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="X132">
-        <v>0.295</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -13136,34 +13136,34 @@
         <v>919</v>
       </c>
       <c r="O135">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P135">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="Q135">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="R135">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S135">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T135">
         <v>0.026</v>
       </c>
       <c r="U135">
-        <v>0.095</v>
+        <v>0.097</v>
       </c>
       <c r="V135">
-        <v>0.194</v>
+        <v>0.195</v>
       </c>
       <c r="W135">
-        <v>0.593</v>
+        <v>0.589</v>
       </c>
       <c r="X135">
-        <v>0.176</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="136" spans="1:24">
@@ -13284,34 +13284,34 @@
         <v>915</v>
       </c>
       <c r="O137">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P137">
-        <v>893</v>
+        <v>928</v>
       </c>
       <c r="Q137">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="R137">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S137">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="T137">
         <v>0.03</v>
       </c>
       <c r="U137">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="V137">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="W137">
-        <v>0.584</v>
+        <v>0.586</v>
       </c>
       <c r="X137">
-        <v>0.291</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="138" spans="1:24">
@@ -13506,34 +13506,34 @@
         <v>923</v>
       </c>
       <c r="O140">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P140">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="Q140">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="R140">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S140">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="T140">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U140">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="V140">
-        <v>0.172</v>
+        <v>0.173</v>
       </c>
       <c r="W140">
-        <v>0.528</v>
+        <v>0.53</v>
       </c>
       <c r="X140">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="141" spans="1:24">
@@ -13876,34 +13876,34 @@
         <v>915</v>
       </c>
       <c r="O145">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P145">
-        <v>864</v>
+        <v>900</v>
       </c>
       <c r="Q145">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="R145">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="S145">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="T145">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="U145">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
       <c r="V145">
-        <v>0.29</v>
+        <v>0.293</v>
       </c>
       <c r="W145">
         <v>0.579</v>
       </c>
       <c r="X145">
-        <v>0.218</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="146" spans="1:24">
@@ -14172,19 +14172,19 @@
         <v>922</v>
       </c>
       <c r="O149">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P149">
         <v>286</v>
       </c>
       <c r="Q149">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R149">
         <v>185</v>
       </c>
       <c r="S149">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T149">
         <v>0.036</v>
@@ -14196,10 +14196,10 @@
         <v>0.155</v>
       </c>
       <c r="W149">
-        <v>0.532</v>
+        <v>0.53</v>
       </c>
       <c r="X149">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:24">
@@ -14542,7 +14542,7 @@
         <v>852</v>
       </c>
       <c r="O154">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P154">
         <v>48</v>
@@ -14551,25 +14551,25 @@
         <v>19</v>
       </c>
       <c r="R154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S154">
-        <v>-17</v>
+        <v>-19.1</v>
       </c>
       <c r="T154">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="U154">
-        <v>0.111</v>
+        <v>0.104</v>
       </c>
       <c r="V154">
-        <v>0.168</v>
+        <v>0.166</v>
       </c>
       <c r="W154">
-        <v>0.527</v>
+        <v>0.516</v>
       </c>
       <c r="X154">
-        <v>0.065</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -14690,31 +14690,31 @@
         <v>918</v>
       </c>
       <c r="O156">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P156">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="Q156">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="R156">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="S156">
-        <v>-4.3</v>
+        <v>-3.9</v>
       </c>
       <c r="T156">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="U156">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="V156">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="W156">
-        <v>0.506</v>
+        <v>0.515</v>
       </c>
       <c r="X156">
         <v>0.145</v>
@@ -15060,34 +15060,34 @@
         <v>896</v>
       </c>
       <c r="O161">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P161">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q161">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R161">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S161">
-        <v>-9.199999999999999</v>
+        <v>-8.6</v>
       </c>
       <c r="T161">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="U161">
-        <v>0.057</v>
+        <v>0.054</v>
       </c>
       <c r="V161">
-        <v>0.145</v>
+        <v>0.144</v>
       </c>
       <c r="W161">
-        <v>0.572</v>
+        <v>0.556</v>
       </c>
       <c r="X161">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -15282,34 +15282,34 @@
         <v>852</v>
       </c>
       <c r="O164">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P164">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="Q164">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="R164">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S164">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="T164">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="U164">
         <v>0.092</v>
       </c>
       <c r="V164">
-        <v>0.184</v>
+        <v>0.182</v>
       </c>
       <c r="W164">
-        <v>0.514</v>
+        <v>0.513</v>
       </c>
       <c r="X164">
-        <v>0.238</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="165" spans="1:24">
@@ -15504,19 +15504,19 @@
         <v>852</v>
       </c>
       <c r="O167">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P167">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q167">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R167">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S167">
-        <v>-4.2</v>
+        <v>-3.2</v>
       </c>
       <c r="T167">
         <v>0.017</v>
@@ -15525,13 +15525,13 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="V167">
-        <v>0.16</v>
+        <v>0.159</v>
       </c>
       <c r="W167">
-        <v>0.637</v>
+        <v>0.63</v>
       </c>
       <c r="X167">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="168" spans="1:24">
@@ -15652,31 +15652,31 @@
         <v>852</v>
       </c>
       <c r="O169">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P169">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q169">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R169">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S169">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="T169">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="U169">
-        <v>0.119</v>
+        <v>0.118</v>
       </c>
       <c r="V169">
-        <v>0.138</v>
+        <v>0.139</v>
       </c>
       <c r="W169">
-        <v>0.588</v>
+        <v>0.593</v>
       </c>
       <c r="X169">
         <v>0.13</v>
@@ -15800,34 +15800,34 @@
         <v>924</v>
       </c>
       <c r="O171">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P171">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q171">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="R171">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S171">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="T171">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="U171">
-        <v>0.135</v>
+        <v>0.138</v>
       </c>
       <c r="V171">
-        <v>0.17</v>
+        <v>0.168</v>
       </c>
       <c r="W171">
-        <v>0.598</v>
+        <v>0.607</v>
       </c>
       <c r="X171">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="172" spans="1:24">
@@ -16170,34 +16170,34 @@
         <v>904</v>
       </c>
       <c r="O176">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P176">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q176">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R176">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S176">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="T176">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="U176">
-        <v>0.105</v>
+        <v>0.103</v>
       </c>
       <c r="V176">
-        <v>0.173</v>
+        <v>0.17</v>
       </c>
       <c r="W176">
-        <v>0.643</v>
+        <v>0.642</v>
       </c>
       <c r="X176">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="177" spans="1:24">
@@ -16318,34 +16318,34 @@
         <v>880</v>
       </c>
       <c r="O178">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P178">
         <v>39</v>
       </c>
       <c r="Q178">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R178">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S178">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="T178">
-        <v>0.06900000000000001</v>
+        <v>0.077</v>
       </c>
       <c r="U178">
         <v>0.123</v>
       </c>
       <c r="V178">
-        <v>0.124</v>
+        <v>0.119</v>
       </c>
       <c r="W178">
-        <v>0.5629999999999999</v>
+        <v>0.547</v>
       </c>
       <c r="X178">
-        <v>0.131</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="179" spans="1:24">
@@ -17348,22 +17348,22 @@
         <v>886</v>
       </c>
       <c r="O192">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P192">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q192">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R192">
         <v>68</v>
       </c>
       <c r="S192">
-        <v>-3</v>
+        <v>-3.3</v>
       </c>
       <c r="T192">
-        <v>0.098</v>
+        <v>0.095</v>
       </c>
       <c r="U192">
         <v>0.17</v>
@@ -17372,10 +17372,10 @@
         <v>0.112</v>
       </c>
       <c r="W192">
-        <v>0.58</v>
+        <v>0.579</v>
       </c>
       <c r="X192">
-        <v>0.123</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="193" spans="1:24">
@@ -17940,34 +17940,34 @@
         <v>928</v>
       </c>
       <c r="O200">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P200">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q200">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="R200">
         <v>14</v>
       </c>
       <c r="S200">
-        <v>-6.3</v>
+        <v>-5.4</v>
       </c>
       <c r="T200">
-        <v>0.07000000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="U200">
-        <v>0.204</v>
+        <v>0.205</v>
       </c>
       <c r="V200">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="W200">
-        <v>0.5</v>
+        <v>0.516</v>
       </c>
       <c r="X200">
-        <v>0.07199999999999999</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -18310,34 +18310,34 @@
         <v>905</v>
       </c>
       <c r="O205">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P205">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="Q205">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="R205">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S205">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="T205">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U205">
         <v>0.108</v>
       </c>
       <c r="V205">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
       <c r="W205">
-        <v>0.536</v>
+        <v>0.54</v>
       </c>
       <c r="X205">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="206" spans="1:24">
@@ -18532,16 +18532,16 @@
         <v>852</v>
       </c>
       <c r="O208">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P208">
         <v>82</v>
       </c>
       <c r="Q208">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R208">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S208">
         <v>15.9</v>
@@ -18550,16 +18550,16 @@
         <v>0.067</v>
       </c>
       <c r="U208">
-        <v>0.136</v>
+        <v>0.128</v>
       </c>
       <c r="V208">
-        <v>0.136</v>
+        <v>0.133</v>
       </c>
       <c r="W208">
-        <v>0.569</v>
+        <v>0.539</v>
       </c>
       <c r="X208">
-        <v>0.1</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="209" spans="1:24">
@@ -18976,34 +18976,34 @@
         <v>915</v>
       </c>
       <c r="O214">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P214">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q214">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="R214">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S214">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="T214">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="U214">
-        <v>0.252</v>
+        <v>0.249</v>
       </c>
       <c r="V214">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="W214">
-        <v>0.702</v>
+        <v>0.699</v>
       </c>
       <c r="X214">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="215" spans="1:24">
@@ -19050,19 +19050,19 @@
         <v>875</v>
       </c>
       <c r="O215">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P215">
-        <v>860</v>
+        <v>886</v>
       </c>
       <c r="Q215">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R215">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S215">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T215">
         <v>0.015</v>
@@ -19071,13 +19071,13 @@
         <v>0.113</v>
       </c>
       <c r="V215">
-        <v>0.262</v>
+        <v>0.263</v>
       </c>
       <c r="W215">
-        <v>0.5639999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X215">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="216" spans="1:24">
@@ -19198,34 +19198,34 @@
         <v>913</v>
       </c>
       <c r="O217">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P217">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="Q217">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="R217">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="S217">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="T217">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="U217">
-        <v>0.212</v>
+        <v>0.213</v>
       </c>
       <c r="V217">
         <v>0.215</v>
       </c>
       <c r="W217">
-        <v>0.584</v>
+        <v>0.58</v>
       </c>
       <c r="X217">
-        <v>0.209</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="218" spans="1:24">
@@ -20160,34 +20160,34 @@
         <v>918</v>
       </c>
       <c r="O230">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P230">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q230">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="R230">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S230">
-        <v>-7.6</v>
+        <v>-6.8</v>
       </c>
       <c r="T230">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U230">
-        <v>0.185</v>
+        <v>0.187</v>
       </c>
       <c r="V230">
         <v>0.161</v>
       </c>
       <c r="W230">
-        <v>0.591</v>
+        <v>0.59</v>
       </c>
       <c r="X230">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="231" spans="1:24">
@@ -20530,34 +20530,34 @@
         <v>898</v>
       </c>
       <c r="O235">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P235">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="Q235">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="R235">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S235">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T235">
-        <v>0.092</v>
+        <v>0.09</v>
       </c>
       <c r="U235">
-        <v>0.253</v>
+        <v>0.248</v>
       </c>
       <c r="V235">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="W235">
         <v>0.73</v>
       </c>
       <c r="X235">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:24">
@@ -20826,34 +20826,34 @@
         <v>883</v>
       </c>
       <c r="O239">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P239">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="Q239">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="R239">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="S239">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T239">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
       <c r="U239">
         <v>0.12</v>
       </c>
       <c r="V239">
-        <v>0.287</v>
+        <v>0.288</v>
       </c>
       <c r="W239">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="X239">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="240" spans="1:24">
@@ -21341,34 +21341,34 @@
         <v>883</v>
       </c>
       <c r="O246">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P246">
-        <v>1056</v>
+        <v>1079</v>
       </c>
       <c r="Q246">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="R246">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="S246">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="T246">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="U246">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="V246">
-        <v>0.298</v>
+        <v>0.296</v>
       </c>
       <c r="W246">
-        <v>0.6</v>
+        <v>0.596</v>
       </c>
       <c r="X246">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="247" spans="1:24">
@@ -21489,34 +21489,34 @@
         <v>852</v>
       </c>
       <c r="O248">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P248">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q248">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R248">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S248">
-        <v>-12.1</v>
+        <v>-13.1</v>
       </c>
       <c r="T248">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="U248">
-        <v>0.105</v>
+        <v>0.103</v>
       </c>
       <c r="V248">
         <v>0.153</v>
       </c>
       <c r="W248">
-        <v>0.518</v>
+        <v>0.502</v>
       </c>
       <c r="X248">
-        <v>0.167</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="249" spans="1:24">
@@ -21637,34 +21637,34 @@
         <v>929</v>
       </c>
       <c r="O250">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P250">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Q250">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R250">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S250">
-        <v>-12.1</v>
+        <v>-12.6</v>
       </c>
       <c r="T250">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="U250">
-        <v>0.092</v>
+        <v>0.091</v>
       </c>
       <c r="V250">
         <v>0.195</v>
       </c>
       <c r="W250">
-        <v>0.527</v>
+        <v>0.526</v>
       </c>
       <c r="X250">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="251" spans="1:24">
@@ -22229,7 +22229,7 @@
         <v>852</v>
       </c>
       <c r="O258">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P258">
         <v>0</v>
@@ -22241,22 +22241,22 @@
         <v>9</v>
       </c>
       <c r="S258">
-        <v>-10.2</v>
+        <v>-30.4</v>
       </c>
       <c r="T258">
-        <v>0.1</v>
+        <v>0.059</v>
       </c>
       <c r="U258">
         <v>0</v>
       </c>
       <c r="V258">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="W258">
         <v>0</v>
       </c>
       <c r="X258">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="259" spans="1:24">
@@ -22599,7 +22599,7 @@
         <v>922</v>
       </c>
       <c r="O263">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P263">
         <v>60</v>
@@ -22611,7 +22611,7 @@
         <v>9</v>
       </c>
       <c r="S263">
-        <v>-8</v>
+        <v>-7.5</v>
       </c>
       <c r="T263">
         <v>0.063</v>
@@ -22747,34 +22747,34 @@
         <v>885</v>
       </c>
       <c r="O265">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P265">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q265">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="R265">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S265">
-        <v>-14.4</v>
+        <v>-14.3</v>
       </c>
       <c r="T265">
-        <v>0.121</v>
+        <v>0.123</v>
       </c>
       <c r="U265">
-        <v>0.279</v>
+        <v>0.278</v>
       </c>
       <c r="V265">
         <v>0.236</v>
       </c>
       <c r="W265">
-        <v>0.612</v>
+        <v>0.603</v>
       </c>
       <c r="X265">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -23339,34 +23339,34 @@
         <v>905</v>
       </c>
       <c r="O273">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P273">
-        <v>684</v>
+        <v>722</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="R273">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="S273">
-        <v>-13.9</v>
+        <v>-13.7</v>
       </c>
       <c r="T273">
         <v>0.012</v>
       </c>
       <c r="U273">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="V273">
-        <v>0.284</v>
+        <v>0.286</v>
       </c>
       <c r="W273">
-        <v>0.591</v>
+        <v>0.595</v>
       </c>
       <c r="X273">
-        <v>0.256</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="274" spans="1:24">
@@ -24079,34 +24079,34 @@
         <v>921</v>
       </c>
       <c r="O283">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P283">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q283">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="R283">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S283">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="T283">
         <v>0.037</v>
       </c>
       <c r="U283">
-        <v>0.094</v>
+        <v>0.096</v>
       </c>
       <c r="V283">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="W283">
-        <v>0.575</v>
+        <v>0.573</v>
       </c>
       <c r="X283">
-        <v>0.183</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="284" spans="1:24">
@@ -24375,34 +24375,34 @@
         <v>896</v>
       </c>
       <c r="O287">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P287">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="Q287">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="R287">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="S287">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T287">
         <v>0.063</v>
       </c>
       <c r="U287">
-        <v>0.144</v>
+        <v>0.147</v>
       </c>
       <c r="V287">
-        <v>0.254</v>
+        <v>0.253</v>
       </c>
       <c r="W287">
-        <v>0.589</v>
+        <v>0.59</v>
       </c>
       <c r="X287">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -24523,34 +24523,34 @@
         <v>852</v>
       </c>
       <c r="O289">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P289">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q289">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R289">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S289">
-        <v>3.9</v>
+        <v>-0.7</v>
       </c>
       <c r="T289">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="U289">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="V289">
-        <v>0.145</v>
+        <v>0.143</v>
       </c>
       <c r="W289">
-        <v>0.645</v>
+        <v>0.612</v>
       </c>
       <c r="X289">
-        <v>0.096</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="290" spans="1:24">
@@ -24597,7 +24597,7 @@
         <v>852</v>
       </c>
       <c r="O290">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P290">
         <v>0</v>
@@ -24606,25 +24606,25 @@
         <v>3</v>
       </c>
       <c r="R290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S290">
-        <v>-28.6</v>
+        <v>-36.4</v>
       </c>
       <c r="T290">
-        <v>0.125</v>
+        <v>0.111</v>
       </c>
       <c r="U290">
-        <v>0.083</v>
+        <v>0.077</v>
       </c>
       <c r="V290">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="W290">
         <v>0</v>
       </c>
       <c r="X290">
-        <v>0.143</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="291" spans="1:24">
@@ -24866,7 +24866,7 @@
         <v>556</v>
       </c>
       <c r="F294">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G294" t="s">
         <v>583</v>
@@ -25559,34 +25559,34 @@
         <v>917</v>
       </c>
       <c r="O303">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P303">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="Q303">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="R303">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S303">
-        <v>-3.4</v>
+        <v>-4.1</v>
       </c>
       <c r="T303">
         <v>0.047</v>
       </c>
       <c r="U303">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="V303">
         <v>0.177</v>
       </c>
       <c r="W303">
-        <v>0.538</v>
+        <v>0.54</v>
       </c>
       <c r="X303">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="304" spans="1:24">
@@ -26077,19 +26077,19 @@
         <v>875</v>
       </c>
       <c r="O310">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P310">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="Q310">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="R310">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="S310">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T310">
         <v>0.014</v>
@@ -26098,13 +26098,13 @@
         <v>0.152</v>
       </c>
       <c r="V310">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="W310">
-        <v>0.629</v>
+        <v>0.626</v>
       </c>
       <c r="X310">
-        <v>0.197</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="311" spans="1:24">
@@ -26373,34 +26373,34 @@
         <v>894</v>
       </c>
       <c r="O314">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P314">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q314">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="R314">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S314">
-        <v>-1.5</v>
+        <v>-0.4</v>
       </c>
       <c r="T314">
-        <v>0.154</v>
+        <v>0.155</v>
       </c>
       <c r="U314">
-        <v>0.231</v>
+        <v>0.235</v>
       </c>
       <c r="V314">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="W314">
-        <v>0.537</v>
+        <v>0.539</v>
       </c>
       <c r="X314">
-        <v>0.162</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="315" spans="1:24">
@@ -26891,34 +26891,34 @@
         <v>877</v>
       </c>
       <c r="O321">
+        <v>35</v>
+      </c>
+      <c r="P321">
+        <v>160</v>
+      </c>
+      <c r="Q321">
+        <v>82</v>
+      </c>
+      <c r="R321">
         <v>34</v>
       </c>
-      <c r="P321">
-        <v>153</v>
-      </c>
-      <c r="Q321">
-        <v>80</v>
-      </c>
-      <c r="R321">
-        <v>33</v>
-      </c>
       <c r="S321">
-        <v>-8.1</v>
+        <v>-7.8</v>
       </c>
       <c r="T321">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="U321">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="V321">
-        <v>0.135</v>
+        <v>0.137</v>
       </c>
       <c r="W321">
-        <v>0.52</v>
+        <v>0.513</v>
       </c>
       <c r="X321">
-        <v>0.094</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="322" spans="1:24">
@@ -27187,34 +27187,34 @@
         <v>900</v>
       </c>
       <c r="O325">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P325">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="R325">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S325">
-        <v>-20.1</v>
+        <v>-20.2</v>
       </c>
       <c r="T325">
         <v>0.023</v>
       </c>
       <c r="U325">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
       <c r="V325">
         <v>0.253</v>
       </c>
       <c r="W325">
-        <v>0.483</v>
+        <v>0.495</v>
       </c>
       <c r="X325">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="326" spans="1:24">
@@ -27409,34 +27409,34 @@
         <v>890</v>
       </c>
       <c r="O328">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P328">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q328">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R328">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S328">
-        <v>-10.5</v>
+        <v>-10</v>
       </c>
       <c r="T328">
         <v>0.031</v>
       </c>
       <c r="U328">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="V328">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="W328">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="X328">
-        <v>0.121</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="329" spans="1:24">
@@ -28075,7 +28075,7 @@
         <v>852</v>
       </c>
       <c r="O337">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P337">
         <v>197</v>
@@ -28087,22 +28087,22 @@
         <v>37</v>
       </c>
       <c r="S337">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="T337">
         <v>0.022</v>
       </c>
       <c r="U337">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="V337">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="W337">
-        <v>0.513</v>
+        <v>0.508</v>
       </c>
       <c r="X337">
-        <v>0.08500000000000001</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="338" spans="1:24">
@@ -28519,31 +28519,31 @@
         <v>852</v>
       </c>
       <c r="O343">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P343">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Q343">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="R343">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S343">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="T343">
-        <v>0.121</v>
+        <v>0.124</v>
       </c>
       <c r="U343">
-        <v>0.168</v>
+        <v>0.162</v>
       </c>
       <c r="V343">
-        <v>0.097</v>
+        <v>0.101</v>
       </c>
       <c r="W343">
-        <v>0.656</v>
+        <v>0.667</v>
       </c>
       <c r="X343">
         <v>0.117</v>
@@ -28963,34 +28963,34 @@
         <v>902</v>
       </c>
       <c r="O349">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P349">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R349">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S349">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T349">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="U349">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V349">
-        <v>0.219</v>
+        <v>0.217</v>
       </c>
       <c r="W349">
-        <v>0.569</v>
+        <v>0.572</v>
       </c>
       <c r="X349">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="350" spans="1:24">
@@ -29185,34 +29185,34 @@
         <v>897</v>
       </c>
       <c r="O352">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P352">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q352">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="R352">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S352">
-        <v>-1.8</v>
+        <v>-2.6</v>
       </c>
       <c r="T352">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U352">
-        <v>0.052</v>
+        <v>0.059</v>
       </c>
       <c r="V352">
         <v>0.171</v>
       </c>
       <c r="W352">
-        <v>0.594</v>
+        <v>0.6</v>
       </c>
       <c r="X352">
-        <v>0.223</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="353" spans="1:24">
@@ -29629,31 +29629,31 @@
         <v>898</v>
       </c>
       <c r="O358">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P358">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q358">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="R358">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S358">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="T358">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="U358">
         <v>0.256</v>
       </c>
       <c r="V358">
-        <v>0.103</v>
+        <v>0.102</v>
       </c>
       <c r="W358">
-        <v>0.597</v>
+        <v>0.603</v>
       </c>
       <c r="X358">
         <v>0.141</v>
@@ -29925,34 +29925,34 @@
         <v>852</v>
       </c>
       <c r="O362">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P362">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q362">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R362">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S362">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T362">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="U362">
-        <v>0.116</v>
+        <v>0.118</v>
       </c>
       <c r="V362">
-        <v>0.145</v>
+        <v>0.141</v>
       </c>
       <c r="W362">
-        <v>0.58</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="X362">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="363" spans="1:24">
@@ -30369,19 +30369,19 @@
         <v>878</v>
       </c>
       <c r="O368">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P368">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q368">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R368">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="S368">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="T368">
         <v>0.019</v>
@@ -30393,10 +30393,10 @@
         <v>0.151</v>
       </c>
       <c r="W368">
-        <v>0.527</v>
+        <v>0.53</v>
       </c>
       <c r="X368">
-        <v>0.245</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="369" spans="1:24">
@@ -30665,7 +30665,7 @@
         <v>903</v>
       </c>
       <c r="O372">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P372">
         <v>175</v>
@@ -30677,22 +30677,22 @@
         <v>59</v>
       </c>
       <c r="S372">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="T372">
         <v>0.022</v>
       </c>
       <c r="U372">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V372">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="W372">
-        <v>0.538</v>
+        <v>0.535</v>
       </c>
       <c r="X372">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="373" spans="1:24">
@@ -30887,34 +30887,34 @@
         <v>879</v>
       </c>
       <c r="O375">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P375">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="Q375">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R375">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S375">
-        <v>-0.9</v>
+        <v>0.1</v>
       </c>
       <c r="T375">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="U375">
-        <v>0.082</v>
+        <v>0.079</v>
       </c>
       <c r="V375">
-        <v>0.189</v>
+        <v>0.185</v>
       </c>
       <c r="W375">
-        <v>0.57</v>
+        <v>0.577</v>
       </c>
       <c r="X375">
-        <v>0.077</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="376" spans="1:24">
@@ -31109,34 +31109,34 @@
         <v>914</v>
       </c>
       <c r="O378">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P378">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="Q378">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="R378">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S378">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="T378">
         <v>0.047</v>
       </c>
       <c r="U378">
-        <v>0.174</v>
+        <v>0.176</v>
       </c>
       <c r="V378">
-        <v>0.205</v>
+        <v>0.207</v>
       </c>
       <c r="W378">
-        <v>0.608</v>
+        <v>0.607</v>
       </c>
       <c r="X378">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="379" spans="1:24">
@@ -31257,7 +31257,7 @@
         <v>852</v>
       </c>
       <c r="O380">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P380">
         <v>16</v>
@@ -31269,22 +31269,22 @@
         <v>1</v>
       </c>
       <c r="S380">
-        <v>13</v>
+        <v>19.7</v>
       </c>
       <c r="T380">
         <v>0</v>
       </c>
       <c r="U380">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="V380">
-        <v>0.213</v>
+        <v>0.189</v>
       </c>
       <c r="W380">
         <v>0.889</v>
       </c>
       <c r="X380">
-        <v>0.091</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="381" spans="1:24">
@@ -31331,34 +31331,34 @@
         <v>852</v>
       </c>
       <c r="O381">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P381">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="Q381">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R381">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S381">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="T381">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U381">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="V381">
         <v>0.209</v>
       </c>
       <c r="W381">
-        <v>0.595</v>
+        <v>0.597</v>
       </c>
       <c r="X381">
-        <v>0.107</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="382" spans="1:24">
@@ -31405,34 +31405,34 @@
         <v>929</v>
       </c>
       <c r="O382">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P382">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="R382">
         <v>20</v>
       </c>
       <c r="S382">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="T382">
-        <v>0.105</v>
+        <v>0.101</v>
       </c>
       <c r="U382">
-        <v>0.165</v>
+        <v>0.163</v>
       </c>
       <c r="V382">
-        <v>0.132</v>
+        <v>0.128</v>
       </c>
       <c r="W382">
-        <v>0.6850000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="X382">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="383" spans="1:24">
@@ -31553,34 +31553,34 @@
         <v>907</v>
       </c>
       <c r="O384">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P384">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q384">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="R384">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S384">
-        <v>-7.9</v>
+        <v>-5.1</v>
       </c>
       <c r="T384">
-        <v>0.106</v>
+        <v>0.109</v>
       </c>
       <c r="U384">
-        <v>0.228</v>
+        <v>0.227</v>
       </c>
       <c r="V384">
         <v>0.173</v>
       </c>
       <c r="W384">
-        <v>0.614</v>
+        <v>0.633</v>
       </c>
       <c r="X384">
-        <v>0.101</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="385" spans="1:24">
@@ -31701,31 +31701,31 @@
         <v>921</v>
       </c>
       <c r="O386">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P386">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q386">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R386">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S386">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="T386">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="U386">
         <v>0.092</v>
       </c>
       <c r="V386">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="W386">
-        <v>0.609</v>
+        <v>0.592</v>
       </c>
       <c r="X386">
         <v>0.153</v>
@@ -32293,34 +32293,34 @@
         <v>918</v>
       </c>
       <c r="O394">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P394">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q394">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="R394">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S394">
-        <v>-3.4</v>
+        <v>-3.5</v>
       </c>
       <c r="T394">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="U394">
-        <v>0.164</v>
+        <v>0.163</v>
       </c>
       <c r="V394">
         <v>0.179</v>
       </c>
       <c r="W394">
-        <v>0.647</v>
+        <v>0.643</v>
       </c>
       <c r="X394">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="395" spans="1:24">
@@ -32515,31 +32515,31 @@
         <v>891</v>
       </c>
       <c r="O397">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P397">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="Q397">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="R397">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S397">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="T397">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="U397">
         <v>0.19</v>
       </c>
       <c r="V397">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="W397">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="X397">
         <v>0.109</v>
@@ -32737,34 +32737,34 @@
         <v>909</v>
       </c>
       <c r="O400">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P400">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q400">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R400">
         <v>33</v>
       </c>
       <c r="S400">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="T400">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="U400">
-        <v>0.153</v>
+        <v>0.152</v>
       </c>
       <c r="V400">
         <v>0.106</v>
       </c>
       <c r="W400">
-        <v>0.579</v>
+        <v>0.574</v>
       </c>
       <c r="X400">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="401" spans="1:24">
@@ -33255,34 +33255,34 @@
         <v>900</v>
       </c>
       <c r="O407">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P407">
-        <v>845</v>
+        <v>866</v>
       </c>
       <c r="Q407">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="R407">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="S407">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T407">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="U407">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="V407">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="W407">
-        <v>0.609</v>
+        <v>0.608</v>
       </c>
       <c r="X407">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="408" spans="1:24">
@@ -33773,34 +33773,34 @@
         <v>893</v>
       </c>
       <c r="O414">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P414">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q414">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R414">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S414">
-        <v>10.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T414">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U414">
-        <v>0.156</v>
+        <v>0.159</v>
       </c>
       <c r="V414">
-        <v>0.168</v>
+        <v>0.169</v>
       </c>
       <c r="W414">
-        <v>0.64</v>
+        <v>0.646</v>
       </c>
       <c r="X414">
-        <v>0.122</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="415" spans="1:24">
@@ -33847,34 +33847,34 @@
         <v>895</v>
       </c>
       <c r="O415">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P415">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="Q415">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="R415">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S415">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="T415">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U415">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
       <c r="V415">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="W415">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="X415">
-        <v>0.178</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="416" spans="1:24">
@@ -33995,10 +33995,10 @@
         <v>852</v>
       </c>
       <c r="O417">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P417">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q417">
         <v>2</v>
@@ -34007,22 +34007,22 @@
         <v>1</v>
       </c>
       <c r="S417">
-        <v>-14.8</v>
+        <v>-11</v>
       </c>
       <c r="T417">
         <v>0</v>
       </c>
       <c r="U417">
-        <v>0.1</v>
+        <v>0.077</v>
       </c>
       <c r="V417">
-        <v>0.077</v>
+        <v>0.09</v>
       </c>
       <c r="W417">
-        <v>0.375</v>
+        <v>0.595</v>
       </c>
       <c r="X417">
-        <v>0.077</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="418" spans="1:24">
@@ -34587,7 +34587,7 @@
         <v>852</v>
       </c>
       <c r="O425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P425">
         <v>2</v>
@@ -34599,7 +34599,7 @@
         <v>0</v>
       </c>
       <c r="S425">
-        <v>-16.7</v>
+        <v>12.5</v>
       </c>
       <c r="T425">
         <v>0</v>
@@ -34608,7 +34608,7 @@
         <v>0</v>
       </c>
       <c r="V425">
-        <v>0.429</v>
+        <v>0.333</v>
       </c>
       <c r="W425">
         <v>0.532</v>
@@ -34661,7 +34661,7 @@
         <v>926</v>
       </c>
       <c r="O426">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P426">
         <v>84</v>
@@ -34673,7 +34673,7 @@
         <v>14</v>
       </c>
       <c r="S426">
-        <v>-11.4</v>
+        <v>-12.3</v>
       </c>
       <c r="T426">
         <v>0.063</v>
@@ -34682,13 +34682,13 @@
         <v>0.074</v>
       </c>
       <c r="V426">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="W426">
-        <v>0.518</v>
+        <v>0.512</v>
       </c>
       <c r="X426">
-        <v>0.08</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="427" spans="1:24">
@@ -34809,34 +34809,34 @@
         <v>883</v>
       </c>
       <c r="O428">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P428">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q428">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R428">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S428">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="T428">
         <v>0.025</v>
       </c>
       <c r="U428">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V428">
-        <v>0.158</v>
+        <v>0.159</v>
       </c>
       <c r="W428">
-        <v>0.404</v>
+        <v>0.407</v>
       </c>
       <c r="X428">
-        <v>0.135</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="429" spans="1:24">
@@ -35031,34 +35031,34 @@
         <v>852</v>
       </c>
       <c r="O431">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P431">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Q431">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="R431">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S431">
-        <v>-8.9</v>
+        <v>-8.6</v>
       </c>
       <c r="T431">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="U431">
-        <v>0.121</v>
+        <v>0.126</v>
       </c>
       <c r="V431">
-        <v>0.187</v>
+        <v>0.193</v>
       </c>
       <c r="W431">
-        <v>0.541</v>
+        <v>0.532</v>
       </c>
       <c r="X431">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="432" spans="1:24">
@@ -35179,34 +35179,34 @@
         <v>918</v>
       </c>
       <c r="O433">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P433">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="Q433">
         <v>12</v>
       </c>
       <c r="R433">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S433">
-        <v>-14.1</v>
+        <v>-11.7</v>
       </c>
       <c r="T433">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="U433">
-        <v>0.07199999999999999</v>
+        <v>0.064</v>
       </c>
       <c r="V433">
-        <v>0.218</v>
+        <v>0.223</v>
       </c>
       <c r="W433">
-        <v>0.5610000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X433">
-        <v>0.326</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="434" spans="1:24">
@@ -35253,34 +35253,34 @@
         <v>900</v>
       </c>
       <c r="O434">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P434">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q434">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R434">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S434">
-        <v>-5.6</v>
+        <v>-8</v>
       </c>
       <c r="T434">
-        <v>0.096</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="U434">
-        <v>0.199</v>
+        <v>0.192</v>
       </c>
       <c r="V434">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="W434">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="X434">
-        <v>0.101</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="435" spans="1:24">
@@ -35327,34 +35327,34 @@
         <v>885</v>
       </c>
       <c r="O435">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P435">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q435">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R435">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S435">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="T435">
         <v>0.031</v>
       </c>
       <c r="U435">
-        <v>0.147</v>
+        <v>0.146</v>
       </c>
       <c r="V435">
         <v>0.175</v>
       </c>
       <c r="W435">
-        <v>0.553</v>
+        <v>0.556</v>
       </c>
       <c r="X435">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="436" spans="1:24">
@@ -35401,25 +35401,25 @@
         <v>852</v>
       </c>
       <c r="O436">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P436">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q436">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="R436">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S436">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="T436">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="U436">
-        <v>0.169</v>
+        <v>0.171</v>
       </c>
       <c r="V436">
         <v>0.156</v>
@@ -35428,7 +35428,7 @@
         <v>0.604</v>
       </c>
       <c r="X436">
-        <v>0.132</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="437" spans="1:24">
@@ -35475,34 +35475,34 @@
         <v>900</v>
       </c>
       <c r="O437">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P437">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="Q437">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="R437">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S437">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T437">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="U437">
-        <v>0.203</v>
+        <v>0.205</v>
       </c>
       <c r="V437">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="W437">
-        <v>0.662</v>
+        <v>0.669</v>
       </c>
       <c r="X437">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="438" spans="1:24">
@@ -35697,34 +35697,34 @@
         <v>905</v>
       </c>
       <c r="O440">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P440">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Q440">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="R440">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S440">
-        <v>-1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="T440">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="U440">
         <v>0.111</v>
       </c>
       <c r="V440">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="W440">
-        <v>0.555</v>
+        <v>0.55</v>
       </c>
       <c r="X440">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="441" spans="1:24">
@@ -35845,19 +35845,19 @@
         <v>852</v>
       </c>
       <c r="O442">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P442">
         <v>254</v>
       </c>
       <c r="Q442">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="R442">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S442">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="T442">
         <v>0.034</v>
@@ -35869,10 +35869,10 @@
         <v>0.14</v>
       </c>
       <c r="W442">
-        <v>0.591</v>
+        <v>0.572</v>
       </c>
       <c r="X442">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="443" spans="1:24">
@@ -35919,34 +35919,34 @@
         <v>932</v>
       </c>
       <c r="O443">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P443">
         <v>221</v>
       </c>
       <c r="Q443">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R443">
         <v>55</v>
       </c>
       <c r="S443">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="T443">
         <v>0.019</v>
       </c>
       <c r="U443">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V443">
         <v>0.15</v>
       </c>
       <c r="W443">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
       <c r="X443">
-        <v>0.119</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="444" spans="1:24">
@@ -36141,34 +36141,34 @@
         <v>883</v>
       </c>
       <c r="O446">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P446">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="Q446">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R446">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="S446">
-        <v>-9.800000000000001</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="T446">
         <v>0.023</v>
       </c>
       <c r="U446">
-        <v>0.08400000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="V446">
         <v>0.217</v>
       </c>
       <c r="W446">
-        <v>0.531</v>
+        <v>0.539</v>
       </c>
       <c r="X446">
-        <v>0.277</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="447" spans="1:24">
@@ -36437,34 +36437,34 @@
         <v>896</v>
       </c>
       <c r="O450">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P450">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="Q450">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="R450">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S450">
-        <v>-9.199999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="T450">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="U450">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="V450">
-        <v>0.243</v>
+        <v>0.244</v>
       </c>
       <c r="W450">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="X450">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="451" spans="1:24">
@@ -36733,22 +36733,22 @@
         <v>852</v>
       </c>
       <c r="O454">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P454">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q454">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R454">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S454">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="T454">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="U454">
         <v>0.124</v>
@@ -36757,10 +36757,10 @@
         <v>0.153</v>
       </c>
       <c r="W454">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="X454">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="455" spans="1:24">
@@ -37029,34 +37029,34 @@
         <v>896</v>
       </c>
       <c r="O458">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P458">
-        <v>734</v>
+        <v>760</v>
       </c>
       <c r="Q458">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="R458">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="S458">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T458">
         <v>0.015</v>
       </c>
       <c r="U458">
-        <v>0.134</v>
+        <v>0.133</v>
       </c>
       <c r="V458">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
       <c r="W458">
-        <v>0.62</v>
+        <v>0.618</v>
       </c>
       <c r="X458">
-        <v>0.283</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="459" spans="1:24">
@@ -37177,34 +37177,34 @@
         <v>884</v>
       </c>
       <c r="O460">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P460">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q460">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="R460">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S460">
-        <v>8.9</v>
+        <v>10.3</v>
       </c>
       <c r="T460">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="U460">
-        <v>0.207</v>
+        <v>0.209</v>
       </c>
       <c r="V460">
+        <v>0.122</v>
+      </c>
+      <c r="W460">
+        <v>0.553</v>
+      </c>
+      <c r="X460">
         <v>0.126</v>
-      </c>
-      <c r="W460">
-        <v>0.572</v>
-      </c>
-      <c r="X460">
-        <v>0.124</v>
       </c>
     </row>
     <row r="461" spans="1:24">
@@ -37322,34 +37322,34 @@
         <v>876</v>
       </c>
       <c r="O462">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P462">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="Q462">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R462">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="S462">
-        <v>-4.4</v>
+        <v>-3.7</v>
       </c>
       <c r="T462">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="U462">
         <v>0.103</v>
       </c>
       <c r="V462">
-        <v>0.23</v>
+        <v>0.229</v>
       </c>
       <c r="W462">
-        <v>0.556</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="X462">
-        <v>0.332</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="463" spans="1:24">
@@ -37544,34 +37544,34 @@
         <v>921</v>
       </c>
       <c r="O465">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P465">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="R465">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S465">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="T465">
-        <v>0.081</v>
+        <v>0.082</v>
       </c>
       <c r="U465">
-        <v>0.164</v>
+        <v>0.166</v>
       </c>
       <c r="V465">
         <v>0.189</v>
       </c>
       <c r="W465">
-        <v>0.5610000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X465">
-        <v>0.064</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="466" spans="1:24">
@@ -38062,31 +38062,31 @@
         <v>907</v>
       </c>
       <c r="O472">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P472">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q472">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="R472">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S472">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T472">
-        <v>0.089</v>
+        <v>0.094</v>
       </c>
       <c r="U472">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="V472">
-        <v>0.146</v>
+        <v>0.148</v>
       </c>
       <c r="W472">
-        <v>0.65</v>
+        <v>0.663</v>
       </c>
       <c r="X472">
         <v>0.06900000000000001</v>
@@ -38210,19 +38210,19 @@
         <v>890</v>
       </c>
       <c r="O474">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P474">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="Q474">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R474">
         <v>57</v>
       </c>
       <c r="S474">
-        <v>-5.1</v>
+        <v>-5.2</v>
       </c>
       <c r="T474">
         <v>0.007</v>
@@ -38234,10 +38234,10 @@
         <v>0.152</v>
       </c>
       <c r="W474">
-        <v>0.593</v>
+        <v>0.591</v>
       </c>
       <c r="X474">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="475" spans="1:24">
@@ -38284,31 +38284,31 @@
         <v>902</v>
       </c>
       <c r="O475">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P475">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="Q475">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="R475">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S475">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="T475">
         <v>0.031</v>
       </c>
       <c r="U475">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="V475">
         <v>0.174</v>
       </c>
       <c r="W475">
-        <v>0.55</v>
+        <v>0.554</v>
       </c>
       <c r="X475">
         <v>0.108</v>
@@ -38506,34 +38506,34 @@
         <v>930</v>
       </c>
       <c r="O478">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P478">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="Q478">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="R478">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S478">
-        <v>-9.4</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="T478">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="U478">
-        <v>0.103</v>
+        <v>0.102</v>
       </c>
       <c r="V478">
-        <v>0.14</v>
+        <v>0.142</v>
       </c>
       <c r="W478">
-        <v>0.53</v>
+        <v>0.532</v>
       </c>
       <c r="X478">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="479" spans="1:24">
@@ -38580,16 +38580,16 @@
         <v>885</v>
       </c>
       <c r="O479">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P479">
-        <v>854</v>
+        <v>882</v>
       </c>
       <c r="Q479">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R479">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="S479">
         <v>1.2</v>
@@ -38601,13 +38601,13 @@
         <v>0.078</v>
       </c>
       <c r="V479">
-        <v>0.272</v>
+        <v>0.273</v>
       </c>
       <c r="W479">
-        <v>0.5649999999999999</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="X479">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="480" spans="1:24">
@@ -38654,34 +38654,34 @@
         <v>928</v>
       </c>
       <c r="O480">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P480">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q480">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="R480">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S480">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="T480">
-        <v>0.104</v>
+        <v>0.107</v>
       </c>
       <c r="U480">
-        <v>0.188</v>
+        <v>0.193</v>
       </c>
       <c r="V480">
         <v>0.164</v>
       </c>
       <c r="W480">
-        <v>0.589</v>
+        <v>0.585</v>
       </c>
       <c r="X480">
-        <v>0.163</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="481" spans="1:24">
@@ -39690,34 +39690,34 @@
         <v>890</v>
       </c>
       <c r="O494">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P494">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q494">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R494">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S494">
-        <v>7.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="T494">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="U494">
-        <v>0.08400000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V494">
         <v>0.215</v>
       </c>
       <c r="W494">
-        <v>0.633</v>
+        <v>0.639</v>
       </c>
       <c r="X494">
-        <v>0.268</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="495" spans="1:24">
@@ -40060,19 +40060,19 @@
         <v>884</v>
       </c>
       <c r="O499">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P499">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="Q499">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="R499">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="S499">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T499">
         <v>0.019</v>
@@ -40084,10 +40084,10 @@
         <v>0.209</v>
       </c>
       <c r="W499">
-        <v>0.589</v>
+        <v>0.586</v>
       </c>
       <c r="X499">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="500" spans="1:24">
@@ -40208,25 +40208,25 @@
         <v>904</v>
       </c>
       <c r="O501">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P501">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="Q501">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R501">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S501">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="T501">
         <v>0.007</v>
       </c>
       <c r="U501">
-        <v>0.092</v>
+        <v>0.09</v>
       </c>
       <c r="V501">
         <v>0.299</v>
@@ -40235,7 +40235,7 @@
         <v>0.547</v>
       </c>
       <c r="X501">
-        <v>0.277</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="502" spans="1:24">
@@ -40282,19 +40282,19 @@
         <v>890</v>
       </c>
       <c r="O502">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P502">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q502">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R502">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="S502">
-        <v>-3.2</v>
+        <v>-2.8</v>
       </c>
       <c r="T502">
         <v>0.019</v>
@@ -40303,13 +40303,13 @@
         <v>0.062</v>
       </c>
       <c r="V502">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="W502">
-        <v>0.604</v>
+        <v>0.603</v>
       </c>
       <c r="X502">
-        <v>0.288</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="503" spans="1:24">
@@ -40726,34 +40726,34 @@
         <v>899</v>
       </c>
       <c r="O508">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P508">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q508">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R508">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S508">
         <v>-0.3</v>
       </c>
       <c r="T508">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="U508">
-        <v>0.108</v>
+        <v>0.104</v>
       </c>
       <c r="V508">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="W508">
-        <v>0.544</v>
+        <v>0.537</v>
       </c>
       <c r="X508">
-        <v>0.192</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="509" spans="1:24">

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -6032,31 +6032,31 @@
         <v>879</v>
       </c>
       <c r="O39">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P39">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="Q39">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="R39">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="S39">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T39">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="U39">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="V39">
-        <v>0.224</v>
+        <v>0.223</v>
       </c>
       <c r="W39">
-        <v>0.523</v>
+        <v>0.52</v>
       </c>
       <c r="X39">
         <v>0.216</v>
@@ -6476,34 +6476,34 @@
         <v>897</v>
       </c>
       <c r="O45">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P45">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R45">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S45">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T45">
         <v>0.024</v>
       </c>
       <c r="U45">
-        <v>0.055</v>
+        <v>0.058</v>
       </c>
       <c r="V45">
-        <v>0.178</v>
+        <v>0.181</v>
       </c>
       <c r="W45">
-        <v>0.51</v>
+        <v>0.516</v>
       </c>
       <c r="X45">
-        <v>0.249</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -9066,34 +9066,34 @@
         <v>912</v>
       </c>
       <c r="O80">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P80">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q80">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="R80">
         <v>12</v>
       </c>
       <c r="S80">
-        <v>-11.3</v>
+        <v>-11.8</v>
       </c>
       <c r="T80">
-        <v>0.136</v>
+        <v>0.133</v>
       </c>
       <c r="U80">
-        <v>0.237</v>
+        <v>0.242</v>
       </c>
       <c r="V80">
-        <v>0.171</v>
+        <v>0.168</v>
       </c>
       <c r="W80">
-        <v>0.601</v>
+        <v>0.599</v>
       </c>
       <c r="X80">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -9436,34 +9436,34 @@
         <v>878</v>
       </c>
       <c r="O85">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P85">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Q85">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="R85">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="S85">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="T85">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="U85">
         <v>0.119</v>
       </c>
       <c r="V85">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="W85">
-        <v>0.576</v>
+        <v>0.58</v>
       </c>
       <c r="X85">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -13432,34 +13432,34 @@
         <v>914</v>
       </c>
       <c r="O139">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P139">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="Q139">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="R139">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S139">
-        <v>-9.800000000000001</v>
+        <v>-11</v>
       </c>
       <c r="T139">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="U139">
         <v>0.094</v>
       </c>
       <c r="V139">
-        <v>0.232</v>
+        <v>0.233</v>
       </c>
       <c r="W139">
         <v>0.545</v>
       </c>
       <c r="X139">
-        <v>0.173</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="140" spans="1:24">
@@ -14468,34 +14468,34 @@
         <v>852</v>
       </c>
       <c r="O153">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P153">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="Q153">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="R153">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S153">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="U153">
-        <v>0.08599999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V153">
         <v>0.195</v>
       </c>
       <c r="W153">
-        <v>0.5620000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="X153">
-        <v>0.175</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="154" spans="1:24">
@@ -16392,34 +16392,34 @@
         <v>896</v>
       </c>
       <c r="O179">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P179">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="Q179">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="R179">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S179">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="T179">
         <v>0.048</v>
       </c>
       <c r="U179">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
       <c r="V179">
         <v>0.144</v>
       </c>
       <c r="W179">
-        <v>0.627</v>
+        <v>0.623</v>
       </c>
       <c r="X179">
-        <v>0.08400000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:24">
@@ -16534,34 +16534,34 @@
         <v>855</v>
       </c>
       <c r="O181">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P181">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q181">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="R181">
         <v>48</v>
       </c>
       <c r="S181">
-        <v>-2</v>
+        <v>-2.4</v>
       </c>
       <c r="T181">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="U181">
         <v>0.094</v>
       </c>
       <c r="V181">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="W181">
-        <v>0.614</v>
+        <v>0.611</v>
       </c>
       <c r="X181">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:24">
@@ -18606,34 +18606,34 @@
         <v>920</v>
       </c>
       <c r="O209">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P209">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="Q209">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="R209">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S209">
-        <v>-6.2</v>
+        <v>-6</v>
       </c>
       <c r="T209">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="U209">
-        <v>0.14</v>
+        <v>0.141</v>
       </c>
       <c r="V209">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="W209">
-        <v>0.526</v>
+        <v>0.533</v>
       </c>
       <c r="X209">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="210" spans="1:24">
@@ -22081,34 +22081,34 @@
         <v>894</v>
       </c>
       <c r="O256">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P256">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="Q256">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="R256">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="S256">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="T256">
-        <v>0.075</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U256">
-        <v>0.103</v>
+        <v>0.102</v>
       </c>
       <c r="V256">
-        <v>0.205</v>
+        <v>0.202</v>
       </c>
       <c r="W256">
-        <v>0.642</v>
+        <v>0.639</v>
       </c>
       <c r="X256">
-        <v>0.226</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="257" spans="1:24">
@@ -23561,7 +23561,7 @@
         <v>890</v>
       </c>
       <c r="O276">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P276">
         <v>5</v>
@@ -23573,22 +23573,22 @@
         <v>4</v>
       </c>
       <c r="S276">
-        <v>-1.4</v>
+        <v>-5.4</v>
       </c>
       <c r="T276">
         <v>0</v>
       </c>
       <c r="U276">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="V276">
-        <v>0.182</v>
+        <v>0.192</v>
       </c>
       <c r="W276">
-        <v>0.644</v>
+        <v>0.425</v>
       </c>
       <c r="X276">
-        <v>0.235</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="277" spans="1:24">
@@ -24153,34 +24153,34 @@
         <v>852</v>
       </c>
       <c r="O284">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P284">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Q284">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R284">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S284">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="T284">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="U284">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="V284">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="W284">
-        <v>0.582</v>
+        <v>0.576</v>
       </c>
       <c r="X284">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="285" spans="1:24">
@@ -25337,34 +25337,34 @@
         <v>917</v>
       </c>
       <c r="O300">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P300">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="Q300">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R300">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S300">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="T300">
-        <v>0.06900000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="U300">
-        <v>0.193</v>
+        <v>0.185</v>
       </c>
       <c r="V300">
-        <v>0.181</v>
+        <v>0.189</v>
       </c>
       <c r="W300">
-        <v>0.65</v>
+        <v>0.643</v>
       </c>
       <c r="X300">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="301" spans="1:24">
@@ -25411,19 +25411,19 @@
         <v>919</v>
       </c>
       <c r="O301">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P301">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Q301">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="R301">
         <v>55</v>
       </c>
       <c r="S301">
-        <v>-7</v>
+        <v>-7.7</v>
       </c>
       <c r="T301">
         <v>0.048</v>
@@ -25432,13 +25432,13 @@
         <v>0.144</v>
       </c>
       <c r="V301">
-        <v>0.204</v>
+        <v>0.203</v>
       </c>
       <c r="W301">
-        <v>0.553</v>
+        <v>0.551</v>
       </c>
       <c r="X301">
-        <v>0.097</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="302" spans="1:24">
@@ -25929,25 +25929,25 @@
         <v>852</v>
       </c>
       <c r="O308">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P308">
         <v>14</v>
       </c>
       <c r="Q308">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S308">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="T308">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="U308">
-        <v>0.203</v>
+        <v>0.212</v>
       </c>
       <c r="V308">
         <v>0.125</v>
@@ -25956,7 +25956,7 @@
         <v>0.595</v>
       </c>
       <c r="X308">
-        <v>0.056</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="309" spans="1:24">
@@ -28741,7 +28741,7 @@
         <v>913</v>
       </c>
       <c r="O346">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P346">
         <v>130</v>
@@ -28753,22 +28753,22 @@
         <v>26</v>
       </c>
       <c r="S346">
-        <v>-14.6</v>
+        <v>-14.1</v>
       </c>
       <c r="T346">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="U346">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="V346">
-        <v>0.222</v>
+        <v>0.221</v>
       </c>
       <c r="W346">
-        <v>0.5570000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="X346">
-        <v>0.159</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="347" spans="1:24">
@@ -31923,34 +31923,34 @@
         <v>900</v>
       </c>
       <c r="O389">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P389">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="Q389">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R389">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S389">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="T389">
         <v>0.028</v>
       </c>
       <c r="U389">
-        <v>0.139</v>
+        <v>0.137</v>
       </c>
       <c r="V389">
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
       <c r="W389">
-        <v>0.583</v>
+        <v>0.591</v>
       </c>
       <c r="X389">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="390" spans="1:24">
@@ -33921,10 +33921,10 @@
         <v>901</v>
       </c>
       <c r="O416">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P416">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q416">
         <v>38</v>
@@ -33933,19 +33933,19 @@
         <v>27</v>
       </c>
       <c r="S416">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="T416">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U416">
         <v>0.081</v>
       </c>
       <c r="V416">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="W416">
-        <v>0.5629999999999999</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="X416">
         <v>0.121</v>
@@ -35993,34 +35993,34 @@
         <v>933</v>
       </c>
       <c r="O444">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P444">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q444">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R444">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S444">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="T444">
-        <v>0.066</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U444">
-        <v>0.209</v>
+        <v>0.203</v>
       </c>
       <c r="V444">
         <v>0.177</v>
       </c>
       <c r="W444">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="X444">
-        <v>0.063</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="445" spans="1:24">
@@ -36659,34 +36659,34 @@
         <v>901</v>
       </c>
       <c r="O453">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P453">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q453">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R453">
         <v>6</v>
       </c>
       <c r="S453">
-        <v>-4.4</v>
+        <v>-2.1</v>
       </c>
       <c r="T453">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="U453">
-        <v>0.115</v>
+        <v>0.127</v>
       </c>
       <c r="V453">
-        <v>0.163</v>
+        <v>0.171</v>
       </c>
       <c r="W453">
-        <v>0.508</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X453">
-        <v>0.231</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="454" spans="1:24">
@@ -37103,34 +37103,34 @@
         <v>878</v>
       </c>
       <c r="O459">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P459">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="Q459">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="R459">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S459">
-        <v>-1.1</v>
+        <v>-1.7</v>
       </c>
       <c r="T459">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="U459">
-        <v>0.067</v>
+        <v>0.066</v>
       </c>
       <c r="V459">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="W459">
-        <v>0.491</v>
+        <v>0.494</v>
       </c>
       <c r="X459">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="460" spans="1:24">
@@ -37988,34 +37988,34 @@
         <v>886</v>
       </c>
       <c r="O471">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P471">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="Q471">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="R471">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="S471">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="T471">
         <v>0.023</v>
       </c>
       <c r="U471">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="V471">
-        <v>0.196</v>
+        <v>0.197</v>
       </c>
       <c r="W471">
-        <v>0.513</v>
+        <v>0.518</v>
       </c>
       <c r="X471">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="472" spans="1:24">
@@ -38728,34 +38728,34 @@
         <v>881</v>
       </c>
       <c r="O481">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P481">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q481">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R481">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S481">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="T481">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U481">
-        <v>0.08699999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="V481">
-        <v>0.104</v>
+        <v>0.105</v>
       </c>
       <c r="W481">
-        <v>0.529</v>
+        <v>0.533</v>
       </c>
       <c r="X481">
-        <v>0.302</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="482" spans="1:24">
@@ -39838,31 +39838,31 @@
         <v>915</v>
       </c>
       <c r="O496">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P496">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="Q496">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="R496">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="S496">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="T496">
         <v>0.008999999999999999</v>
       </c>
       <c r="U496">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="V496">
-        <v>0.262</v>
+        <v>0.26</v>
       </c>
       <c r="W496">
-        <v>0.625</v>
+        <v>0.626</v>
       </c>
       <c r="X496">
         <v>0.238</v>
@@ -40504,19 +40504,19 @@
         <v>874</v>
       </c>
       <c r="O505">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P505">
-        <v>859</v>
+        <v>880</v>
       </c>
       <c r="Q505">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="R505">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="S505">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="T505">
         <v>0.054</v>
@@ -40525,10 +40525,10 @@
         <v>0.246</v>
       </c>
       <c r="V505">
-        <v>0.307</v>
+        <v>0.309</v>
       </c>
       <c r="W505">
-        <v>0.594</v>
+        <v>0.592</v>
       </c>
       <c r="X505">
         <v>0.192</v>
@@ -41318,34 +41318,34 @@
         <v>906</v>
       </c>
       <c r="O516">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P516">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q516">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R516">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S516">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="T516">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="U516">
         <v>0.144</v>
       </c>
       <c r="V516">
-        <v>0.172</v>
+        <v>0.169</v>
       </c>
       <c r="W516">
-        <v>0.555</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="X516">
-        <v>0.172</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="517" spans="1:24">

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -3516,34 +3516,34 @@
         <v>878</v>
       </c>
       <c r="O5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q5">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R5">
         <v>57</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="T5">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="U5">
         <v>0.131</v>
       </c>
       <c r="V5">
-        <v>0.175</v>
+        <v>0.176</v>
       </c>
       <c r="W5">
-        <v>0.638</v>
+        <v>0.642</v>
       </c>
       <c r="X5">
-        <v>0.133</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -3738,16 +3738,16 @@
         <v>880</v>
       </c>
       <c r="O8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Q8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R8">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S8">
         <v>13.6</v>
@@ -3759,13 +3759,13 @@
         <v>0.108</v>
       </c>
       <c r="V8">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="W8">
-        <v>0.599</v>
+        <v>0.597</v>
       </c>
       <c r="X8">
-        <v>0.097</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -3812,31 +3812,31 @@
         <v>852</v>
       </c>
       <c r="O9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9">
         <v>15</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="T9">
-        <v>0.031</v>
+        <v>0.041</v>
       </c>
       <c r="U9">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V9">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="W9">
-        <v>0.259</v>
+        <v>0.242</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -3960,34 +3960,34 @@
         <v>881</v>
       </c>
       <c r="O11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q11">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
-        <v>-5.7</v>
+        <v>-7.3</v>
       </c>
       <c r="T11">
-        <v>0.093</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="U11">
-        <v>0.159</v>
+        <v>0.164</v>
       </c>
       <c r="V11">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="W11">
         <v>0.754</v>
       </c>
       <c r="X11">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -4256,31 +4256,31 @@
         <v>852</v>
       </c>
       <c r="O15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q15">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R15">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S15">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="T15">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U15">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="V15">
-        <v>0.137</v>
+        <v>0.138</v>
       </c>
       <c r="W15">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="X15">
         <v>0.161</v>
@@ -4330,31 +4330,31 @@
         <v>852</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
         <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>2</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
-        <v>-21.1</v>
+        <v>-18.9</v>
       </c>
       <c r="T16">
-        <v>0.033</v>
+        <v>0.029</v>
       </c>
       <c r="U16">
-        <v>0.03</v>
+        <v>0.051</v>
       </c>
       <c r="V16">
-        <v>0.094</v>
+        <v>0.133</v>
       </c>
       <c r="W16">
-        <v>0.25</v>
+        <v>0.667</v>
       </c>
       <c r="X16">
         <v>0.056</v>
@@ -4404,31 +4404,31 @@
         <v>885</v>
       </c>
       <c r="O17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P17">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q17">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S17">
-        <v>-15.1</v>
+        <v>-13.2</v>
       </c>
       <c r="T17">
-        <v>0.08799999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="U17">
-        <v>0.157</v>
+        <v>0.148</v>
       </c>
       <c r="V17">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
       <c r="W17">
-        <v>0.547</v>
+        <v>0.569</v>
       </c>
       <c r="X17">
         <v>0.172</v>
@@ -4552,34 +4552,34 @@
         <v>875</v>
       </c>
       <c r="O19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P19">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q19">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="R19">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19">
-        <v>-15.9</v>
+        <v>-16.1</v>
       </c>
       <c r="T19">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="U19">
-        <v>0.162</v>
+        <v>0.166</v>
       </c>
       <c r="V19">
         <v>0.202</v>
       </c>
       <c r="W19">
-        <v>0.495</v>
+        <v>0.491</v>
       </c>
       <c r="X19">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -4848,31 +4848,31 @@
         <v>852</v>
       </c>
       <c r="O23">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q23">
         <v>102</v>
       </c>
       <c r="R23">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23">
         <v>2.6</v>
       </c>
       <c r="T23">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="U23">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="V23">
-        <v>0.154</v>
+        <v>0.151</v>
       </c>
       <c r="W23">
-        <v>0.621</v>
+        <v>0.624</v>
       </c>
       <c r="X23">
         <v>0.067</v>
@@ -4996,34 +4996,34 @@
         <v>888</v>
       </c>
       <c r="O25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P25">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="Q25">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="R25">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S25">
         <v>1.6</v>
       </c>
       <c r="T25">
-        <v>0.065</v>
+        <v>0.063</v>
       </c>
       <c r="U25">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="V25">
         <v>0.112</v>
       </c>
       <c r="W25">
-        <v>0.513</v>
+        <v>0.527</v>
       </c>
       <c r="X25">
-        <v>0.105</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -5265,7 +5265,7 @@
         <v>559</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
         <v>581</v>
@@ -5292,34 +5292,34 @@
         <v>891</v>
       </c>
       <c r="O29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P29">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="Q29">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R29">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="S29">
-        <v>-1.8</v>
+        <v>-2.3</v>
       </c>
       <c r="T29">
         <v>0.021</v>
       </c>
       <c r="U29">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="V29">
         <v>0.191</v>
       </c>
       <c r="W29">
-        <v>0.503</v>
+        <v>0.506</v>
       </c>
       <c r="X29">
-        <v>0.234</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -5366,34 +5366,34 @@
         <v>874</v>
       </c>
       <c r="O30">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P30">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="Q30">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="R30">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S30">
-        <v>-1.2</v>
+        <v>-1.8</v>
       </c>
       <c r="T30">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="U30">
-        <v>0.253</v>
+        <v>0.254</v>
       </c>
       <c r="V30">
-        <v>0.294</v>
+        <v>0.293</v>
       </c>
       <c r="W30">
-        <v>0.599</v>
+        <v>0.597</v>
       </c>
       <c r="X30">
-        <v>0.171</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -5514,31 +5514,31 @@
         <v>852</v>
       </c>
       <c r="O32">
+        <v>29</v>
+      </c>
+      <c r="P32">
+        <v>60</v>
+      </c>
+      <c r="Q32">
         <v>28</v>
-      </c>
-      <c r="P32">
-        <v>58</v>
-      </c>
-      <c r="Q32">
-        <v>27</v>
       </c>
       <c r="R32">
         <v>7</v>
       </c>
       <c r="S32">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="T32">
         <v>0.03</v>
       </c>
       <c r="U32">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="V32">
         <v>0.126</v>
       </c>
       <c r="W32">
-        <v>0.574</v>
+        <v>0.582</v>
       </c>
       <c r="X32">
         <v>0.053</v>
@@ -5884,34 +5884,34 @@
         <v>852</v>
       </c>
       <c r="O37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P37">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="Q37">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R37">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T37">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U37">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="V37">
-        <v>0.224</v>
+        <v>0.223</v>
       </c>
       <c r="W37">
-        <v>0.583</v>
+        <v>0.587</v>
       </c>
       <c r="X37">
-        <v>0.256</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -5958,34 +5958,34 @@
         <v>882</v>
       </c>
       <c r="O38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P38">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="Q38">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R38">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="S38">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="T38">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U38">
-        <v>0.101</v>
+        <v>0.099</v>
       </c>
       <c r="V38">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="W38">
-        <v>0.582</v>
+        <v>0.583</v>
       </c>
       <c r="X38">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -6402,34 +6402,34 @@
         <v>896</v>
       </c>
       <c r="O44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P44">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Q44">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="R44">
         <v>126</v>
       </c>
       <c r="S44">
-        <v>-16.1</v>
+        <v>-16.3</v>
       </c>
       <c r="T44">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="U44">
-        <v>0.105</v>
+        <v>0.103</v>
       </c>
       <c r="V44">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="W44">
-        <v>0.514</v>
+        <v>0.512</v>
       </c>
       <c r="X44">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -6550,16 +6550,16 @@
         <v>898</v>
       </c>
       <c r="O46">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P46">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q46">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="R46">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -6568,16 +6568,16 @@
         <v>0.067</v>
       </c>
       <c r="U46">
-        <v>0.232</v>
+        <v>0.234</v>
       </c>
       <c r="V46">
-        <v>0.232</v>
+        <v>0.233</v>
       </c>
       <c r="W46">
-        <v>0.548</v>
+        <v>0.541</v>
       </c>
       <c r="X46">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -6994,34 +6994,34 @@
         <v>852</v>
       </c>
       <c r="O52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P52">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S52">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="T52">
-        <v>0.07000000000000001</v>
+        <v>0.059</v>
       </c>
       <c r="U52">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="V52">
-        <v>0.174</v>
+        <v>0.168</v>
       </c>
       <c r="W52">
-        <v>0.583</v>
+        <v>0.599</v>
       </c>
       <c r="X52">
-        <v>0.08500000000000001</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -7586,7 +7586,7 @@
         <v>880</v>
       </c>
       <c r="O60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P60">
         <v>4</v>
@@ -7598,22 +7598,22 @@
         <v>3</v>
       </c>
       <c r="S60">
-        <v>-51.8</v>
+        <v>-45.8</v>
       </c>
       <c r="T60">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60">
-        <v>0.196</v>
+        <v>0.179</v>
       </c>
       <c r="W60">
         <v>0.202</v>
       </c>
       <c r="X60">
-        <v>0.25</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -7660,34 +7660,34 @@
         <v>906</v>
       </c>
       <c r="O61">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P61">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="Q61">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="R61">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T61">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="U61">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="V61">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
       <c r="W61">
-        <v>0.604</v>
+        <v>0.606</v>
       </c>
       <c r="X61">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -8178,34 +8178,34 @@
         <v>910</v>
       </c>
       <c r="O68">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P68">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q68">
         <v>24</v>
       </c>
       <c r="R68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S68">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="T68">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="U68">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="V68">
-        <v>0.117</v>
+        <v>0.115</v>
       </c>
       <c r="W68">
-        <v>0.478</v>
+        <v>0.495</v>
       </c>
       <c r="X68">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="69" spans="1:24">
@@ -8326,10 +8326,10 @@
         <v>911</v>
       </c>
       <c r="O70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -8338,19 +8338,19 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>20.5</v>
+        <v>17.1</v>
       </c>
       <c r="T70">
         <v>0.056</v>
       </c>
       <c r="U70">
-        <v>0.08699999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="V70">
-        <v>0.178</v>
+        <v>0.191</v>
       </c>
       <c r="W70">
-        <v>0.357</v>
+        <v>0.381</v>
       </c>
       <c r="X70">
         <v>0</v>
@@ -8696,28 +8696,28 @@
         <v>914</v>
       </c>
       <c r="O75">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P75">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="Q75">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R75">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S75">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="T75">
         <v>0.024</v>
       </c>
       <c r="U75">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="V75">
-        <v>0.216</v>
+        <v>0.217</v>
       </c>
       <c r="W75">
         <v>0.669</v>
@@ -8918,16 +8918,16 @@
         <v>879</v>
       </c>
       <c r="O78">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P78">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q78">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="R78">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S78">
         <v>-18.7</v>
@@ -8936,10 +8936,10 @@
         <v>0.01</v>
       </c>
       <c r="U78">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
       <c r="V78">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="W78">
         <v>0.519</v>
@@ -8992,25 +8992,25 @@
         <v>906</v>
       </c>
       <c r="O79">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P79">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q79">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="R79">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S79">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="T79">
         <v>0.037</v>
       </c>
       <c r="U79">
-        <v>0.078</v>
+        <v>0.08</v>
       </c>
       <c r="V79">
         <v>0.116</v>
@@ -9019,7 +9019,7 @@
         <v>0.533</v>
       </c>
       <c r="X79">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="80" spans="1:24">
@@ -9362,7 +9362,7 @@
         <v>893</v>
       </c>
       <c r="O84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P84">
         <v>2</v>
@@ -9374,22 +9374,22 @@
         <v>1</v>
       </c>
       <c r="S84">
-        <v>4.6</v>
+        <v>-0.5</v>
       </c>
       <c r="T84">
-        <v>0.125</v>
+        <v>0.111</v>
       </c>
       <c r="U84">
-        <v>0.2</v>
+        <v>0.192</v>
       </c>
       <c r="V84">
-        <v>0.091</v>
+        <v>0.102</v>
       </c>
       <c r="W84">
         <v>0.5</v>
       </c>
       <c r="X84">
-        <v>0.125</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="85" spans="1:24">
@@ -9510,31 +9510,31 @@
         <v>904</v>
       </c>
       <c r="O86">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P86">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="Q86">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="R86">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S86">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="T86">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="U86">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
       <c r="V86">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
       <c r="W86">
-        <v>0.646</v>
+        <v>0.649</v>
       </c>
       <c r="X86">
         <v>0.074</v>
@@ -9584,34 +9584,34 @@
         <v>916</v>
       </c>
       <c r="O87">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P87">
         <v>45</v>
       </c>
       <c r="Q87">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R87">
         <v>7</v>
       </c>
       <c r="S87">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="T87">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="U87">
         <v>0.149</v>
       </c>
       <c r="V87">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="W87">
-        <v>0.612</v>
+        <v>0.596</v>
       </c>
       <c r="X87">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="88" spans="1:24">
@@ -9732,19 +9732,19 @@
         <v>896</v>
       </c>
       <c r="O89">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P89">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="Q89">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="R89">
         <v>186</v>
       </c>
       <c r="S89">
-        <v>-4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="T89">
         <v>0.01</v>
@@ -9753,13 +9753,13 @@
         <v>0.08699999999999999</v>
       </c>
       <c r="V89">
-        <v>0.225</v>
+        <v>0.224</v>
       </c>
       <c r="W89">
-        <v>0.585</v>
+        <v>0.582</v>
       </c>
       <c r="X89">
-        <v>0.206</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="90" spans="1:24">
@@ -10028,31 +10028,31 @@
         <v>917</v>
       </c>
       <c r="O93">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P93">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q93">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R93">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="S93">
-        <v>-0.6</v>
+        <v>-1.6</v>
       </c>
       <c r="T93">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="U93">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="V93">
-        <v>0.264</v>
+        <v>0.26</v>
       </c>
       <c r="W93">
-        <v>0.505</v>
+        <v>0.499</v>
       </c>
       <c r="X93">
         <v>0.277</v>
@@ -10398,31 +10398,31 @@
         <v>917</v>
       </c>
       <c r="O98">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P98">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="Q98">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="R98">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S98">
-        <v>-9.9</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="T98">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="U98">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="V98">
-        <v>0.167</v>
+        <v>0.169</v>
       </c>
       <c r="W98">
-        <v>0.575</v>
+        <v>0.571</v>
       </c>
       <c r="X98">
         <v>0.09</v>
@@ -10472,10 +10472,10 @@
         <v>919</v>
       </c>
       <c r="O99">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P99">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q99">
         <v>21</v>
@@ -10484,22 +10484,22 @@
         <v>23</v>
       </c>
       <c r="S99">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="T99">
         <v>0.023</v>
       </c>
       <c r="U99">
-        <v>0.08400000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="V99">
-        <v>0.135</v>
+        <v>0.137</v>
       </c>
       <c r="W99">
-        <v>0.464</v>
+        <v>0.474</v>
       </c>
       <c r="X99">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="100" spans="1:24">
@@ -10694,25 +10694,25 @@
         <v>875</v>
       </c>
       <c r="O102">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P102">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="Q102">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="R102">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="S102">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="T102">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="U102">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="V102">
         <v>0.217</v>
@@ -10721,7 +10721,7 @@
         <v>0.544</v>
       </c>
       <c r="X102">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="103" spans="1:24">
@@ -11064,34 +11064,34 @@
         <v>911</v>
       </c>
       <c r="O107">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P107">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q107">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R107">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S107">
         <v>1.2</v>
       </c>
       <c r="T107">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="U107">
-        <v>0.101</v>
+        <v>0.102</v>
       </c>
       <c r="V107">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
       <c r="W107">
-        <v>0.518</v>
+        <v>0.516</v>
       </c>
       <c r="X107">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -11138,34 +11138,34 @@
         <v>920</v>
       </c>
       <c r="O108">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P108">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q108">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R108">
         <v>42</v>
       </c>
       <c r="S108">
-        <v>-12.7</v>
+        <v>-12.2</v>
       </c>
       <c r="T108">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="U108">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="V108">
         <v>0.13</v>
       </c>
       <c r="W108">
-        <v>0.551</v>
+        <v>0.553</v>
       </c>
       <c r="X108">
-        <v>0.119</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -11212,31 +11212,31 @@
         <v>921</v>
       </c>
       <c r="O109">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P109">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="Q109">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="R109">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S109">
-        <v>-3.4</v>
+        <v>-3.1</v>
       </c>
       <c r="T109">
         <v>0.03</v>
       </c>
       <c r="U109">
-        <v>0.118</v>
+        <v>0.121</v>
       </c>
       <c r="V109">
         <v>0.171</v>
       </c>
       <c r="W109">
-        <v>0.575</v>
+        <v>0.582</v>
       </c>
       <c r="X109">
         <v>0.067</v>
@@ -11286,22 +11286,22 @@
         <v>891</v>
       </c>
       <c r="O110">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P110">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="Q110">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="R110">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S110">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="T110">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="U110">
         <v>0.1</v>
@@ -11313,7 +11313,7 @@
         <v>0.623</v>
       </c>
       <c r="X110">
-        <v>0.308</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -12100,34 +12100,34 @@
         <v>919</v>
       </c>
       <c r="O121">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P121">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q121">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="R121">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S121">
-        <v>-2.8</v>
+        <v>-3.7</v>
       </c>
       <c r="T121">
-        <v>0.144</v>
+        <v>0.149</v>
       </c>
       <c r="U121">
-        <v>0.218</v>
+        <v>0.213</v>
       </c>
       <c r="V121">
-        <v>0.202</v>
+        <v>0.2</v>
       </c>
       <c r="W121">
-        <v>0.497</v>
+        <v>0.509</v>
       </c>
       <c r="X121">
-        <v>0.133</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="122" spans="1:24">
@@ -12174,19 +12174,19 @@
         <v>885</v>
       </c>
       <c r="O122">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P122">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="Q122">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="R122">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="S122">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="T122">
         <v>0.029</v>
@@ -12195,13 +12195,13 @@
         <v>0.106</v>
       </c>
       <c r="V122">
-        <v>0.291</v>
+        <v>0.288</v>
       </c>
       <c r="W122">
-        <v>0.577</v>
+        <v>0.575</v>
       </c>
       <c r="X122">
-        <v>0.259</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="123" spans="1:24">
@@ -12396,34 +12396,34 @@
         <v>922</v>
       </c>
       <c r="O125">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P125">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q125">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="R125">
         <v>25</v>
       </c>
       <c r="S125">
-        <v>-5.4</v>
+        <v>-6</v>
       </c>
       <c r="T125">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="U125">
-        <v>0.252</v>
+        <v>0.257</v>
       </c>
       <c r="V125">
-        <v>0.122</v>
+        <v>0.128</v>
       </c>
       <c r="W125">
-        <v>0.623</v>
+        <v>0.603</v>
       </c>
       <c r="X125">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="126" spans="1:24">
@@ -12470,34 +12470,34 @@
         <v>887</v>
       </c>
       <c r="O126">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P126">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="Q126">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="R126">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S126">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="T126">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="U126">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="V126">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
       <c r="W126">
-        <v>0.5649999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X126">
-        <v>0.159</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="127" spans="1:24">
@@ -12618,31 +12618,31 @@
         <v>874</v>
       </c>
       <c r="O128">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P128">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="Q128">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="R128">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S128">
-        <v>-12.6</v>
+        <v>-11.6</v>
       </c>
       <c r="T128">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="U128">
-        <v>0.247</v>
+        <v>0.246</v>
       </c>
       <c r="V128">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="W128">
-        <v>0.578</v>
+        <v>0.573</v>
       </c>
       <c r="X128">
         <v>0.077</v>
@@ -12840,34 +12840,34 @@
         <v>887</v>
       </c>
       <c r="O131">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P131">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="Q131">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="R131">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="S131">
-        <v>-7.7</v>
+        <v>-7</v>
       </c>
       <c r="T131">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="U131">
-        <v>0.176</v>
+        <v>0.179</v>
       </c>
       <c r="V131">
-        <v>0.212</v>
+        <v>0.213</v>
       </c>
       <c r="W131">
-        <v>0.582</v>
+        <v>0.583</v>
       </c>
       <c r="X131">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -13062,34 +13062,34 @@
         <v>852</v>
       </c>
       <c r="O134">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P134">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Q134">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="R134">
         <v>32</v>
       </c>
       <c r="S134">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="T134">
         <v>0.047</v>
       </c>
       <c r="U134">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="V134">
         <v>0.163</v>
       </c>
       <c r="W134">
-        <v>0.596</v>
+        <v>0.593</v>
       </c>
       <c r="X134">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -13580,34 +13580,34 @@
         <v>895</v>
       </c>
       <c r="O141">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P141">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="R141">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S141">
-        <v>-4.7</v>
+        <v>-4.3</v>
       </c>
       <c r="T141">
-        <v>0.065</v>
+        <v>0.068</v>
       </c>
       <c r="U141">
-        <v>0.14</v>
+        <v>0.142</v>
       </c>
       <c r="V141">
-        <v>0.15</v>
+        <v>0.149</v>
       </c>
       <c r="W141">
-        <v>0.4</v>
+        <v>0.415</v>
       </c>
       <c r="X141">
-        <v>0.126</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="142" spans="1:24">
@@ -13654,34 +13654,34 @@
         <v>914</v>
       </c>
       <c r="O142">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P142">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="Q142">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="R142">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="S142">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="T142">
         <v>0.106</v>
       </c>
       <c r="U142">
-        <v>0.282</v>
+        <v>0.284</v>
       </c>
       <c r="V142">
-        <v>0.212</v>
+        <v>0.214</v>
       </c>
       <c r="W142">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="X142">
-        <v>0.256</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="143" spans="1:24">
@@ -14024,34 +14024,34 @@
         <v>852</v>
       </c>
       <c r="O147">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P147">
         <v>249</v>
       </c>
       <c r="Q147">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R147">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S147">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="T147">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="U147">
-        <v>0.101</v>
+        <v>0.099</v>
       </c>
       <c r="V147">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="W147">
-        <v>0.611</v>
+        <v>0.602</v>
       </c>
       <c r="X147">
-        <v>0.07199999999999999</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -14098,7 +14098,7 @@
         <v>914</v>
       </c>
       <c r="O148">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P148">
         <v>91</v>
@@ -14110,16 +14110,16 @@
         <v>4</v>
       </c>
       <c r="S148">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
         <v>0.008999999999999999</v>
       </c>
       <c r="U148">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="V148">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="W148">
         <v>0.605</v>
@@ -15060,34 +15060,34 @@
         <v>896</v>
       </c>
       <c r="O161">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P161">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q161">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R161">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S161">
-        <v>-8.6</v>
+        <v>-8.4</v>
       </c>
       <c r="T161">
         <v>0.011</v>
       </c>
       <c r="U161">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="V161">
         <v>0.144</v>
       </c>
       <c r="W161">
-        <v>0.556</v>
+        <v>0.553</v>
       </c>
       <c r="X161">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="162" spans="1:24">
@@ -15356,34 +15356,34 @@
         <v>852</v>
       </c>
       <c r="O165">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P165">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q165">
         <v>46</v>
       </c>
       <c r="R165">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S165">
-        <v>-3.7</v>
+        <v>-3.3</v>
       </c>
       <c r="T165">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="U165">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="V165">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
       <c r="W165">
-        <v>0.496</v>
+        <v>0.493</v>
       </c>
       <c r="X165">
-        <v>0.078</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="166" spans="1:24">
@@ -15726,19 +15726,19 @@
         <v>899</v>
       </c>
       <c r="O170">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P170">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q170">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R170">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S170">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="T170">
         <v>0.007</v>
@@ -15747,13 +15747,13 @@
         <v>0.082</v>
       </c>
       <c r="V170">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
       <c r="W170">
-        <v>0.598</v>
+        <v>0.594</v>
       </c>
       <c r="X170">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="171" spans="1:24">
@@ -15874,34 +15874,34 @@
         <v>917</v>
       </c>
       <c r="O172">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P172">
-        <v>1068</v>
+        <v>1102</v>
       </c>
       <c r="Q172">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="R172">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="S172">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="T172">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="U172">
         <v>0.263</v>
       </c>
       <c r="V172">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="W172">
-        <v>0.615</v>
+        <v>0.618</v>
       </c>
       <c r="X172">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="173" spans="1:24">
@@ -16682,7 +16682,7 @@
         <v>899</v>
       </c>
       <c r="O183">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P183">
         <v>66</v>
@@ -16694,22 +16694,22 @@
         <v>12</v>
       </c>
       <c r="S183">
-        <v>-9.199999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="T183">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="U183">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="V183">
-        <v>0.112</v>
+        <v>0.114</v>
       </c>
       <c r="W183">
-        <v>0.574</v>
+        <v>0.555</v>
       </c>
       <c r="X183">
-        <v>0.073</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:24">
@@ -17052,31 +17052,31 @@
         <v>852</v>
       </c>
       <c r="O188">
+        <v>3</v>
+      </c>
+      <c r="P188">
         <v>2</v>
       </c>
-      <c r="P188">
-        <v>0</v>
-      </c>
       <c r="Q188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R188">
         <v>0</v>
       </c>
       <c r="S188">
-        <v>0.5</v>
+        <v>15.5</v>
       </c>
       <c r="T188">
         <v>0</v>
       </c>
       <c r="U188">
-        <v>0.143</v>
+        <v>0.273</v>
       </c>
       <c r="V188">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X188">
         <v>0</v>
@@ -17274,34 +17274,34 @@
         <v>927</v>
       </c>
       <c r="O191">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P191">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="Q191">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R191">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S191">
-        <v>15.1</v>
+        <v>16.1</v>
       </c>
       <c r="T191">
         <v>0.02</v>
       </c>
       <c r="U191">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
       <c r="V191">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
       <c r="W191">
-        <v>0.5620000000000001</v>
+        <v>0.583</v>
       </c>
       <c r="X191">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:24">
@@ -17496,34 +17496,34 @@
         <v>910</v>
       </c>
       <c r="O194">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P194">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="Q194">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="R194">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S194">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="T194">
-        <v>0.121</v>
+        <v>0.124</v>
       </c>
       <c r="U194">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
       <c r="V194">
-        <v>0.184</v>
+        <v>0.186</v>
       </c>
       <c r="W194">
-        <v>0.618</v>
+        <v>0.617</v>
       </c>
       <c r="X194">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="195" spans="1:24">
@@ -17940,22 +17940,22 @@
         <v>928</v>
       </c>
       <c r="O200">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P200">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q200">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R200">
         <v>14</v>
       </c>
       <c r="S200">
-        <v>-5.4</v>
+        <v>-4.5</v>
       </c>
       <c r="T200">
-        <v>0.066</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U200">
         <v>0.205</v>
@@ -17964,10 +17964,10 @@
         <v>0.143</v>
       </c>
       <c r="W200">
-        <v>0.516</v>
+        <v>0.52</v>
       </c>
       <c r="X200">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="201" spans="1:24">
@@ -19272,31 +19272,31 @@
         <v>910</v>
       </c>
       <c r="O218">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P218">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q218">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R218">
         <v>26</v>
       </c>
       <c r="S218">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T218">
-        <v>0.008999999999999999</v>
+        <v>0.017</v>
       </c>
       <c r="U218">
-        <v>0.08400000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="V218">
-        <v>0.135</v>
+        <v>0.139</v>
       </c>
       <c r="W218">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="X218">
         <v>0.306</v>
@@ -19346,34 +19346,34 @@
         <v>906</v>
       </c>
       <c r="O219">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P219">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q219">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="R219">
         <v>33</v>
       </c>
       <c r="S219">
-        <v>-2.9</v>
+        <v>-3.6</v>
       </c>
       <c r="T219">
         <v>0.08599999999999999</v>
       </c>
       <c r="U219">
-        <v>0.228</v>
+        <v>0.226</v>
       </c>
       <c r="V219">
-        <v>0.198</v>
+        <v>0.199</v>
       </c>
       <c r="W219">
-        <v>0.595</v>
+        <v>0.594</v>
       </c>
       <c r="X219">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:24">
@@ -19568,34 +19568,34 @@
         <v>903</v>
       </c>
       <c r="O222">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P222">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q222">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="R222">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S222">
-        <v>-8</v>
+        <v>-8.6</v>
       </c>
       <c r="T222">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="U222">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="V222">
-        <v>0.157</v>
+        <v>0.158</v>
       </c>
       <c r="W222">
-        <v>0.529</v>
+        <v>0.521</v>
       </c>
       <c r="X222">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="223" spans="1:24">
@@ -19716,34 +19716,34 @@
         <v>896</v>
       </c>
       <c r="O224">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P224">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="Q224">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="R224">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="S224">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="T224">
         <v>0.015</v>
       </c>
       <c r="U224">
-        <v>0.091</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V224">
-        <v>0.235</v>
+        <v>0.234</v>
       </c>
       <c r="W224">
         <v>0.5620000000000001</v>
       </c>
       <c r="X224">
-        <v>0.225</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="225" spans="1:24">
@@ -19864,34 +19864,34 @@
         <v>883</v>
       </c>
       <c r="O226">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P226">
-        <v>815</v>
+        <v>836</v>
       </c>
       <c r="Q226">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="R226">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="S226">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T226">
         <v>0.018</v>
       </c>
       <c r="U226">
-        <v>0.153</v>
+        <v>0.151</v>
       </c>
       <c r="V226">
         <v>0.295</v>
       </c>
       <c r="W226">
-        <v>0.571</v>
+        <v>0.57</v>
       </c>
       <c r="X226">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="227" spans="1:24">
@@ -20234,34 +20234,34 @@
         <v>909</v>
       </c>
       <c r="O231">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P231">
         <v>212</v>
       </c>
       <c r="Q231">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R231">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S231">
-        <v>-3.7</v>
+        <v>-4.1</v>
       </c>
       <c r="T231">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="U231">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V231">
-        <v>0.244</v>
+        <v>0.241</v>
       </c>
       <c r="W231">
-        <v>0.571</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X231">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="232" spans="1:24">
@@ -20678,34 +20678,34 @@
         <v>918</v>
       </c>
       <c r="O237">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P237">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q237">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R237">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S237">
-        <v>-2.5</v>
+        <v>-1.9</v>
       </c>
       <c r="T237">
-        <v>0.092</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="U237">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="V237">
-        <v>0.118</v>
+        <v>0.116</v>
       </c>
       <c r="W237">
-        <v>0.655</v>
+        <v>0.664</v>
       </c>
       <c r="X237">
-        <v>0.061</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="238" spans="1:24">
@@ -21193,34 +21193,34 @@
         <v>908</v>
       </c>
       <c r="O244">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P244">
+        <v>85</v>
+      </c>
+      <c r="Q244">
         <v>71</v>
       </c>
-      <c r="Q244">
-        <v>63</v>
-      </c>
       <c r="R244">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S244">
-        <v>10.2</v>
+        <v>13.1</v>
       </c>
       <c r="T244">
-        <v>0.077</v>
+        <v>0.078</v>
       </c>
       <c r="U244">
-        <v>0.205</v>
+        <v>0.207</v>
       </c>
       <c r="V244">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="W244">
-        <v>0.539</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="X244">
-        <v>0.199</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="245" spans="1:24">
@@ -21489,34 +21489,34 @@
         <v>852</v>
       </c>
       <c r="O248">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P248">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q248">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R248">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S248">
-        <v>-13.1</v>
+        <v>-12.7</v>
       </c>
       <c r="T248">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="U248">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="V248">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="W248">
-        <v>0.502</v>
+        <v>0.484</v>
       </c>
       <c r="X248">
-        <v>0.189</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="249" spans="1:24">
@@ -21637,34 +21637,34 @@
         <v>929</v>
       </c>
       <c r="O250">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P250">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="Q250">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R250">
         <v>69</v>
       </c>
       <c r="S250">
-        <v>-12.6</v>
+        <v>-11.5</v>
       </c>
       <c r="T250">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U250">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="V250">
         <v>0.195</v>
       </c>
       <c r="W250">
-        <v>0.526</v>
+        <v>0.531</v>
       </c>
       <c r="X250">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="251" spans="1:24">
@@ -22525,10 +22525,10 @@
         <v>906</v>
       </c>
       <c r="O262">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P262">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q262">
         <v>32</v>
@@ -22537,19 +22537,19 @@
         <v>9</v>
       </c>
       <c r="S262">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="T262">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U262">
         <v>0.105</v>
       </c>
       <c r="V262">
-        <v>0.145</v>
+        <v>0.147</v>
       </c>
       <c r="W262">
-        <v>0.494</v>
+        <v>0.501</v>
       </c>
       <c r="X262">
         <v>0.059</v>
@@ -22747,34 +22747,34 @@
         <v>885</v>
       </c>
       <c r="O265">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P265">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="Q265">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="R265">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S265">
         <v>-14.3</v>
       </c>
       <c r="T265">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="U265">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
       <c r="V265">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="W265">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
       <c r="X265">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="266" spans="1:24">
@@ -22821,34 +22821,34 @@
         <v>891</v>
       </c>
       <c r="O266">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P266">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q266">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="R266">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S266">
-        <v>-7.5</v>
+        <v>-8</v>
       </c>
       <c r="T266">
-        <v>0.091</v>
+        <v>0.093</v>
       </c>
       <c r="U266">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="V266">
-        <v>0.161</v>
+        <v>0.164</v>
       </c>
       <c r="W266">
-        <v>0.509</v>
+        <v>0.511</v>
       </c>
       <c r="X266">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="267" spans="1:24">
@@ -23191,7 +23191,7 @@
         <v>852</v>
       </c>
       <c r="O271">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P271">
         <v>52</v>
@@ -23200,25 +23200,25 @@
         <v>21</v>
       </c>
       <c r="R271">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S271">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="T271">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="U271">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
       <c r="V271">
-        <v>0.149</v>
+        <v>0.146</v>
       </c>
       <c r="W271">
         <v>0.54</v>
       </c>
       <c r="X271">
-        <v>0.178</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="272" spans="1:24">
@@ -23339,34 +23339,34 @@
         <v>905</v>
       </c>
       <c r="O273">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P273">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="Q273">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R273">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S273">
-        <v>-13.7</v>
+        <v>-14</v>
       </c>
       <c r="T273">
         <v>0.012</v>
       </c>
       <c r="U273">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="V273">
-        <v>0.286</v>
+        <v>0.285</v>
       </c>
       <c r="W273">
-        <v>0.595</v>
+        <v>0.593</v>
       </c>
       <c r="X273">
-        <v>0.258</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="274" spans="1:24">
@@ -23635,34 +23635,34 @@
         <v>891</v>
       </c>
       <c r="O277">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P277">
         <v>437</v>
       </c>
       <c r="Q277">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="R277">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="S277">
-        <v>-3.7</v>
+        <v>-4.2</v>
       </c>
       <c r="T277">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="U277">
-        <v>0.191</v>
+        <v>0.188</v>
       </c>
       <c r="V277">
-        <v>0.202</v>
+        <v>0.198</v>
       </c>
       <c r="W277">
-        <v>0.521</v>
+        <v>0.519</v>
       </c>
       <c r="X277">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="278" spans="1:24">
@@ -24162,7 +24162,7 @@
         <v>180</v>
       </c>
       <c r="R284">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S284">
         <v>-0.3</v>
@@ -24180,7 +24180,7 @@
         <v>0.576</v>
       </c>
       <c r="X284">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="285" spans="1:24">
@@ -24227,31 +24227,31 @@
         <v>922</v>
       </c>
       <c r="O285">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P285">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q285">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R285">
         <v>17</v>
       </c>
       <c r="S285">
-        <v>-4.2</v>
+        <v>-4.6</v>
       </c>
       <c r="T285">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="U285">
-        <v>0.073</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="V285">
         <v>0.136</v>
       </c>
       <c r="W285">
-        <v>0.548</v>
+        <v>0.55</v>
       </c>
       <c r="X285">
         <v>0.04</v>
@@ -24301,34 +24301,34 @@
         <v>919</v>
       </c>
       <c r="O286">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P286">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q286">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R286">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S286">
         <v>-3</v>
       </c>
       <c r="T286">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="U286">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="V286">
         <v>0.166</v>
       </c>
       <c r="W286">
-        <v>0.581</v>
+        <v>0.576</v>
       </c>
       <c r="X286">
-        <v>0.08699999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="287" spans="1:24">
@@ -24449,34 +24449,34 @@
         <v>852</v>
       </c>
       <c r="O288">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P288">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q288">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R288">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S288">
-        <v>-9.300000000000001</v>
+        <v>-9.9</v>
       </c>
       <c r="T288">
-        <v>0.077</v>
+        <v>0.074</v>
       </c>
       <c r="U288">
         <v>0.14</v>
       </c>
       <c r="V288">
-        <v>0.142</v>
+        <v>0.147</v>
       </c>
       <c r="W288">
-        <v>0.646</v>
+        <v>0.626</v>
       </c>
       <c r="X288">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="289" spans="1:24">
@@ -24523,34 +24523,34 @@
         <v>852</v>
       </c>
       <c r="O289">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P289">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q289">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R289">
         <v>12</v>
       </c>
       <c r="S289">
-        <v>-0.7</v>
+        <v>-3.4</v>
       </c>
       <c r="T289">
         <v>0.03</v>
       </c>
       <c r="U289">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
       <c r="V289">
         <v>0.143</v>
       </c>
       <c r="W289">
-        <v>0.612</v>
+        <v>0.59</v>
       </c>
       <c r="X289">
-        <v>0.091</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="290" spans="1:24">
@@ -25115,34 +25115,34 @@
         <v>917</v>
       </c>
       <c r="O297">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P297">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="Q297">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R297">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S297">
-        <v>29.4</v>
+        <v>31.3</v>
       </c>
       <c r="T297">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
       <c r="U297">
-        <v>0.091</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="V297">
-        <v>0.25</v>
+        <v>0.248</v>
       </c>
       <c r="W297">
-        <v>0.528</v>
+        <v>0.572</v>
       </c>
       <c r="X297">
-        <v>0.061</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="298" spans="1:24">
@@ -25263,34 +25263,34 @@
         <v>878</v>
       </c>
       <c r="O299">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P299">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q299">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="R299">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S299">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="T299">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="U299">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="V299">
         <v>0.144</v>
       </c>
       <c r="W299">
-        <v>0.529</v>
+        <v>0.524</v>
       </c>
       <c r="X299">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="300" spans="1:24">
@@ -25559,22 +25559,22 @@
         <v>917</v>
       </c>
       <c r="O303">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P303">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="Q303">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="R303">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S303">
-        <v>-4.1</v>
+        <v>-4.8</v>
       </c>
       <c r="T303">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="U303">
         <v>0.139</v>
@@ -25583,10 +25583,10 @@
         <v>0.177</v>
       </c>
       <c r="W303">
-        <v>0.54</v>
+        <v>0.543</v>
       </c>
       <c r="X303">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="304" spans="1:24">
@@ -25707,34 +25707,34 @@
         <v>918</v>
       </c>
       <c r="O305">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P305">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="Q305">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R305">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="S305">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="T305">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="U305">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="V305">
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="W305">
-        <v>0.554</v>
+        <v>0.547</v>
       </c>
       <c r="X305">
-        <v>0.094</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="306" spans="1:24">
@@ -25781,31 +25781,31 @@
         <v>852</v>
       </c>
       <c r="O306">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P306">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="Q306">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R306">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S306">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="T306">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="U306">
-        <v>0.074</v>
+        <v>0.076</v>
       </c>
       <c r="V306">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="W306">
-        <v>0.653</v>
+        <v>0.669</v>
       </c>
       <c r="X306">
         <v>0.06900000000000001</v>
@@ -25855,34 +25855,34 @@
         <v>904</v>
       </c>
       <c r="O307">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P307">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q307">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R307">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S307">
-        <v>-10.2</v>
+        <v>-11.1</v>
       </c>
       <c r="T307">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="U307">
+        <v>0.125</v>
+      </c>
+      <c r="V307">
+        <v>0.207</v>
+      </c>
+      <c r="W307">
+        <v>0.471</v>
+      </c>
+      <c r="X307">
         <v>0.126</v>
-      </c>
-      <c r="V307">
-        <v>0.208</v>
-      </c>
-      <c r="W307">
-        <v>0.475</v>
-      </c>
-      <c r="X307">
-        <v>0.122</v>
       </c>
     </row>
     <row r="308" spans="1:24">
@@ -26151,34 +26151,34 @@
         <v>902</v>
       </c>
       <c r="O311">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P311">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q311">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R311">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S311">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="T311">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="U311">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="V311">
-        <v>0.166</v>
+        <v>0.168</v>
       </c>
       <c r="W311">
-        <v>0.537</v>
+        <v>0.529</v>
       </c>
       <c r="X311">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="312" spans="1:24">
@@ -26299,34 +26299,34 @@
         <v>894</v>
       </c>
       <c r="O313">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P313">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q313">
         <v>120</v>
       </c>
       <c r="R313">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S313">
         <v>-0.8</v>
       </c>
       <c r="T313">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="U313">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="V313">
-        <v>0.262</v>
+        <v>0.261</v>
       </c>
       <c r="W313">
-        <v>0.477</v>
+        <v>0.479</v>
       </c>
       <c r="X313">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="314" spans="1:24">
@@ -26521,34 +26521,34 @@
         <v>929</v>
       </c>
       <c r="O316">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P316">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="Q316">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R316">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="S316">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="T316">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="U316">
-        <v>0.144</v>
+        <v>0.146</v>
       </c>
       <c r="V316">
         <v>0.214</v>
       </c>
       <c r="W316">
-        <v>0.592</v>
+        <v>0.593</v>
       </c>
       <c r="X316">
-        <v>0.28</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="317" spans="1:24">
@@ -26817,19 +26817,19 @@
         <v>885</v>
       </c>
       <c r="O320">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P320">
         <v>251</v>
       </c>
       <c r="Q320">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R320">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S320">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="T320">
         <v>0.03</v>
@@ -26838,13 +26838,13 @@
         <v>0.112</v>
       </c>
       <c r="V320">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="W320">
-        <v>0.505</v>
+        <v>0.501</v>
       </c>
       <c r="X320">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="321" spans="1:24">
@@ -26891,34 +26891,34 @@
         <v>877</v>
       </c>
       <c r="O321">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P321">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q321">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R321">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S321">
-        <v>-7.8</v>
+        <v>-6.8</v>
       </c>
       <c r="T321">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U321">
-        <v>0.082</v>
+        <v>0.079</v>
       </c>
       <c r="V321">
-        <v>0.137</v>
+        <v>0.134</v>
       </c>
       <c r="W321">
         <v>0.513</v>
       </c>
       <c r="X321">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="322" spans="1:24">
@@ -27187,31 +27187,31 @@
         <v>900</v>
       </c>
       <c r="O325">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P325">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q325">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R325">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S325">
-        <v>-20.2</v>
+        <v>-19.9</v>
       </c>
       <c r="T325">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U325">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="V325">
         <v>0.253</v>
       </c>
       <c r="W325">
-        <v>0.495</v>
+        <v>0.488</v>
       </c>
       <c r="X325">
         <v>0.15</v>
@@ -27409,34 +27409,34 @@
         <v>890</v>
       </c>
       <c r="O328">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P328">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q328">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R328">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S328">
-        <v>-10</v>
+        <v>-10.5</v>
       </c>
       <c r="T328">
         <v>0.031</v>
       </c>
       <c r="U328">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="V328">
-        <v>0.148</v>
+        <v>0.147</v>
       </c>
       <c r="W328">
-        <v>0.475</v>
+        <v>0.477</v>
       </c>
       <c r="X328">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="329" spans="1:24">
@@ -27779,34 +27779,34 @@
         <v>874</v>
       </c>
       <c r="O333">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P333">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="Q333">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="R333">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="S333">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="T333">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="U333">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="V333">
-        <v>0.281</v>
+        <v>0.283</v>
       </c>
       <c r="W333">
-        <v>0.607</v>
+        <v>0.605</v>
       </c>
       <c r="X333">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="334" spans="1:24">
@@ -28223,19 +28223,19 @@
         <v>852</v>
       </c>
       <c r="O339">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P339">
         <v>408</v>
       </c>
       <c r="Q339">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="R339">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S339">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="T339">
         <v>0.045</v>
@@ -28244,13 +28244,13 @@
         <v>0.094</v>
       </c>
       <c r="V339">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="W339">
-        <v>0.582</v>
+        <v>0.573</v>
       </c>
       <c r="X339">
-        <v>0.07099999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="340" spans="1:24">
@@ -29037,34 +29037,34 @@
         <v>914</v>
       </c>
       <c r="O350">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P350">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R350">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="S350">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="T350">
         <v>0.011</v>
       </c>
       <c r="U350">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
       <c r="V350">
-        <v>0.226</v>
+        <v>0.227</v>
       </c>
       <c r="W350">
-        <v>0.5620000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="X350">
-        <v>0.248</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="351" spans="1:24">
@@ -29703,34 +29703,34 @@
         <v>914</v>
       </c>
       <c r="O359">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P359">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q359">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R359">
         <v>18</v>
       </c>
       <c r="S359">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T359">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="U359">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="V359">
         <v>0.169</v>
       </c>
       <c r="W359">
-        <v>0.494</v>
+        <v>0.497</v>
       </c>
       <c r="X359">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="360" spans="1:24">
@@ -29851,34 +29851,34 @@
         <v>922</v>
       </c>
       <c r="O361">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P361">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="Q361">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R361">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S361">
-        <v>-4.3</v>
+        <v>-5.4</v>
       </c>
       <c r="T361">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="U361">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="V361">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="W361">
-        <v>0.592</v>
+        <v>0.595</v>
       </c>
       <c r="X361">
-        <v>0.078</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="362" spans="1:24">
@@ -30221,34 +30221,34 @@
         <v>879</v>
       </c>
       <c r="O366">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P366">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="Q366">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="R366">
         <v>99</v>
       </c>
       <c r="S366">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="T366">
         <v>0.047</v>
       </c>
       <c r="U366">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="V366">
-        <v>0.196</v>
+        <v>0.195</v>
       </c>
       <c r="W366">
-        <v>0.625</v>
+        <v>0.627</v>
       </c>
       <c r="X366">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="367" spans="1:24">
@@ -30591,34 +30591,34 @@
         <v>891</v>
       </c>
       <c r="O371">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P371">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q371">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R371">
         <v>14</v>
       </c>
       <c r="S371">
-        <v>-6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="T371">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U371">
-        <v>0.269</v>
+        <v>0.271</v>
       </c>
       <c r="V371">
         <v>0.155</v>
       </c>
       <c r="W371">
-        <v>0.525</v>
+        <v>0.531</v>
       </c>
       <c r="X371">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="372" spans="1:24">
@@ -31479,34 +31479,34 @@
         <v>889</v>
       </c>
       <c r="O383">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P383">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="Q383">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="R383">
         <v>72</v>
       </c>
       <c r="S383">
-        <v>-11.8</v>
+        <v>-12.6</v>
       </c>
       <c r="T383">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="U383">
-        <v>0.226</v>
+        <v>0.224</v>
       </c>
       <c r="V383">
         <v>0.164</v>
       </c>
       <c r="W383">
-        <v>0.549</v>
+        <v>0.553</v>
       </c>
       <c r="X383">
-        <v>0.129</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="384" spans="1:24">
@@ -31775,31 +31775,31 @@
         <v>897</v>
       </c>
       <c r="O387">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P387">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q387">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R387">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S387">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="T387">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="U387">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="V387">
         <v>0.082</v>
       </c>
       <c r="W387">
-        <v>0.548</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="X387">
         <v>0.106</v>
@@ -31849,34 +31849,34 @@
         <v>881</v>
       </c>
       <c r="O388">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P388">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="Q388">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="R388">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="S388">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="T388">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
       <c r="U388">
-        <v>0.244</v>
+        <v>0.245</v>
       </c>
       <c r="V388">
-        <v>0.293</v>
+        <v>0.291</v>
       </c>
       <c r="W388">
-        <v>0.645</v>
+        <v>0.648</v>
       </c>
       <c r="X388">
-        <v>0.396</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="389" spans="1:24">
@@ -31997,16 +31997,16 @@
         <v>886</v>
       </c>
       <c r="O390">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P390">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="Q390">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="R390">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="S390">
         <v>-2.7</v>
@@ -32015,16 +32015,16 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="U390">
-        <v>0.23</v>
+        <v>0.231</v>
       </c>
       <c r="V390">
-        <v>0.224</v>
+        <v>0.223</v>
       </c>
       <c r="W390">
-        <v>0.644</v>
+        <v>0.641</v>
       </c>
       <c r="X390">
-        <v>0.153</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="391" spans="1:24">
@@ -32071,34 +32071,34 @@
         <v>904</v>
       </c>
       <c r="O391">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P391">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q391">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="R391">
         <v>29</v>
       </c>
       <c r="S391">
-        <v>-13.8</v>
+        <v>-14.5</v>
       </c>
       <c r="T391">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="U391">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="V391">
-        <v>0.182</v>
+        <v>0.181</v>
       </c>
       <c r="W391">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="X391">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="392" spans="1:24">
@@ -32145,34 +32145,34 @@
         <v>911</v>
       </c>
       <c r="O392">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P392">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="Q392">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="R392">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S392">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="T392">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="U392">
-        <v>0.093</v>
+        <v>0.094</v>
       </c>
       <c r="V392">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
       <c r="W392">
-        <v>0.637</v>
+        <v>0.636</v>
       </c>
       <c r="X392">
-        <v>0.112</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="393" spans="1:24">
@@ -32556,10 +32556,10 @@
         <v>419</v>
       </c>
       <c r="D398">
-        <v>1610612758</v>
+        <v>1610612761</v>
       </c>
       <c r="E398" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F398">
         <v>24</v>
@@ -32811,34 +32811,34 @@
         <v>914</v>
       </c>
       <c r="O401">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P401">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q401">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R401">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S401">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="T401">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="U401">
-        <v>0.167</v>
+        <v>0.162</v>
       </c>
       <c r="V401">
-        <v>0.157</v>
+        <v>0.16</v>
       </c>
       <c r="W401">
-        <v>0.439</v>
+        <v>0.468</v>
       </c>
       <c r="X401">
-        <v>0.097</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="402" spans="1:24">
@@ -33033,34 +33033,34 @@
         <v>852</v>
       </c>
       <c r="O404">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P404">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q404">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R404">
         <v>1</v>
       </c>
       <c r="S404">
-        <v>15.7</v>
+        <v>6.4</v>
       </c>
       <c r="T404">
         <v>0</v>
       </c>
       <c r="U404">
-        <v>0.267</v>
+        <v>0.278</v>
       </c>
       <c r="V404">
         <v>0.171</v>
       </c>
       <c r="W404">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="X404">
-        <v>0.125</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="405" spans="1:24">
@@ -33181,34 +33181,34 @@
         <v>874</v>
       </c>
       <c r="O406">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P406">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q406">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="R406">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="S406">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="T406">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="U406">
-        <v>0.191</v>
+        <v>0.185</v>
       </c>
       <c r="V406">
-        <v>0.341</v>
+        <v>0.33</v>
       </c>
       <c r="W406">
-        <v>0.586</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="X406">
-        <v>0.297</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="407" spans="1:24">
@@ -33551,31 +33551,31 @@
         <v>878</v>
       </c>
       <c r="O411">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P411">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Q411">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="R411">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S411">
-        <v>-9.1</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="T411">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U411">
         <v>0.11</v>
       </c>
       <c r="V411">
-        <v>0.161</v>
+        <v>0.163</v>
       </c>
       <c r="W411">
-        <v>0.507</v>
+        <v>0.51</v>
       </c>
       <c r="X411">
         <v>0.109</v>
@@ -33995,34 +33995,34 @@
         <v>852</v>
       </c>
       <c r="O417">
+        <v>4</v>
+      </c>
+      <c r="P417">
+        <v>15</v>
+      </c>
+      <c r="Q417">
+        <v>8</v>
+      </c>
+      <c r="R417">
         <v>3</v>
       </c>
-      <c r="P417">
-        <v>7</v>
-      </c>
-      <c r="Q417">
-        <v>2</v>
-      </c>
-      <c r="R417">
-        <v>1</v>
-      </c>
       <c r="S417">
-        <v>-11</v>
+        <v>-11.1</v>
       </c>
       <c r="T417">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="U417">
-        <v>0.077</v>
+        <v>0.137</v>
       </c>
       <c r="V417">
-        <v>0.09</v>
+        <v>0.122</v>
       </c>
       <c r="W417">
-        <v>0.595</v>
+        <v>0.504</v>
       </c>
       <c r="X417">
-        <v>0.059</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="418" spans="1:24">
@@ -34069,34 +34069,34 @@
         <v>894</v>
       </c>
       <c r="O418">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P418">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q418">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R418">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S418">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T418">
         <v>0.034</v>
       </c>
       <c r="U418">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
       <c r="V418">
         <v>0.143</v>
       </c>
       <c r="W418">
-        <v>0.579</v>
+        <v>0.58</v>
       </c>
       <c r="X418">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="419" spans="1:24">
@@ -34735,34 +34735,34 @@
         <v>852</v>
       </c>
       <c r="O427">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P427">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q427">
         <v>9</v>
       </c>
       <c r="R427">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S427">
-        <v>-8</v>
+        <v>-7.3</v>
       </c>
       <c r="T427">
         <v>0.013</v>
       </c>
       <c r="U427">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="V427">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="W427">
-        <v>0.444</v>
+        <v>0.461</v>
       </c>
       <c r="X427">
-        <v>0.186</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="428" spans="1:24">
@@ -35031,34 +35031,34 @@
         <v>852</v>
       </c>
       <c r="O431">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P431">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="Q431">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R431">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S431">
-        <v>-8.6</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="T431">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="U431">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="V431">
         <v>0.193</v>
       </c>
       <c r="W431">
-        <v>0.532</v>
+        <v>0.539</v>
       </c>
       <c r="X431">
-        <v>0.093</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="432" spans="1:24">
@@ -35549,34 +35549,34 @@
         <v>887</v>
       </c>
       <c r="O438">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P438">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="Q438">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="R438">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S438">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="T438">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="U438">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
       <c r="V438">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="W438">
-        <v>0.597</v>
+        <v>0.599</v>
       </c>
       <c r="X438">
-        <v>0.06900000000000001</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="439" spans="1:24">
@@ -35623,34 +35623,34 @@
         <v>878</v>
       </c>
       <c r="O439">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P439">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="Q439">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="R439">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="S439">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="T439">
         <v>0.05</v>
       </c>
       <c r="U439">
-        <v>0.125</v>
+        <v>0.124</v>
       </c>
       <c r="V439">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="W439">
-        <v>0.544</v>
+        <v>0.545</v>
       </c>
       <c r="X439">
-        <v>0.314</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="440" spans="1:24">
@@ -35771,34 +35771,34 @@
         <v>901</v>
       </c>
       <c r="O441">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P441">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q441">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R441">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S441">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="T441">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="U441">
-        <v>0.115</v>
+        <v>0.108</v>
       </c>
       <c r="V441">
-        <v>0.176</v>
+        <v>0.174</v>
       </c>
       <c r="W441">
-        <v>0.584</v>
+        <v>0.59</v>
       </c>
       <c r="X441">
-        <v>0.127</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="442" spans="1:24">
@@ -36141,31 +36141,31 @@
         <v>883</v>
       </c>
       <c r="O446">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P446">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="Q446">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="R446">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="S446">
-        <v>-9.300000000000001</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="T446">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U446">
-        <v>0.08599999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="V446">
-        <v>0.217</v>
+        <v>0.218</v>
       </c>
       <c r="W446">
-        <v>0.539</v>
+        <v>0.545</v>
       </c>
       <c r="X446">
         <v>0.285</v>
@@ -36437,19 +36437,19 @@
         <v>896</v>
       </c>
       <c r="O450">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P450">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="Q450">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R450">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S450">
-        <v>-9.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="T450">
         <v>0.023</v>
@@ -36458,13 +36458,13 @@
         <v>0.101</v>
       </c>
       <c r="V450">
-        <v>0.244</v>
+        <v>0.246</v>
       </c>
       <c r="W450">
         <v>0.55</v>
       </c>
       <c r="X450">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="451" spans="1:24">
@@ -36511,34 +36511,34 @@
         <v>914</v>
       </c>
       <c r="O451">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P451">
-        <v>1264</v>
+        <v>1291</v>
       </c>
       <c r="Q451">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R451">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="S451">
-        <v>18.4</v>
+        <v>18.9</v>
       </c>
       <c r="T451">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="U451">
-        <v>0.123</v>
+        <v>0.121</v>
       </c>
       <c r="V451">
         <v>0.329</v>
       </c>
       <c r="W451">
-        <v>0.642</v>
+        <v>0.644</v>
       </c>
       <c r="X451">
-        <v>0.287</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="452" spans="1:24">
@@ -36955,7 +36955,7 @@
         <v>852</v>
       </c>
       <c r="O457">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P457">
         <v>6</v>
@@ -36967,22 +36967,22 @@
         <v>2</v>
       </c>
       <c r="S457">
-        <v>-14</v>
+        <v>-15.3</v>
       </c>
       <c r="T457">
-        <v>0.055</v>
+        <v>0.053</v>
       </c>
       <c r="U457">
-        <v>0.2</v>
+        <v>0.196</v>
       </c>
       <c r="V457">
-        <v>0.113</v>
+        <v>0.116</v>
       </c>
       <c r="W457">
-        <v>0.233</v>
+        <v>0.216</v>
       </c>
       <c r="X457">
-        <v>0.07099999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="458" spans="1:24">
@@ -37470,28 +37470,28 @@
         <v>911</v>
       </c>
       <c r="O464">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P464">
         <v>210</v>
       </c>
       <c r="Q464">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R464">
         <v>47</v>
       </c>
       <c r="S464">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="T464">
         <v>0.03</v>
       </c>
       <c r="U464">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="V464">
-        <v>0.196</v>
+        <v>0.194</v>
       </c>
       <c r="W464">
         <v>0.588</v>
@@ -37618,34 +37618,34 @@
         <v>884</v>
       </c>
       <c r="O466">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P466">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q466">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="R466">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S466">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="T466">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="U466">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
       <c r="V466">
-        <v>0.119</v>
+        <v>0.12</v>
       </c>
       <c r="W466">
-        <v>0.613</v>
+        <v>0.616</v>
       </c>
       <c r="X466">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="467" spans="1:24">
@@ -38432,34 +38432,34 @@
         <v>852</v>
       </c>
       <c r="O477">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P477">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q477">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R477">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S477">
-        <v>-7.5</v>
+        <v>-9.1</v>
       </c>
       <c r="T477">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="U477">
-        <v>0.131</v>
+        <v>0.141</v>
       </c>
       <c r="V477">
         <v>0.178</v>
       </c>
       <c r="W477">
-        <v>0.637</v>
+        <v>0.633</v>
       </c>
       <c r="X477">
-        <v>0.08699999999999999</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="478" spans="1:24">
@@ -38506,31 +38506,31 @@
         <v>930</v>
       </c>
       <c r="O478">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P478">
         <v>391</v>
       </c>
       <c r="Q478">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="R478">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="S478">
-        <v>-9.699999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="T478">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
       <c r="U478">
-        <v>0.102</v>
+        <v>0.104</v>
       </c>
       <c r="V478">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="W478">
-        <v>0.532</v>
+        <v>0.528</v>
       </c>
       <c r="X478">
         <v>0.09</v>
@@ -38737,7 +38737,7 @@
         <v>50</v>
       </c>
       <c r="R481">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S481">
         <v>3</v>
@@ -38755,7 +38755,7 @@
         <v>0.533</v>
       </c>
       <c r="X481">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="482" spans="1:24">
@@ -39024,31 +39024,31 @@
         <v>852</v>
       </c>
       <c r="O485">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P485">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="Q485">
+        <v>29</v>
+      </c>
+      <c r="R485">
         <v>28</v>
       </c>
-      <c r="R485">
-        <v>26</v>
-      </c>
       <c r="S485">
-        <v>-5.2</v>
+        <v>-6.6</v>
       </c>
       <c r="T485">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="U485">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="V485">
-        <v>0.153</v>
+        <v>0.158</v>
       </c>
       <c r="W485">
-        <v>0.53</v>
+        <v>0.511</v>
       </c>
       <c r="X485">
         <v>0.144</v>
@@ -39246,34 +39246,34 @@
         <v>884</v>
       </c>
       <c r="O488">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P488">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q488">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="R488">
         <v>31</v>
       </c>
       <c r="S488">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T488">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="U488">
-        <v>0.172</v>
+        <v>0.174</v>
       </c>
       <c r="V488">
         <v>0.14</v>
       </c>
       <c r="W488">
-        <v>0.546</v>
+        <v>0.54</v>
       </c>
       <c r="X488">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="489" spans="1:24">
@@ -39468,7 +39468,7 @@
         <v>907</v>
       </c>
       <c r="O491">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P491">
         <v>2</v>
@@ -39480,16 +39480,16 @@
         <v>0</v>
       </c>
       <c r="S491">
-        <v>-46.7</v>
+        <v>-39.1</v>
       </c>
       <c r="T491">
-        <v>0.091</v>
+        <v>0.067</v>
       </c>
       <c r="U491">
         <v>0</v>
       </c>
       <c r="V491">
-        <v>0.222</v>
+        <v>0.154</v>
       </c>
       <c r="W491">
         <v>0.25</v>
@@ -39542,31 +39542,31 @@
         <v>920</v>
       </c>
       <c r="O492">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P492">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="Q492">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="R492">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S492">
-        <v>-1.4</v>
+        <v>-1.7</v>
       </c>
       <c r="T492">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="U492">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
       <c r="V492">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="W492">
-        <v>0.51</v>
+        <v>0.512</v>
       </c>
       <c r="X492">
         <v>0.099</v>
@@ -39811,7 +39811,7 @@
         <v>552</v>
       </c>
       <c r="F496">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G496" t="s">
         <v>575</v>
@@ -40134,31 +40134,31 @@
         <v>903</v>
       </c>
       <c r="O500">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P500">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q500">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="R500">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S500">
-        <v>-14.1</v>
+        <v>-14.5</v>
       </c>
       <c r="T500">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="U500">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="V500">
-        <v>0.187</v>
+        <v>0.188</v>
       </c>
       <c r="W500">
-        <v>0.516</v>
+        <v>0.522</v>
       </c>
       <c r="X500">
         <v>0.151</v>
@@ -40208,34 +40208,34 @@
         <v>904</v>
       </c>
       <c r="O501">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P501">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="Q501">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="R501">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="S501">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="T501">
         <v>0.007</v>
       </c>
       <c r="U501">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="V501">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="W501">
-        <v>0.547</v>
+        <v>0.55</v>
       </c>
       <c r="X501">
-        <v>0.273</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="502" spans="1:24">
@@ -40874,34 +40874,34 @@
         <v>896</v>
       </c>
       <c r="O510">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P510">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Q510">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="R510">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="S510">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T510">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="U510">
-        <v>0.234</v>
+        <v>0.237</v>
       </c>
       <c r="V510">
-        <v>0.151</v>
+        <v>0.153</v>
       </c>
       <c r="W510">
-        <v>0.528</v>
+        <v>0.525</v>
       </c>
       <c r="X510">
-        <v>0.129</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="511" spans="1:24">
@@ -41466,34 +41466,34 @@
         <v>915</v>
       </c>
       <c r="O518">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P518">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="Q518">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="R518">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="S518">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="T518">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="U518">
         <v>0.121</v>
       </c>
       <c r="V518">
-        <v>0.26</v>
+        <v>0.261</v>
       </c>
       <c r="W518">
-        <v>0.639</v>
+        <v>0.637</v>
       </c>
       <c r="X518">
-        <v>0.197</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="519" spans="1:24">
@@ -41540,34 +41540,34 @@
         <v>898</v>
       </c>
       <c r="O519">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P519">
         <v>31</v>
       </c>
       <c r="Q519">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R519">
         <v>4</v>
       </c>
       <c r="S519">
-        <v>-36.1</v>
+        <v>-36.6</v>
       </c>
       <c r="T519">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="U519">
-        <v>0.061</v>
+        <v>0.068</v>
       </c>
       <c r="V519">
-        <v>0.148</v>
+        <v>0.145</v>
       </c>
       <c r="W519">
         <v>0.455</v>
       </c>
       <c r="X519">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="520" spans="1:24">
@@ -41614,34 +41614,34 @@
         <v>906</v>
       </c>
       <c r="O520">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P520">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q520">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R520">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S520">
-        <v>-10</v>
+        <v>-10.5</v>
       </c>
       <c r="T520">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="U520">
-        <v>0.179</v>
+        <v>0.178</v>
       </c>
       <c r="V520">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="W520">
-        <v>0.544</v>
+        <v>0.54</v>
       </c>
       <c r="X520">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="521" spans="1:24">

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -184,7 +184,7 @@
     <t>Ariel Hukporti</t>
   </si>
   <si>
-    <t>Armel Traore</t>
+    <t>Armel Traoré</t>
   </si>
   <si>
     <t>Ausar Thompson</t>
@@ -1210,7 +1210,7 @@
     <t>Mouhamed Gueye</t>
   </si>
   <si>
-    <t>Moussa Diabate</t>
+    <t>Moussa Diabaté</t>
   </si>
   <si>
     <t>Myles Turner</t>
@@ -1483,7 +1483,7 @@
     <t>Taylor Hendricks</t>
   </si>
   <si>
-    <t>Taze Moore</t>
+    <t>Tazé Moore</t>
   </si>
   <si>
     <t>Terance Mann</t>
@@ -1498,7 +1498,7 @@
     <t>Thomas Bryant</t>
   </si>
   <si>
-    <t>Tidjane Salaun</t>
+    <t>Tidjane Salaün</t>
   </si>
   <si>
     <t>Tim Hardaway Jr.</t>

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -4857,31 +4857,31 @@
         <v>855</v>
       </c>
       <c r="O23">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P23">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="R23">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S23">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T23">
         <v>0.021</v>
       </c>
       <c r="U23">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
       <c r="V23">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="W23">
-        <v>0.624</v>
+        <v>0.616</v>
       </c>
       <c r="X23">
         <v>0.067</v>
@@ -7521,34 +7521,34 @@
         <v>908</v>
       </c>
       <c r="O59">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P59">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q59">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R59">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S59">
-        <v>-11.5</v>
+        <v>-11.8</v>
       </c>
       <c r="T59">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="U59">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="V59">
-        <v>0.213</v>
+        <v>0.215</v>
       </c>
       <c r="W59">
-        <v>0.623</v>
+        <v>0.61</v>
       </c>
       <c r="X59">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -8039,34 +8039,34 @@
         <v>909</v>
       </c>
       <c r="O66">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P66">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="Q66">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="R66">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="S66">
-        <v>-6.4</v>
+        <v>-6.1</v>
       </c>
       <c r="T66">
         <v>0.021</v>
       </c>
       <c r="U66">
-        <v>0.083</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="V66">
-        <v>0.263</v>
+        <v>0.267</v>
       </c>
       <c r="W66">
-        <v>0.551</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="X66">
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="67" spans="1:24">
@@ -8335,28 +8335,28 @@
         <v>914</v>
       </c>
       <c r="O70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>6</v>
       </c>
       <c r="Q70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R70">
         <v>0</v>
       </c>
       <c r="S70">
-        <v>17.1</v>
+        <v>18.2</v>
       </c>
       <c r="T70">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="U70">
-        <v>0.083</v>
+        <v>0.12</v>
       </c>
       <c r="V70">
-        <v>0.191</v>
+        <v>0.176</v>
       </c>
       <c r="W70">
         <v>0.381</v>
@@ -9889,34 +9889,34 @@
         <v>909</v>
       </c>
       <c r="O91">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P91">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q91">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R91">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S91">
-        <v>-20.6</v>
+        <v>-19.1</v>
       </c>
       <c r="T91">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="U91">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="V91">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="W91">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
       <c r="X91">
-        <v>0.091</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -11147,34 +11147,34 @@
         <v>923</v>
       </c>
       <c r="O108">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P108">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q108">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="R108">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S108">
-        <v>-12.2</v>
+        <v>-11</v>
       </c>
       <c r="T108">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="U108">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V108">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="W108">
-        <v>0.553</v>
+        <v>0.541</v>
       </c>
       <c r="X108">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -11517,34 +11517,34 @@
         <v>855</v>
       </c>
       <c r="O113">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P113">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q113">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="R113">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="S113">
-        <v>-5</v>
+        <v>-5.7</v>
       </c>
       <c r="T113">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="U113">
-        <v>0.202</v>
+        <v>0.195</v>
       </c>
       <c r="V113">
-        <v>0.117</v>
+        <v>0.115</v>
       </c>
       <c r="W113">
-        <v>0.578</v>
+        <v>0.576</v>
       </c>
       <c r="X113">
-        <v>0.121</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="114" spans="1:24">
@@ -12701,34 +12701,34 @@
         <v>922</v>
       </c>
       <c r="O129">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P129">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="Q129">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="R129">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="S129">
-        <v>-11</v>
+        <v>-10.2</v>
       </c>
       <c r="T129">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="U129">
-        <v>0.186</v>
+        <v>0.184</v>
       </c>
       <c r="V129">
-        <v>0.257</v>
+        <v>0.259</v>
       </c>
       <c r="W129">
         <v>0.483</v>
       </c>
       <c r="X129">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -13071,34 +13071,34 @@
         <v>855</v>
       </c>
       <c r="O134">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P134">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="Q134">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="R134">
         <v>32</v>
       </c>
       <c r="S134">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="T134">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="U134">
         <v>0.09</v>
       </c>
       <c r="V134">
-        <v>0.163</v>
+        <v>0.164</v>
       </c>
       <c r="W134">
-        <v>0.593</v>
+        <v>0.59</v>
       </c>
       <c r="X134">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="135" spans="1:24">
@@ -14255,34 +14255,34 @@
         <v>855</v>
       </c>
       <c r="O150">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P150">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q150">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="R150">
         <v>39</v>
       </c>
       <c r="S150">
-        <v>-6</v>
+        <v>-6.8</v>
       </c>
       <c r="T150">
-        <v>0.068</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U150">
-        <v>0.213</v>
+        <v>0.214</v>
       </c>
       <c r="V150">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="W150">
-        <v>0.643</v>
+        <v>0.645</v>
       </c>
       <c r="X150">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="151" spans="1:24">
@@ -14921,34 +14921,34 @@
         <v>855</v>
       </c>
       <c r="O159">
+        <v>5</v>
+      </c>
+      <c r="P159">
+        <v>14</v>
+      </c>
+      <c r="Q159">
+        <v>11</v>
+      </c>
+      <c r="R159">
         <v>4</v>
       </c>
-      <c r="P159">
-        <v>12</v>
-      </c>
-      <c r="Q159">
-        <v>9</v>
-      </c>
-      <c r="R159">
-        <v>3</v>
-      </c>
       <c r="S159">
-        <v>24.8</v>
+        <v>18</v>
       </c>
       <c r="T159">
-        <v>0.03</v>
+        <v>0.049</v>
       </c>
       <c r="U159">
-        <v>0.119</v>
+        <v>0.104</v>
       </c>
       <c r="V159">
         <v>0.112</v>
       </c>
       <c r="W159">
-        <v>0.381</v>
+        <v>0.376</v>
       </c>
       <c r="X159">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="160" spans="1:24">
@@ -17135,34 +17135,34 @@
         <v>922</v>
       </c>
       <c r="O189">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P189">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="Q189">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R189">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="S189">
-        <v>-6.1</v>
+        <v>-5.4</v>
       </c>
       <c r="T189">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="U189">
-        <v>0.115</v>
+        <v>0.112</v>
       </c>
       <c r="V189">
-        <v>0.16</v>
+        <v>0.167</v>
       </c>
       <c r="W189">
-        <v>0.414</v>
+        <v>0.416</v>
       </c>
       <c r="X189">
-        <v>0.301</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="190" spans="1:24">
@@ -19503,31 +19503,31 @@
         <v>909</v>
       </c>
       <c r="O221">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P221">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q221">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="R221">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S221">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="T221">
-        <v>0.08599999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="U221">
-        <v>0.226</v>
+        <v>0.228</v>
       </c>
       <c r="V221">
-        <v>0.199</v>
+        <v>0.198</v>
       </c>
       <c r="W221">
-        <v>0.594</v>
+        <v>0.589</v>
       </c>
       <c r="X221">
         <v>0.08500000000000001</v>
@@ -20021,34 +20021,34 @@
         <v>886</v>
       </c>
       <c r="O228">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P228">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="Q228">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="R228">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="S228">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="T228">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="U228">
         <v>0.151</v>
       </c>
       <c r="V228">
-        <v>0.295</v>
+        <v>0.294</v>
       </c>
       <c r="W228">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="X228">
-        <v>0.372</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="229" spans="1:24">
@@ -20761,34 +20761,34 @@
         <v>855</v>
       </c>
       <c r="O238">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P238">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q238">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R238">
         <v>32</v>
       </c>
       <c r="S238">
-        <v>-13.2</v>
+        <v>-12.9</v>
       </c>
       <c r="T238">
         <v>0.042</v>
       </c>
       <c r="U238">
-        <v>0.109</v>
+        <v>0.107</v>
       </c>
       <c r="V238">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
       <c r="W238">
-        <v>0.589</v>
+        <v>0.583</v>
       </c>
       <c r="X238">
-        <v>0.055</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="239" spans="1:24">
@@ -21868,34 +21868,34 @@
         <v>913</v>
       </c>
       <c r="O253">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P253">
         <v>221</v>
       </c>
       <c r="Q253">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="R253">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S253">
-        <v>-7.6</v>
+        <v>-7</v>
       </c>
       <c r="T253">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="U253">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="V253">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="W253">
-        <v>0.55</v>
+        <v>0.548</v>
       </c>
       <c r="X253">
-        <v>0.102</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="254" spans="1:24">
@@ -23274,34 +23274,34 @@
         <v>882</v>
       </c>
       <c r="O272">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P272">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="Q272">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R272">
         <v>26</v>
       </c>
       <c r="S272">
-        <v>-10.6</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="T272">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="U272">
-        <v>0.091</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V272">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="W272">
-        <v>0.485</v>
+        <v>0.498</v>
       </c>
       <c r="X272">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="273" spans="1:24">
@@ -23422,10 +23422,10 @@
         <v>929</v>
       </c>
       <c r="O274">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P274">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q274">
         <v>51</v>
@@ -23434,19 +23434,19 @@
         <v>30</v>
       </c>
       <c r="S274">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="T274">
         <v>0.059</v>
       </c>
       <c r="U274">
-        <v>0.08400000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="V274">
-        <v>0.185</v>
+        <v>0.186</v>
       </c>
       <c r="W274">
-        <v>0.498</v>
+        <v>0.502</v>
       </c>
       <c r="X274">
         <v>0.132</v>
@@ -23644,34 +23644,34 @@
         <v>855</v>
       </c>
       <c r="O277">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P277">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q277">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R277">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S277">
-        <v>-4.9</v>
+        <v>-4.2</v>
       </c>
       <c r="T277">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="U277">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="V277">
-        <v>0.19</v>
+        <v>0.188</v>
       </c>
       <c r="W277">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="X277">
-        <v>0.269</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="278" spans="1:24">
@@ -23792,31 +23792,31 @@
         <v>894</v>
       </c>
       <c r="O279">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P279">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="Q279">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="R279">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="S279">
-        <v>-4.2</v>
+        <v>-3.3</v>
       </c>
       <c r="T279">
         <v>0.053</v>
       </c>
       <c r="U279">
-        <v>0.188</v>
+        <v>0.186</v>
       </c>
       <c r="V279">
-        <v>0.198</v>
+        <v>0.196</v>
       </c>
       <c r="W279">
-        <v>0.519</v>
+        <v>0.528</v>
       </c>
       <c r="X279">
         <v>0.314</v>
@@ -24384,34 +24384,34 @@
         <v>925</v>
       </c>
       <c r="O287">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P287">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q287">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R287">
         <v>17</v>
       </c>
       <c r="S287">
-        <v>-4.6</v>
+        <v>-3.3</v>
       </c>
       <c r="T287">
-        <v>0.063</v>
+        <v>0.066</v>
       </c>
       <c r="U287">
-        <v>0.07199999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="V287">
-        <v>0.136</v>
+        <v>0.137</v>
       </c>
       <c r="W287">
-        <v>0.55</v>
+        <v>0.546</v>
       </c>
       <c r="X287">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -25050,10 +25050,10 @@
         <v>905</v>
       </c>
       <c r="O296">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P296">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q296">
         <v>44</v>
@@ -25062,19 +25062,19 @@
         <v>10</v>
       </c>
       <c r="S296">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="T296">
         <v>0.06900000000000001</v>
       </c>
       <c r="U296">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="V296">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="W296">
-        <v>0.726</v>
+        <v>0.732</v>
       </c>
       <c r="X296">
         <v>0.079</v>
@@ -25198,34 +25198,34 @@
         <v>933</v>
       </c>
       <c r="O298">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P298">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q298">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S298">
-        <v>1.1</v>
+        <v>11.5</v>
       </c>
       <c r="T298">
-        <v>0.132</v>
+        <v>0.116</v>
       </c>
       <c r="U298">
-        <v>0.167</v>
+        <v>0.147</v>
       </c>
       <c r="V298">
-        <v>0.116</v>
+        <v>0.108</v>
       </c>
       <c r="W298">
-        <v>0.444</v>
+        <v>0.455</v>
       </c>
       <c r="X298">
-        <v>0.026</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="299" spans="1:24">
@@ -26456,34 +26456,34 @@
         <v>897</v>
       </c>
       <c r="O315">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P315">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q315">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R315">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S315">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="T315">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U315">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="V315">
-        <v>0.261</v>
+        <v>0.259</v>
       </c>
       <c r="W315">
-        <v>0.479</v>
+        <v>0.468</v>
       </c>
       <c r="X315">
-        <v>0.276</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="316" spans="1:24">
@@ -26604,19 +26604,19 @@
         <v>889</v>
       </c>
       <c r="O317">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P317">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="Q317">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="R317">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="S317">
-        <v>-10.9</v>
+        <v>-10.7</v>
       </c>
       <c r="T317">
         <v>0.016</v>
@@ -26628,10 +26628,10 @@
         <v>0.241</v>
       </c>
       <c r="W317">
-        <v>0.535</v>
+        <v>0.531</v>
       </c>
       <c r="X317">
-        <v>0.272</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="318" spans="1:24">
@@ -26826,34 +26826,34 @@
         <v>897</v>
       </c>
       <c r="O320">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P320">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q320">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R320">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S320">
-        <v>-5.5</v>
+        <v>-3</v>
       </c>
       <c r="T320">
-        <v>0.06900000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U320">
-        <v>0.236</v>
+        <v>0.221</v>
       </c>
       <c r="V320">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="W320">
-        <v>0.575</v>
+        <v>0.58</v>
       </c>
       <c r="X320">
-        <v>0.107</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="321" spans="1:24">
@@ -26974,34 +26974,34 @@
         <v>888</v>
       </c>
       <c r="O322">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P322">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q322">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R322">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S322">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="T322">
         <v>0.03</v>
       </c>
       <c r="U322">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="V322">
-        <v>0.136</v>
+        <v>0.134</v>
       </c>
       <c r="W322">
-        <v>0.501</v>
+        <v>0.503</v>
       </c>
       <c r="X322">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="323" spans="1:24">
@@ -27270,34 +27270,34 @@
         <v>913</v>
       </c>
       <c r="O326">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P326">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q326">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="R326">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S326">
-        <v>-7.1</v>
+        <v>-7.6</v>
       </c>
       <c r="T326">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="U326">
-        <v>0.209</v>
+        <v>0.218</v>
       </c>
       <c r="V326">
         <v>0.147</v>
       </c>
       <c r="W326">
-        <v>0.577</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="X326">
-        <v>0.146</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="327" spans="1:24">
@@ -28306,34 +28306,34 @@
         <v>878</v>
       </c>
       <c r="O340">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P340">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q340">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R340">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S340">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="T340">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="U340">
         <v>0.118</v>
       </c>
       <c r="V340">
-        <v>0.142</v>
+        <v>0.144</v>
       </c>
       <c r="W340">
-        <v>0.533</v>
+        <v>0.517</v>
       </c>
       <c r="X340">
-        <v>0.22</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="341" spans="1:24">
@@ -29860,34 +29860,34 @@
         <v>917</v>
       </c>
       <c r="O361">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P361">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q361">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="R361">
         <v>18</v>
       </c>
       <c r="S361">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="T361">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="U361">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="V361">
-        <v>0.169</v>
+        <v>0.17</v>
       </c>
       <c r="W361">
-        <v>0.497</v>
+        <v>0.493</v>
       </c>
       <c r="X361">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="362" spans="1:24">
@@ -30748,34 +30748,34 @@
         <v>894</v>
       </c>
       <c r="O373">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P373">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q373">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="R373">
         <v>14</v>
       </c>
       <c r="S373">
-        <v>-5.9</v>
+        <v>-7.8</v>
       </c>
       <c r="T373">
-        <v>0.07000000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="U373">
-        <v>0.271</v>
+        <v>0.277</v>
       </c>
       <c r="V373">
-        <v>0.155</v>
+        <v>0.158</v>
       </c>
       <c r="W373">
-        <v>0.531</v>
+        <v>0.543</v>
       </c>
       <c r="X373">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="374" spans="1:24">
@@ -31932,34 +31932,34 @@
         <v>900</v>
       </c>
       <c r="O389">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P389">
         <v>136</v>
       </c>
       <c r="Q389">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="R389">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S389">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T389">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="U389">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="V389">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="W389">
-        <v>0.5590000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="X389">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="390" spans="1:24">
@@ -32154,31 +32154,31 @@
         <v>889</v>
       </c>
       <c r="O392">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P392">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="Q392">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="R392">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="S392">
-        <v>-2.7</v>
+        <v>-2.2</v>
       </c>
       <c r="T392">
         <v>0.07199999999999999</v>
       </c>
       <c r="U392">
-        <v>0.231</v>
+        <v>0.229</v>
       </c>
       <c r="V392">
         <v>0.223</v>
       </c>
       <c r="W392">
-        <v>0.641</v>
+        <v>0.636</v>
       </c>
       <c r="X392">
         <v>0.157</v>
@@ -32302,34 +32302,34 @@
         <v>914</v>
       </c>
       <c r="O394">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P394">
-        <v>804</v>
+        <v>831</v>
       </c>
       <c r="Q394">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R394">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S394">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="T394">
         <v>0.01</v>
       </c>
       <c r="U394">
-        <v>0.094</v>
+        <v>0.092</v>
       </c>
       <c r="V394">
-        <v>0.269</v>
+        <v>0.27</v>
       </c>
       <c r="W394">
-        <v>0.636</v>
+        <v>0.633</v>
       </c>
       <c r="X394">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="395" spans="1:24">
@@ -33708,34 +33708,34 @@
         <v>881</v>
       </c>
       <c r="O413">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P413">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="R413">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S413">
-        <v>-9.300000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="T413">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="U413">
+        <v>0.111</v>
+      </c>
+      <c r="V413">
+        <v>0.162</v>
+      </c>
+      <c r="W413">
+        <v>0.512</v>
+      </c>
+      <c r="X413">
         <v>0.11</v>
-      </c>
-      <c r="V413">
-        <v>0.163</v>
-      </c>
-      <c r="W413">
-        <v>0.51</v>
-      </c>
-      <c r="X413">
-        <v>0.109</v>
       </c>
     </row>
     <row r="414" spans="1:24">
@@ -33782,34 +33782,34 @@
         <v>883</v>
       </c>
       <c r="O414">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P414">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q414">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="R414">
         <v>21</v>
       </c>
       <c r="S414">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="T414">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="U414">
-        <v>0.049</v>
+        <v>0.057</v>
       </c>
       <c r="V414">
-        <v>0.15</v>
+        <v>0.147</v>
       </c>
       <c r="W414">
-        <v>0.485</v>
+        <v>0.486</v>
       </c>
       <c r="X414">
-        <v>0.134</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="415" spans="1:24">
@@ -37408,34 +37408,34 @@
         <v>895</v>
       </c>
       <c r="O463">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P463">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="Q463">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R463">
         <v>28</v>
       </c>
       <c r="S463">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="T463">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="U463">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="V463">
-        <v>0.235</v>
+        <v>0.233</v>
       </c>
       <c r="W463">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="X463">
-        <v>0.161</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="464" spans="1:24">
@@ -37627,34 +37627,34 @@
         <v>914</v>
       </c>
       <c r="O466">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P466">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="Q466">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R466">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S466">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="T466">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="U466">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
       <c r="V466">
-        <v>0.194</v>
+        <v>0.201</v>
       </c>
       <c r="W466">
-        <v>0.588</v>
+        <v>0.584</v>
       </c>
       <c r="X466">
-        <v>0.159</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="467" spans="1:24">
@@ -37997,34 +37997,34 @@
         <v>929</v>
       </c>
       <c r="O471">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P471">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="Q471">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R471">
         <v>44</v>
       </c>
       <c r="S471">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="T471">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="U471">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
       <c r="V471">
-        <v>0.136</v>
+        <v>0.138</v>
       </c>
       <c r="W471">
-        <v>0.5610000000000001</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="X471">
-        <v>0.115</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="472" spans="1:24">
@@ -39107,7 +39107,7 @@
         <v>855</v>
       </c>
       <c r="O486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P486">
         <v>9</v>
@@ -39119,16 +39119,16 @@
         <v>0</v>
       </c>
       <c r="S486">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T486">
-        <v>0.077</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="U486">
-        <v>0.158</v>
+        <v>0.15</v>
       </c>
       <c r="V486">
-        <v>0.278</v>
+        <v>0.25</v>
       </c>
       <c r="W486">
         <v>0.477</v>
@@ -39477,22 +39477,22 @@
         <v>924</v>
       </c>
       <c r="O491">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P491">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="Q491">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="R491">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S491">
-        <v>-8.199999999999999</v>
+        <v>-7.8</v>
       </c>
       <c r="T491">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="U491">
         <v>0.112</v>
@@ -39501,10 +39501,10 @@
         <v>0.227</v>
       </c>
       <c r="W491">
-        <v>0.601</v>
+        <v>0.602</v>
       </c>
       <c r="X491">
-        <v>0.136</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="492" spans="1:24">
@@ -40957,22 +40957,22 @@
         <v>901</v>
       </c>
       <c r="O511">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P511">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="Q511">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="R511">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S511">
-        <v>-8</v>
+        <v>-7.4</v>
       </c>
       <c r="T511">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="U511">
         <v>0.221</v>
@@ -40981,7 +40981,7 @@
         <v>0.126</v>
       </c>
       <c r="W511">
-        <v>0.709</v>
+        <v>0.713</v>
       </c>
       <c r="X511">
         <v>0.079</v>
@@ -41623,34 +41623,34 @@
         <v>918</v>
       </c>
       <c r="O520">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P520">
-        <v>902</v>
+        <v>937</v>
       </c>
       <c r="Q520">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="R520">
         <v>175</v>
       </c>
       <c r="S520">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="T520">
         <v>0.008</v>
       </c>
       <c r="U520">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="V520">
-        <v>0.261</v>
+        <v>0.263</v>
       </c>
       <c r="W520">
-        <v>0.637</v>
+        <v>0.639</v>
       </c>
       <c r="X520">
-        <v>0.198</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="521" spans="1:24">

--- a/Players_Data.xlsx
+++ b/Players_Data.xlsx
@@ -184,7 +184,7 @@
     <t>Ariel Hukporti</t>
   </si>
   <si>
-    <t>Armel Traore</t>
+    <t>Armel Traoré</t>
   </si>
   <si>
     <t>Ausar Thompson</t>
@@ -1216,7 +1216,7 @@
     <t>Mouhamed Gueye</t>
   </si>
   <si>
-    <t>Moussa Diabate</t>
+    <t>Moussa Diabaté</t>
   </si>
   <si>
     <t>Myles Turner</t>
@@ -1489,7 +1489,7 @@
     <t>Taylor Hendricks</t>
   </si>
   <si>
-    <t>Taze Moore</t>
+    <t>Tazé Moore</t>
   </si>
   <si>
     <t>Terance Mann</t>
@@ -1504,7 +1504,7 @@
     <t>Thomas Bryant</t>
   </si>
   <si>
-    <t>Tidjane Salaun</t>
+    <t>Tidjane Salaün</t>
   </si>
   <si>
     <t>Tim Hardaway Jr.</t>
@@ -25210,7 +25210,7 @@
         <v>3</v>
       </c>
       <c r="S298">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="T298">
         <v>0.116</v>
@@ -25219,7 +25219,7 @@
         <v>0.147</v>
       </c>
       <c r="V298">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="W298">
         <v>0.455</v>
@@ -33803,7 +33803,7 @@
         <v>0.057</v>
       </c>
       <c r="V414">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
       <c r="W414">
         <v>0.486</v>
@@ -39498,7 +39498,7 @@
         <v>0.112</v>
       </c>
       <c r="V491">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="W491">
         <v>0.602</v>
